--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tbarret/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3534674A-CA60-4C4F-B7E0-08613646C3F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92F4ED8-CA73-0B47-9FCF-807DA198C617}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28040" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="197">
   <si>
     <t>authors</t>
   </si>
@@ -620,6 +620,12 @@
   </si>
   <si>
     <t>Muñoz, K., Rusk, S.E.P., Nelson, L., Preston, E., White, K.R., Barrett, T.S. &amp; Twohig, M.P.</t>
+  </si>
+  <si>
+    <t>1-12</t>
+  </si>
+  <si>
+    <t>1-11</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1006,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1095,14 +1101,17 @@
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
+      <c r="B5" s="1">
+        <v>2021</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>165</v>
@@ -1112,14 +1121,17 @@
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
+      <c r="B6" s="1">
+        <v>2021</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="68" x14ac:dyDescent="0.2">

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tbarret/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92F4ED8-CA73-0B47-9FCF-807DA198C617}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA32988B-FADF-4F4C-AA9E-D16F20396028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28040" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
+    <workbookView xWindow="33000" yWindow="1180" windowWidth="28040" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
   <sheets>
     <sheet name="Journals" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="201">
   <si>
     <t>authors</t>
   </si>
@@ -626,6 +626,18 @@
   </si>
   <si>
     <t>1-11</t>
+  </si>
+  <si>
+    <t>doi: 10.1002/jclp.23162</t>
+  </si>
+  <si>
+    <t>Sulzer, S., Prevedel, S., Barrett, T.S., Voss, M.W., Manning, C. &amp; Madden, E.F.</t>
+  </si>
+  <si>
+    <t>Professional Education to Reduce Provider Stigma toward Harm Reduction and Pharmacotherapy</t>
+  </si>
+  <si>
+    <t>Drugs: Education, Prevention \&amp; Policy</t>
   </si>
 </sst>
 </file>
@@ -1003,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BAB23D-B27F-A34D-A522-4C115B575C05}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1068,943 +1080,937 @@
     </row>
     <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="B5" s="1">
         <v>2021</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>165</v>
+        <v>15</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1">
         <v>2021</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1">
         <v>2021</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1">
         <v>2021</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1">
         <v>2021</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="1">
-        <v>42</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B11" s="1">
         <v>2020</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="B12" s="1">
         <v>2020</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1">
         <v>18</v>
       </c>
-      <c r="E12" s="1">
-        <v>63</v>
-      </c>
-      <c r="F12" s="1">
-        <v>6</v>
-      </c>
       <c r="G12" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>183</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1">
         <v>2020</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="E13" s="1">
-        <v>40</v>
+        <v>63</v>
+      </c>
+      <c r="F13" s="1">
+        <v>6</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>177</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B14" s="1">
         <v>2020</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E14" s="1">
-        <v>51</v>
-      </c>
-      <c r="F14" s="1">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>184</v>
       </c>
       <c r="B15" s="1">
         <v>2020</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="E15" s="1">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F15" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>185</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1">
         <v>2020</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E16" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F16" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" s="1">
         <v>2020</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E17" s="1">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B18" s="1">
         <v>2020</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E18" s="1">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="F18" s="1">
         <v>2</v>
       </c>
       <c r="G18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="1">
+        <v>113</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="1">
-        <v>61</v>
-      </c>
-      <c r="F19" s="1">
-        <v>3</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B20" s="1">
         <v>2019</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E20" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F20" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="B21" s="1">
         <v>2019</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="E21" s="1">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F21" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>170</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B22" s="1">
         <v>2019</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E22" s="1">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="F22" s="1">
+        <v>10</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B23" s="1">
         <v>2019</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="E23" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>89</v>
+        <v>190</v>
       </c>
       <c r="B24" s="1">
         <v>2019</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="E24" s="1">
-        <v>20</v>
-      </c>
-      <c r="F24" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>191</v>
+        <v>89</v>
       </c>
       <c r="B25" s="1">
         <v>2019</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>94</v>
+        <v>62</v>
+      </c>
+      <c r="E25" s="1">
+        <v>20</v>
+      </c>
+      <c r="F25" s="1">
+        <v>4</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>96</v>
+        <v>191</v>
       </c>
       <c r="B26" s="1">
         <v>2019</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="1">
-        <v>145</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>172</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B27" s="1">
         <v>2019</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="E27" s="1">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="F27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B28" s="1">
         <v>2019</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="E28" s="1">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F28" s="1">
         <v>2</v>
       </c>
       <c r="G28" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="1">
+        <v>62</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B29" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E29" s="1">
-        <v>3</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="B30" s="1">
         <v>2018</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E30" s="1">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="F30" s="1">
-        <v>3</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>113</v>
+        <v>1</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="B31" s="1">
         <v>2018</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E31" s="1">
         <v>143</v>
       </c>
       <c r="F31" s="1">
+        <v>3</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="1">
+        <v>143</v>
+      </c>
+      <c r="F32" s="1">
         <v>5</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B32" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E32" s="1">
-        <v>9</v>
-      </c>
-      <c r="F32" s="1">
-        <v>2</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B33" s="1">
         <v>2017</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="E33" s="1">
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="B34" s="1">
         <v>2017</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="E34" s="1">
-        <v>140</v>
-      </c>
-      <c r="F34" s="1">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>176</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B35" s="1">
         <v>2017</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E35" s="1">
-        <v>10</v>
+        <v>140</v>
+      </c>
+      <c r="F35" s="1">
+        <v>6</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
       <c r="B36" s="1">
         <v>2017</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="E36" s="1">
-        <v>111</v>
-      </c>
-      <c r="F36" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="B37" s="1">
         <v>2017</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="E37" s="1">
-        <v>55</v>
+        <v>111</v>
+      </c>
+      <c r="F37" s="1">
+        <v>5</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="B38" s="1">
         <v>2017</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E38" s="1">
-        <v>36</v>
-      </c>
-      <c r="F38" s="1">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="B39" s="1">
         <v>2017</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="E39" s="1">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F39" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="B40" s="1">
         <v>2017</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="1">
+        <v>60</v>
+      </c>
+      <c r="F40" s="1">
+        <v>3</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E41" s="1">
         <v>30</v>
-      </c>
-      <c r="F40" s="1">
-        <v>2</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B41" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1</v>
       </c>
       <c r="F41" s="1">
         <v>2</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B42" s="1">
         <v>2016</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>109</v>
@@ -2016,52 +2022,75 @@
         <v>2</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="B43" s="1">
         <v>2016</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>2</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E44" s="1">
         <v>37</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F44" s="1">
         <v>6</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G44" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+    <row r="45" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B45" s="1">
         <v>2015</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E45" s="1">
         <v>115</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F45" s="1">
         <v>5</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G45" s="4" t="s">
         <v>162</v>
       </c>
     </row>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tbarret/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76212A57-7283-CE45-9544-718D5A1B5C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8451D5-3293-1649-82E1-89D32086EB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="28040" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
+    <workbookView xWindow="35960" yWindow="2340" windowWidth="28040" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
   <sheets>
     <sheet name="Journals" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="211">
   <si>
     <t>authors</t>
   </si>
@@ -665,6 +665,9 @@
   </si>
   <si>
     <t>Vazquez, A., Domenech Rodríguez, M.M., Barrett, T.S., Amador Buenabad, N.G., Gutiérrez López, M.L., &amp; Bustos Gamiño, M.N. </t>
+  </si>
+  <si>
+    <t>2262-2287</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1048,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1187,6 +1190,15 @@
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="E6" s="1">
+        <v>77</v>
+      </c>
+      <c r="F6" s="1">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>210</v>
+      </c>
       <c r="H6" s="1" t="s">
         <v>173</v>
       </c>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tbarret/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8451D5-3293-1649-82E1-89D32086EB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091CC9EA-C11E-384D-AD3C-E7905EF457FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35960" yWindow="2340" windowWidth="28040" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="217">
   <si>
     <t>authors</t>
   </si>
@@ -658,9 +658,6 @@
     <t>In Press</t>
   </si>
   <si>
-    <t>Parent Characteristics and Practices Classify Lifetime Substance Use among Mexican Children</t>
-  </si>
-  <si>
     <t>International Journal of Mental Health and Addiction</t>
   </si>
   <si>
@@ -668,6 +665,27 @@
   </si>
   <si>
     <t>2262-2287</t>
+  </si>
+  <si>
+    <t>Youth mental health service preferences and utilization patterns among Latinx caregivers. </t>
+  </si>
+  <si>
+    <t>Children and Youth Services Review</t>
+  </si>
+  <si>
+    <t>PLOS ONE</t>
+  </si>
+  <si>
+    <t>Vázquez, A.L., Chou, T., Navarro Flores, C.M., Barrett, T.S., Villodas, M.T., &amp; Domenech Rodríguez, M.M.</t>
+  </si>
+  <si>
+    <t>Vázquez, A.L., Navarro Flores, C.M., Alvarez, M.C., Gonzalez Vera, J. M., Barrett, T.S., &amp;Domenech Rodríguez, M.M.</t>
+  </si>
+  <si>
+    <t>High value correlates of caregiver reported counseling service need and utilization for adolescents at-risk for childhood maltreatment and neglect.</t>
+  </si>
+  <si>
+    <t>Parent Characteristics and Practices Classify Lifetime Substance Use among Mexican Children.</t>
   </si>
 </sst>
 </file>
@@ -1045,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BAB23D-B27F-A34D-A522-4C115B575C05}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1094,371 +1112,347 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>206</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>38</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="B5" s="1">
         <v>2021</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="E5" s="1">
+        <v>38</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="B6" s="1">
         <v>2021</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1">
-        <v>77</v>
-      </c>
-      <c r="F6" s="1">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>2021</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>171</v>
+        <v>179</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="B8" s="1">
         <v>2021</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="E8" s="1">
+        <v>77</v>
+      </c>
+      <c r="F8" s="1">
+        <v>10</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1">
         <v>2021</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>183</v>
+        <v>17</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1">
         <v>2021</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>184</v>
+      <c r="G10" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <v>2021</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>28</v>
+        <v>183</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="1">
-        <v>42</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B13" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="1">
-        <v>18</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>186</v>
+        <v>28</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="B14" s="1">
         <v>2020</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E14" s="1">
-        <v>63</v>
-      </c>
-      <c r="F14" s="1">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B15" s="1">
         <v>2020</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E15" s="1">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>160</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1">
         <v>2020</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E16" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F16" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="B17" s="1">
         <v>2020</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="E17" s="1">
-        <v>63</v>
-      </c>
-      <c r="F17" s="1">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B18" s="1">
         <v>2020</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>44</v>
@@ -1470,414 +1464,420 @@
         <v>3</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>162</v>
+        <v>46</v>
       </c>
       <c r="B19" s="1">
         <v>2020</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E19" s="1">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="F19" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B20" s="1">
         <v>2020</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E20" s="1">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="F20" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="B21" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E21" s="1">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="F21" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="B22" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E22" s="1">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="F22" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="B23" s="1">
         <v>2019</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E23" s="1">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F23" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>165</v>
+        <v>61</v>
       </c>
       <c r="B24" s="1">
         <v>2019</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E24" s="1">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="F24" s="1">
+        <v>12</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B25" s="1">
         <v>2019</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E25" s="1">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="F25" s="1">
+        <v>10</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="B26" s="1">
         <v>2019</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E26" s="1">
-        <v>20</v>
-      </c>
-      <c r="F26" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B27" s="1">
         <v>2019</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
+      </c>
+      <c r="E27" s="1">
+        <v>22</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B28" s="1">
         <v>2019</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E28" s="1">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="F28" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="B29" s="1">
         <v>2019</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E29" s="1">
-        <v>81</v>
-      </c>
-      <c r="F29" s="1">
-        <v>2</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B30" s="1">
         <v>2019</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="E30" s="1">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="F30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>87</v>
+        <v>79</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B31" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E31" s="1">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="F31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="B32" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="E32" s="1">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="F32" s="1">
-        <v>3</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>201</v>
+        <v>2</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="B33" s="1">
         <v>2018</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E33" s="1">
+        <v>3</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="1">
         <v>143</v>
       </c>
-      <c r="F33" s="1">
-        <v>5</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B34" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E34" s="1">
-        <v>9</v>
-      </c>
       <c r="F34" s="1">
-        <v>2</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>151</v>
+        <v>3</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -1885,289 +1885,338 @@
         <v>15</v>
       </c>
       <c r="B35" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="E35" s="1">
-        <v>60</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>101</v>
+        <v>143</v>
+      </c>
+      <c r="F35" s="1">
+        <v>5</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B36" s="1">
         <v>2017</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E36" s="1">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="F36" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="B37" s="1">
         <v>2017</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="E37" s="1">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="B38" s="1">
         <v>2017</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="E38" s="1">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="F38" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B39" s="1">
         <v>2017</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E39" s="1">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B40" s="1">
         <v>2017</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="E40" s="1">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="F40" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="B41" s="1">
         <v>2017</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="E41" s="1">
-        <v>60</v>
-      </c>
-      <c r="F41" s="1">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="B42" s="1">
         <v>2017</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E42" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F42" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="B43" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="E43" s="1">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F43" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>131</v>
+        <v>123</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B44" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="E44" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F44" s="1">
         <v>2</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="B45" s="1">
         <v>2016</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>2</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>2</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E47" s="1">
         <v>37</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F47" s="1">
         <v>6</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G47" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+    <row r="48" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B48" s="1">
         <v>2015</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E48" s="1">
         <v>115</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F48" s="1">
         <v>5</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="G48" s="4" t="s">
         <v>138</v>
       </c>
     </row>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tbarret/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091CC9EA-C11E-384D-AD3C-E7905EF457FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFDC710-CD79-B444-AF27-007C1649905D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35960" yWindow="2340" windowWidth="28040" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
   <sheets>
     <sheet name="Journals" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="222">
   <si>
     <t>authors</t>
   </si>
@@ -562,9 +562,6 @@
     <t>Sulzer, S., Prevedel, S., Barrett, T.S., Voss, M.W., Manning, C. &amp; Madden, E.F.</t>
   </si>
   <si>
-    <t>Professional Education to Reduce Provider Stigma toward Harm Reduction and Pharmacotherapy</t>
-  </si>
-  <si>
     <t>Drugs: Education, Prevention \&amp; Policy</t>
   </si>
   <si>
@@ -661,9 +658,6 @@
     <t>International Journal of Mental Health and Addiction</t>
   </si>
   <si>
-    <t>Vazquez, A., Domenech Rodríguez, M.M., Barrett, T.S., Amador Buenabad, N.G., Gutiérrez López, M.L., &amp; Bustos Gamiño, M.N. </t>
-  </si>
-  <si>
     <t>2262-2287</t>
   </si>
   <si>
@@ -686,6 +680,27 @@
   </si>
   <si>
     <t>Parent Characteristics and Practices Classify Lifetime Substance Use among Mexican Children.</t>
+  </si>
+  <si>
+    <t>Borrie, S.A., Wynn, C.J., Berisha, V., &amp; Barrett, T.S.</t>
+  </si>
+  <si>
+    <t>American Journal of Speech-Language Pathology</t>
+  </si>
+  <si>
+    <t>Larson, A.L., Baralt, M., Hokenson, J.,Hammer, C.S., Barrett, T.S., &amp;  DeVilbiss, N.</t>
+  </si>
+  <si>
+    <t>Vázquez, A., Domenech Rodríguez, M.M., Barrett, T.S., Amador Buenabad, N.G., Gutiérrez López, M.L., &amp; Bustos Gamiño, M.N. </t>
+  </si>
+  <si>
+    <t>A randomized controlled trial assessing the effectiveness of the Háblame Bebé mobile application with Spanish-speaking mothers experiencing economic hardship.</t>
+  </si>
+  <si>
+    <t>From speech acoustics to communicative participation in dysarthria: Towards a causal framework.</t>
+  </si>
+  <si>
+    <t>Professional Education to Reduce Provider Stigma toward Harm Reduction and Pharmacotherapy.</t>
   </si>
 </sst>
 </file>
@@ -1063,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BAB23D-B27F-A34D-A522-4C115B575C05}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1114,400 +1129,373 @@
     </row>
     <row r="2" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1">
-        <v>38</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="B7" s="1">
         <v>2021</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="E7" s="1">
+        <v>38</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="B8" s="1">
         <v>2021</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>221</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1">
-        <v>77</v>
-      </c>
-      <c r="F8" s="1">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
         <v>2021</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>171</v>
+        <v>178</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="B10" s="1">
         <v>2021</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="E10" s="1">
+        <v>77</v>
+      </c>
+      <c r="F10" s="1">
+        <v>10</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1">
         <v>2021</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>183</v>
+        <v>17</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1">
         <v>2021</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>184</v>
+      <c r="G12" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1">
         <v>2021</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>28</v>
+        <v>182</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="1">
-        <v>42</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B15" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="1">
-        <v>18</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>186</v>
+        <v>28</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="B16" s="1">
         <v>2020</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E16" s="1">
-        <v>63</v>
-      </c>
-      <c r="F16" s="1">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B17" s="1">
         <v>2020</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E17" s="1">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>160</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1">
         <v>2020</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E18" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F18" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="B19" s="1">
         <v>2020</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="E19" s="1">
-        <v>63</v>
-      </c>
-      <c r="F19" s="1">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B20" s="1">
         <v>2020</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>44</v>
@@ -1519,414 +1507,420 @@
         <v>3</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>162</v>
+        <v>46</v>
       </c>
       <c r="B21" s="1">
         <v>2020</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E21" s="1">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="F21" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B22" s="1">
         <v>2020</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E22" s="1">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="F22" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="B23" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E23" s="1">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="F23" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="B24" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E24" s="1">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="F24" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="B25" s="1">
         <v>2019</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E25" s="1">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F25" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>165</v>
+        <v>61</v>
       </c>
       <c r="B26" s="1">
         <v>2019</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E26" s="1">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="F26" s="1">
+        <v>12</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B27" s="1">
         <v>2019</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E27" s="1">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="F27" s="1">
+        <v>10</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="B28" s="1">
         <v>2019</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E28" s="1">
-        <v>20</v>
-      </c>
-      <c r="F28" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="29" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B29" s="1">
         <v>2019</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
+      </c>
+      <c r="E29" s="1">
+        <v>22</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B30" s="1">
         <v>2019</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E30" s="1">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="F30" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="B31" s="1">
         <v>2019</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="1">
-        <v>81</v>
-      </c>
-      <c r="F31" s="1">
-        <v>2</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B32" s="1">
         <v>2019</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="E32" s="1">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="F32" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>87</v>
+        <v>79</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B33" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E33" s="1">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="F33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="B34" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="E34" s="1">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="F34" s="1">
-        <v>3</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>201</v>
+        <v>2</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="B35" s="1">
         <v>2018</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E35" s="1">
+        <v>3</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="1">
         <v>143</v>
       </c>
-      <c r="F35" s="1">
-        <v>5</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B36" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E36" s="1">
-        <v>9</v>
-      </c>
       <c r="F36" s="1">
-        <v>2</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>151</v>
+        <v>3</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -1934,289 +1928,338 @@
         <v>15</v>
       </c>
       <c r="B37" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="E37" s="1">
-        <v>60</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>101</v>
+        <v>143</v>
+      </c>
+      <c r="F37" s="1">
+        <v>5</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B38" s="1">
         <v>2017</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E38" s="1">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="F38" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="B39" s="1">
         <v>2017</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="E39" s="1">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="B40" s="1">
         <v>2017</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="E40" s="1">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="F40" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B41" s="1">
         <v>2017</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E41" s="1">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B42" s="1">
         <v>2017</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="E42" s="1">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="F42" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="B43" s="1">
         <v>2017</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="E43" s="1">
-        <v>60</v>
-      </c>
-      <c r="F43" s="1">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="B44" s="1">
         <v>2017</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E44" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F44" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="B45" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="E45" s="1">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F45" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>131</v>
+        <v>123</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B46" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="E46" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F46" s="1">
         <v>2</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="B47" s="1">
         <v>2016</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>2</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>2</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E49" s="1">
         <v>37</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F49" s="1">
         <v>6</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G49" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+    <row r="50" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B50" s="1">
         <v>2015</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E50" s="1">
         <v>115</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F50" s="1">
         <v>5</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G50" s="4" t="s">
         <v>138</v>
       </c>
     </row>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tbarret/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFDC710-CD79-B444-AF27-007C1649905D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F2B189-9727-A640-802E-B1D6DAAF218C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="225">
   <si>
     <t>authors</t>
   </si>
@@ -701,6 +701,15 @@
   </si>
   <si>
     <t>Professional Education to Reduce Provider Stigma toward Harm Reduction and Pharmacotherapy.</t>
+  </si>
+  <si>
+    <t>Psychometric Evaluation of a Barriers to Mental Health Treatment Questionnaire for Latino/a/x Caregivers of Children and Adolescents</t>
+  </si>
+  <si>
+    <t>Vázquez, A.L., Culianos, D., Navarro Flores, C.M., Alvarez, M.C., Barrett, T.S., &amp; Domenech Rodríguez, M.M.</t>
+  </si>
+  <si>
+    <t>Child \&amp; Youth Care Forum</t>
   </si>
 </sst>
 </file>
@@ -1078,10 +1087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BAB23D-B27F-A34D-A522-4C115B575C05}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1127,18 +1136,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>205</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -1169,1040 +1178,1031 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>205</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>205</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1">
-        <v>38</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="B8" s="1">
         <v>2021</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>221</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>175</v>
+        <v>9</v>
+      </c>
+      <c r="E8" s="1">
+        <v>38</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="B9" s="1">
         <v>2021</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>221</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
         <v>2021</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="1">
-        <v>77</v>
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="F10" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="B11" s="1">
         <v>2021</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="E11" s="1">
+        <v>77</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>141</v>
+        <v>207</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1">
         <v>2021</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1">
         <v>2021</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1">
         <v>2021</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1">
         <v>2021</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="1">
-        <v>42</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B17" s="1">
         <v>2020</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E17" s="1">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="B18" s="1">
         <v>2020</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E18" s="1">
-        <v>63</v>
-      </c>
-      <c r="F18" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="B19" s="1">
         <v>2020</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E19" s="1">
-        <v>40</v>
+        <v>63</v>
+      </c>
+      <c r="F19" s="1">
+        <v>6</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B20" s="1">
         <v>2020</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E20" s="1">
-        <v>51</v>
-      </c>
-      <c r="F20" s="1">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="B21" s="1">
         <v>2020</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E21" s="1">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F21" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>161</v>
+        <v>46</v>
       </c>
       <c r="B22" s="1">
         <v>2020</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E22" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F22" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B23" s="1">
         <v>2020</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="1">
         <v>51</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="1">
-        <v>21</v>
-      </c>
       <c r="F23" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B24" s="1">
         <v>2020</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E24" s="1">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="F24" s="1">
         <v>2</v>
       </c>
       <c r="G24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="1">
+        <v>113</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="1">
-        <v>61</v>
-      </c>
-      <c r="F25" s="1">
-        <v>3</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B26" s="1">
         <v>2019</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="E26" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F26" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
       <c r="B27" s="1">
         <v>2019</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="E27" s="1">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F27" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B28" s="1">
         <v>2019</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="E28" s="1">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="F28" s="1">
+        <v>10</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B29" s="1">
         <v>2019</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="E29" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="B30" s="1">
         <v>2019</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E30" s="1">
-        <v>20</v>
-      </c>
-      <c r="F30" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>167</v>
+        <v>72</v>
       </c>
       <c r="B31" s="1">
         <v>2019</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>76</v>
+        <v>52</v>
+      </c>
+      <c r="E31" s="1">
+        <v>20</v>
+      </c>
+      <c r="F31" s="1">
+        <v>4</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="B32" s="1">
         <v>2019</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="1">
-        <v>145</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B33" s="1">
         <v>2019</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="E33" s="1">
+        <v>145</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="F33" s="1">
-        <v>2</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="B34" s="1">
         <v>2019</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="E34" s="1">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F34" s="1">
         <v>2</v>
       </c>
       <c r="G34" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="1">
+        <v>62</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B35" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E35" s="1">
-        <v>3</v>
-      </c>
-      <c r="F35" s="1">
-        <v>1</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="B36" s="1">
         <v>2018</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E36" s="1">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="F36" s="1">
-        <v>3</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>200</v>
+        <v>1</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="B37" s="1">
         <v>2018</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E37" s="1">
         <v>143</v>
       </c>
       <c r="F37" s="1">
+        <v>3</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="1">
+        <v>143</v>
+      </c>
+      <c r="F38" s="1">
         <v>5</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B38" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E38" s="1">
-        <v>9</v>
-      </c>
-      <c r="F38" s="1">
-        <v>2</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="B39" s="1">
         <v>2017</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="E39" s="1">
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>202</v>
+        <v>99</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="B40" s="1">
         <v>2017</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="E40" s="1">
-        <v>140</v>
-      </c>
-      <c r="F40" s="1">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>152</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B41" s="1">
         <v>2017</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E41" s="1">
-        <v>10</v>
+        <v>140</v>
+      </c>
+      <c r="F41" s="1">
+        <v>6</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="B42" s="1">
         <v>2017</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="E42" s="1">
-        <v>111</v>
-      </c>
-      <c r="F42" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>111</v>
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="B43" s="1">
         <v>2017</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="E43" s="1">
-        <v>55</v>
+        <v>111</v>
+      </c>
+      <c r="F43" s="1">
+        <v>5</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="B44" s="1">
         <v>2017</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E44" s="1">
-        <v>36</v>
-      </c>
-      <c r="F44" s="1">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="B45" s="1">
         <v>2017</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="E45" s="1">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F45" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="B46" s="1">
         <v>2017</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="1">
+        <v>60</v>
+      </c>
+      <c r="F46" s="1">
+        <v>3</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E47" s="1">
         <v>30</v>
-      </c>
-      <c r="F46" s="1">
-        <v>2</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B47" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E47" s="1">
-        <v>1</v>
       </c>
       <c r="F47" s="1">
         <v>2</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B48" s="1">
         <v>2016</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>90</v>
@@ -2214,52 +2214,75 @@
         <v>2</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="B49" s="1">
         <v>2016</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E50" s="1">
         <v>37</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F50" s="1">
         <v>6</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G50" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+    <row r="51" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B51" s="1">
         <v>2015</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E51" s="1">
         <v>115</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F51" s="1">
         <v>5</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G51" s="4" t="s">
         <v>138</v>
       </c>
     </row>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tbarret/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F2B189-9727-A640-802E-B1D6DAAF218C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADA6951-8854-BC45-A93E-60CD43FB4261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="229">
   <si>
     <t>authors</t>
   </si>
@@ -710,6 +710,18 @@
   </si>
   <si>
     <t>Child \&amp; Youth Care Forum</t>
+  </si>
+  <si>
+    <t>doi: 10.1371/journal.pone.0258082</t>
+  </si>
+  <si>
+    <t>e0258082</t>
+  </si>
+  <si>
+    <t>doi: 10.1016/j.childyouth.2021.106258</t>
+  </si>
+  <si>
+    <t>doi: 10.1007/s10566-021-09656-8</t>
   </si>
 </sst>
 </file>
@@ -759,7 +771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -773,6 +785,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1090,7 +1103,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1149,6 +1162,9 @@
       <c r="D2" s="1" t="s">
         <v>224</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1166,58 +1182,73 @@
     </row>
     <row r="4" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>205</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>205</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>205</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>205</v>
+        <v>211</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2021</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
+      </c>
+      <c r="E7" s="5">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.2">

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tbarret/Dropbox/GitHub/blog_rstats/assets/CV/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tysonbarrett/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADA6951-8854-BC45-A93E-60CD43FB4261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCD2CBD-8B5A-DB4B-B66E-627927B04F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
+    <workbookView xWindow="36880" yWindow="2220" windowWidth="28800" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
   <sheets>
     <sheet name="Journals" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="234">
   <si>
     <t>authors</t>
   </si>
@@ -49,15 +49,6 @@
     <t>journal</t>
   </si>
   <si>
-    <t xml:space="preserve">Borgogna, N., Lockhart, G., Grenard, J, Barrett, T.S., Shiffman, S., &amp; Reynolds, K. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Journal of the Academy of Nutrition and Dietetics</t>
-  </si>
-  <si>
-    <t>Ecological Momentary Assessment of Urban Adolescents’ Technology Use and Cravings for Unhealthy Snacks and Drinks: Differences by Ethnicity and Sex.</t>
-  </si>
-  <si>
     <t>opensci</t>
   </si>
   <si>
@@ -67,9 +58,6 @@
     <t>Body Image</t>
   </si>
   <si>
-    <t>Buntrock, M.S., Barker, B.A., Gurries, M.M., &amp; Barrett, T.S.</t>
-  </si>
-  <si>
     <t>The effect of talker familiarity on sentence recognition accuracy in complex noise.</t>
   </si>
   <si>
@@ -82,36 +70,12 @@
     <t>Journal of Clinical Psychology</t>
   </si>
   <si>
-    <t>Borrie, S.A., Lansford, K.L., &amp; Barrett, T.S.</t>
-  </si>
-  <si>
-    <t>A Clinical Advantage: Experience informs recognition and adaptation to a novel talker with dysarthria.</t>
-  </si>
-  <si>
     <t>Journal of Speech, Language, and Hearing Research</t>
   </si>
   <si>
-    <t>Lubold, N., Willi, M.M., Borrie, S.A., Barrett, T.S., &amp; Berisha, V.</t>
-  </si>
-  <si>
     <t>Healthy communication partners modify their speech when conversing with individuals with Parkinson’s disease.</t>
   </si>
   <si>
-    <t xml:space="preserve">Muñoz, K., San Miguel, G., Barrett, T.S., Kasin, C., Baughman, K., Reynolds, B., Ritter, C., Larsen, M., Whicker, J.J., &amp; Twohig, M.P. </t>
-  </si>
-  <si>
-    <t>eHealth Parent Education for Hearing Aid Management: A Pilot Randomized Control Trial.</t>
-  </si>
-  <si>
-    <t>Hirsch, M.E., Lansford, K.L., Barrett, T.S., &amp; Borrie, S.A.</t>
-  </si>
-  <si>
-    <t>Generalized Learning of Dysarthric Speech between Male and Female Talkers.</t>
-  </si>
-  <si>
-    <t>Listener Impressions of Alaryngeal Communication Modalities.</t>
-  </si>
-  <si>
     <t>International Journal of Speech-Language Pathology</t>
   </si>
   <si>
@@ -148,69 +112,45 @@
     <t>152-161</t>
   </si>
   <si>
-    <t>Lansford, K., Borrie, S.A., Barrett, T.S., &amp; Flechaus, C.</t>
-  </si>
-  <si>
     <t>When additional training isn’t enough: Further evidence that unpredictable speech inhibits adaptation.</t>
   </si>
   <si>
     <t>1700-1711</t>
   </si>
   <si>
-    <t>Impact of Restrictions on Parental Presence in Neonatal Intensive Care Units Related to COVID-19.</t>
-  </si>
-  <si>
     <t>Journal of Perinatology</t>
   </si>
   <si>
     <t>36-46</t>
   </si>
   <si>
-    <t>Exploring Early Childhood Language Environments: A Comparison of Language Use and Exposure in the Home and Childcare Settings.</t>
-  </si>
-  <si>
     <t>Language, Speech, and Hearing Services in Schools</t>
   </si>
   <si>
     <t>706-719</t>
   </si>
   <si>
-    <t>Borrie, S.A., Wynn, C.J., Berisha, V., Lubold, N., Willi, M.M., Coelho, C.A., &amp; Barrett, T.S.</t>
-  </si>
-  <si>
     <t>Conversational coordination of articulation responds to context: A clinical test case with traumatic brain injury.</t>
   </si>
   <si>
     <t>2567-2577</t>
   </si>
   <si>
-    <t>Classroom Listening Experiences of Students who are Deaf or Hard of Hearing using the Listening Inventory for Education-Revised (LIFE-R).</t>
-  </si>
-  <si>
     <t>720-733</t>
   </si>
   <si>
-    <t>Innovative Identification of Substance Use Predictors: Machine Learning in National Sample of Mexican Children.</t>
-  </si>
-  <si>
     <t>Prevention Science</t>
   </si>
   <si>
     <t>171-181</t>
   </si>
   <si>
-    <t>Determining the Academic and Affective Outcomes of Dyad Reading Among Third Graders.</t>
-  </si>
-  <si>
     <t>Journal of Educational Research</t>
   </si>
   <si>
     <t>120-132</t>
   </si>
   <si>
-    <t>Borrie, S.A., Barrett, T.S., Liss, J., &amp; Berisha, V.</t>
-  </si>
-  <si>
     <t>Characterizing conversational entrainment in dysarthria using a multidimensional, clinically meaningful approach.</t>
   </si>
   <si>
@@ -220,9 +160,6 @@
     <t>83-94</t>
   </si>
   <si>
-    <t>Lansford, K., Borrie, S.A., &amp; Barrett, T.S.</t>
-  </si>
-  <si>
     <t>Regularity matters: Unpredictable speech degradation inhibits adaptation to dysarthric speech.</t>
   </si>
   <si>
@@ -253,12 +190,6 @@
     <t>100444</t>
   </si>
   <si>
-    <t>Barrett, T.S. &amp; Lockhart, G.</t>
-  </si>
-  <si>
-    <t>Efficient Exploration of Many Variables and Interactions Using Regularized Regression.</t>
-  </si>
-  <si>
     <t>575-584</t>
   </si>
   <si>
@@ -268,9 +199,6 @@
     <t>International Journal of Adolescent Medicine and Health</t>
   </si>
   <si>
-    <t>Borrie, S.A., Barrett, T.S., Yoho, S.E.</t>
-  </si>
-  <si>
     <t>Autoscore: An open-source automated tool for scoring listener perception of speech.</t>
   </si>
   <si>
@@ -280,9 +208,6 @@
     <t>doi: 10.1121/1.5087276</t>
   </si>
   <si>
-    <t>Yoho, S.E., Borrie, S.A., Barrett, T.S., &amp; Whittaker, D.B.</t>
-  </si>
-  <si>
     <t>Attention, Perception, and Psychophysics</t>
   </si>
   <si>
@@ -292,21 +217,12 @@
     <t>Are there sex effects for speech intelligibility in American English? Examining the influence of talker, listener, and methodology.</t>
   </si>
   <si>
-    <t>Borrie, S.A., Barrett, T.S., Willi, M., &amp; Berisha, V.</t>
-  </si>
-  <si>
     <t>Syncing up for a good conversation: A clinically-meaningful methodology for capturing conversational entrainment in the speech domain.</t>
   </si>
   <si>
     <t>283-296</t>
   </si>
   <si>
-    <t xml:space="preserve">Barrett, T.S., Wylie, A., Vogel, B., Sanghavi, K., Raspa, M., Aveni, K.P., Tullis, K., Caggana, M, White, K.R., &amp; Bodurtha, J. </t>
-  </si>
-  <si>
-    <t>Where Do We Go From Here? The Need for Genetic Referrals in Patients who are Deaf or Hard of Hearing: Findings from a Regional Survey.</t>
-  </si>
-  <si>
     <t>Journal of Early Hearing Detection and Intervention</t>
   </si>
   <si>
@@ -325,42 +241,21 @@
     <t>Journal of the Acoustical Society of American Express Letters</t>
   </si>
   <si>
-    <t>Barrett, T.S. &amp; Brignone, E.</t>
-  </si>
-  <si>
-    <t>Furniture for Quantitative Scientists.</t>
-  </si>
-  <si>
     <t>R Journal</t>
   </si>
   <si>
     <t>142-146</t>
   </si>
   <si>
-    <t>Generalized Adaptation to Dysarthric Speech.</t>
-  </si>
-  <si>
     <t>3110-3117</t>
   </si>
   <si>
-    <t>Barrett, T.S. &amp; White, K.R.</t>
-  </si>
-  <si>
-    <t>Trends in Hearing Loss Among Adolescents.</t>
-  </si>
-  <si>
     <t>Pediatrics</t>
   </si>
   <si>
     <t>e20170619</t>
   </si>
   <si>
-    <t>Fargo, J.D., Brignone, E., Metraux, S., Peterson, R., Carter, M.E., Barrett, T.S., Palmer, M., Redd, A., Samore, M.H., &amp; Gundlapalli, A.V.</t>
-  </si>
-  <si>
-    <t>Homelessness Following Disability-Related Discharges from Active Duty Military Service in Afghanistan and Iraq.</t>
-  </si>
-  <si>
     <t>Disability and Health Journal</t>
   </si>
   <si>
@@ -376,12 +271,6 @@
     <t>541-553</t>
   </si>
   <si>
-    <t>Brignone, E., Gundlapalli, A.V., Blais, R.K., Kimerling, R., Barrett, T.S., Nelson, R.E., Carter, M.E., Samore, M.A., &amp; Fargo, J.D.</t>
-  </si>
-  <si>
-    <t>Increased Health Care Utilization and Costs among Veterans with a Positive Screen for Military Sexual Trauma.</t>
-  </si>
-  <si>
     <t>doi: 10.1097/MLR.0000000000000767</t>
   </si>
   <si>
@@ -412,39 +301,18 @@
     <t>doi: 10.1044/2016_JSLHR-S-16-0094</t>
   </si>
   <si>
-    <t>Behl, D., White, K., Barrett, T.S., Blaiser, K., Callow-Heusser, C., &amp; Croshaw, T.</t>
-  </si>
-  <si>
-    <t>A Multisite Study Evaluating the Benefits of Early Intervention via Telepractice.</t>
-  </si>
-  <si>
     <t>Infant and Young Children</t>
   </si>
   <si>
     <t>147-161</t>
   </si>
   <si>
-    <t>Barrett, T.S. &amp; White, K. R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prevalence and Trends of Childhood Hearing Loss Based on Federally-funded National Surveys: 1994–2013. </t>
-  </si>
-  <si>
     <t>8-16</t>
   </si>
   <si>
-    <t>Doutré, S. M., Barrett, T.S., Greenlee, J. &amp; White, K. R.</t>
-  </si>
-  <si>
-    <t>Losing Ground: Awareness of Congenital Cytomegalovirus in the United States.</t>
-  </si>
-  <si>
     <t>39-48</t>
   </si>
   <si>
-    <t>Pediatric Hearing Aid Management: Parent Reported Needs for Learning Support.</t>
-  </si>
-  <si>
     <t>Ear and Hearing Journal</t>
   </si>
   <si>
@@ -499,57 +367,6 @@
     <t>\hyperlink{https://www.medrxiv.org/content/10.1101/2020.07.22.20158949v1}{medRxiv Pre-Print}</t>
   </si>
   <si>
-    <t xml:space="preserve">Barney, J.L., Barrett, T.S., Lensegrav-Benson, T., Quakenbush, B., &amp; Twohig, M.P. </t>
-  </si>
-  <si>
-    <t>Tannahill, H.S., Fargo, J.D., Barrett, T.S., &amp; Blais, R.K.</t>
-  </si>
-  <si>
-    <t>Knollhoff, S., Borrie, S.A., Barrett, T.S., &amp; Searl, J.P.</t>
-  </si>
-  <si>
-    <t>Crapo, J.S., Barrett, T.S., Bradford, K., Miller, J.A., &amp; Higginbotham, B.J.</t>
-  </si>
-  <si>
-    <t>Ong, C.W., Hancock, A.S., Barrett, T.S., Lee, E.B., Wan, N., Gillam, R., Levin, M.E., &amp; Twohig, M.P.</t>
-  </si>
-  <si>
-    <t>Darcy-Mahoney, A., White, R.D., Velasquez, A., Barrett, T.S., Clark R.H., &amp; Ahmad, K.A.</t>
-  </si>
-  <si>
-    <t>Larson, A.L., Barrett, T.S., &amp; McConnell, S.R.</t>
-  </si>
-  <si>
-    <t>Nelson, L.H., Anderson, K., Whicker, J., Barrett, T.S., Muñoz, K. &amp; White, K.</t>
-  </si>
-  <si>
-    <t>Vázquez, A.L., Domenech Rodríguez, M.M., Schwartz, S.E., Amador Buenabad, N.G., Bustos, M., Gutierrez, M., Villatoro Velázquez, J.A., &amp; Barrett, T.S.</t>
-  </si>
-  <si>
-    <t>Downs, J., Mohr, K.A.J., &amp; Barrett, T.S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smith, B.M., Ong, C.W., Barrett, T.S., Bluett, E.J., Slocum, T.A., &amp; Twohig, M.P. </t>
-  </si>
-  <si>
-    <t>Ong, C.W., Barney, J.L., Barrett, T.S., Lee, E.B., Levin, M.E., &amp; Twohig, M.P.</t>
-  </si>
-  <si>
-    <t>Ong, C.W., Lee, E. B., Krafft, J., Terry, C.L., Barrett, T.S., Levin, M.E., &amp; Twohig, M.P.</t>
-  </si>
-  <si>
-    <t>Long, E., Barrett, T.S., &amp; Lockhart, G.</t>
-  </si>
-  <si>
-    <t>Yoho, S.E., Healy, E. W., Youngdahl, C., Barrett, T.S., &amp; Apoux, F.</t>
-  </si>
-  <si>
-    <t>Brown, L.T., Mohr, K.A.J., Wilcox, B.R., &amp; Barrett, T.S.</t>
-  </si>
-  <si>
-    <t>Muñoz, K., Rusk, S.E.P., Nelson, L., Preston, E., White, K.R., Barrett, T.S. &amp; Twohig, M.P.</t>
-  </si>
-  <si>
     <t>1-12</t>
   </si>
   <si>
@@ -559,9 +376,6 @@
     <t>doi: 10.1002/jclp.23162</t>
   </si>
   <si>
-    <t>Sulzer, S., Prevedel, S., Barrett, T.S., Voss, M.W., Manning, C. &amp; Madden, E.F.</t>
-  </si>
-  <si>
     <t>Drugs: Education, Prevention \&amp; Policy</t>
   </si>
   <si>
@@ -670,45 +484,18 @@
     <t>PLOS ONE</t>
   </si>
   <si>
-    <t>Vázquez, A.L., Chou, T., Navarro Flores, C.M., Barrett, T.S., Villodas, M.T., &amp; Domenech Rodríguez, M.M.</t>
-  </si>
-  <si>
-    <t>Vázquez, A.L., Navarro Flores, C.M., Alvarez, M.C., Gonzalez Vera, J. M., Barrett, T.S., &amp;Domenech Rodríguez, M.M.</t>
-  </si>
-  <si>
     <t>High value correlates of caregiver reported counseling service need and utilization for adolescents at-risk for childhood maltreatment and neglect.</t>
   </si>
   <si>
-    <t>Parent Characteristics and Practices Classify Lifetime Substance Use among Mexican Children.</t>
-  </si>
-  <si>
-    <t>Borrie, S.A., Wynn, C.J., Berisha, V., &amp; Barrett, T.S.</t>
-  </si>
-  <si>
     <t>American Journal of Speech-Language Pathology</t>
   </si>
   <si>
-    <t>Larson, A.L., Baralt, M., Hokenson, J.,Hammer, C.S., Barrett, T.S., &amp;  DeVilbiss, N.</t>
-  </si>
-  <si>
-    <t>Vázquez, A., Domenech Rodríguez, M.M., Barrett, T.S., Amador Buenabad, N.G., Gutiérrez López, M.L., &amp; Bustos Gamiño, M.N. </t>
-  </si>
-  <si>
     <t>A randomized controlled trial assessing the effectiveness of the Háblame Bebé mobile application with Spanish-speaking mothers experiencing economic hardship.</t>
   </si>
   <si>
     <t>From speech acoustics to communicative participation in dysarthria: Towards a causal framework.</t>
   </si>
   <si>
-    <t>Professional Education to Reduce Provider Stigma toward Harm Reduction and Pharmacotherapy.</t>
-  </si>
-  <si>
-    <t>Psychometric Evaluation of a Barriers to Mental Health Treatment Questionnaire for Latino/a/x Caregivers of Children and Adolescents</t>
-  </si>
-  <si>
-    <t>Vázquez, A.L., Culianos, D., Navarro Flores, C.M., Alvarez, M.C., Barrett, T.S., &amp; Domenech Rodríguez, M.M.</t>
-  </si>
-  <si>
     <t>Child \&amp; Youth Care Forum</t>
   </si>
   <si>
@@ -722,13 +509,241 @@
   </si>
   <si>
     <t>doi: 10.1007/s10566-021-09656-8</t>
+  </si>
+  <si>
+    <t>Vázquez, A. L., Culianos, D., Navarro Flores, C. M., Alvarez, M. C., Barrett, T. S., &amp; Domenech Rodríguez, M. M.</t>
+  </si>
+  <si>
+    <t>Borrie, S. A., Wynn, C. J., Berisha, V., &amp; Barrett, T. S.</t>
+  </si>
+  <si>
+    <t>Larson, A. L., Baralt, M., Hokenson, J., Hammer, C. S., Barrett, T. S., &amp; DeVilbiss, N.</t>
+  </si>
+  <si>
+    <t>Vázquez, A. L., Navarro Flores, C. M., Alvarez, M. C., Gonzalez Vera, J. M., Barrett, T. S., &amp; Domenech Rodríguez, M. M.</t>
+  </si>
+  <si>
+    <t>Vázquez, A., Domenech Rodríguez, M. M., Barrett, T. S., Amador Buenabad, N. G., Gutiérrez López, M. L., &amp; Bustos Gamiño, M. N. </t>
+  </si>
+  <si>
+    <t>Vázquez, A. L., Chou, T., Navarro Flores, C. M., Barrett, T. S., Villodas, M. T., &amp; Domenech Rodríguez, M. M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barney, J. L., Barrett, T. S., Lensegrav-Benson, T., Quakenbush, B., &amp; Twohig, M. P. </t>
+  </si>
+  <si>
+    <t>Sulzer, S., Prevedel, S., Barrett, T. S., Voss, M. W., Manning, C. &amp; Madden, E. F.</t>
+  </si>
+  <si>
+    <t>Buntrock, M. S., Barker, B. A., Gurries, M. M., &amp; Barrett, T. S.</t>
+  </si>
+  <si>
+    <t>Tannahill, H. S., Fargo, J. D., Barrett, T. S., &amp; Blais, R. K.</t>
+  </si>
+  <si>
+    <t>Borrie, S. A., Lansford, K. L., &amp; Barrett, T. S.</t>
+  </si>
+  <si>
+    <t>Lubold, N., Willi, M. M., Borrie, S. A., Barrett, T. S., &amp; Berisha, V.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muñoz, K., San Miguel, G., Barrett, T. S., Kasin, C., Baughman, K., Reynolds, B., Ritter, C., Larsen, M., Whicker, J. J., &amp; Twohig, M. P. </t>
+  </si>
+  <si>
+    <t>Hirsch, M. E., Lansford, K. L., Barrett, T. S., &amp; Borrie, S. A.</t>
+  </si>
+  <si>
+    <t>Knollhoff, S., Borrie, S. A., Barrett, T. S., &amp; Searl, J. P.</t>
+  </si>
+  <si>
+    <t>Crapo, J. S., Barrett, T. S., Bradford, K., Miller, J. A., &amp; Higginbotham, B. J.</t>
+  </si>
+  <si>
+    <t>Ong, C. W., Hancock, A. S., Barrett, T. S., Lee, E. B., Wan, N., Gillam, R., Levin, M. E., &amp; Twohig, M. P.</t>
+  </si>
+  <si>
+    <t>Lansford, K., Borrie, S. A., Barrett, T. S., &amp; Flechaus, C.</t>
+  </si>
+  <si>
+    <t>Darcy-Mahoney, A., White, R. D., Velasquez, A., Barrett, T. S., Clark R. H., &amp; Ahmad, K. A.</t>
+  </si>
+  <si>
+    <t>Larson, A. L., Barrett, T. S., &amp; McConnell, S. R.</t>
+  </si>
+  <si>
+    <t>Borrie, S. A., Wynn, C. J., Berisha, V., Lubold, N., Willi, M. M., Coelho, C. A., &amp; Barrett, T. S.</t>
+  </si>
+  <si>
+    <t>Nelson, L. H., Anderson, K., Whicker, J., Barrett, T. S., Muñoz, K. &amp; White, K.</t>
+  </si>
+  <si>
+    <t>Vázquez, A. L., Domenech Rodríguez, M. M., Schwartz, S. E., Amador Buenabad, N. G., Bustos, M., Gutierrez, M., Villatoro Velázquez, J. A., &amp; Barrett, T. S.</t>
+  </si>
+  <si>
+    <t>Downs, J., Mohr, K. A. J., &amp; Barrett, T. S.</t>
+  </si>
+  <si>
+    <t>Borrie, S. A., Barrett, T. S., Liss, J., &amp; Berisha, V.</t>
+  </si>
+  <si>
+    <t>Lansford, K., Borrie, S. A., &amp; Barrett, T. S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smith, B. M., Ong, C.W., Barrett, T. S., Bluett, E. J., Slocum, T. A., &amp; Twohig, M. P. </t>
+  </si>
+  <si>
+    <t>Ong, C. W., Barney, J. L., Barrett, T. S., Lee, E. B., Levin, M. E., &amp; Twohig, M. P.</t>
+  </si>
+  <si>
+    <t>Ong, C. W., Lee, E. B., Krafft, J., Terry, C. L., Barrett, T. S., Levin, M. E., &amp; Twohig, M. P.</t>
+  </si>
+  <si>
+    <t>Barrett, T. S. &amp; Lockhart, G.</t>
+  </si>
+  <si>
+    <t>Long, E., Barrett, T. S., &amp; Lockhart, G.</t>
+  </si>
+  <si>
+    <t>Borrie, S. A., Barrett, T. S., Yoho, S. E.</t>
+  </si>
+  <si>
+    <t>Yoho, S. E., Borrie, S. A., Barrett, T. S., &amp; Whittaker, D. B.</t>
+  </si>
+  <si>
+    <t>Borrie, S. A., Barrett, T. S., Willi, M., &amp; Berisha, V.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrett, T. S., Wylie, A., Vogel, B., Sanghavi, K., Raspa, M., Aveni, K. P., Tullis, K., Caggana, M, White, K. R., &amp; Bodurtha, J. </t>
+  </si>
+  <si>
+    <t>Yoho, S. E., Healy, E. W., Youngdahl, C., Barrett, T. S., &amp; Apoux, F.</t>
+  </si>
+  <si>
+    <t>Barrett, T. S. &amp; Brignone, E.</t>
+  </si>
+  <si>
+    <t>Barrett, T. S. &amp; White, K. R.</t>
+  </si>
+  <si>
+    <t>Fargo, J. D., Brignone, E., Metraux, S., Peterson, R., Carter, M. E., Barrett, T. S., Palmer, M., Redd, A., Samore, M. H., &amp; Gundlapalli, A. V.</t>
+  </si>
+  <si>
+    <t>Brown, L. T., Mohr, K. A. J., Wilcox, B. R., &amp; Barrett, T. S.</t>
+  </si>
+  <si>
+    <t>Brignone, E., Gundlapalli, A. V., Blais, R. K., Kimerling, R., Barrett, T. S., Nelson, R. E., Carter, M. E., Samore, M. A., &amp; Fargo, J. D.</t>
+  </si>
+  <si>
+    <t>Behl, D., White, K., Barrett, T. S., Blaiser, K., Callow-Heusser, C., &amp; Croshaw, T.</t>
+  </si>
+  <si>
+    <t>Doutré, S. M., Barrett, T. S., Greenlee, J. &amp; White, K. R.</t>
+  </si>
+  <si>
+    <t>Muñoz, K., Rusk, S. E. P., Nelson, L., Preston, E., White, K. R., Barrett, T. S. &amp; Twohig, M. P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borgogna, N., Lockhart, G., Grenard, J., Barrett, T. S., Shiffman, S., &amp; Reynolds, K. </t>
+  </si>
+  <si>
+    <t>Parent characteristics and practices classify lifetime substance use among Mexican children.</t>
+  </si>
+  <si>
+    <t>Professional education to reduce provider stigma toward harm reduction and pharmacotherapy.</t>
+  </si>
+  <si>
+    <t>A clinical advantage: Experience informs recognition and adaptation to a novel talker with dysarthria.</t>
+  </si>
+  <si>
+    <t>eHealth parent education for hearing aid management: A pilot randomized control trial.</t>
+  </si>
+  <si>
+    <t>Generalized learning of dysarthric speech between male and female talkers.</t>
+  </si>
+  <si>
+    <t>Listener impressions of alaryngeal communication modalities.</t>
+  </si>
+  <si>
+    <t>Impact of restrictions on parental presence in neonatal intensive care units related to COVID-19.</t>
+  </si>
+  <si>
+    <t>Exploring early childhood language environments: A comparison of language use and exposure in the home and childcare settings.</t>
+  </si>
+  <si>
+    <t>Classroom listening experiences of students who are deaf or hard of hearing using the Listening Inventory for Education-Revised (LIFE-R).</t>
+  </si>
+  <si>
+    <t>Innovative identification of substance use predictors: Machine learning in national sample of Mexican children.</t>
+  </si>
+  <si>
+    <t>Determining the academic and affective outcomes of dyad reading among third graders.</t>
+  </si>
+  <si>
+    <t>Efficient exploration of many variables and interactions using regularized regression.</t>
+  </si>
+  <si>
+    <t>1-17</t>
+  </si>
+  <si>
+    <t>Where do we go from here? The need for genetic referrals in patients who are deaf or hard of hearing: Findings from a regional survey.</t>
+  </si>
+  <si>
+    <t>Furniture for quantitative scientists.</t>
+  </si>
+  <si>
+    <t>Generalized adaptation to dysarthric speech.</t>
+  </si>
+  <si>
+    <t>Trends in hearing loss among adolescents.</t>
+  </si>
+  <si>
+    <t>Homelessness following disability-related discharges from active duty military service in Afghanistan and Iraq.</t>
+  </si>
+  <si>
+    <t>Increased health care utilization and costs among veterans with a positive screen for military sexual trauma.</t>
+  </si>
+  <si>
+    <t>A multisite study evaluating the benefits of early intervention via telepractice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevalence and trends of childhood hearing loss based on federally-funded national surveys: 1994–2013. </t>
+  </si>
+  <si>
+    <t>Losing ground: Awareness of congenital cytomegalovirus in the United States.</t>
+  </si>
+  <si>
+    <t>Pediatric hearing aid management: Parent reported needs for learning support.</t>
+  </si>
+  <si>
+    <t>Ecological momentary assessment of urban adolescents’ technology use and cravings for unhealthy snacks and drinks: Differences by ethnicity and sex.</t>
+  </si>
+  <si>
+    <t>Journal of the Academy of Nutrition and Dietetics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doi: 10.1007/s11469-021-00634-8 </t>
+  </si>
+  <si>
+    <t>106258</t>
+  </si>
+  <si>
+    <t>Psychometric evaluation of a barriers to mental health treatment questionnaire for Latino/a/x caregivers of children and adolescents.</t>
+  </si>
+  <si>
+    <t>Values engagement as a predictor of eating disorder severity in female adolescents with eating disorders.</t>
+  </si>
+  <si>
+    <t>Eating Disorders: The Journal of Treatment and Prevention</t>
+  </si>
+  <si>
+    <t>Petersen, J. M., Barney, J. L., Barrett, T. S., Lensegrav-Benson, T., Quakenbush-Roberts, B., &amp; Twohig, M. P. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -743,6 +758,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -771,7 +792,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -786,6 +807,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1100,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BAB23D-B27F-A34D-A522-4C115B575C05}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1134,1132 +1156,1135 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>223</v>
+      <c r="A2" s="6" t="s">
+        <v>233</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>219</v>
+        <v>152</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>216</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>205</v>
+        <v>161</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2021</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>214</v>
+        <v>146</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+      <c r="E6" s="1">
+        <v>131</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="B7" s="1">
         <v>2021</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E7" s="5">
-        <v>16</v>
-      </c>
-      <c r="F7" s="1">
-        <v>10</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>226</v>
+        <v>144</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B8" s="1">
         <v>2021</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1">
-        <v>38</v>
+        <v>148</v>
+      </c>
+      <c r="E8" s="5">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1">
+        <v>10</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B9" s="1">
         <v>2021</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>221</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>175</v>
+        <v>6</v>
+      </c>
+      <c r="E9" s="1">
+        <v>38</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="B10" s="1">
         <v>2021</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>204</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>178</v>
+        <v>111</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="B11" s="1">
         <v>2021</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="1">
-        <v>77</v>
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="F11" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>207</v>
+        <v>116</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>173</v>
+        <v>117</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="B12" s="1">
         <v>2021</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="E12" s="1">
+        <v>77</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="B13" s="1">
         <v>2021</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>205</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="B14" s="1">
         <v>2021</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="B15" s="1">
         <v>2021</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>206</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="B16" s="1">
         <v>2021</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="B17" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>26</v>
+        <v>208</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="1">
-        <v>42</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>184</v>
+        <v>16</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="B18" s="1">
         <v>2020</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E18" s="1">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>185</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>174</v>
       </c>
       <c r="B19" s="1">
         <v>2020</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E19" s="1">
-        <v>63</v>
-      </c>
-      <c r="F19" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B20" s="1">
         <v>2020</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E20" s="1">
-        <v>40</v>
+        <v>63</v>
+      </c>
+      <c r="F20" s="1">
+        <v>6</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="B21" s="1">
         <v>2020</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>43</v>
+        <v>209</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E21" s="1">
-        <v>51</v>
-      </c>
-      <c r="F21" s="1">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="B22" s="1">
         <v>2020</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>47</v>
+        <v>210</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E22" s="1">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F22" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>189</v>
+        <v>126</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="B23" s="1">
         <v>2020</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="E23" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F23" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>190</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="B24" s="1">
         <v>2020</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="1">
         <v>51</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="1">
-        <v>21</v>
-      </c>
       <c r="F24" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="B25" s="1">
         <v>2020</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>54</v>
+        <v>212</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="E25" s="1">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="F25" s="1">
         <v>2</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>181</v>
       </c>
       <c r="B26" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>58</v>
+        <v>213</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="E26" s="1">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="F26" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>182</v>
       </c>
       <c r="B27" s="1">
         <v>2019</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E27" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F27" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>194</v>
+        <v>131</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="B28" s="1">
         <v>2019</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="E28" s="1">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F28" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="B29" s="1">
         <v>2019</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E29" s="1">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="F29" s="1">
+        <v>10</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>198</v>
+        <v>133</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="B30" s="1">
         <v>2019</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="E30" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>196</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>72</v>
+        <v>186</v>
       </c>
       <c r="B31" s="1">
         <v>2019</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E31" s="1">
-        <v>20</v>
-      </c>
-      <c r="F31" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="B32" s="1">
         <v>2019</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>75</v>
+        <v>214</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>76</v>
+        <v>34</v>
+      </c>
+      <c r="E32" s="1">
+        <v>20</v>
+      </c>
+      <c r="F32" s="1">
+        <v>4</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>199</v>
+        <v>135</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="B33" s="1">
         <v>2019</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="1">
-        <v>145</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="B34" s="1">
         <v>2019</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="E34" s="1">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="F34" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="B35" s="1">
         <v>2019</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E35" s="1">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F35" s="1">
         <v>2</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>88</v>
+        <v>191</v>
       </c>
       <c r="B36" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="E36" s="1">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="F36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B37" s="1">
         <v>2018</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>92</v>
+        <v>216</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="E37" s="1">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="F37" s="1">
-        <v>3</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>200</v>
+        <v>1</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>193</v>
       </c>
       <c r="B38" s="1">
         <v>2018</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="E38" s="1">
         <v>143</v>
       </c>
       <c r="F38" s="1">
+        <v>3</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="1">
+        <v>143</v>
+      </c>
+      <c r="F39" s="1">
         <v>5</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E39" s="1">
-        <v>9</v>
-      </c>
-      <c r="F39" s="1">
-        <v>2</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="H39" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>15</v>
+        <v>194</v>
       </c>
       <c r="B40" s="1">
         <v>2017</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>100</v>
+        <v>217</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="E40" s="1">
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>202</v>
+        <v>69</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>102</v>
+        <v>168</v>
       </c>
       <c r="B41" s="1">
         <v>2017</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>103</v>
+        <v>218</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="E41" s="1">
+        <v>60</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="F41" s="1">
-        <v>6</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="B42" s="1">
         <v>2017</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>107</v>
+        <v>219</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="1">
+        <v>140</v>
+      </c>
+      <c r="F42" s="1">
+        <v>6</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E42" s="1">
-        <v>10</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="B43" s="1">
         <v>2017</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="E43" s="1">
-        <v>111</v>
-      </c>
-      <c r="F43" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>113</v>
+        <v>197</v>
       </c>
       <c r="B44" s="1">
         <v>2017</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="E44" s="1">
-        <v>55</v>
+        <v>111</v>
+      </c>
+      <c r="F44" s="1">
+        <v>5</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="B45" s="1">
         <v>2017</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="E45" s="1">
-        <v>36</v>
-      </c>
-      <c r="F45" s="1">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="B46" s="1">
         <v>2017</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="E46" s="1">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F46" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="B47" s="1">
         <v>2017</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="E47" s="1">
+        <v>60</v>
+      </c>
+      <c r="F47" s="1">
+        <v>3</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" s="1">
         <v>30</v>
-      </c>
-      <c r="F47" s="1">
-        <v>2</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B48" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E48" s="1">
-        <v>1</v>
       </c>
       <c r="F48" s="1">
         <v>2</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>132</v>
+        <v>195</v>
       </c>
       <c r="B49" s="1">
         <v>2016</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>133</v>
+        <v>223</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -2268,53 +2293,76 @@
         <v>2</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="B50" s="1">
         <v>2016</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>135</v>
+        <v>224</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>2</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" s="1">
         <v>37</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F51" s="1">
         <v>6</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="1">
+      <c r="G51" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B52" s="1">
         <v>2015</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="1" t="s">
+      <c r="C52" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E52" s="1">
+        <v>115</v>
+      </c>
+      <c r="F52" s="1">
         <v>5</v>
       </c>
-      <c r="E51" s="1">
-        <v>115</v>
-      </c>
-      <c r="F51" s="1">
-        <v>5</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>138</v>
+      <c r="G52" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tysonbarrett/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCD2CBD-8B5A-DB4B-B66E-627927B04F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB55DA5-36BD-8C41-89B3-1B6B0AE746D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36880" yWindow="2220" windowWidth="28800" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="237">
   <si>
     <t>authors</t>
   </si>
@@ -737,6 +737,15 @@
   </si>
   <si>
     <t>Petersen, J. M., Barney, J. L., Barrett, T. S., Lensegrav-Benson, T., Quakenbush-Roberts, B., &amp; Twohig, M. P. </t>
+  </si>
+  <si>
+    <t>Barney, J. L., Barrett, T. S., Lensegrav-Benson, T., Quakenbush, B., Twohig, M. P.</t>
+  </si>
+  <si>
+    <t>Examining a mediation model of body image-related cognitive fusion, intuitive eating, and eating disorder symptom severity in a clinical sample.</t>
+  </si>
+  <si>
+    <t>Eating and Weight Disorders – Studies on Anorexia, Bulimia, and Obesity</t>
   </si>
 </sst>
 </file>
@@ -1122,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BAB23D-B27F-A34D-A522-4C115B575C05}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1186,1125 +1195,1116 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>158</v>
+      <c r="A3" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>157</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>152</v>
+        <v>230</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E6" s="1">
-        <v>131</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="B7" s="1">
         <v>2021</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
+      </c>
+      <c r="E7" s="1">
+        <v>131</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B8" s="1">
         <v>2021</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E8" s="5">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1">
-        <v>10</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B9" s="1">
         <v>2021</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1">
-        <v>38</v>
+        <v>148</v>
+      </c>
+      <c r="E9" s="5">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1">
+        <v>10</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B10" s="1">
         <v>2021</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>204</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>113</v>
+        <v>6</v>
+      </c>
+      <c r="E10" s="1">
+        <v>38</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B11" s="1">
         <v>2021</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>204</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B12" s="1">
         <v>2021</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="1">
-        <v>77</v>
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="F12" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B13" s="1">
         <v>2021</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>205</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E13" s="1">
+        <v>77</v>
+      </c>
+      <c r="F13" s="1">
+        <v>10</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>97</v>
+        <v>145</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B14" s="1">
         <v>2021</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B15" s="1">
         <v>2021</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B16" s="1">
         <v>2021</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B17" s="1">
         <v>2021</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="1">
-        <v>42</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B19" s="1">
         <v>2020</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E19" s="1">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B20" s="1">
         <v>2020</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E20" s="1">
-        <v>63</v>
-      </c>
-      <c r="F20" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B21" s="1">
         <v>2020</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>209</v>
+        <v>25</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E21" s="1">
-        <v>40</v>
+        <v>63</v>
+      </c>
+      <c r="F21" s="1">
+        <v>6</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B22" s="1">
         <v>2020</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E22" s="1">
-        <v>51</v>
-      </c>
-      <c r="F22" s="1">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B23" s="1">
         <v>2020</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>31</v>
+        <v>210</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E23" s="1">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F23" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B24" s="1">
         <v>2020</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>211</v>
+        <v>31</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E24" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F24" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B25" s="1">
         <v>2020</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E25" s="1">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F25" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B26" s="1">
         <v>2020</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E26" s="1">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="F26" s="1">
         <v>2</v>
       </c>
       <c r="G26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="1">
+        <v>113</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B27" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="1">
-        <v>61</v>
-      </c>
-      <c r="F27" s="1">
-        <v>3</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B28" s="1">
         <v>2019</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E28" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F28" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B29" s="1">
         <v>2019</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="E29" s="1">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F29" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B30" s="1">
         <v>2019</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E30" s="1">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="F30" s="1">
+        <v>10</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B31" s="1">
         <v>2019</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E31" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B32" s="1">
         <v>2019</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>214</v>
+        <v>47</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E32" s="1">
-        <v>20</v>
-      </c>
-      <c r="F32" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B33" s="1">
         <v>2019</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>52</v>
+        <v>214</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
+      </c>
+      <c r="E33" s="1">
+        <v>20</v>
+      </c>
+      <c r="F33" s="1">
+        <v>4</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>215</v>
+        <v>51</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B34" s="1">
         <v>2019</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="1">
-        <v>145</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>55</v>
+        <v>215</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B35" s="1">
         <v>2019</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="E35" s="1">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="F35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B36" s="1">
         <v>2019</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="E36" s="1">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F36" s="1">
         <v>2</v>
       </c>
       <c r="G36" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="1">
+        <v>62</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B37" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E37" s="1">
-        <v>3</v>
-      </c>
-      <c r="F37" s="1">
-        <v>1</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B38" s="1">
         <v>2018</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>64</v>
+        <v>216</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E38" s="1">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="F38" s="1">
-        <v>3</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>138</v>
+        <v>1</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="B39" s="1">
         <v>2018</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E39" s="1">
         <v>143</v>
       </c>
       <c r="F39" s="1">
+        <v>3</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="1">
+        <v>143</v>
+      </c>
+      <c r="F40" s="1">
         <v>5</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="B40" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E40" s="1">
-        <v>9</v>
-      </c>
-      <c r="F40" s="1">
-        <v>2</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="B41" s="1">
         <v>2017</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="E41" s="1">
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>140</v>
+        <v>69</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="B42" s="1">
         <v>2017</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="E42" s="1">
+        <v>60</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="F42" s="1">
-        <v>6</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B43" s="1">
         <v>2017</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E43" s="1">
-        <v>10</v>
+        <v>140</v>
+      </c>
+      <c r="F43" s="1">
+        <v>6</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B44" s="1">
         <v>2017</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="E44" s="1">
-        <v>111</v>
-      </c>
-      <c r="F44" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B45" s="1">
         <v>2017</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>221</v>
+        <v>75</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="E45" s="1">
-        <v>55</v>
+        <v>111</v>
+      </c>
+      <c r="F45" s="1">
+        <v>5</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B46" s="1">
         <v>2017</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>81</v>
+        <v>221</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E46" s="1">
-        <v>36</v>
-      </c>
-      <c r="F46" s="1">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="B47" s="1">
         <v>2017</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="E47" s="1">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F47" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="B48" s="1">
         <v>2017</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="1">
+        <v>60</v>
+      </c>
+      <c r="F48" s="1">
+        <v>3</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E49" s="1">
         <v>30</v>
-      </c>
-      <c r="F48" s="1">
-        <v>2</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B49" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E49" s="1">
-        <v>1</v>
       </c>
       <c r="F49" s="1">
         <v>2</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B50" s="1">
         <v>2016</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>62</v>
@@ -2316,52 +2316,75 @@
         <v>2</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B51" s="1">
         <v>2016</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>2</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E52" s="1">
         <v>37</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F52" s="1">
         <v>6</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="G52" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B53" s="1">
         <v>2015</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E53" s="1">
         <v>115</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F53" s="1">
         <v>5</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="G53" s="4" t="s">
         <v>94</v>
       </c>
     </row>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tysonbarrett/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB55DA5-36BD-8C41-89B3-1B6B0AE746D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520E677F-4B8E-3448-A114-794F5935299A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36880" yWindow="2220" windowWidth="28800" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="244">
   <si>
     <t>authors</t>
   </si>
@@ -746,6 +746,27 @@
   </si>
   <si>
     <t>Eating and Weight Disorders – Studies on Anorexia, Bulimia, and Obesity</t>
+  </si>
+  <si>
+    <t>Cortical Activation of Swallowing Using fNIRS: A Proof of Concept Study with Healthy Adults.</t>
+  </si>
+  <si>
+    <t>Dysphagia</t>
+  </si>
+  <si>
+    <t>Knollhoff, S., Hancock, A., Barrett, T. S., &amp; Gillam, R.</t>
+  </si>
+  <si>
+    <t>\img{osfdata.png}{https://osf.io/zpxrm/}\img{osfmaterials.png}{https://osf.io/zpxrm/}</t>
+  </si>
+  <si>
+    <t>1-14</t>
+  </si>
+  <si>
+    <t>doi: 10.1044/2021_JSLHR-21-00306</t>
+  </si>
+  <si>
+    <t>\img{osfdata.png}{https://osf.io/q3e4d/}\img{osfmaterials.png}{https://osf.io/q3e4d/}</t>
   </si>
 </sst>
 </file>
@@ -1131,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BAB23D-B27F-A34D-A522-4C115B575C05}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1180,63 +1201,66 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>232</v>
+        <v>238</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>158</v>
+      <c r="A4" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>157</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>152</v>
+        <v>230</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>153</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="68" x14ac:dyDescent="0.2">
@@ -1253,1081 +1277,1081 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E7" s="1">
-        <v>131</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="B8" s="1">
         <v>2021</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
+      </c>
+      <c r="E8" s="1">
+        <v>131</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B9" s="1">
         <v>2021</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E9" s="5">
-        <v>16</v>
-      </c>
-      <c r="F9" s="1">
-        <v>10</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B10" s="1">
         <v>2021</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1">
-        <v>38</v>
+        <v>148</v>
+      </c>
+      <c r="E10" s="5">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1">
+        <v>10</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B11" s="1">
         <v>2021</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>204</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>113</v>
+        <v>6</v>
+      </c>
+      <c r="E11" s="1">
+        <v>38</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B12" s="1">
         <v>2021</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>204</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B13" s="1">
         <v>2021</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="1">
-        <v>77</v>
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="F13" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B14" s="1">
         <v>2021</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>205</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E14" s="1">
+        <v>77</v>
+      </c>
+      <c r="F14" s="1">
+        <v>10</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>97</v>
+        <v>145</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B15" s="1">
         <v>2021</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B16" s="1">
         <v>2021</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B17" s="1">
         <v>2021</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B18" s="1">
         <v>2021</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="1">
-        <v>42</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B20" s="1">
         <v>2020</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E20" s="1">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B21" s="1">
         <v>2020</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E21" s="1">
-        <v>63</v>
-      </c>
-      <c r="F21" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B22" s="1">
         <v>2020</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>209</v>
+        <v>25</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E22" s="1">
-        <v>40</v>
+        <v>63</v>
+      </c>
+      <c r="F22" s="1">
+        <v>6</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B23" s="1">
         <v>2020</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E23" s="1">
-        <v>51</v>
-      </c>
-      <c r="F23" s="1">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B24" s="1">
         <v>2020</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>31</v>
+        <v>210</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E24" s="1">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F24" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B25" s="1">
         <v>2020</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>211</v>
+        <v>31</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E25" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F25" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B26" s="1">
         <v>2020</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E26" s="1">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F26" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B27" s="1">
         <v>2020</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E27" s="1">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="F27" s="1">
         <v>2</v>
       </c>
       <c r="G27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="1">
+        <v>113</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B28" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="1">
-        <v>61</v>
-      </c>
-      <c r="F28" s="1">
-        <v>3</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B29" s="1">
         <v>2019</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E29" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F29" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B30" s="1">
         <v>2019</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="E30" s="1">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F30" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B31" s="1">
         <v>2019</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E31" s="1">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="F31" s="1">
+        <v>10</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B32" s="1">
         <v>2019</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E32" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B33" s="1">
         <v>2019</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>214</v>
+        <v>47</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E33" s="1">
-        <v>20</v>
-      </c>
-      <c r="F33" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B34" s="1">
         <v>2019</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>52</v>
+        <v>214</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
+      </c>
+      <c r="E34" s="1">
+        <v>20</v>
+      </c>
+      <c r="F34" s="1">
+        <v>4</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>215</v>
+        <v>51</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B35" s="1">
         <v>2019</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="1">
-        <v>145</v>
-      </c>
-      <c r="F35" s="1">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>55</v>
+        <v>215</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B36" s="1">
         <v>2019</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="E36" s="1">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="F36" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B37" s="1">
         <v>2019</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="E37" s="1">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F37" s="1">
         <v>2</v>
       </c>
       <c r="G37" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="1">
+        <v>62</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B38" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" s="1">
-        <v>3</v>
-      </c>
-      <c r="F38" s="1">
-        <v>1</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B39" s="1">
         <v>2018</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>64</v>
+        <v>216</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E39" s="1">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="F39" s="1">
-        <v>3</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>138</v>
+        <v>1</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="B40" s="1">
         <v>2018</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E40" s="1">
         <v>143</v>
       </c>
       <c r="F40" s="1">
+        <v>3</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="1">
+        <v>143</v>
+      </c>
+      <c r="F41" s="1">
         <v>5</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="B41" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E41" s="1">
-        <v>9</v>
-      </c>
-      <c r="F41" s="1">
-        <v>2</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="B42" s="1">
         <v>2017</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="E42" s="1">
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="F42" s="1">
+        <v>2</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>140</v>
+        <v>69</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="B43" s="1">
         <v>2017</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="E43" s="1">
+        <v>60</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="F43" s="1">
-        <v>6</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B44" s="1">
         <v>2017</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E44" s="1">
-        <v>10</v>
+        <v>140</v>
+      </c>
+      <c r="F44" s="1">
+        <v>6</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B45" s="1">
         <v>2017</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="E45" s="1">
-        <v>111</v>
-      </c>
-      <c r="F45" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B46" s="1">
         <v>2017</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>221</v>
+        <v>75</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="E46" s="1">
-        <v>55</v>
+        <v>111</v>
+      </c>
+      <c r="F46" s="1">
+        <v>5</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B47" s="1">
         <v>2017</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>81</v>
+        <v>221</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E47" s="1">
-        <v>36</v>
-      </c>
-      <c r="F47" s="1">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="B48" s="1">
         <v>2017</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="E48" s="1">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F48" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="B49" s="1">
         <v>2017</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="1">
+        <v>60</v>
+      </c>
+      <c r="F49" s="1">
+        <v>3</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E50" s="1">
         <v>30</v>
-      </c>
-      <c r="F49" s="1">
-        <v>2</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B50" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E50" s="1">
-        <v>1</v>
       </c>
       <c r="F50" s="1">
         <v>2</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B51" s="1">
         <v>2016</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>62</v>
@@ -2339,52 +2363,75 @@
         <v>2</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B52" s="1">
         <v>2016</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E53" s="1">
         <v>37</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F53" s="1">
         <v>6</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="G53" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+    <row r="54" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B54" s="1">
         <v>2015</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E54" s="1">
         <v>115</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F54" s="1">
         <v>5</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="G54" s="4" t="s">
         <v>94</v>
       </c>
     </row>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tysonbarrett/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520E677F-4B8E-3448-A114-794F5935299A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644CA282-E6B9-FF43-AC0E-0325CE0BCBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36880" yWindow="2220" windowWidth="28800" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="248">
   <si>
     <t>authors</t>
   </si>
@@ -767,6 +767,18 @@
   </si>
   <si>
     <t>\img{osfdata.png}{https://osf.io/q3e4d/}\img{osfmaterials.png}{https://osf.io/q3e4d/}</t>
+  </si>
+  <si>
+    <t>doi: 10.1044/2021_AJSLP-21-00094</t>
+  </si>
+  <si>
+    <t>Aller, T. B., Kelley, H., Fauth, E.B., &amp; Barrett, T. S.</t>
+  </si>
+  <si>
+    <t>\img{osfdata.png}{https://osf.io/j3ew8/}\img{osfmaterials.png}{https://osf.io/j3ew8/}</t>
+  </si>
+  <si>
+    <t>A non-randomized, quasi-experimental comparison of effects between an in-person and online delivery of a college mental health literacy curriculum</t>
   </si>
 </sst>
 </file>
@@ -1152,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BAB23D-B27F-A34D-A522-4C115B575C05}">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1201,1180 +1213,1180 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>238</v>
+        <v>34</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>232</v>
+        <v>238</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>158</v>
+      <c r="A5" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>151</v>
+        <v>230</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B7" s="1">
         <v>2022</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" s="1">
-        <v>131</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="B9" s="1">
         <v>2021</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
+      </c>
+      <c r="E9" s="1">
+        <v>131</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B10" s="1">
         <v>2021</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E10" s="5">
-        <v>16</v>
-      </c>
-      <c r="F10" s="1">
-        <v>10</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B11" s="1">
         <v>2021</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="1">
-        <v>38</v>
+        <v>148</v>
+      </c>
+      <c r="E11" s="5">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B12" s="1">
         <v>2021</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>204</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>113</v>
+        <v>6</v>
+      </c>
+      <c r="E12" s="1">
+        <v>38</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B13" s="1">
         <v>2021</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>204</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B14" s="1">
         <v>2021</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="1">
-        <v>77</v>
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="F14" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B15" s="1">
         <v>2021</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>205</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E15" s="1">
+        <v>77</v>
+      </c>
+      <c r="F15" s="1">
+        <v>10</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>97</v>
+        <v>145</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B16" s="1">
         <v>2021</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B17" s="1">
         <v>2021</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B18" s="1">
         <v>2021</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B19" s="1">
         <v>2021</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="1">
-        <v>42</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B21" s="1">
         <v>2020</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E21" s="1">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B22" s="1">
         <v>2020</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E22" s="1">
-        <v>63</v>
-      </c>
-      <c r="F22" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B23" s="1">
         <v>2020</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>209</v>
+        <v>25</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E23" s="1">
-        <v>40</v>
+        <v>63</v>
+      </c>
+      <c r="F23" s="1">
+        <v>6</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B24" s="1">
         <v>2020</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E24" s="1">
-        <v>51</v>
-      </c>
-      <c r="F24" s="1">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B25" s="1">
         <v>2020</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>31</v>
+        <v>210</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E25" s="1">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F25" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B26" s="1">
         <v>2020</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>211</v>
+        <v>31</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E26" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F26" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B27" s="1">
         <v>2020</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E27" s="1">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F27" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B28" s="1">
         <v>2020</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E28" s="1">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="F28" s="1">
         <v>2</v>
       </c>
       <c r="G28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="1">
+        <v>113</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B29" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="1">
-        <v>61</v>
-      </c>
-      <c r="F29" s="1">
-        <v>3</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B30" s="1">
         <v>2019</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E30" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F30" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B31" s="1">
         <v>2019</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="E31" s="1">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F31" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B32" s="1">
         <v>2019</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E32" s="1">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="F32" s="1">
+        <v>10</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B33" s="1">
         <v>2019</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E33" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B34" s="1">
         <v>2019</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>214</v>
+        <v>47</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E34" s="1">
-        <v>20</v>
-      </c>
-      <c r="F34" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B35" s="1">
         <v>2019</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>52</v>
+        <v>214</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
+      </c>
+      <c r="E35" s="1">
+        <v>20</v>
+      </c>
+      <c r="F35" s="1">
+        <v>4</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>215</v>
+        <v>51</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B36" s="1">
         <v>2019</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="1">
-        <v>145</v>
-      </c>
-      <c r="F36" s="1">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>55</v>
+        <v>215</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B37" s="1">
         <v>2019</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="E37" s="1">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="F37" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B38" s="1">
         <v>2019</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="E38" s="1">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F38" s="1">
         <v>2</v>
       </c>
       <c r="G38" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="1">
+        <v>62</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I39" s="1" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B39" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E39" s="1">
-        <v>3</v>
-      </c>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B40" s="1">
         <v>2018</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>64</v>
+        <v>216</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E40" s="1">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="F40" s="1">
-        <v>3</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>138</v>
+        <v>1</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="B41" s="1">
         <v>2018</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E41" s="1">
         <v>143</v>
       </c>
       <c r="F41" s="1">
+        <v>3</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="1">
+        <v>143</v>
+      </c>
+      <c r="F42" s="1">
         <v>5</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="B42" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E42" s="1">
-        <v>9</v>
-      </c>
-      <c r="F42" s="1">
-        <v>2</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="B43" s="1">
         <v>2017</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="E43" s="1">
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="F43" s="1">
+        <v>2</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>140</v>
+        <v>69</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="B44" s="1">
         <v>2017</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="E44" s="1">
+        <v>60</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="F44" s="1">
-        <v>6</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B45" s="1">
         <v>2017</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E45" s="1">
-        <v>10</v>
+        <v>140</v>
+      </c>
+      <c r="F45" s="1">
+        <v>6</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B46" s="1">
         <v>2017</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="E46" s="1">
-        <v>111</v>
-      </c>
-      <c r="F46" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B47" s="1">
         <v>2017</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>221</v>
+        <v>75</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="E47" s="1">
-        <v>55</v>
+        <v>111</v>
+      </c>
+      <c r="F47" s="1">
+        <v>5</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B48" s="1">
         <v>2017</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>81</v>
+        <v>221</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E48" s="1">
-        <v>36</v>
-      </c>
-      <c r="F48" s="1">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="B49" s="1">
         <v>2017</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="E49" s="1">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F49" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="B50" s="1">
         <v>2017</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="1">
+        <v>60</v>
+      </c>
+      <c r="F50" s="1">
+        <v>3</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E51" s="1">
         <v>30</v>
-      </c>
-      <c r="F50" s="1">
-        <v>2</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B51" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E51" s="1">
-        <v>1</v>
       </c>
       <c r="F51" s="1">
         <v>2</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B52" s="1">
         <v>2016</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>62</v>
@@ -2386,52 +2398,75 @@
         <v>2</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B53" s="1">
         <v>2016</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>2</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B54" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E54" s="1">
         <v>37</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F54" s="1">
         <v>6</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="G54" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+    <row r="55" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B55" s="1">
         <v>2015</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E55" s="1">
         <v>115</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F55" s="1">
         <v>5</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="G55" s="4" t="s">
         <v>94</v>
       </c>
     </row>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tysonbarrett/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644CA282-E6B9-FF43-AC0E-0325CE0BCBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7B944D-CDD3-5843-94FE-749BB82F79A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36880" yWindow="2220" windowWidth="28800" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Journals" sheetId="1" r:id="rId1"/>
     <sheet name="Presentations" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$3</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="251">
   <si>
     <t>authors</t>
   </si>
@@ -778,14 +781,23 @@
     <t>\img{osfdata.png}{https://osf.io/j3ew8/}\img{osfmaterials.png}{https://osf.io/j3ew8/}</t>
   </si>
   <si>
-    <t>A non-randomized, quasi-experimental comparison of effects between an in-person and online delivery of a college mental health literacy curriculum</t>
+    <t xml:space="preserve">Harper, S. A., Long, C., Corbridge, S., Barrett, T. S., Braeger, A., Zollinger, B. J., Hale, A., Brown, C. B., Poulsen, S., &amp; Dakin, C. J. </t>
+  </si>
+  <si>
+    <t>A non-randomized, quasi-experimental comparison of effects between an in-person and online delivery of a college mental health literacy curriculum.</t>
+  </si>
+  <si>
+    <t>Safe stairway negotiation: Role of distractions and handrail use.</t>
+  </si>
+  <si>
+    <t>Journal of Safety Research</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -804,6 +816,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -834,7 +852,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -850,6 +868,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1164,10 +1185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BAB23D-B27F-A34D-A522-4C115B575C05}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1221,7 +1242,7 @@
         <v>143</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>34</v>
@@ -1231,1185 +1252,1176 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>239</v>
+      <c r="A3" s="7" t="s">
+        <v>247</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>232</v>
+        <v>238</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>158</v>
+      <c r="A6" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="B8" s="1">
         <v>2022</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="1">
-        <v>131</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="B10" s="1">
         <v>2021</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
+      </c>
+      <c r="E10" s="1">
+        <v>131</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B11" s="1">
         <v>2021</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E11" s="5">
-        <v>16</v>
-      </c>
-      <c r="F11" s="1">
-        <v>10</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B12" s="1">
         <v>2021</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="1">
-        <v>38</v>
+        <v>148</v>
+      </c>
+      <c r="E12" s="5">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B13" s="1">
         <v>2021</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>204</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>113</v>
+        <v>6</v>
+      </c>
+      <c r="E13" s="1">
+        <v>38</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B14" s="1">
         <v>2021</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>204</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B15" s="1">
         <v>2021</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="1">
-        <v>77</v>
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="F15" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B16" s="1">
         <v>2021</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>205</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E16" s="1">
+        <v>77</v>
+      </c>
+      <c r="F16" s="1">
+        <v>10</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>97</v>
+        <v>145</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B17" s="1">
         <v>2021</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B18" s="1">
         <v>2021</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B19" s="1">
         <v>2021</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B20" s="1">
         <v>2021</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="1">
-        <v>42</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B22" s="1">
         <v>2020</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E22" s="1">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B23" s="1">
         <v>2020</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E23" s="1">
-        <v>63</v>
-      </c>
-      <c r="F23" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B24" s="1">
         <v>2020</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>209</v>
+        <v>25</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E24" s="1">
-        <v>40</v>
+        <v>63</v>
+      </c>
+      <c r="F24" s="1">
+        <v>6</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B25" s="1">
         <v>2020</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E25" s="1">
-        <v>51</v>
-      </c>
-      <c r="F25" s="1">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B26" s="1">
         <v>2020</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>31</v>
+        <v>210</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E26" s="1">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F26" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B27" s="1">
         <v>2020</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>211</v>
+        <v>31</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E27" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F27" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B28" s="1">
         <v>2020</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E28" s="1">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F28" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B29" s="1">
         <v>2020</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E29" s="1">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="F29" s="1">
         <v>2</v>
       </c>
       <c r="G29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="1">
+        <v>113</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B30" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="1">
-        <v>61</v>
-      </c>
-      <c r="F30" s="1">
-        <v>3</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B31" s="1">
         <v>2019</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E31" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F31" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B32" s="1">
         <v>2019</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="E32" s="1">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F32" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B33" s="1">
         <v>2019</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E33" s="1">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="F33" s="1">
+        <v>10</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B34" s="1">
         <v>2019</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E34" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B35" s="1">
         <v>2019</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>214</v>
+        <v>47</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E35" s="1">
-        <v>20</v>
-      </c>
-      <c r="F35" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B36" s="1">
         <v>2019</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>52</v>
+        <v>214</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
+      </c>
+      <c r="E36" s="1">
+        <v>20</v>
+      </c>
+      <c r="F36" s="1">
+        <v>4</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>215</v>
+        <v>51</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B37" s="1">
         <v>2019</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="1">
-        <v>145</v>
-      </c>
-      <c r="F37" s="1">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>55</v>
+        <v>215</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B38" s="1">
         <v>2019</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="E38" s="1">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="F38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B39" s="1">
         <v>2019</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="E39" s="1">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F39" s="1">
         <v>2</v>
       </c>
       <c r="G39" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="1">
+        <v>62</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B40" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E40" s="1">
-        <v>3</v>
-      </c>
-      <c r="F40" s="1">
-        <v>1</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B41" s="1">
         <v>2018</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>64</v>
+        <v>216</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E41" s="1">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="F41" s="1">
-        <v>3</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>138</v>
+        <v>1</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="B42" s="1">
         <v>2018</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E42" s="1">
         <v>143</v>
       </c>
       <c r="F42" s="1">
+        <v>3</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="1">
+        <v>143</v>
+      </c>
+      <c r="F43" s="1">
         <v>5</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="B43" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E43" s="1">
-        <v>9</v>
-      </c>
-      <c r="F43" s="1">
-        <v>2</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="B44" s="1">
         <v>2017</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="E44" s="1">
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>140</v>
+        <v>69</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="B45" s="1">
         <v>2017</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="E45" s="1">
+        <v>60</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="F45" s="1">
-        <v>6</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B46" s="1">
         <v>2017</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E46" s="1">
-        <v>10</v>
+        <v>140</v>
+      </c>
+      <c r="F46" s="1">
+        <v>6</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B47" s="1">
         <v>2017</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="E47" s="1">
-        <v>111</v>
-      </c>
-      <c r="F47" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B48" s="1">
         <v>2017</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>221</v>
+        <v>75</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="E48" s="1">
-        <v>55</v>
+        <v>111</v>
+      </c>
+      <c r="F48" s="1">
+        <v>5</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B49" s="1">
         <v>2017</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>81</v>
+        <v>221</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E49" s="1">
-        <v>36</v>
-      </c>
-      <c r="F49" s="1">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="B50" s="1">
         <v>2017</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="E50" s="1">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F50" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="B51" s="1">
         <v>2017</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="1">
+        <v>60</v>
+      </c>
+      <c r="F51" s="1">
+        <v>3</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E52" s="1">
         <v>30</v>
-      </c>
-      <c r="F51" s="1">
-        <v>2</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B52" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1</v>
       </c>
       <c r="F52" s="1">
         <v>2</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B53" s="1">
         <v>2016</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>62</v>
@@ -2421,52 +2433,75 @@
         <v>2</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B54" s="1">
         <v>2016</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>2</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B55" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E55" s="1">
         <v>37</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F55" s="1">
         <v>6</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="G55" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+    <row r="56" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B56" s="1">
         <v>2015</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E56" s="1">
         <v>115</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F56" s="1">
         <v>5</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="G56" s="4" t="s">
         <v>94</v>
       </c>
     </row>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tysonbarrett/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7B944D-CDD3-5843-94FE-749BB82F79A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF3975C-E78F-AA48-AD32-39150CA851A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36880" yWindow="2220" windowWidth="28800" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
   <sheets>
     <sheet name="Journals" sheetId="1" r:id="rId1"/>
     <sheet name="Presentations" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$3</definedName>
+    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$4</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="253">
   <si>
     <t>authors</t>
   </si>
@@ -791,6 +791,12 @@
   </si>
   <si>
     <t>Journal of Safety Research</t>
+  </si>
+  <si>
+    <t>doi: 10.1007/s40519-021-01352-9</t>
+  </si>
+  <si>
+    <t>doi: 10.1007/s00455-021-10403-3</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1194,7 @@
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1251,71 +1257,77 @@
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>247</v>
+    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>233</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>239</v>
+      <c r="A4" s="7" t="s">
+        <v>247</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>143</v>
+        <v>239</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2022</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>232</v>
+        <v>238</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>143</v>
+      <c r="B6" s="1">
+        <v>2022</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>235</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>236</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>143</v>
+      <c r="B7" s="1">
+        <v>2022</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>230</v>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tysonbarrett/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF3975C-E78F-AA48-AD32-39150CA851A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60FB482-044B-9D4F-A511-8CDE7C395C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="260">
   <si>
     <t>authors</t>
   </si>
@@ -797,13 +797,34 @@
   </si>
   <si>
     <t>doi: 10.1007/s00455-021-10403-3</t>
+  </si>
+  <si>
+    <t>San Miguel, G. G., Muñoz, K., Barrett, T. S, &amp; Twohig, M. P.</t>
+  </si>
+  <si>
+    <t>Moderators and predictors in a parent hearing aid management eHealth program.</t>
+  </si>
+  <si>
+    <t>Rhythm Perception, Speaking Rate Entrainment, and Conversational Quality: A Mediated Model</t>
+  </si>
+  <si>
+    <t>Wynn, C. J., Barrett, T. S., Borrie, S. A.</t>
+  </si>
+  <si>
+    <t>doi: 10.1080/14992027.2022.2048103</t>
+  </si>
+  <si>
+    <t>\img{osfdata.png}{https://osf.io/yvn82/}\img{osfmaterials.png}{https://osf.io/yvn82/}</t>
+  </si>
+  <si>
+    <t>doi: 10.1007/s11121-022-01350-y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -830,6 +851,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="AdvOT1ef757c0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -858,7 +884,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -877,6 +903,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1191,13 +1218,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BAB23D-B27F-A34D-A522-4C115B575C05}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="56.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="1" customWidth="1"/>
@@ -1211,7 +1238,7 @@
     <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1240,24 +1267,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="34">
       <c r="A2" s="6" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="51">
       <c r="A3" s="6" t="s">
         <v>233</v>
       </c>
@@ -1270,8 +1297,9 @@
       <c r="D3" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="34">
       <c r="A4" s="7" t="s">
         <v>247</v>
       </c>
@@ -1285,523 +1313,508 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="51">
       <c r="A5" s="6" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B5" s="1">
         <v>2022</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>238</v>
+        <v>34</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="68">
       <c r="A6" s="6" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="B6" s="1">
         <v>2022</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>236</v>
+        <v>95</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>158</v>
+        <v>257</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="51">
+      <c r="A7" s="6" t="s">
+        <v>239</v>
       </c>
       <c r="B7" s="1">
         <v>2022</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>153</v>
+        <v>238</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>160</v>
+        <v>252</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="51">
+      <c r="A8" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="B8" s="1">
         <v>2022</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>151</v>
+        <v>235</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="51">
       <c r="A9" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B9" s="1">
         <v>2022</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="68">
+      <c r="A10" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="51">
+      <c r="A11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="12" spans="1:9" ht="68">
+      <c r="A12" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E10" s="1">
-        <v>131</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="B12" s="1">
         <v>2021</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E12" s="5">
-        <v>16</v>
-      </c>
-      <c r="F12" s="1">
-        <v>10</v>
+        <v>147</v>
+      </c>
+      <c r="E12" s="1">
+        <v>131</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>155</v>
+        <v>229</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="51">
       <c r="A13" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B13" s="1">
         <v>2021</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>5</v>
+        <v>203</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="1">
-        <v>38</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="68">
       <c r="A14" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B14" s="1">
         <v>2021</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>113</v>
+        <v>148</v>
+      </c>
+      <c r="E14" s="5">
+        <v>16</v>
+      </c>
+      <c r="F14" s="1">
+        <v>10</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="51">
       <c r="A15" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B15" s="1">
         <v>2021</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="E15" s="1">
+        <v>38</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="68">
       <c r="A16" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B16" s="1">
         <v>2021</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>9</v>
+        <v>204</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="1">
-        <v>77</v>
-      </c>
-      <c r="F16" s="1">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="51">
       <c r="A17" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B17" s="1">
         <v>2021</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>110</v>
+        <v>116</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="51">
       <c r="A18" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B18" s="1">
         <v>2021</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E18" s="1">
+        <v>77</v>
+      </c>
+      <c r="F18" s="1">
+        <v>10</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="51">
       <c r="A19" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B19" s="1">
         <v>2021</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>120</v>
+        <v>11</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="51">
       <c r="A20" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B20" s="1">
         <v>2021</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="G20" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="68">
       <c r="A21" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B21" s="1">
         <v>2021</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="51">
+      <c r="A22" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="68">
+      <c r="A23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    <row r="24" spans="1:9" ht="51">
+      <c r="A24" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="1">
-        <v>42</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="1">
-        <v>18</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="B24" s="1">
         <v>2020</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E24" s="1">
-        <v>63</v>
-      </c>
-      <c r="F24" s="1">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="51">
       <c r="A25" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B25" s="1">
         <v>2020</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>209</v>
+        <v>22</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E25" s="1">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="51">
       <c r="A26" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B26" s="1">
         <v>2020</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>210</v>
+        <v>25</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E26" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F26" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="51">
       <c r="A27" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B27" s="1">
         <v>2020</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>31</v>
+        <v>209</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E27" s="1">
-        <v>63</v>
-      </c>
-      <c r="F27" s="1">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="51">
       <c r="A28" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B28" s="1">
         <v>2020</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>29</v>
@@ -1813,707 +1826,762 @@
         <v>3</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="51">
       <c r="A29" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B29" s="1">
         <v>2020</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>212</v>
+        <v>31</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E29" s="1">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="F29" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="51">
       <c r="A30" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B30" s="1">
         <v>2020</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="1">
+        <v>51</v>
+      </c>
+      <c r="F30" s="1">
+        <v>3</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="51">
+      <c r="A31" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="1">
+        <v>21</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="68">
+      <c r="A32" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E32" s="1">
         <v>113</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F32" s="1">
         <v>2</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+    <row r="33" spans="1:9" ht="51">
+      <c r="A33" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="B31" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="1">
-        <v>61</v>
-      </c>
-      <c r="F31" s="1">
-        <v>3</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B32" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="1">
-        <v>62</v>
-      </c>
-      <c r="F32" s="1">
-        <v>12</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="B33" s="1">
         <v>2019</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E33" s="1">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F33" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="51">
       <c r="A34" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B34" s="1">
         <v>2019</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E34" s="1">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="F34" s="1">
+        <v>12</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="51">
       <c r="A35" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B35" s="1">
         <v>2019</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E35" s="1">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="F35" s="1">
+        <v>10</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="51">
       <c r="A36" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B36" s="1">
         <v>2019</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>214</v>
+        <v>46</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E36" s="1">
-        <v>20</v>
-      </c>
-      <c r="F36" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="51">
       <c r="A37" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B37" s="1">
         <v>2019</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="E37" s="1">
+        <v>22</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>215</v>
+        <v>50</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="51">
       <c r="A38" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B38" s="1">
         <v>2019</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>54</v>
+        <v>214</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E38" s="1">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="F38" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="51">
       <c r="A39" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B39" s="1">
         <v>2019</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E39" s="1">
-        <v>81</v>
-      </c>
-      <c r="F39" s="1">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="51">
       <c r="A40" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B40" s="1">
         <v>2019</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="1">
+        <v>145</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="51">
+      <c r="A41" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="1">
+        <v>81</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="68">
+      <c r="A42" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E42" s="1">
         <v>62</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F42" s="1">
         <v>2</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G42" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+    <row r="43" spans="1:9" ht="51">
+      <c r="A43" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="B41" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E41" s="1">
-        <v>3</v>
-      </c>
-      <c r="F41" s="1">
-        <v>1</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B42" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E42" s="1">
-        <v>143</v>
-      </c>
-      <c r="F42" s="1">
-        <v>3</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="B43" s="1">
         <v>2018</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>66</v>
+        <v>216</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E43" s="1">
+        <v>3</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="51">
+      <c r="A44" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" s="1">
         <v>143</v>
       </c>
-      <c r="F43" s="1">
-        <v>5</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B44" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E44" s="1">
-        <v>9</v>
-      </c>
       <c r="F44" s="1">
-        <v>2</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="51">
       <c r="A45" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B45" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>218</v>
+        <v>66</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="E45" s="1">
-        <v>60</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>70</v>
+        <v>143</v>
+      </c>
+      <c r="F45" s="1">
+        <v>5</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="68">
       <c r="A46" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B46" s="1">
         <v>2017</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E46" s="1">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="F46" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="51">
       <c r="A47" s="1" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="B47" s="1">
         <v>2017</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="E47" s="1">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="51">
       <c r="A48" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B48" s="1">
         <v>2017</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>75</v>
+        <v>219</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="E48" s="1">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="F48" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="51">
       <c r="A49" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B49" s="1">
         <v>2017</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E49" s="1">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="68">
       <c r="A50" s="1" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="B50" s="1">
         <v>2017</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="E50" s="1">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="F50" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="68">
       <c r="A51" s="1" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="B51" s="1">
         <v>2017</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>85</v>
+        <v>221</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="E51" s="1">
-        <v>60</v>
-      </c>
-      <c r="F51" s="1">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="51">
       <c r="A52" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B52" s="1">
         <v>2017</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E52" s="1">
+        <v>36</v>
+      </c>
+      <c r="F52" s="1">
+        <v>6</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="51">
+      <c r="A53" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="1">
+        <v>60</v>
+      </c>
+      <c r="F53" s="1">
+        <v>3</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="34">
+      <c r="A54" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B54" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E54" s="1">
         <v>30</v>
-      </c>
-      <c r="F52" s="1">
-        <v>2</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B53" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E53" s="1">
-        <v>1</v>
-      </c>
-      <c r="F53" s="1">
-        <v>2</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B54" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E54" s="1">
-        <v>1</v>
       </c>
       <c r="F54" s="1">
         <v>2</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="51">
       <c r="A55" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B55" s="1">
         <v>2016</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
+        <v>2</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="34">
+      <c r="A56" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1">
+        <v>2</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="34">
+      <c r="A57" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B57" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E57" s="1">
         <v>37</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F57" s="1">
         <v>6</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="G57" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+    <row r="58" spans="1:8" ht="68">
+      <c r="A58" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B58" s="1">
         <v>2015</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E58" s="1">
         <v>115</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F58" s="1">
         <v>5</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="G58" s="4" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2528,7 +2596,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tysonbarrett/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60FB482-044B-9D4F-A511-8CDE7C395C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3151E68-F4DA-8B46-AB5A-B1EE4C913901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="267">
   <si>
     <t>authors</t>
   </si>
@@ -196,9 +196,6 @@
     <t>575-584</t>
   </si>
   <si>
-    <t>Chronic health conditions and adolescent friendships: Perspectives for social network analysis.</t>
-  </si>
-  <si>
     <t>International Journal of Adolescent Medicine and Health</t>
   </si>
   <si>
@@ -370,9 +367,6 @@
     <t>\hyperlink{https://www.medrxiv.org/content/10.1101/2020.07.22.20158949v1}{medRxiv Pre-Print}</t>
   </si>
   <si>
-    <t>1-12</t>
-  </si>
-  <si>
     <t>1-11</t>
   </si>
   <si>
@@ -763,9 +757,6 @@
     <t>\img{osfdata.png}{https://osf.io/zpxrm/}\img{osfmaterials.png}{https://osf.io/zpxrm/}</t>
   </si>
   <si>
-    <t>1-14</t>
-  </si>
-  <si>
     <t>doi: 10.1044/2021_JSLHR-21-00306</t>
   </si>
   <si>
@@ -818,6 +809,36 @@
   </si>
   <si>
     <t>doi: 10.1007/s11121-022-01350-y</t>
+  </si>
+  <si>
+    <t>444-551</t>
+  </si>
+  <si>
+    <t>540-547</t>
+  </si>
+  <si>
+    <t>S42-S48</t>
+  </si>
+  <si>
+    <t>1539-1549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doi: 10.1044/2021_JSLHR-20-00233 </t>
+  </si>
+  <si>
+    <t>1503-1514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doi: 10.1044/2021_JSLHR-20-00663 </t>
+  </si>
+  <si>
+    <t>1-15</t>
+  </si>
+  <si>
+    <t>Chronic health conditions and adolescent friendships: Perspectives from social network analysis.</t>
+  </si>
+  <si>
+    <t>405-418</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +1242,7 @@
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1269,239 +1290,248 @@
     </row>
     <row r="2" spans="1:9" ht="34">
       <c r="A2" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="51">
       <c r="A3" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9" ht="34">
       <c r="A4" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="51">
       <c r="A5" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B5" s="1">
         <v>2022</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="68">
       <c r="A6" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B6" s="1">
         <v>2022</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="51">
       <c r="A7" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B7" s="1">
         <v>2022</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="51">
       <c r="A8" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B8" s="1">
         <v>2022</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="51">
       <c r="A9" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B9" s="1">
         <v>2022</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="68">
       <c r="A10" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B10" s="1">
         <v>2022</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="51">
       <c r="A11" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B11" s="1">
         <v>2022</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E11" s="1">
+        <v>65</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
       <c r="G11" s="4" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="68">
       <c r="A12" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B12" s="1">
         <v>2021</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E12" s="1">
         <v>131</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="51">
       <c r="A13" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B13" s="1">
         <v>2021</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>264</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="68">
       <c r="A14" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B14" s="1">
         <v>2021</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E14" s="5">
         <v>16</v>
@@ -1510,15 +1540,15 @@
         <v>10</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="51">
       <c r="A15" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B15" s="1">
         <v>2021</v>
@@ -1533,35 +1563,35 @@
         <v>38</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="68">
       <c r="A16" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B16" s="1">
         <v>2021</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="51">
       <c r="A17" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B17" s="1">
         <v>2021</v>
@@ -1573,24 +1603,24 @@
         <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="51">
       <c r="A18" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B18" s="1">
         <v>2021</v>
@@ -1608,35 +1638,44 @@
         <v>10</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="51">
       <c r="A19" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B19" s="1">
         <v>2021</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E19" s="1">
+        <v>64</v>
+      </c>
+      <c r="F19" s="1">
+        <v>5</v>
+      </c>
       <c r="G19" s="4" t="s">
-        <v>110</v>
+        <v>262</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="51">
       <c r="A20" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B20" s="1">
         <v>2021</v>
@@ -1647,70 +1686,103 @@
       <c r="D20" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E20" s="1">
+        <v>64</v>
+      </c>
+      <c r="F20" s="1">
+        <v>5</v>
+      </c>
       <c r="G20" s="4" t="s">
-        <v>111</v>
+        <v>260</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="68">
       <c r="A21" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B21" s="1">
         <v>2021</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="E21" s="1">
+        <v>60</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="51">
       <c r="A22" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B22" s="1">
         <v>2021</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E22" s="1">
+        <v>64</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>257</v>
+      </c>
       <c r="H22" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="68">
       <c r="A23" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B23" s="1">
         <v>2021</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E23" s="1">
+        <v>23</v>
+      </c>
+      <c r="F23" s="1">
+        <v>5</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>258</v>
+      </c>
       <c r="H23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="51">
       <c r="A24" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B24" s="1">
         <v>2020</v>
@@ -1728,12 +1800,12 @@
         <v>20</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="51">
       <c r="A25" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B25" s="1">
         <v>2020</v>
@@ -1751,12 +1823,12 @@
         <v>24</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="51">
       <c r="A26" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B26" s="1">
         <v>2020</v>
@@ -1777,18 +1849,18 @@
         <v>26</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="51">
       <c r="A27" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B27" s="1">
         <v>2020</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>27</v>
@@ -1800,21 +1872,21 @@
         <v>28</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="51">
       <c r="A28" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B28" s="1">
         <v>2020</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>29</v>
@@ -1829,15 +1901,15 @@
         <v>30</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="51">
       <c r="A29" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B29" s="1">
         <v>2020</v>
@@ -1858,18 +1930,18 @@
         <v>32</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="51">
       <c r="A30" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B30" s="1">
         <v>2020</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>29</v>
@@ -1884,18 +1956,18 @@
         <v>33</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="51">
       <c r="A31" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B31" s="1">
         <v>2020</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>34</v>
@@ -1910,18 +1982,18 @@
         <v>35</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="68">
       <c r="A32" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B32" s="1">
         <v>2020</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>36</v>
@@ -1936,12 +2008,12 @@
         <v>37</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="51">
       <c r="A33" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B33" s="1">
         <v>2019</v>
@@ -1962,15 +2034,15 @@
         <v>40</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="51">
       <c r="A34" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B34" s="1">
         <v>2019</v>
@@ -1991,12 +2063,12 @@
         <v>42</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="51">
       <c r="A35" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B35" s="1">
         <v>2019</v>
@@ -2017,15 +2089,15 @@
         <v>45</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="51">
       <c r="A36" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B36" s="1">
         <v>2019</v>
@@ -2043,12 +2115,12 @@
         <v>49</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="51">
       <c r="A37" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B37" s="1">
         <v>2019</v>
@@ -2066,18 +2138,18 @@
         <v>50</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="51">
       <c r="A38" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B38" s="1">
         <v>2019</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>34</v>
@@ -2092,41 +2164,47 @@
         <v>51</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="51">
       <c r="A39" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B39" s="1">
         <v>2019</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>53</v>
+      <c r="E39" s="1">
+        <v>33</v>
+      </c>
+      <c r="F39" s="1">
+        <v>5</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="51">
       <c r="A40" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B40" s="1">
         <v>2019</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>39</v>
@@ -2138,27 +2216,27 @@
         <v>1</v>
       </c>
       <c r="G40" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="I40" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="51">
       <c r="A41" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B41" s="1">
         <v>2019</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E41" s="1">
         <v>81</v>
@@ -2167,18 +2245,18 @@
         <v>2</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="68">
       <c r="A42" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B42" s="1">
         <v>2019</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>11</v>
@@ -2190,24 +2268,24 @@
         <v>2</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="51">
       <c r="A43" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B43" s="1">
         <v>2018</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E43" s="1">
         <v>3</v>
@@ -2216,24 +2294,24 @@
         <v>1</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="51">
       <c r="A44" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B44" s="1">
         <v>2018</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="E44" s="1">
         <v>143</v>
@@ -2242,21 +2320,21 @@
         <v>3</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="51">
       <c r="A45" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B45" s="1">
         <v>2018</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="E45" s="1">
         <v>143</v>
@@ -2265,21 +2343,21 @@
         <v>5</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="68">
       <c r="A46" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B46" s="1">
         <v>2017</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E46" s="1">
         <v>9</v>
@@ -2288,21 +2366,21 @@
         <v>2</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="51">
       <c r="A47" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B47" s="1">
         <v>2017</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>11</v>
@@ -2311,24 +2389,24 @@
         <v>60</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="51">
       <c r="A48" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B48" s="1">
         <v>2017</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E48" s="1">
         <v>140</v>
@@ -2337,47 +2415,47 @@
         <v>6</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="51">
       <c r="A49" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B49" s="1">
         <v>2017</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E49" s="1">
         <v>10</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="68">
       <c r="A50" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B50" s="1">
         <v>2017</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>36</v>
@@ -2389,47 +2467,47 @@
         <v>5</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="68">
       <c r="A51" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B51" s="1">
         <v>2017</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E51" s="1">
         <v>55</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="51">
       <c r="A52" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B52" s="1">
         <v>2017</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="E52" s="1">
         <v>36</v>
@@ -2438,21 +2516,21 @@
         <v>6</v>
       </c>
       <c r="G52" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="51">
       <c r="A53" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B53" s="1">
         <v>2017</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>11</v>
@@ -2464,24 +2542,24 @@
         <v>3</v>
       </c>
       <c r="G53" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="34">
       <c r="A54" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B54" s="1">
         <v>2017</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E54" s="1">
         <v>30</v>
@@ -2490,21 +2568,21 @@
         <v>2</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="51">
       <c r="A55" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B55" s="1">
         <v>2016</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E55" s="1">
         <v>1</v>
@@ -2513,21 +2591,21 @@
         <v>2</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="34">
       <c r="A56" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B56" s="1">
         <v>2016</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
@@ -2536,21 +2614,21 @@
         <v>2</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="34">
       <c r="A57" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B57" s="1">
         <v>2016</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1">
         <v>37</v>
@@ -2559,21 +2637,21 @@
         <v>6</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="68">
       <c r="A58" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B58" s="1">
         <v>2015</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E58" s="1">
         <v>115</v>
@@ -2582,7 +2660,7 @@
         <v>5</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tysonbarrett/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3151E68-F4DA-8B46-AB5A-B1EE4C913901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D74323-D1F8-3C43-AE9D-92732381EC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Presentations" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$4</definedName>
+    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$7</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="275">
   <si>
     <t>authors</t>
   </si>
@@ -839,6 +839,30 @@
   </si>
   <si>
     <t>405-418</t>
+  </si>
+  <si>
+    <t>The antidepressant and anxiolytic effect of cannabinoids in chronic unpredictable stress:a preclinical systematic review and meta-analysis </t>
+  </si>
+  <si>
+    <t>Translational Psychiatry</t>
+  </si>
+  <si>
+    <t>Reuveni, N., Carlson, C., Schwartz, S., Barrett, T. S., &amp; Freeman, S.</t>
+  </si>
+  <si>
+    <t>Blais, R. K., Livingston, W. S., Barrett, T. S., &amp; Tannahill, H. S.</t>
+  </si>
+  <si>
+    <t>Individual and interpersonal outcomes associated with single and multiple exposures of civilian and military sexual violence.</t>
+  </si>
+  <si>
+    <t>Journal of Interpersonal Violence</t>
+  </si>
+  <si>
+    <t>Supporting emergent bilinguals who use AAC and their families: Lessons in telepractice from the COVID-19 Pandemic</t>
+  </si>
+  <si>
+    <t>King, M., Ward, H., Soto, G., &amp; Barrett, T. S.</t>
   </si>
 </sst>
 </file>
@@ -1239,10 +1263,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BAB23D-B27F-A34D-A522-4C115B575C05}">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1288,452 +1312,416 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="34">
-      <c r="A2" s="6" t="s">
-        <v>253</v>
+    <row r="2" spans="1:9" ht="51">
+      <c r="A2" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>238</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="51">
-      <c r="A3" s="6" t="s">
-        <v>231</v>
+      <c r="A3" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" ht="34">
-      <c r="A4" s="7" t="s">
-        <v>244</v>
+        <v>268</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="51">
+      <c r="A4" s="1" t="s">
+        <v>270</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="34">
+      <c r="A5" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="51">
+      <c r="A6" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" ht="34">
+      <c r="A7" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="51">
-      <c r="A5" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="68">
-      <c r="A6" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="51">
-      <c r="A7" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="51">
       <c r="A8" s="6" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B8" s="1">
         <v>2022</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>234</v>
+        <v>34</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="51">
-      <c r="A9" s="1" t="s">
-        <v>156</v>
+        <v>256</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="68">
+      <c r="A9" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="B9" s="1">
         <v>2022</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="68">
-      <c r="A10" s="1" t="s">
-        <v>158</v>
+        <v>254</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="51">
+      <c r="A10" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="B10" s="1">
         <v>2022</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>149</v>
+        <v>235</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>241</v>
+        <v>249</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="51">
-      <c r="A11" s="1" t="s">
-        <v>157</v>
+      <c r="A11" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="B11" s="1">
         <v>2022</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="51">
+      <c r="A12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="68">
+      <c r="A13" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="51">
+      <c r="A14" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E14" s="1">
         <v>65</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F14" s="1">
         <v>2</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="68">
-      <c r="A12" s="1" t="s">
+    <row r="15" spans="1:9" ht="68">
+      <c r="A15" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E12" s="1">
-        <v>131</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="51">
-      <c r="A13" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="68">
-      <c r="A14" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E14" s="5">
-        <v>16</v>
-      </c>
-      <c r="F14" s="1">
-        <v>10</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="51">
-      <c r="A15" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="B15" s="1">
         <v>2021</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="E15" s="1">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>117</v>
+        <v>227</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="68">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="51">
       <c r="A16" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B16" s="1">
         <v>2021</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>109</v>
+        <v>264</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="51">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="68">
       <c r="A17" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B17" s="1">
         <v>2021</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
+      </c>
+      <c r="E17" s="5">
+        <v>16</v>
       </c>
       <c r="F17" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="51">
       <c r="A18" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B18" s="1">
         <v>2021</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E18" s="1">
-        <v>77</v>
-      </c>
-      <c r="F18" s="1">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="51">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="68">
       <c r="A19" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B19" s="1">
         <v>2021</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="1">
-        <v>64</v>
-      </c>
-      <c r="F19" s="1">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>262</v>
+        <v>109</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="51">
       <c r="A20" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B20" s="1">
         <v>2021</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="1">
-        <v>64</v>
+        <v>8</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F20" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>260</v>
+        <v>114</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="68">
+        <v>115</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="51">
       <c r="A21" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B21" s="1">
         <v>2021</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>204</v>
+        <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="E21" s="1">
-        <v>60</v>
+        <v>77</v>
+      </c>
+      <c r="F21" s="1">
+        <v>10</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>259</v>
+        <v>143</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="51">
       <c r="A22" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B22" s="1">
         <v>2021</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
@@ -1742,180 +1730,180 @@
         <v>64</v>
       </c>
       <c r="F22" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="68">
+        <v>263</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="51">
       <c r="A23" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B23" s="1">
         <v>2021</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E23" s="1">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="F23" s="1">
         <v>5</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="51">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="68">
       <c r="A24" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B24" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="E24" s="1">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>20</v>
+        <v>259</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="51">
       <c r="A25" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B25" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>22</v>
+        <v>205</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="1">
+        <v>64</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="68">
+      <c r="A26" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="1">
         <v>23</v>
       </c>
-      <c r="E25" s="1">
-        <v>18</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="51">
-      <c r="A26" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B26" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="1">
-        <v>63</v>
-      </c>
       <c r="F26" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>26</v>
+        <v>258</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>122</v>
+        <v>16</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="51">
       <c r="A27" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B27" s="1">
         <v>2020</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E27" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="51">
       <c r="A28" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B28" s="1">
         <v>2020</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E28" s="1">
-        <v>51</v>
-      </c>
-      <c r="F28" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="51">
       <c r="A29" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B29" s="1">
         <v>2020</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>11</v>
@@ -1924,742 +1912,823 @@
         <v>63</v>
       </c>
       <c r="F29" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="51">
       <c r="A30" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B30" s="1">
         <v>2020</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E30" s="1">
-        <v>51</v>
-      </c>
-      <c r="F30" s="1">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="51">
       <c r="A31" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B31" s="1">
         <v>2020</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E31" s="1">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F31" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="68">
+        <v>124</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="51">
       <c r="A32" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B32" s="1">
         <v>2020</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>211</v>
+        <v>31</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E32" s="1">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="F32" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="51">
       <c r="A33" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B33" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>38</v>
+        <v>209</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E33" s="1">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F33" s="1">
         <v>3</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="51">
       <c r="A34" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B34" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>41</v>
+        <v>210</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E34" s="1">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="F34" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="51">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="68">
       <c r="A35" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B35" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>43</v>
+        <v>211</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E35" s="1">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="F35" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="51">
       <c r="A36" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B36" s="1">
         <v>2019</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E36" s="1">
-        <v>13</v>
+        <v>61</v>
+      </c>
+      <c r="F36" s="1">
+        <v>3</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="51">
       <c r="A37" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B37" s="1">
         <v>2019</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E37" s="1">
-        <v>22</v>
+        <v>62</v>
+      </c>
+      <c r="F37" s="1">
+        <v>12</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="51">
       <c r="A38" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B38" s="1">
         <v>2019</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>212</v>
+        <v>43</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E38" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F38" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="51">
       <c r="A39" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B39" s="1">
         <v>2019</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>265</v>
+        <v>46</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E39" s="1">
-        <v>33</v>
-      </c>
-      <c r="F39" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>213</v>
+        <v>49</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="51">
       <c r="A40" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B40" s="1">
         <v>2019</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E40" s="1">
-        <v>145</v>
-      </c>
-      <c r="F40" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="51">
       <c r="A41" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B41" s="1">
         <v>2019</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>58</v>
+        <v>212</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E41" s="1">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="F41" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="68">
+        <v>51</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="51">
       <c r="A42" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B42" s="1">
         <v>2019</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="E42" s="1">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="F42" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>104</v>
+        <v>213</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="51">
       <c r="A43" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B43" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>214</v>
+        <v>53</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E43" s="1">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="F43" s="1">
         <v>1</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="51">
       <c r="A44" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B44" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" s="1">
+        <v>81</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="68">
+      <c r="A45" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="1">
+        <v>62</v>
+      </c>
+      <c r="F45" s="1">
+        <v>2</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="51">
+      <c r="A46" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B46" s="1">
         <v>2018</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E44" s="1">
-        <v>143</v>
-      </c>
-      <c r="F44" s="1">
+      <c r="C46" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46" s="1">
         <v>3</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="51">
-      <c r="A45" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B45" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E45" s="1">
-        <v>143</v>
-      </c>
-      <c r="F45" s="1">
-        <v>5</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="68">
-      <c r="A46" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B46" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E46" s="1">
-        <v>9</v>
-      </c>
       <c r="F46" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="51">
       <c r="A47" s="1" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="B47" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>216</v>
+        <v>63</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="E47" s="1">
-        <v>60</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>69</v>
+        <v>143</v>
+      </c>
+      <c r="F47" s="1">
+        <v>3</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="51">
       <c r="A48" s="1" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="B48" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>217</v>
+        <v>65</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E48" s="1">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F48" s="1">
-        <v>6</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="51">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="68">
       <c r="A49" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B49" s="1">
         <v>2017</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E49" s="1">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="68">
+        <v>68</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="51">
       <c r="A50" s="1" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="B50" s="1">
         <v>2017</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E50" s="1">
-        <v>111</v>
-      </c>
-      <c r="F50" s="1">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="68">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="51">
       <c r="A51" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B51" s="1">
         <v>2017</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E51" s="1">
-        <v>55</v>
+        <v>140</v>
+      </c>
+      <c r="F51" s="1">
+        <v>6</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="51">
+        <v>139</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="51">
       <c r="A52" s="1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B52" s="1">
         <v>2017</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E52" s="1">
-        <v>36</v>
-      </c>
-      <c r="F52" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="51">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="68">
       <c r="A53" s="1" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="B53" s="1">
         <v>2017</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E53" s="1">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="F53" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="34">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="68">
       <c r="A54" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B54" s="1">
         <v>2017</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E54" s="1">
+        <v>55</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="51">
+      <c r="A55" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B55" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" s="1">
+        <v>36</v>
+      </c>
+      <c r="F55" s="1">
+        <v>6</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="51">
+      <c r="A56" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="1">
+        <v>60</v>
+      </c>
+      <c r="F56" s="1">
+        <v>3</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="34">
+      <c r="A57" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B57" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E57" s="1">
         <v>30</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F57" s="1">
         <v>2</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="G57" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="51">
-      <c r="A55" s="1" t="s">
+    <row r="58" spans="1:9" ht="51">
+      <c r="A58" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B58" s="1">
         <v>2016</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E58" s="1">
         <v>1</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F58" s="1">
         <v>2</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="G58" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="34">
-      <c r="A56" s="1" t="s">
+    <row r="59" spans="1:9" ht="34">
+      <c r="A59" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B59" s="1">
         <v>2016</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E59" s="1">
         <v>1</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F59" s="1">
         <v>2</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="G59" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="34">
-      <c r="A57" s="1" t="s">
+    <row r="60" spans="1:9" ht="34">
+      <c r="A60" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B60" s="1">
         <v>2016</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E60" s="1">
         <v>37</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F60" s="1">
         <v>6</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="G60" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="68">
-      <c r="A58" s="1" t="s">
+    <row r="61" spans="1:9" ht="68">
+      <c r="A61" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B61" s="1">
         <v>2015</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E61" s="1">
         <v>115</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F61" s="1">
         <v>5</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="G61" s="4" t="s">
         <v>93</v>
       </c>
     </row>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tysonbarrett/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D74323-D1F8-3C43-AE9D-92732381EC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE14683-6346-DC44-ABBE-A3F5231726FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
@@ -796,9 +796,6 @@
     <t>Moderators and predictors in a parent hearing aid management eHealth program.</t>
   </si>
   <si>
-    <t>Rhythm Perception, Speaking Rate Entrainment, and Conversational Quality: A Mediated Model</t>
-  </si>
-  <si>
     <t>Wynn, C. J., Barrett, T. S., Borrie, S. A.</t>
   </si>
   <si>
@@ -841,9 +838,6 @@
     <t>405-418</t>
   </si>
   <si>
-    <t>The antidepressant and anxiolytic effect of cannabinoids in chronic unpredictable stress:a preclinical systematic review and meta-analysis </t>
-  </si>
-  <si>
     <t>Translational Psychiatry</t>
   </si>
   <si>
@@ -859,10 +853,16 @@
     <t>Journal of Interpersonal Violence</t>
   </si>
   <si>
-    <t>Supporting emergent bilinguals who use AAC and their families: Lessons in telepractice from the COVID-19 Pandemic</t>
-  </si>
-  <si>
     <t>King, M., Ward, H., Soto, G., &amp; Barrett, T. S.</t>
+  </si>
+  <si>
+    <t>Rhythm Perception, Speaking Rate Entrainment, and Conversational Quality: A Mediated Model.</t>
+  </si>
+  <si>
+    <t>The antidepressant and anxiolytic effect of cannabinoids in chronic unpredictable stress:a preclinical systematic review and meta-analysis.</t>
+  </si>
+  <si>
+    <t>Supporting emergent bilinguals who use AAC and their families: Lessons in telepractice from the COVID-19 Pandemic.</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1266,7 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1314,13 +1314,13 @@
     </row>
     <row r="2" spans="1:9" ht="51">
       <c r="A2" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>148</v>
@@ -1329,43 +1329,43 @@
     </row>
     <row r="3" spans="1:9" ht="51">
       <c r="A3" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="51">
       <c r="A4" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="34">
       <c r="A5" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -1417,7 +1417,7 @@
         <v>34</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>243</v>
@@ -1437,10 +1437,10 @@
         <v>94</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="51">
@@ -1537,7 +1537,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>239</v>
@@ -1583,7 +1583,7 @@
         <v>142</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>226</v>
@@ -1733,10 +1733,10 @@
         <v>5</v>
       </c>
       <c r="G22" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>96</v>
@@ -1762,10 +1762,10 @@
         <v>5</v>
       </c>
       <c r="G23" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="68">
@@ -1785,7 +1785,7 @@
         <v>60</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>118</v>
@@ -1814,7 +1814,7 @@
         <v>2</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>119</v>
@@ -1840,7 +1840,7 @@
         <v>5</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>16</v>
@@ -2247,7 +2247,7 @@
         <v>2019</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>52</v>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tysonbarrett/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE14683-6346-DC44-ABBE-A3F5231726FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6659784-91BA-A848-8261-27AB25FF8250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Presentations" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$7</definedName>
+    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$8</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="278">
   <si>
     <t>authors</t>
   </si>
@@ -863,6 +863,15 @@
   </si>
   <si>
     <t>Supporting emergent bilinguals who use AAC and their families: Lessons in telepractice from the COVID-19 Pandemic.</t>
+  </si>
+  <si>
+    <t>Harper, S. A., Long, C. Corbridge, S., Barrett, T. S., Braeger, A., Zollinger, B. J., Hale, A. E., Brown, C. B., Harrison, K., Poulsen, S. L., Boman, T., &amp; Dakin, C. J.</t>
+  </si>
+  <si>
+    <t>Stairway visual contrast enhancement to reduce fall risk factors.</t>
+  </si>
+  <si>
+    <t>Journal of Ergonomics</t>
   </si>
 </sst>
 </file>
@@ -1263,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BAB23D-B27F-A34D-A522-4C115B575C05}">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1329,428 +1338,414 @@
     </row>
     <row r="3" spans="1:9" ht="51">
       <c r="A3" s="1" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="51">
       <c r="A4" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="34">
-      <c r="A5" s="6" t="s">
-        <v>252</v>
+    <row r="5" spans="1:9" ht="51">
+      <c r="A5" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="51">
+        <v>270</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="34">
       <c r="A6" s="6" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" ht="34">
-      <c r="A7" s="7" t="s">
-        <v>244</v>
+        <v>11</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="51">
+      <c r="A7" s="6" t="s">
+        <v>231</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" ht="34">
+      <c r="A8" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="51">
-      <c r="A8" s="6" t="s">
+    <row r="9" spans="1:9" ht="51">
+      <c r="A9" s="6" t="s">
         <v>242</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="68">
-      <c r="A9" s="6" t="s">
-        <v>250</v>
       </c>
       <c r="B9" s="1">
         <v>2022</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="51">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="68">
       <c r="A10" s="6" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="B10" s="1">
         <v>2022</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>236</v>
+        <v>94</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="51">
       <c r="A11" s="6" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B11" s="1">
         <v>2022</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="51">
-      <c r="A12" s="1" t="s">
-        <v>156</v>
+      <c r="A12" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="B12" s="1">
         <v>2022</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>151</v>
+        <v>234</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="68">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="51">
       <c r="A13" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B13" s="1">
         <v>2022</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>149</v>
+        <v>228</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="51">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="68">
       <c r="A14" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B14" s="1">
         <v>2022</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="51">
+      <c r="A15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E15" s="1">
         <v>65</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F15" s="1">
         <v>2</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="68">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:9" ht="68">
+      <c r="A16" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E15" s="1">
-        <v>131</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="51">
-      <c r="A16" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="B16" s="1">
         <v>2021</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>201</v>
+        <v>144</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
+      </c>
+      <c r="E16" s="1">
+        <v>131</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="68">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="51">
       <c r="A17" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B17" s="1">
         <v>2021</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" s="5">
-        <v>16</v>
-      </c>
-      <c r="F17" s="1">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>153</v>
+        <v>263</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="51">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="68">
       <c r="A18" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B18" s="1">
         <v>2021</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="1">
-        <v>38</v>
+        <v>146</v>
+      </c>
+      <c r="E18" s="5">
+        <v>16</v>
+      </c>
+      <c r="F18" s="1">
+        <v>10</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="68">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="51">
       <c r="A19" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B19" s="1">
         <v>2021</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>202</v>
+        <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>111</v>
+        <v>6</v>
+      </c>
+      <c r="E19" s="1">
+        <v>38</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="51">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="68">
       <c r="A20" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B20" s="1">
         <v>2021</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>7</v>
+        <v>202</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="51">
       <c r="A21" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B21" s="1">
         <v>2021</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="1">
-        <v>77</v>
+        <v>8</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F21" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="51">
       <c r="A22" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B22" s="1">
         <v>2021</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>203</v>
+        <v>9</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="1">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F22" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>261</v>
+        <v>143</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="51">
       <c r="A23" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B23" s="1">
         <v>2021</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
@@ -1762,916 +1757,922 @@
         <v>5</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="68">
+        <v>262</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="51">
       <c r="A24" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B24" s="1">
         <v>2021</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="E24" s="1">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="F24" s="1">
+        <v>5</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="51">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="68">
       <c r="A25" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B25" s="1">
         <v>2021</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="E25" s="1">
-        <v>64</v>
-      </c>
-      <c r="F25" s="1">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="68">
+        <v>118</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="51">
       <c r="A26" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B26" s="1">
         <v>2021</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="1">
+        <v>64</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="68">
+      <c r="A27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E27" s="1">
         <v>23</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F27" s="1">
         <v>5</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="51">
-      <c r="A27" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B27" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="1">
-        <v>42</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="51">
       <c r="A28" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B28" s="1">
         <v>2020</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E28" s="1">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="51">
       <c r="A29" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B29" s="1">
         <v>2020</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E29" s="1">
-        <v>63</v>
-      </c>
-      <c r="F29" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="51">
       <c r="A30" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B30" s="1">
         <v>2020</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E30" s="1">
-        <v>40</v>
+        <v>63</v>
+      </c>
+      <c r="F30" s="1">
+        <v>6</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="51">
       <c r="A31" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B31" s="1">
         <v>2020</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E31" s="1">
-        <v>51</v>
-      </c>
-      <c r="F31" s="1">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="51">
       <c r="A32" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B32" s="1">
         <v>2020</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>31</v>
+        <v>208</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E32" s="1">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F32" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="51">
       <c r="A33" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B33" s="1">
         <v>2020</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>209</v>
+        <v>31</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E33" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F33" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="51">
       <c r="A34" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B34" s="1">
         <v>2020</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E34" s="1">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F34" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="68">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="51">
       <c r="A35" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B35" s="1">
         <v>2020</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E35" s="1">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="F35" s="1">
         <v>2</v>
       </c>
       <c r="G35" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="68">
+      <c r="A36" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="1">
+        <v>113</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="51">
-      <c r="A36" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B36" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="1">
-        <v>61</v>
-      </c>
-      <c r="F36" s="1">
-        <v>3</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="51">
       <c r="A37" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B37" s="1">
         <v>2019</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E37" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F37" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="51">
       <c r="A38" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B38" s="1">
         <v>2019</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="E38" s="1">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F38" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="51">
       <c r="A39" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B39" s="1">
         <v>2019</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E39" s="1">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="F39" s="1">
+        <v>10</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="51">
       <c r="A40" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B40" s="1">
         <v>2019</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E40" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="51">
       <c r="A41" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B41" s="1">
         <v>2019</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>212</v>
+        <v>47</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E41" s="1">
-        <v>20</v>
-      </c>
-      <c r="F41" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="51">
       <c r="A42" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B42" s="1">
         <v>2019</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>264</v>
+        <v>212</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E42" s="1">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F42" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>213</v>
+        <v>51</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="51">
       <c r="A43" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B43" s="1">
         <v>2019</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>53</v>
+        <v>264</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E43" s="1">
-        <v>145</v>
+        <v>33</v>
       </c>
       <c r="F43" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>54</v>
+        <v>213</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="51">
       <c r="A44" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B44" s="1">
         <v>2019</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E44" s="1">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="F44" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="68">
+        <v>54</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="51">
       <c r="A45" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B45" s="1">
         <v>2019</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="E45" s="1">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F45" s="1">
         <v>2</v>
       </c>
       <c r="G45" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="68">
+      <c r="A46" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="1">
+        <v>62</v>
+      </c>
+      <c r="F46" s="1">
+        <v>2</v>
+      </c>
+      <c r="G46" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="51">
-      <c r="A46" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B46" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E46" s="1">
-        <v>3</v>
-      </c>
-      <c r="F46" s="1">
-        <v>1</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="51">
       <c r="A47" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B47" s="1">
         <v>2018</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>63</v>
+        <v>214</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E47" s="1">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="F47" s="1">
-        <v>3</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>136</v>
+        <v>1</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="51">
       <c r="A48" s="1" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="B48" s="1">
         <v>2018</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E48" s="1">
         <v>143</v>
       </c>
       <c r="F48" s="1">
+        <v>3</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="51">
+      <c r="A49" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="1">
+        <v>143</v>
+      </c>
+      <c r="F49" s="1">
         <v>5</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="68">
-      <c r="A49" s="1" t="s">
+    <row r="50" spans="1:9" ht="68">
+      <c r="A50" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="B49" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E49" s="1">
-        <v>9</v>
-      </c>
-      <c r="F49" s="1">
-        <v>2</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="51">
-      <c r="A50" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="B50" s="1">
         <v>2017</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="E50" s="1">
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="F50" s="1">
+        <v>2</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>138</v>
+        <v>68</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="51">
       <c r="A51" s="1" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="B51" s="1">
         <v>2017</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="E51" s="1">
-        <v>140</v>
-      </c>
-      <c r="F51" s="1">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="51">
       <c r="A52" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B52" s="1">
         <v>2017</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E52" s="1">
-        <v>10</v>
+        <v>140</v>
+      </c>
+      <c r="F52" s="1">
+        <v>6</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="68">
+        <v>139</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="51">
       <c r="A53" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B53" s="1">
         <v>2017</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E53" s="1">
-        <v>111</v>
-      </c>
-      <c r="F53" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="68">
       <c r="A54" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B54" s="1">
         <v>2017</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>219</v>
+        <v>74</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="E54" s="1">
-        <v>55</v>
+        <v>111</v>
+      </c>
+      <c r="F54" s="1">
+        <v>5</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="51">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="68">
       <c r="A55" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B55" s="1">
         <v>2017</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E55" s="1">
-        <v>36</v>
-      </c>
-      <c r="F55" s="1">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="51">
       <c r="A56" s="1" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="B56" s="1">
         <v>2017</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E56" s="1">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F56" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="34">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="51">
       <c r="A57" s="1" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="B57" s="1">
         <v>2017</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="1">
+        <v>60</v>
+      </c>
+      <c r="F57" s="1">
+        <v>3</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="34">
+      <c r="A58" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B58" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E58" s="1">
         <v>30</v>
-      </c>
-      <c r="F57" s="1">
-        <v>2</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="51">
-      <c r="A58" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B58" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E58" s="1">
-        <v>1</v>
       </c>
       <c r="F58" s="1">
         <v>2</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="34">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="51">
       <c r="A59" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B59" s="1">
         <v>2016</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>61</v>
@@ -2683,52 +2684,75 @@
         <v>2</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="34">
       <c r="A60" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B60" s="1">
         <v>2016</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1</v>
+      </c>
+      <c r="F60" s="1">
+        <v>2</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="34">
+      <c r="A61" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E61" s="1">
         <v>37</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F61" s="1">
         <v>6</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="G61" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="68">
-      <c r="A61" s="1" t="s">
+    <row r="62" spans="1:9" ht="68">
+      <c r="A62" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B62" s="1">
         <v>2015</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E62" s="1">
         <v>115</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F62" s="1">
         <v>5</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="G62" s="4" t="s">
         <v>93</v>
       </c>
     </row>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tysonbarrett/Dropbox/GitHub/blog_rstats/assets/CV/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tbarret/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6659784-91BA-A848-8261-27AB25FF8250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6209A303-A42B-C941-AA69-EBE326E46C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="283">
   <si>
     <t>authors</t>
   </si>
@@ -872,6 +872,21 @@
   </si>
   <si>
     <t>Journal of Ergonomics</t>
+  </si>
+  <si>
+    <t>doi: 10.1044/2022_AJSLP-22-00003</t>
+  </si>
+  <si>
+    <t>1-18</t>
+  </si>
+  <si>
+    <t>1-14</t>
+  </si>
+  <si>
+    <t>Tannahill, H. S., Barrett, T. S., Zalta, A. K., Tehee, M., &amp; Blais, R. K.</t>
+  </si>
+  <si>
+    <t>A moderated mediation model of gender, posttraumatic cognitions, and posttraumatic stress disorder symptoms after military sexual assault revictimization.</t>
   </si>
 </sst>
 </file>
@@ -1272,10 +1287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BAB23D-B27F-A34D-A522-4C115B575C05}">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1321,20 +1336,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="51">
+    <row r="2" spans="1:9" ht="68">
       <c r="A2" s="1" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>270</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="51">
       <c r="A3" s="1" t="s">
@@ -1349,50 +1363,59 @@
       <c r="D3" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="51">
       <c r="A4" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G4" s="1"/>
+        <v>270</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="51">
       <c r="A5" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>141</v>
+        <v>267</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2022</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>266</v>
+      </c>
+      <c r="E5" s="1">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="34">
       <c r="A6" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>141</v>
+      <c r="B6" s="1">
+        <v>2022</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>272</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>238</v>
@@ -1402,14 +1425,17 @@
       <c r="A7" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>141</v>
+      <c r="B7" s="1">
+        <v>2022</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>229</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>230</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="I7" s="8"/>
     </row>
@@ -1417,8 +1443,8 @@
       <c r="A8" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>141</v>
+      <c r="B8" s="1">
+        <v>2022</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>246</v>
@@ -1428,353 +1454,344 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="51">
-      <c r="A9" s="6" t="s">
-        <v>242</v>
+      <c r="A9" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="B9" s="1">
         <v>2022</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>148</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="68">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="51">
       <c r="A10" s="6" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B10" s="1">
         <v>2022</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="51">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="68">
       <c r="A11" s="6" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="B11" s="1">
         <v>2022</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>236</v>
+        <v>94</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="51">
       <c r="A12" s="6" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B12" s="1">
         <v>2022</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="51">
-      <c r="A13" s="1" t="s">
-        <v>156</v>
+      <c r="A13" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="B13" s="1">
         <v>2022</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>151</v>
+        <v>234</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="68">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="51">
       <c r="A14" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B14" s="1">
         <v>2022</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>149</v>
+        <v>228</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="51">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="68">
       <c r="A15" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B15" s="1">
         <v>2022</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="51">
+      <c r="A16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E16" s="1">
         <v>65</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F16" s="1">
         <v>2</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="68">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:9" ht="68">
+      <c r="A17" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E16" s="1">
-        <v>131</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="51">
-      <c r="A17" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="B17" s="1">
         <v>2021</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>201</v>
+        <v>144</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
+      </c>
+      <c r="E17" s="1">
+        <v>131</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="68">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="51">
       <c r="A18" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B18" s="1">
         <v>2021</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E18" s="5">
-        <v>16</v>
-      </c>
-      <c r="F18" s="1">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>153</v>
+        <v>263</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="51">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="68">
       <c r="A19" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B19" s="1">
         <v>2021</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="1">
-        <v>38</v>
+        <v>146</v>
+      </c>
+      <c r="E19" s="5">
+        <v>16</v>
+      </c>
+      <c r="F19" s="1">
+        <v>10</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="68">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="51">
       <c r="A20" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B20" s="1">
         <v>2021</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>202</v>
+        <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>111</v>
+        <v>6</v>
+      </c>
+      <c r="E20" s="1">
+        <v>38</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="51">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="68">
       <c r="A21" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B21" s="1">
         <v>2021</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>7</v>
+        <v>202</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="51">
       <c r="A22" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B22" s="1">
         <v>2021</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="1">
-        <v>77</v>
+        <v>8</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F22" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="51">
       <c r="A23" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B23" s="1">
         <v>2021</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>203</v>
+        <v>9</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" s="1">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F23" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>261</v>
+        <v>143</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="51">
       <c r="A24" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B24" s="1">
         <v>2021</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>11</v>
@@ -1786,916 +1803,922 @@
         <v>5</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="68">
+        <v>262</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="51">
       <c r="A25" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B25" s="1">
         <v>2021</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="E25" s="1">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="F25" s="1">
+        <v>5</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="51">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="68">
       <c r="A26" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B26" s="1">
         <v>2021</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="E26" s="1">
-        <v>64</v>
-      </c>
-      <c r="F26" s="1">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="68">
+        <v>118</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="51">
       <c r="A27" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B27" s="1">
         <v>2021</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="1">
+        <v>64</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="68">
+      <c r="A28" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E28" s="1">
         <v>23</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F28" s="1">
         <v>5</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="51">
-      <c r="A28" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B28" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="1">
-        <v>42</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="51">
       <c r="A29" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B29" s="1">
         <v>2020</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E29" s="1">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="51">
       <c r="A30" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B30" s="1">
         <v>2020</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E30" s="1">
-        <v>63</v>
-      </c>
-      <c r="F30" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="51">
       <c r="A31" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B31" s="1">
         <v>2020</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E31" s="1">
-        <v>40</v>
+        <v>63</v>
+      </c>
+      <c r="F31" s="1">
+        <v>6</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="51">
       <c r="A32" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B32" s="1">
         <v>2020</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E32" s="1">
-        <v>51</v>
-      </c>
-      <c r="F32" s="1">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="51">
       <c r="A33" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B33" s="1">
         <v>2020</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>31</v>
+        <v>208</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E33" s="1">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F33" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="51">
       <c r="A34" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B34" s="1">
         <v>2020</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>209</v>
+        <v>31</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E34" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F34" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="51">
       <c r="A35" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B35" s="1">
         <v>2020</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E35" s="1">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F35" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="68">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="51">
       <c r="A36" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B36" s="1">
         <v>2020</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E36" s="1">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="F36" s="1">
         <v>2</v>
       </c>
       <c r="G36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="68">
+      <c r="A37" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="1">
+        <v>113</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="51">
-      <c r="A37" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B37" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="1">
-        <v>61</v>
-      </c>
-      <c r="F37" s="1">
-        <v>3</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="51">
       <c r="A38" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B38" s="1">
         <v>2019</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E38" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F38" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="51">
       <c r="A39" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B39" s="1">
         <v>2019</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="E39" s="1">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F39" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="51">
       <c r="A40" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B40" s="1">
         <v>2019</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E40" s="1">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="F40" s="1">
+        <v>10</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="51">
       <c r="A41" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B41" s="1">
         <v>2019</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E41" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="51">
       <c r="A42" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B42" s="1">
         <v>2019</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>212</v>
+        <v>47</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E42" s="1">
-        <v>20</v>
-      </c>
-      <c r="F42" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="51">
       <c r="A43" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B43" s="1">
         <v>2019</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>264</v>
+        <v>212</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E43" s="1">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F43" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>213</v>
+        <v>51</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="51">
       <c r="A44" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B44" s="1">
         <v>2019</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>53</v>
+        <v>264</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E44" s="1">
-        <v>145</v>
+        <v>33</v>
       </c>
       <c r="F44" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>54</v>
+        <v>213</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="51">
       <c r="A45" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B45" s="1">
         <v>2019</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E45" s="1">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="F45" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="68">
+        <v>54</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="51">
       <c r="A46" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B46" s="1">
         <v>2019</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="E46" s="1">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F46" s="1">
         <v>2</v>
       </c>
       <c r="G46" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="68">
+      <c r="A47" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="1">
+        <v>62</v>
+      </c>
+      <c r="F47" s="1">
+        <v>2</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="51">
-      <c r="A47" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B47" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E47" s="1">
-        <v>3</v>
-      </c>
-      <c r="F47" s="1">
-        <v>1</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="51">
       <c r="A48" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B48" s="1">
         <v>2018</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>63</v>
+        <v>214</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E48" s="1">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="F48" s="1">
-        <v>3</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>136</v>
+        <v>1</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="51">
       <c r="A49" s="1" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="B49" s="1">
         <v>2018</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E49" s="1">
         <v>143</v>
       </c>
       <c r="F49" s="1">
+        <v>3</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="51">
+      <c r="A50" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="1">
+        <v>143</v>
+      </c>
+      <c r="F50" s="1">
         <v>5</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="68">
-      <c r="A50" s="1" t="s">
+    <row r="51" spans="1:9" ht="68">
+      <c r="A51" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="B50" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E50" s="1">
-        <v>9</v>
-      </c>
-      <c r="F50" s="1">
-        <v>2</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="51">
-      <c r="A51" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="B51" s="1">
         <v>2017</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="E51" s="1">
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="F51" s="1">
+        <v>2</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>138</v>
+        <v>68</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="51">
       <c r="A52" s="1" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="B52" s="1">
         <v>2017</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="E52" s="1">
-        <v>140</v>
-      </c>
-      <c r="F52" s="1">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="51">
       <c r="A53" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B53" s="1">
         <v>2017</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E53" s="1">
-        <v>10</v>
+        <v>140</v>
+      </c>
+      <c r="F53" s="1">
+        <v>6</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="68">
+        <v>139</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="51">
       <c r="A54" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B54" s="1">
         <v>2017</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E54" s="1">
-        <v>111</v>
-      </c>
-      <c r="F54" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="68">
       <c r="A55" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B55" s="1">
         <v>2017</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>219</v>
+        <v>74</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="E55" s="1">
-        <v>55</v>
+        <v>111</v>
+      </c>
+      <c r="F55" s="1">
+        <v>5</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="51">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="68">
       <c r="A56" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B56" s="1">
         <v>2017</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E56" s="1">
-        <v>36</v>
-      </c>
-      <c r="F56" s="1">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="51">
       <c r="A57" s="1" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="B57" s="1">
         <v>2017</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E57" s="1">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F57" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="34">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="51">
       <c r="A58" s="1" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="B58" s="1">
         <v>2017</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="1">
+        <v>60</v>
+      </c>
+      <c r="F58" s="1">
+        <v>3</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="34">
+      <c r="A59" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B59" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E59" s="1">
         <v>30</v>
-      </c>
-      <c r="F58" s="1">
-        <v>2</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="51">
-      <c r="A59" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B59" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E59" s="1">
-        <v>1</v>
       </c>
       <c r="F59" s="1">
         <v>2</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="34">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="51">
       <c r="A60" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B60" s="1">
         <v>2016</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>61</v>
@@ -2707,52 +2730,75 @@
         <v>2</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="34">
       <c r="A61" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B61" s="1">
         <v>2016</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1">
+        <v>2</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="34">
+      <c r="A62" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B62" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E62" s="1">
         <v>37</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F62" s="1">
         <v>6</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="G62" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="68">
-      <c r="A62" s="1" t="s">
+    <row r="63" spans="1:9" ht="68">
+      <c r="A63" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B63" s="1">
         <v>2015</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E63" s="1">
         <v>115</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F63" s="1">
         <v>5</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="G63" s="4" t="s">
         <v>93</v>
       </c>
     </row>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tbarret/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6209A303-A42B-C941-AA69-EBE326E46C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DF6D3C-1FCC-724C-8941-F091445B06B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Presentations" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$8</definedName>
+    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$9</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="285">
   <si>
     <t>authors</t>
   </si>
@@ -887,6 +887,12 @@
   </si>
   <si>
     <t>A moderated mediation model of gender, posttraumatic cognitions, and posttraumatic stress disorder symptoms after military sexual assault revictimization.</t>
+  </si>
+  <si>
+    <t>Cognitive predictors of perception and adaptation to dysarthric speech in young adult listeners</t>
+  </si>
+  <si>
+    <t>Lansford, K., Barrett, T. S., &amp; Borrie, S. A.</t>
   </si>
 </sst>
 </file>
@@ -1287,10 +1293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BAB23D-B27F-A34D-A522-4C115B575C05}">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1350,477 +1356,462 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="51">
+    <row r="3" spans="1:9" ht="34">
       <c r="A3" s="1" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>277</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="51">
       <c r="A4" s="1" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="51">
       <c r="A5" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="51">
+      <c r="A6" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E5" s="1">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="34">
-      <c r="A6" s="6" t="s">
-        <v>252</v>
       </c>
       <c r="B6" s="1">
         <v>2022</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>266</v>
+      </c>
+      <c r="E6" s="1">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="51">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="34">
       <c r="A7" s="6" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="B7" s="1">
         <v>2022</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>230</v>
+        <v>11</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" ht="34">
-      <c r="A8" s="7" t="s">
-        <v>244</v>
+        <v>213</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="51">
+      <c r="A8" s="6" t="s">
+        <v>231</v>
       </c>
       <c r="B8" s="1">
         <v>2022</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="51">
-      <c r="A9" s="1" t="s">
-        <v>271</v>
+        <v>230</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" ht="34">
+      <c r="A9" s="7" t="s">
+        <v>244</v>
       </c>
       <c r="B9" s="1">
         <v>2022</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="51">
-      <c r="A10" s="6" t="s">
-        <v>242</v>
+      <c r="A10" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="B10" s="1">
         <v>2022</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>148</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="68">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="51">
       <c r="A11" s="6" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B11" s="1">
         <v>2022</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="51">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="68">
       <c r="A12" s="6" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="B12" s="1">
         <v>2022</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>236</v>
+        <v>94</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="51">
       <c r="A13" s="6" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B13" s="1">
         <v>2022</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="51">
-      <c r="A14" s="1" t="s">
-        <v>156</v>
+      <c r="A14" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="B14" s="1">
         <v>2022</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>151</v>
+        <v>234</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="68">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="51">
       <c r="A15" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B15" s="1">
         <v>2022</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>149</v>
+        <v>228</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="51">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="68">
       <c r="A16" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B16" s="1">
         <v>2022</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="51">
+      <c r="A17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E17" s="1">
         <v>65</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F17" s="1">
         <v>2</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="68">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:9" ht="68">
+      <c r="A18" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E17" s="1">
-        <v>131</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="51">
-      <c r="A18" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="B18" s="1">
         <v>2021</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>201</v>
+        <v>144</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
+      </c>
+      <c r="E18" s="1">
+        <v>131</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="68">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="51">
       <c r="A19" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19" s="1">
         <v>2021</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E19" s="5">
-        <v>16</v>
-      </c>
-      <c r="F19" s="1">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>153</v>
+        <v>263</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="51">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="68">
       <c r="A20" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B20" s="1">
         <v>2021</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="1">
-        <v>38</v>
+        <v>146</v>
+      </c>
+      <c r="E20" s="5">
+        <v>16</v>
+      </c>
+      <c r="F20" s="1">
+        <v>10</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="68">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="51">
       <c r="A21" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B21" s="1">
         <v>2021</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>202</v>
+        <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>111</v>
+        <v>6</v>
+      </c>
+      <c r="E21" s="1">
+        <v>38</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="51">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="68">
       <c r="A22" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B22" s="1">
         <v>2021</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>7</v>
+        <v>202</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="51">
       <c r="A23" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B23" s="1">
         <v>2021</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="1">
-        <v>77</v>
+        <v>8</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F23" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="51">
       <c r="A24" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B24" s="1">
         <v>2021</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>203</v>
+        <v>9</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="1">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F24" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>261</v>
+        <v>143</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="51">
       <c r="A25" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B25" s="1">
         <v>2021</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>11</v>
@@ -1832,916 +1823,922 @@
         <v>5</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="68">
+        <v>262</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="51">
       <c r="A26" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B26" s="1">
         <v>2021</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="E26" s="1">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="F26" s="1">
+        <v>5</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="51">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="68">
       <c r="A27" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B27" s="1">
         <v>2021</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="E27" s="1">
-        <v>64</v>
-      </c>
-      <c r="F27" s="1">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="68">
+        <v>118</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="51">
       <c r="A28" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B28" s="1">
         <v>2021</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="1">
+        <v>64</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="68">
+      <c r="A29" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E29" s="1">
         <v>23</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F29" s="1">
         <v>5</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="51">
-      <c r="A29" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B29" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="1">
-        <v>42</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="51">
       <c r="A30" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B30" s="1">
         <v>2020</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E30" s="1">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="51">
       <c r="A31" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B31" s="1">
         <v>2020</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E31" s="1">
-        <v>63</v>
-      </c>
-      <c r="F31" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="51">
       <c r="A32" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B32" s="1">
         <v>2020</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E32" s="1">
-        <v>40</v>
+        <v>63</v>
+      </c>
+      <c r="F32" s="1">
+        <v>6</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="51">
       <c r="A33" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B33" s="1">
         <v>2020</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E33" s="1">
-        <v>51</v>
-      </c>
-      <c r="F33" s="1">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="51">
       <c r="A34" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B34" s="1">
         <v>2020</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>31</v>
+        <v>208</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E34" s="1">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F34" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="51">
       <c r="A35" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B35" s="1">
         <v>2020</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>209</v>
+        <v>31</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E35" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F35" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="51">
       <c r="A36" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B36" s="1">
         <v>2020</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E36" s="1">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F36" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="68">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="51">
       <c r="A37" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B37" s="1">
         <v>2020</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E37" s="1">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="F37" s="1">
         <v>2</v>
       </c>
       <c r="G37" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="68">
+      <c r="A38" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="1">
+        <v>113</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="51">
-      <c r="A38" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B38" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="1">
-        <v>61</v>
-      </c>
-      <c r="F38" s="1">
-        <v>3</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="51">
       <c r="A39" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B39" s="1">
         <v>2019</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E39" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F39" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="51">
       <c r="A40" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B40" s="1">
         <v>2019</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="E40" s="1">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F40" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="51">
       <c r="A41" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B41" s="1">
         <v>2019</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E41" s="1">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="F41" s="1">
+        <v>10</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="51">
       <c r="A42" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B42" s="1">
         <v>2019</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E42" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="51">
       <c r="A43" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B43" s="1">
         <v>2019</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>212</v>
+        <v>47</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E43" s="1">
-        <v>20</v>
-      </c>
-      <c r="F43" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="51">
       <c r="A44" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B44" s="1">
         <v>2019</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>264</v>
+        <v>212</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E44" s="1">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F44" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>213</v>
+        <v>51</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="51">
       <c r="A45" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B45" s="1">
         <v>2019</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>53</v>
+        <v>264</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E45" s="1">
-        <v>145</v>
+        <v>33</v>
       </c>
       <c r="F45" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>54</v>
+        <v>213</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="51">
       <c r="A46" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B46" s="1">
         <v>2019</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E46" s="1">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="F46" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="68">
+        <v>54</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="51">
       <c r="A47" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B47" s="1">
         <v>2019</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="E47" s="1">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F47" s="1">
         <v>2</v>
       </c>
       <c r="G47" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="68">
+      <c r="A48" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="1">
+        <v>62</v>
+      </c>
+      <c r="F48" s="1">
+        <v>2</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I48" s="1" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="51">
-      <c r="A48" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B48" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E48" s="1">
-        <v>3</v>
-      </c>
-      <c r="F48" s="1">
-        <v>1</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="51">
       <c r="A49" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B49" s="1">
         <v>2018</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>63</v>
+        <v>214</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E49" s="1">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="F49" s="1">
-        <v>3</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>136</v>
+        <v>1</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="51">
       <c r="A50" s="1" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="B50" s="1">
         <v>2018</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E50" s="1">
         <v>143</v>
       </c>
       <c r="F50" s="1">
+        <v>3</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="51">
+      <c r="A51" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" s="1">
+        <v>143</v>
+      </c>
+      <c r="F51" s="1">
         <v>5</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="68">
-      <c r="A51" s="1" t="s">
+    <row r="52" spans="1:9" ht="68">
+      <c r="A52" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="B51" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E51" s="1">
-        <v>9</v>
-      </c>
-      <c r="F51" s="1">
-        <v>2</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="51">
-      <c r="A52" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="B52" s="1">
         <v>2017</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="E52" s="1">
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>138</v>
+        <v>68</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="51">
       <c r="A53" s="1" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="B53" s="1">
         <v>2017</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="E53" s="1">
-        <v>140</v>
-      </c>
-      <c r="F53" s="1">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="51">
       <c r="A54" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B54" s="1">
         <v>2017</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E54" s="1">
-        <v>10</v>
+        <v>140</v>
+      </c>
+      <c r="F54" s="1">
+        <v>6</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="68">
+        <v>139</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="51">
       <c r="A55" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B55" s="1">
         <v>2017</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E55" s="1">
-        <v>111</v>
-      </c>
-      <c r="F55" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="68">
       <c r="A56" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B56" s="1">
         <v>2017</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>219</v>
+        <v>74</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="E56" s="1">
-        <v>55</v>
+        <v>111</v>
+      </c>
+      <c r="F56" s="1">
+        <v>5</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="51">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="68">
       <c r="A57" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B57" s="1">
         <v>2017</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E57" s="1">
-        <v>36</v>
-      </c>
-      <c r="F57" s="1">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="51">
       <c r="A58" s="1" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="B58" s="1">
         <v>2017</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E58" s="1">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F58" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="34">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="51">
       <c r="A59" s="1" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="B59" s="1">
         <v>2017</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="1">
+        <v>60</v>
+      </c>
+      <c r="F59" s="1">
+        <v>3</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="34">
+      <c r="A60" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E60" s="1">
         <v>30</v>
-      </c>
-      <c r="F59" s="1">
-        <v>2</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="51">
-      <c r="A60" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B60" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E60" s="1">
-        <v>1</v>
       </c>
       <c r="F60" s="1">
         <v>2</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="34">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="51">
       <c r="A61" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B61" s="1">
         <v>2016</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>61</v>
@@ -2753,52 +2750,75 @@
         <v>2</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="34">
       <c r="A62" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B62" s="1">
         <v>2016</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1">
+        <v>2</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="34">
+      <c r="A63" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E63" s="1">
         <v>37</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F63" s="1">
         <v>6</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="G63" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="68">
-      <c r="A63" s="1" t="s">
+    <row r="64" spans="1:9" ht="68">
+      <c r="A64" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B64" s="1">
         <v>2015</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E64" s="1">
         <v>115</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F64" s="1">
         <v>5</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="G64" s="4" t="s">
         <v>93</v>
       </c>
     </row>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tbarret/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DF6D3C-1FCC-724C-8941-F091445B06B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616A4386-17A0-764B-9B7C-542540C6DEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
+    <workbookView xWindow="8220" yWindow="500" windowWidth="20580" windowHeight="16300" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
   <sheets>
     <sheet name="Journals" sheetId="1" r:id="rId1"/>
     <sheet name="Presentations" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$9</definedName>
+    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$10</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="291">
   <si>
     <t>authors</t>
   </si>
@@ -859,9 +859,6 @@
     <t>Rhythm Perception, Speaking Rate Entrainment, and Conversational Quality: A Mediated Model.</t>
   </si>
   <si>
-    <t>The antidepressant and anxiolytic effect of cannabinoids in chronic unpredictable stress:a preclinical systematic review and meta-analysis.</t>
-  </si>
-  <si>
     <t>Supporting emergent bilinguals who use AAC and their families: Lessons in telepractice from the COVID-19 Pandemic.</t>
   </si>
   <si>
@@ -893,6 +890,27 @@
   </si>
   <si>
     <t>Lansford, K., Barrett, T. S., &amp; Borrie, S. A.</t>
+  </si>
+  <si>
+    <t>Aller, T. B., Barrett, T. S., Levin, M. E., McClain, M. B.</t>
+  </si>
+  <si>
+    <t>Measuring psychological flexibility in autistic adults: The validity and reliability of the AAQ-II, BEAQ, and VQ.</t>
+  </si>
+  <si>
+    <t>Journal of Contextual Behavior Science</t>
+  </si>
+  <si>
+    <t>125-133</t>
+  </si>
+  <si>
+    <t>doi: 10.1016/j.jcbs.2022.09.001</t>
+  </si>
+  <si>
+    <t>The antidepressant and anxiolytic effect of cannabinoids in chronic unpredictable stress: a preclinical systematic review and meta-analysis.</t>
+  </si>
+  <si>
+    <t>\img{osfmaterials.png}{https://osf.io/jv3fx/}</t>
   </si>
 </sst>
 </file>
@@ -1293,10 +1311,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BAB23D-B27F-A34D-A522-4C115B575C05}">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1344,13 +1362,13 @@
     </row>
     <row r="2" spans="1:9" ht="68">
       <c r="A2" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>270</v>
@@ -1358,13 +1376,13 @@
     </row>
     <row r="3" spans="1:9" ht="34">
       <c r="A3" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -1372,16 +1390,16 @@
     </row>
     <row r="4" spans="1:9" ht="51">
       <c r="A4" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="51">
@@ -1400,447 +1418,444 @@
     </row>
     <row r="6" spans="1:9" ht="51">
       <c r="A6" s="1" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="B6" s="1">
         <v>2022</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="E6" s="1">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="34">
-      <c r="A7" s="6" t="s">
-        <v>252</v>
+        <v>287</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="51">
+      <c r="A7" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="B7" s="1">
         <v>2022</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>266</v>
+      </c>
+      <c r="E7" s="1">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="51">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="34">
       <c r="A8" s="6" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="B8" s="1">
         <v>2022</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>230</v>
+        <v>11</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" ht="34">
-      <c r="A9" s="7" t="s">
-        <v>244</v>
+        <v>213</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="51">
+      <c r="A9" s="6" t="s">
+        <v>231</v>
       </c>
       <c r="B9" s="1">
         <v>2022</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="51">
-      <c r="A10" s="1" t="s">
-        <v>271</v>
+        <v>230</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" ht="34">
+      <c r="A10" s="7" t="s">
+        <v>244</v>
       </c>
       <c r="B10" s="1">
         <v>2022</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="51">
-      <c r="A11" s="6" t="s">
-        <v>242</v>
+      <c r="A11" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="B11" s="1">
         <v>2022</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>148</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="68">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="51">
       <c r="A12" s="6" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B12" s="1">
         <v>2022</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="51">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="68">
       <c r="A13" s="6" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="B13" s="1">
         <v>2022</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>236</v>
+        <v>94</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="51">
       <c r="A14" s="6" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B14" s="1">
         <v>2022</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="51">
-      <c r="A15" s="1" t="s">
-        <v>156</v>
+      <c r="A15" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="B15" s="1">
         <v>2022</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>151</v>
+        <v>234</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="68">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="51">
       <c r="A16" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B16" s="1">
         <v>2022</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>149</v>
+        <v>228</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="51">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="68">
       <c r="A17" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B17" s="1">
         <v>2022</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="51">
+      <c r="A18" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E18" s="1">
         <v>65</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F18" s="1">
         <v>2</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="68">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:9" ht="68">
+      <c r="A19" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E18" s="1">
-        <v>131</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="51">
-      <c r="A19" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="B19" s="1">
         <v>2021</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>201</v>
+        <v>144</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
+      </c>
+      <c r="E19" s="1">
+        <v>131</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="68">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="51">
       <c r="A20" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B20" s="1">
         <v>2021</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E20" s="5">
-        <v>16</v>
-      </c>
-      <c r="F20" s="1">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>153</v>
+        <v>263</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="51">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="68">
       <c r="A21" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B21" s="1">
         <v>2021</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="1">
-        <v>38</v>
+        <v>146</v>
+      </c>
+      <c r="E21" s="5">
+        <v>16</v>
+      </c>
+      <c r="F21" s="1">
+        <v>10</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="68">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="51">
       <c r="A22" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B22" s="1">
         <v>2021</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>202</v>
+        <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>111</v>
+        <v>6</v>
+      </c>
+      <c r="E22" s="1">
+        <v>38</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="51">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="68">
       <c r="A23" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B23" s="1">
         <v>2021</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>7</v>
+        <v>202</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="51">
       <c r="A24" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B24" s="1">
         <v>2021</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="1">
-        <v>77</v>
+        <v>8</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F24" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="51">
       <c r="A25" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B25" s="1">
         <v>2021</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>203</v>
+        <v>9</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="1">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F25" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>261</v>
+        <v>143</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="51">
       <c r="A26" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B26" s="1">
         <v>2021</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>11</v>
@@ -1852,916 +1867,922 @@
         <v>5</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="68">
+        <v>262</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="51">
       <c r="A27" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B27" s="1">
         <v>2021</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="E27" s="1">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="F27" s="1">
+        <v>5</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="51">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="68">
       <c r="A28" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B28" s="1">
         <v>2021</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="E28" s="1">
-        <v>64</v>
-      </c>
-      <c r="F28" s="1">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="68">
+        <v>118</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="51">
       <c r="A29" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B29" s="1">
         <v>2021</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="1">
+        <v>64</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="68">
+      <c r="A30" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E30" s="1">
         <v>23</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F30" s="1">
         <v>5</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="51">
-      <c r="A30" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B30" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="1">
-        <v>42</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="51">
       <c r="A31" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B31" s="1">
         <v>2020</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E31" s="1">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="51">
       <c r="A32" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B32" s="1">
         <v>2020</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E32" s="1">
-        <v>63</v>
-      </c>
-      <c r="F32" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="51">
       <c r="A33" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B33" s="1">
         <v>2020</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E33" s="1">
-        <v>40</v>
+        <v>63</v>
+      </c>
+      <c r="F33" s="1">
+        <v>6</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="51">
       <c r="A34" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B34" s="1">
         <v>2020</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E34" s="1">
-        <v>51</v>
-      </c>
-      <c r="F34" s="1">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="51">
       <c r="A35" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B35" s="1">
         <v>2020</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>31</v>
+        <v>208</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E35" s="1">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F35" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="51">
       <c r="A36" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B36" s="1">
         <v>2020</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>209</v>
+        <v>31</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E36" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F36" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="51">
       <c r="A37" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B37" s="1">
         <v>2020</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E37" s="1">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F37" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="68">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="51">
       <c r="A38" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B38" s="1">
         <v>2020</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E38" s="1">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="F38" s="1">
         <v>2</v>
       </c>
       <c r="G38" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="68">
+      <c r="A39" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="1">
+        <v>113</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="51">
-      <c r="A39" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B39" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="1">
-        <v>61</v>
-      </c>
-      <c r="F39" s="1">
-        <v>3</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="51">
       <c r="A40" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B40" s="1">
         <v>2019</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E40" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F40" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="51">
       <c r="A41" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B41" s="1">
         <v>2019</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="E41" s="1">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F41" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="51">
       <c r="A42" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B42" s="1">
         <v>2019</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E42" s="1">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="F42" s="1">
+        <v>10</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="51">
       <c r="A43" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B43" s="1">
         <v>2019</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E43" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="51">
       <c r="A44" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B44" s="1">
         <v>2019</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>212</v>
+        <v>47</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E44" s="1">
-        <v>20</v>
-      </c>
-      <c r="F44" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="51">
       <c r="A45" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B45" s="1">
         <v>2019</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>264</v>
+        <v>212</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E45" s="1">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F45" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>213</v>
+        <v>51</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="51">
       <c r="A46" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B46" s="1">
         <v>2019</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>53</v>
+        <v>264</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E46" s="1">
-        <v>145</v>
+        <v>33</v>
       </c>
       <c r="F46" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>54</v>
+        <v>213</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="51">
       <c r="A47" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B47" s="1">
         <v>2019</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E47" s="1">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="F47" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="68">
+        <v>54</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="51">
       <c r="A48" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B48" s="1">
         <v>2019</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="E48" s="1">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F48" s="1">
         <v>2</v>
       </c>
       <c r="G48" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="68">
+      <c r="A49" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="1">
+        <v>62</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I49" s="1" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="51">
-      <c r="A49" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B49" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E49" s="1">
-        <v>3</v>
-      </c>
-      <c r="F49" s="1">
-        <v>1</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="51">
       <c r="A50" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B50" s="1">
         <v>2018</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>63</v>
+        <v>214</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E50" s="1">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="F50" s="1">
-        <v>3</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>136</v>
+        <v>1</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="51">
       <c r="A51" s="1" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="B51" s="1">
         <v>2018</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E51" s="1">
         <v>143</v>
       </c>
       <c r="F51" s="1">
+        <v>3</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="51">
+      <c r="A52" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" s="1">
+        <v>143</v>
+      </c>
+      <c r="F52" s="1">
         <v>5</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="68">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:9" ht="68">
+      <c r="A53" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="B52" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E52" s="1">
-        <v>9</v>
-      </c>
-      <c r="F52" s="1">
-        <v>2</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="51">
-      <c r="A53" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="B53" s="1">
         <v>2017</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="E53" s="1">
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="F53" s="1">
+        <v>2</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>138</v>
+        <v>68</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="51">
       <c r="A54" s="1" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="B54" s="1">
         <v>2017</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="E54" s="1">
-        <v>140</v>
-      </c>
-      <c r="F54" s="1">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="51">
       <c r="A55" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B55" s="1">
         <v>2017</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E55" s="1">
-        <v>10</v>
+        <v>140</v>
+      </c>
+      <c r="F55" s="1">
+        <v>6</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="68">
+        <v>139</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="51">
       <c r="A56" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B56" s="1">
         <v>2017</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E56" s="1">
-        <v>111</v>
-      </c>
-      <c r="F56" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="68">
       <c r="A57" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B57" s="1">
         <v>2017</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>219</v>
+        <v>74</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="E57" s="1">
-        <v>55</v>
+        <v>111</v>
+      </c>
+      <c r="F57" s="1">
+        <v>5</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="51">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="68">
       <c r="A58" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B58" s="1">
         <v>2017</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E58" s="1">
-        <v>36</v>
-      </c>
-      <c r="F58" s="1">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="51">
       <c r="A59" s="1" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="B59" s="1">
         <v>2017</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E59" s="1">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F59" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="34">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="51">
       <c r="A60" s="1" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="B60" s="1">
         <v>2017</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="1">
+        <v>60</v>
+      </c>
+      <c r="F60" s="1">
+        <v>3</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="34">
+      <c r="A61" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E61" s="1">
         <v>30</v>
-      </c>
-      <c r="F60" s="1">
-        <v>2</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="51">
-      <c r="A61" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B61" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E61" s="1">
-        <v>1</v>
       </c>
       <c r="F61" s="1">
         <v>2</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="34">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="51">
       <c r="A62" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B62" s="1">
         <v>2016</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>61</v>
@@ -2773,52 +2794,75 @@
         <v>2</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="34">
       <c r="A63" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B63" s="1">
         <v>2016</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1">
+        <v>2</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="34">
+      <c r="A64" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E64" s="1">
         <v>37</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F64" s="1">
         <v>6</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="G64" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="68">
-      <c r="A64" s="1" t="s">
+    <row r="65" spans="1:7" ht="68">
+      <c r="A65" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B65" s="1">
         <v>2015</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E65" s="1">
         <v>115</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F65" s="1">
         <v>5</v>
       </c>
-      <c r="G64" s="4" t="s">
+      <c r="G65" s="4" t="s">
         <v>93</v>
       </c>
     </row>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tbarret/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616A4386-17A0-764B-9B7C-542540C6DEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F68BFF-1935-A446-977D-D9A01C2898B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8220" yWindow="500" windowWidth="20580" windowHeight="16300" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Presentations" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$10</definedName>
+    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$11</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="294">
   <si>
     <t>authors</t>
   </si>
@@ -911,6 +911,15 @@
   </si>
   <si>
     <t>\img{osfmaterials.png}{https://osf.io/jv3fx/}</t>
+  </si>
+  <si>
+    <t>Brown, C. B., Barrett, T. S., Long, C., Corbridge, S., Braeger, A., Harrison, K., Poulsen, S. L., Boman, T., Dakin, C. J., &amp; Harper, S. A.</t>
+  </si>
+  <si>
+    <t>Step edge highlighters and illuminance changes influence stair descent in a real-world setting.</t>
+  </si>
+  <si>
+    <t>Ergonomics</t>
   </si>
 </sst>
 </file>
@@ -1311,10 +1320,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BAB23D-B27F-A34D-A522-4C115B575C05}">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1360,531 +1369,516 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="68">
+    <row r="2" spans="1:9" ht="34">
       <c r="A2" s="1" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="34">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="68">
       <c r="A3" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="51">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="34">
       <c r="A4" s="1" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="51">
       <c r="A5" s="1" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="51">
       <c r="A6" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2022</v>
+        <v>268</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E6" s="1">
-        <v>26</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="51">
       <c r="A7" s="1" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="B7" s="1">
         <v>2022</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="E7" s="1">
-        <v>12</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="34">
-      <c r="A8" s="6" t="s">
-        <v>252</v>
+        <v>287</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="51">
+      <c r="A8" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="B8" s="1">
         <v>2022</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>266</v>
+      </c>
+      <c r="E8" s="1">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="51">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="34">
       <c r="A9" s="6" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="B9" s="1">
         <v>2022</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>230</v>
+        <v>11</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" ht="34">
-      <c r="A10" s="7" t="s">
-        <v>244</v>
+        <v>213</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="51">
+      <c r="A10" s="6" t="s">
+        <v>231</v>
       </c>
       <c r="B10" s="1">
         <v>2022</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="51">
-      <c r="A11" s="1" t="s">
-        <v>271</v>
+        <v>230</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" ht="34">
+      <c r="A11" s="7" t="s">
+        <v>244</v>
       </c>
       <c r="B11" s="1">
         <v>2022</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="51">
-      <c r="A12" s="6" t="s">
-        <v>242</v>
+      <c r="A12" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="B12" s="1">
         <v>2022</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>148</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="68">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="51">
       <c r="A13" s="6" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B13" s="1">
         <v>2022</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="51">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="68">
       <c r="A14" s="6" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="B14" s="1">
         <v>2022</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>236</v>
+        <v>94</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="51">
       <c r="A15" s="6" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B15" s="1">
         <v>2022</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="51">
-      <c r="A16" s="1" t="s">
-        <v>156</v>
+      <c r="A16" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="B16" s="1">
         <v>2022</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>151</v>
+        <v>234</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="68">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="51">
       <c r="A17" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B17" s="1">
         <v>2022</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>149</v>
+        <v>228</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="51">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="68">
       <c r="A18" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B18" s="1">
         <v>2022</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="51">
+      <c r="A19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E19" s="1">
         <v>65</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F19" s="1">
         <v>2</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="68">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:9" ht="68">
+      <c r="A20" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E19" s="1">
-        <v>131</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="51">
-      <c r="A20" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="B20" s="1">
         <v>2021</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>201</v>
+        <v>144</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
+      </c>
+      <c r="E20" s="1">
+        <v>131</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="68">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="51">
       <c r="A21" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B21" s="1">
         <v>2021</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E21" s="5">
-        <v>16</v>
-      </c>
-      <c r="F21" s="1">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>153</v>
+        <v>263</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="51">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="68">
       <c r="A22" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B22" s="1">
         <v>2021</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="1">
-        <v>38</v>
+        <v>146</v>
+      </c>
+      <c r="E22" s="5">
+        <v>16</v>
+      </c>
+      <c r="F22" s="1">
+        <v>10</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="68">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="51">
       <c r="A23" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B23" s="1">
         <v>2021</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>202</v>
+        <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>111</v>
+        <v>6</v>
+      </c>
+      <c r="E23" s="1">
+        <v>38</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="51">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="68">
       <c r="A24" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B24" s="1">
         <v>2021</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>7</v>
+        <v>202</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="51">
       <c r="A25" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B25" s="1">
         <v>2021</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="1">
-        <v>77</v>
+        <v>8</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F25" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="51">
       <c r="A26" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B26" s="1">
         <v>2021</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>203</v>
+        <v>9</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="1">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F26" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>261</v>
+        <v>143</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="51">
       <c r="A27" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B27" s="1">
         <v>2021</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>11</v>
@@ -1896,916 +1890,922 @@
         <v>5</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="68">
+        <v>262</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="51">
       <c r="A28" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B28" s="1">
         <v>2021</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="E28" s="1">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="F28" s="1">
+        <v>5</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="51">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="68">
       <c r="A29" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B29" s="1">
         <v>2021</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="E29" s="1">
-        <v>64</v>
-      </c>
-      <c r="F29" s="1">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="68">
+        <v>118</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="51">
       <c r="A30" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B30" s="1">
         <v>2021</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="1">
+        <v>64</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="68">
+      <c r="A31" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E31" s="1">
         <v>23</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F31" s="1">
         <v>5</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="51">
-      <c r="A31" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B31" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="1">
-        <v>42</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="51">
       <c r="A32" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B32" s="1">
         <v>2020</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E32" s="1">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="51">
       <c r="A33" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B33" s="1">
         <v>2020</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E33" s="1">
-        <v>63</v>
-      </c>
-      <c r="F33" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="51">
       <c r="A34" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B34" s="1">
         <v>2020</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E34" s="1">
-        <v>40</v>
+        <v>63</v>
+      </c>
+      <c r="F34" s="1">
+        <v>6</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="51">
       <c r="A35" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B35" s="1">
         <v>2020</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E35" s="1">
-        <v>51</v>
-      </c>
-      <c r="F35" s="1">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="51">
       <c r="A36" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B36" s="1">
         <v>2020</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>31</v>
+        <v>208</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E36" s="1">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F36" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="51">
       <c r="A37" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B37" s="1">
         <v>2020</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>209</v>
+        <v>31</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E37" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F37" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="51">
       <c r="A38" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B38" s="1">
         <v>2020</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E38" s="1">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F38" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="68">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="51">
       <c r="A39" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B39" s="1">
         <v>2020</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E39" s="1">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="F39" s="1">
         <v>2</v>
       </c>
       <c r="G39" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="68">
+      <c r="A40" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="1">
+        <v>113</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="51">
-      <c r="A40" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B40" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E40" s="1">
-        <v>61</v>
-      </c>
-      <c r="F40" s="1">
-        <v>3</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="51">
       <c r="A41" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B41" s="1">
         <v>2019</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E41" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F41" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="51">
       <c r="A42" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B42" s="1">
         <v>2019</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="E42" s="1">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F42" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="51">
       <c r="A43" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B43" s="1">
         <v>2019</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E43" s="1">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="F43" s="1">
+        <v>10</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="51">
       <c r="A44" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B44" s="1">
         <v>2019</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E44" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="51">
       <c r="A45" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B45" s="1">
         <v>2019</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>212</v>
+        <v>47</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E45" s="1">
-        <v>20</v>
-      </c>
-      <c r="F45" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="51">
       <c r="A46" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B46" s="1">
         <v>2019</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>264</v>
+        <v>212</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E46" s="1">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F46" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>213</v>
+        <v>51</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="51">
       <c r="A47" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B47" s="1">
         <v>2019</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>53</v>
+        <v>264</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E47" s="1">
-        <v>145</v>
+        <v>33</v>
       </c>
       <c r="F47" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>54</v>
+        <v>213</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="51">
       <c r="A48" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B48" s="1">
         <v>2019</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E48" s="1">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="F48" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="68">
+        <v>54</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="51">
       <c r="A49" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B49" s="1">
         <v>2019</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="E49" s="1">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F49" s="1">
         <v>2</v>
       </c>
       <c r="G49" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="68">
+      <c r="A50" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="1">
+        <v>62</v>
+      </c>
+      <c r="F50" s="1">
+        <v>2</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I50" s="1" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="51">
-      <c r="A50" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B50" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E50" s="1">
-        <v>3</v>
-      </c>
-      <c r="F50" s="1">
-        <v>1</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="51">
       <c r="A51" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B51" s="1">
         <v>2018</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>63</v>
+        <v>214</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E51" s="1">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="F51" s="1">
-        <v>3</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>136</v>
+        <v>1</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="51">
       <c r="A52" s="1" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="B52" s="1">
         <v>2018</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E52" s="1">
         <v>143</v>
       </c>
       <c r="F52" s="1">
+        <v>3</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="51">
+      <c r="A53" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="1">
+        <v>143</v>
+      </c>
+      <c r="F53" s="1">
         <v>5</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="68">
-      <c r="A53" s="1" t="s">
+    <row r="54" spans="1:9" ht="68">
+      <c r="A54" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="B53" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E53" s="1">
-        <v>9</v>
-      </c>
-      <c r="F53" s="1">
-        <v>2</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="51">
-      <c r="A54" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="B54" s="1">
         <v>2017</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="E54" s="1">
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="F54" s="1">
+        <v>2</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>138</v>
+        <v>68</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="51">
       <c r="A55" s="1" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="B55" s="1">
         <v>2017</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="E55" s="1">
-        <v>140</v>
-      </c>
-      <c r="F55" s="1">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="51">
       <c r="A56" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B56" s="1">
         <v>2017</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E56" s="1">
-        <v>10</v>
+        <v>140</v>
+      </c>
+      <c r="F56" s="1">
+        <v>6</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="68">
+        <v>139</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="51">
       <c r="A57" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B57" s="1">
         <v>2017</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E57" s="1">
-        <v>111</v>
-      </c>
-      <c r="F57" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="68">
       <c r="A58" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B58" s="1">
         <v>2017</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>219</v>
+        <v>74</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="E58" s="1">
-        <v>55</v>
+        <v>111</v>
+      </c>
+      <c r="F58" s="1">
+        <v>5</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="51">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="68">
       <c r="A59" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B59" s="1">
         <v>2017</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E59" s="1">
-        <v>36</v>
-      </c>
-      <c r="F59" s="1">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="51">
       <c r="A60" s="1" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="B60" s="1">
         <v>2017</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E60" s="1">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F60" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="34">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="51">
       <c r="A61" s="1" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="B61" s="1">
         <v>2017</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="1">
+        <v>60</v>
+      </c>
+      <c r="F61" s="1">
+        <v>3</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="34">
+      <c r="A62" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B62" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E62" s="1">
         <v>30</v>
-      </c>
-      <c r="F61" s="1">
-        <v>2</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="51">
-      <c r="A62" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B62" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E62" s="1">
-        <v>1</v>
       </c>
       <c r="F62" s="1">
         <v>2</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="34">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="51">
       <c r="A63" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B63" s="1">
         <v>2016</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>61</v>
@@ -2817,52 +2817,75 @@
         <v>2</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="34">
       <c r="A64" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B64" s="1">
         <v>2016</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1">
+        <v>2</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="34">
+      <c r="A65" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B65" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E65" s="1">
         <v>37</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F65" s="1">
         <v>6</v>
       </c>
-      <c r="G64" s="4" t="s">
+      <c r="G65" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="68">
-      <c r="A65" s="1" t="s">
+    <row r="66" spans="1:7" ht="68">
+      <c r="A66" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B66" s="1">
         <v>2015</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E66" s="1">
         <v>115</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F66" s="1">
         <v>5</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="G66" s="4" t="s">
         <v>93</v>
       </c>
     </row>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tbarret/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F68BFF-1935-A446-977D-D9A01C2898B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC3C5DA-7B3B-BD4A-8E49-0B22BCF9CD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="500" windowWidth="20580" windowHeight="16300" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
+    <workbookView xWindow="3860" yWindow="500" windowWidth="24940" windowHeight="16300" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
   <sheets>
     <sheet name="Journals" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="295">
   <si>
     <t>authors</t>
   </si>
@@ -920,6 +920,9 @@
   </si>
   <si>
     <t>Ergonomics</t>
+  </si>
+  <si>
+    <t>08862605221101197</t>
   </si>
 </sst>
 </file>
@@ -986,7 +989,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1000,7 +1003,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1323,7 +1325,7 @@
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1369,40 +1371,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="34">
+    <row r="2" spans="1:9" ht="68">
       <c r="A2" s="1" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="68">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="51">
       <c r="A3" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="34">
       <c r="A4" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>141</v>
+      <c r="B4" s="1">
+        <v>2022</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>282</v>
@@ -1411,32 +1413,35 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="51">
+    <row r="5" spans="1:9" ht="34">
       <c r="A5" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>141</v>
+        <v>291</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2022</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="51">
       <c r="A6" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>141</v>
+      <c r="B6" s="1">
+        <v>2022</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>269</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>270</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="51">
@@ -1489,7 +1494,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="34">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>252</v>
       </c>
       <c r="B9" s="1">
@@ -1509,7 +1514,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="51">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>231</v>
       </c>
       <c r="B10" s="1">
@@ -1524,10 +1529,10 @@
       <c r="G10" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="I10" s="8"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="34">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>244</v>
       </c>
       <c r="B11" s="1">
@@ -1561,7 +1566,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="51">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>242</v>
       </c>
       <c r="B13" s="1">
@@ -1581,7 +1586,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="68">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>250</v>
       </c>
       <c r="B14" s="1">
@@ -1601,7 +1606,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="51">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>237</v>
       </c>
       <c r="B15" s="1">
@@ -1621,7 +1626,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="51">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>232</v>
       </c>
       <c r="B16" s="1">
@@ -1759,7 +1764,7 @@
       <c r="D22" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22">
         <v>16</v>
       </c>
       <c r="F22" s="1">

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tbarret/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC3C5DA-7B3B-BD4A-8E49-0B22BCF9CD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7ED20FA-2D9C-A74F-9DE3-6FDAA87B731A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3860" yWindow="500" windowWidth="24940" windowHeight="16300" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Presentations" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$11</definedName>
+    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$13</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="300">
   <si>
     <t>authors</t>
   </si>
@@ -886,9 +886,6 @@
     <t>A moderated mediation model of gender, posttraumatic cognitions, and posttraumatic stress disorder symptoms after military sexual assault revictimization.</t>
   </si>
   <si>
-    <t>Cognitive predictors of perception and adaptation to dysarthric speech in young adult listeners</t>
-  </si>
-  <si>
     <t>Lansford, K., Barrett, T. S., &amp; Borrie, S. A.</t>
   </si>
   <si>
@@ -923,6 +920,24 @@
   </si>
   <si>
     <t>08862605221101197</t>
+  </si>
+  <si>
+    <t>Brain and Behavior</t>
+  </si>
+  <si>
+    <t>Hancock, A., Warren, C., Barrett, T. S., Bolton, D., &amp; Gillam, R.</t>
+  </si>
+  <si>
+    <t>Wynn, C. J., Barrett, T. S., Berisha, V., Liss, J., &amp; Borrie, S. A.</t>
+  </si>
+  <si>
+    <t>Speech Entrainment in Adolescent Conversations: A Developmental Perspective.</t>
+  </si>
+  <si>
+    <t>fNIRS Measures of Neural Activity in Children with and Without Developmental Language Disorder During a Working Memory Task.</t>
+  </si>
+  <si>
+    <t>Cognitive predictors of perception and adaptation to dysarthric speech in young adult listeners.</t>
   </si>
 </sst>
 </file>
@@ -1322,10 +1337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BAB23D-B27F-A34D-A522-4C115B575C05}">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1371,600 +1386,576 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="68">
-      <c r="A2" s="1" t="s">
-        <v>280</v>
+    <row r="2" spans="1:9" ht="34">
+      <c r="A2" s="5" t="s">
+        <v>296</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="51">
       <c r="A3" s="1" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="68">
+      <c r="A4" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="51">
+      <c r="A5" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="34">
-      <c r="A4" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="6" spans="1:9" ht="34">
+      <c r="A6" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="34">
-      <c r="A5" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="51">
-      <c r="A6" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="B6" s="1">
         <v>2022</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="51">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="34">
       <c r="A7" s="1" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B7" s="1">
         <v>2022</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E7" s="1">
-        <v>26</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="51">
       <c r="A8" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B8" s="1">
         <v>2022</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E8" s="1">
-        <v>12</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
+        <v>270</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="34">
-      <c r="A9" s="5" t="s">
-        <v>252</v>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="51">
+      <c r="A9" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="B9" s="1">
         <v>2022</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>285</v>
+      </c>
+      <c r="E9" s="1">
+        <v>26</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>213</v>
+        <v>286</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>238</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="51">
-      <c r="A10" s="5" t="s">
-        <v>231</v>
+      <c r="A10" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="B10" s="1">
         <v>2022</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>229</v>
+        <v>288</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>230</v>
+        <v>266</v>
+      </c>
+      <c r="E10" s="1">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I10" s="7"/>
+        <v>279</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="34">
-      <c r="A11" s="6" t="s">
-        <v>244</v>
+      <c r="A11" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="B11" s="1">
         <v>2022</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>247</v>
+        <v>11</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="51">
-      <c r="A12" s="1" t="s">
-        <v>271</v>
+      <c r="A12" s="5" t="s">
+        <v>231</v>
       </c>
       <c r="B12" s="1">
         <v>2022</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>148</v>
+        <v>230</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="51">
-      <c r="A13" s="5" t="s">
-        <v>242</v>
+        <v>85</v>
+      </c>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" ht="34">
+      <c r="A13" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="B13" s="1">
         <v>2022</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="68">
-      <c r="A14" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="51">
+      <c r="A14" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="B14" s="1">
         <v>2022</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>94</v>
+        <v>148</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="51">
       <c r="A15" s="5" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B15" s="1">
         <v>2022</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>236</v>
+        <v>34</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="51">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="68">
       <c r="A16" s="5" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="B16" s="1">
         <v>2022</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>234</v>
+        <v>94</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>248</v>
+        <v>253</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="51">
-      <c r="A17" s="1" t="s">
-        <v>156</v>
+      <c r="A17" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="B17" s="1">
         <v>2022</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>151</v>
+        <v>236</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="68">
-      <c r="A18" s="1" t="s">
-        <v>158</v>
+        <v>249</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="51">
+      <c r="A18" s="5" t="s">
+        <v>232</v>
       </c>
       <c r="B18" s="1">
         <v>2022</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>149</v>
+        <v>233</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="51">
       <c r="A19" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B19" s="1">
         <v>2022</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>150</v>
+        <v>228</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="1">
-        <v>65</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>265</v>
+        <v>151</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>238</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="68">
       <c r="A20" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B20" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E20" s="1">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>154</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="51">
       <c r="A21" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B21" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>142</v>
+        <v>11</v>
+      </c>
+      <c r="E21" s="1">
+        <v>65</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>226</v>
+        <v>239</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="68">
       <c r="A22" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B22" s="1">
         <v>2021</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22">
-        <v>16</v>
-      </c>
-      <c r="F22" s="1">
-        <v>10</v>
+        <v>145</v>
+      </c>
+      <c r="E22" s="1">
+        <v>131</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>153</v>
+        <v>227</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="51">
       <c r="A23" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B23" s="1">
         <v>2021</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>5</v>
+        <v>201</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="1">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>116</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="68">
       <c r="A24" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B24" s="1">
         <v>2021</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>111</v>
+        <v>146</v>
+      </c>
+      <c r="E24">
+        <v>16</v>
+      </c>
+      <c r="F24" s="1">
+        <v>10</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="51">
       <c r="A25" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B25" s="1">
         <v>2021</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="E25" s="1">
+        <v>38</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="51">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="68">
       <c r="A26" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B26" s="1">
         <v>2021</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>9</v>
+        <v>202</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="1">
-        <v>77</v>
-      </c>
-      <c r="F26" s="1">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="51">
       <c r="A27" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B27" s="1">
         <v>2021</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>203</v>
+        <v>7</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="1">
-        <v>64</v>
+        <v>8</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F27" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>261</v>
+        <v>114</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>262</v>
+        <v>115</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="51">
       <c r="A28" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B28" s="1">
         <v>2021</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" s="1">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F28" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>259</v>
+        <v>143</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="68">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="51">
       <c r="A29" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B29" s="1">
         <v>2021</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="E29" s="1">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="F29" s="1">
+        <v>5</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>118</v>
+        <v>262</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="51">
       <c r="A30" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B30" s="1">
         <v>2021</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>11</v>
@@ -1973,206 +1964,203 @@
         <v>64</v>
       </c>
       <c r="F30" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="68">
       <c r="A31" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B31" s="1">
         <v>2021</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="E31" s="1">
-        <v>23</v>
-      </c>
-      <c r="F31" s="1">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="51">
       <c r="A32" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B32" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E32" s="1">
-        <v>42</v>
+        <v>64</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="51">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="68">
       <c r="A33" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B33" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="1">
         <v>23</v>
       </c>
-      <c r="E33" s="1">
-        <v>18</v>
+      <c r="F33" s="1">
+        <v>5</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>24</v>
+        <v>257</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>121</v>
+        <v>16</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="51">
       <c r="A34" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B34" s="1">
         <v>2020</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E34" s="1">
-        <v>63</v>
-      </c>
-      <c r="F34" s="1">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="51">
       <c r="A35" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B35" s="1">
         <v>2020</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>207</v>
+        <v>22</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E35" s="1">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="51">
       <c r="A36" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B36" s="1">
         <v>2020</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>208</v>
+        <v>25</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E36" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F36" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="51">
       <c r="A37" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B37" s="1">
         <v>2020</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E37" s="1">
-        <v>63</v>
-      </c>
-      <c r="F37" s="1">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="51">
       <c r="A38" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B38" s="1">
         <v>2020</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>29</v>
@@ -2184,423 +2172,429 @@
         <v>3</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="51">
       <c r="A39" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B39" s="1">
         <v>2020</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>210</v>
+        <v>31</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E39" s="1">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="F39" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="68">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="51">
       <c r="A40" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B40" s="1">
         <v>2020</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E40" s="1">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="F40" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="51">
       <c r="A41" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B41" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E41" s="1">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="F41" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="51">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="68">
       <c r="A42" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B42" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E42" s="1">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="F42" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="51">
       <c r="A43" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B43" s="1">
         <v>2019</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E43" s="1">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F43" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="51">
       <c r="A44" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B44" s="1">
         <v>2019</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E44" s="1">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="F44" s="1">
+        <v>12</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="51">
       <c r="A45" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B45" s="1">
         <v>2019</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E45" s="1">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="F45" s="1">
+        <v>10</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="51">
       <c r="A46" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B46" s="1">
         <v>2019</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>212</v>
+        <v>46</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E46" s="1">
-        <v>20</v>
-      </c>
-      <c r="F46" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="51">
       <c r="A47" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B47" s="1">
         <v>2019</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>264</v>
+        <v>47</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E47" s="1">
-        <v>33</v>
-      </c>
-      <c r="F47" s="1">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>213</v>
+        <v>50</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="51">
       <c r="A48" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B48" s="1">
         <v>2019</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>53</v>
+        <v>212</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E48" s="1">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="F48" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="51">
       <c r="A49" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B49" s="1">
         <v>2019</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>58</v>
+        <v>264</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E49" s="1">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="F49" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="68">
+        <v>213</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="51">
       <c r="A50" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B50" s="1">
         <v>2019</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E50" s="1">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="F50" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="51">
       <c r="A51" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B51" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>214</v>
+        <v>58</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E51" s="1">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="F51" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="68">
+      <c r="A52" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="1">
         <v>62</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="51">
-      <c r="A52" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B52" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E52" s="1">
-        <v>143</v>
-      </c>
       <c r="F52" s="1">
-        <v>3</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>136</v>
+        <v>2</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="51">
       <c r="A53" s="1" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="B53" s="1">
         <v>2018</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>65</v>
+        <v>214</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E53" s="1">
+        <v>3</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="51">
+      <c r="A54" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B54" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" s="1">
         <v>143</v>
       </c>
-      <c r="F53" s="1">
-        <v>5</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="68">
-      <c r="A54" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B54" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E54" s="1">
-        <v>9</v>
-      </c>
       <c r="F54" s="1">
-        <v>2</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>106</v>
+        <v>3</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="51">
@@ -2608,289 +2602,338 @@
         <v>166</v>
       </c>
       <c r="B55" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>216</v>
+        <v>65</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="E55" s="1">
-        <v>60</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>69</v>
+        <v>143</v>
+      </c>
+      <c r="F55" s="1">
+        <v>5</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="51">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="68">
       <c r="A56" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B56" s="1">
         <v>2017</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E56" s="1">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="F56" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="51">
       <c r="A57" s="1" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="B57" s="1">
         <v>2017</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="E57" s="1">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="68">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="51">
       <c r="A58" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B58" s="1">
         <v>2017</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="E58" s="1">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="F58" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="68">
+        <v>139</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="51">
       <c r="A59" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B59" s="1">
         <v>2017</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E59" s="1">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="51">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="68">
       <c r="A60" s="1" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="B60" s="1">
         <v>2017</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="E60" s="1">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="F60" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="51">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="68">
       <c r="A61" s="1" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="B61" s="1">
         <v>2017</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>84</v>
+        <v>219</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="E61" s="1">
-        <v>60</v>
-      </c>
-      <c r="F61" s="1">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="34">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="51">
       <c r="A62" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="B62" s="1">
         <v>2017</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E62" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F62" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="51">
       <c r="A63" s="1" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="B63" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>221</v>
+        <v>84</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="E63" s="1">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F63" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="34">
       <c r="A64" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B64" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E64" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F64" s="1">
         <v>2</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="34">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="51">
       <c r="A65" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B65" s="1">
         <v>2016</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1">
+        <v>2</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="34">
+      <c r="A66" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B66" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
+      <c r="F66" s="1">
+        <v>2</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="34">
+      <c r="A67" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B67" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E67" s="1">
         <v>37</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F67" s="1">
         <v>6</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="G67" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="68">
-      <c r="A66" s="1" t="s">
+    <row r="68" spans="1:7" ht="68">
+      <c r="A68" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B68" s="1">
         <v>2015</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E68" s="1">
         <v>115</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F68" s="1">
         <v>5</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="G68" s="4" t="s">
         <v>93</v>
       </c>
     </row>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tbarret/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7ED20FA-2D9C-A74F-9DE3-6FDAA87B731A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825095A8-355E-BF44-9CA4-6F726EDFBC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3860" yWindow="500" windowWidth="24940" windowHeight="16300" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Presentations" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$13</definedName>
+    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$14</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="302">
   <si>
     <t>authors</t>
   </si>
@@ -938,6 +938,12 @@
   </si>
   <si>
     <t>Cognitive predictors of perception and adaptation to dysarthric speech in young adult listeners.</t>
+  </si>
+  <si>
+    <t>Borrie, S. A., Yoho, S. E., Healy, E., &amp; Barrett, T. S.</t>
+  </si>
+  <si>
+    <t>The application of time-frequency masking to improve intelligibility of dysarthria in background noise.</t>
   </si>
 </sst>
 </file>
@@ -1337,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BAB23D-B27F-A34D-A522-4C115B575C05}">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1386,576 +1392,561 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="34">
-      <c r="A2" s="5" t="s">
-        <v>296</v>
+    <row r="2" spans="1:9" ht="51">
+      <c r="A2" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="51">
-      <c r="A3" s="1" t="s">
-        <v>295</v>
+    <row r="3" spans="1:9" ht="34">
+      <c r="A3" s="5" t="s">
+        <v>296</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="68">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="51">
       <c r="A4" s="1" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="51">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="68">
       <c r="A5" s="1" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="51">
+      <c r="A6" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="34">
-      <c r="A6" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="34">
       <c r="A7" s="1" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B7" s="1">
         <v>2022</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="51">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="34">
       <c r="A8" s="1" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="B8" s="1">
         <v>2022</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="51">
       <c r="A9" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B9" s="1">
         <v>2022</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E9" s="1">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="51">
       <c r="A10" s="1" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="B10" s="1">
         <v>2022</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="E10" s="1">
-        <v>12</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="34">
-      <c r="A11" s="5" t="s">
-        <v>252</v>
+        <v>286</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="51">
+      <c r="A11" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="B11" s="1">
         <v>2022</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>266</v>
+      </c>
+      <c r="E11" s="1">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="51">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="34">
       <c r="A12" s="5" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="B12" s="1">
         <v>2022</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>230</v>
+        <v>11</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" ht="34">
-      <c r="A13" s="6" t="s">
-        <v>244</v>
+        <v>213</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="51">
+      <c r="A13" s="5" t="s">
+        <v>231</v>
       </c>
       <c r="B13" s="1">
         <v>2022</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="51">
-      <c r="A14" s="1" t="s">
-        <v>271</v>
+        <v>230</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" ht="34">
+      <c r="A14" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="B14" s="1">
         <v>2022</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="51">
-      <c r="A15" s="5" t="s">
-        <v>242</v>
+      <c r="A15" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="B15" s="1">
         <v>2022</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>34</v>
+        <v>148</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="68">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="51">
       <c r="A16" s="5" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B16" s="1">
         <v>2022</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="51">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="68">
       <c r="A17" s="5" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="B17" s="1">
         <v>2022</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>236</v>
+        <v>94</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="51">
       <c r="A18" s="5" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B18" s="1">
         <v>2022</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="51">
-      <c r="A19" s="1" t="s">
-        <v>156</v>
+      <c r="A19" s="5" t="s">
+        <v>232</v>
       </c>
       <c r="B19" s="1">
         <v>2022</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>151</v>
+        <v>234</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="68">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="51">
       <c r="A20" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B20" s="1">
         <v>2022</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>149</v>
+        <v>228</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="51">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="68">
       <c r="A21" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B21" s="1">
         <v>2022</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="51">
+      <c r="A22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E22" s="1">
         <v>65</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F22" s="1">
         <v>2</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="68">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:9" ht="68">
+      <c r="A23" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E22" s="1">
-        <v>131</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="51">
-      <c r="A23" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="B23" s="1">
         <v>2021</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>201</v>
+        <v>144</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
+      </c>
+      <c r="E23" s="1">
+        <v>131</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="68">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="51">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B24" s="1">
         <v>2021</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E24">
-        <v>16</v>
-      </c>
-      <c r="F24" s="1">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>153</v>
+        <v>263</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="51">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="68">
       <c r="A25" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B25" s="1">
         <v>2021</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="1">
-        <v>38</v>
+        <v>146</v>
+      </c>
+      <c r="E25">
+        <v>16</v>
+      </c>
+      <c r="F25" s="1">
+        <v>10</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="68">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="51">
       <c r="A26" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B26" s="1">
         <v>2021</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>202</v>
+        <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>111</v>
+        <v>6</v>
+      </c>
+      <c r="E26" s="1">
+        <v>38</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="51">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="68">
       <c r="A27" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B27" s="1">
         <v>2021</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>7</v>
+        <v>202</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="51">
       <c r="A28" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B28" s="1">
         <v>2021</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="1">
-        <v>77</v>
+        <v>8</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F28" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="51">
       <c r="A29" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B29" s="1">
         <v>2021</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>203</v>
+        <v>9</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" s="1">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F29" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>261</v>
+        <v>143</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="51">
       <c r="A30" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B30" s="1">
         <v>2021</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>11</v>
@@ -1967,916 +1958,922 @@
         <v>5</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="68">
+        <v>262</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="51">
       <c r="A31" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B31" s="1">
         <v>2021</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="E31" s="1">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="F31" s="1">
+        <v>5</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="51">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="68">
       <c r="A32" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B32" s="1">
         <v>2021</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="E32" s="1">
-        <v>64</v>
-      </c>
-      <c r="F32" s="1">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="68">
+        <v>118</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="51">
       <c r="A33" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B33" s="1">
         <v>2021</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="1">
+        <v>64</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="68">
+      <c r="A34" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E34" s="1">
         <v>23</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F34" s="1">
         <v>5</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G34" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="51">
-      <c r="A34" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B34" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="1">
-        <v>42</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="51">
       <c r="A35" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B35" s="1">
         <v>2020</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E35" s="1">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="51">
       <c r="A36" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B36" s="1">
         <v>2020</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E36" s="1">
-        <v>63</v>
-      </c>
-      <c r="F36" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="51">
       <c r="A37" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B37" s="1">
         <v>2020</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E37" s="1">
-        <v>40</v>
+        <v>63</v>
+      </c>
+      <c r="F37" s="1">
+        <v>6</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="51">
       <c r="A38" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B38" s="1">
         <v>2020</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E38" s="1">
-        <v>51</v>
-      </c>
-      <c r="F38" s="1">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="51">
       <c r="A39" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B39" s="1">
         <v>2020</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>31</v>
+        <v>208</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E39" s="1">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F39" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="51">
       <c r="A40" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B40" s="1">
         <v>2020</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>209</v>
+        <v>31</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E40" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F40" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="51">
       <c r="A41" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B41" s="1">
         <v>2020</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E41" s="1">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F41" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="68">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="51">
       <c r="A42" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B42" s="1">
         <v>2020</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E42" s="1">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="F42" s="1">
         <v>2</v>
       </c>
       <c r="G42" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="68">
+      <c r="A43" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="1">
+        <v>113</v>
+      </c>
+      <c r="F43" s="1">
+        <v>2</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="51">
-      <c r="A43" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B43" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E43" s="1">
-        <v>61</v>
-      </c>
-      <c r="F43" s="1">
-        <v>3</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="51">
       <c r="A44" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B44" s="1">
         <v>2019</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E44" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F44" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="51">
       <c r="A45" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B45" s="1">
         <v>2019</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="E45" s="1">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F45" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="51">
       <c r="A46" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B46" s="1">
         <v>2019</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E46" s="1">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="F46" s="1">
+        <v>10</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="51">
       <c r="A47" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B47" s="1">
         <v>2019</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E47" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="51">
       <c r="A48" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B48" s="1">
         <v>2019</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>212</v>
+        <v>47</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E48" s="1">
-        <v>20</v>
-      </c>
-      <c r="F48" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="51">
       <c r="A49" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B49" s="1">
         <v>2019</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>264</v>
+        <v>212</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E49" s="1">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F49" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>213</v>
+        <v>51</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="51">
       <c r="A50" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B50" s="1">
         <v>2019</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>53</v>
+        <v>264</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E50" s="1">
-        <v>145</v>
+        <v>33</v>
       </c>
       <c r="F50" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>54</v>
+        <v>213</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="51">
       <c r="A51" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B51" s="1">
         <v>2019</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E51" s="1">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="F51" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="68">
+        <v>54</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="51">
       <c r="A52" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B52" s="1">
         <v>2019</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="E52" s="1">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F52" s="1">
         <v>2</v>
       </c>
       <c r="G52" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="68">
+      <c r="A53" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="1">
+        <v>62</v>
+      </c>
+      <c r="F53" s="1">
+        <v>2</v>
+      </c>
+      <c r="G53" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="51">
-      <c r="A53" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B53" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E53" s="1">
-        <v>3</v>
-      </c>
-      <c r="F53" s="1">
-        <v>1</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="51">
       <c r="A54" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B54" s="1">
         <v>2018</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>63</v>
+        <v>214</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E54" s="1">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="F54" s="1">
-        <v>3</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>136</v>
+        <v>1</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="51">
       <c r="A55" s="1" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="B55" s="1">
         <v>2018</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E55" s="1">
         <v>143</v>
       </c>
       <c r="F55" s="1">
+        <v>3</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="51">
+      <c r="A56" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56" s="1">
+        <v>143</v>
+      </c>
+      <c r="F56" s="1">
         <v>5</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="68">
-      <c r="A56" s="1" t="s">
+    <row r="57" spans="1:9" ht="68">
+      <c r="A57" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="B56" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E56" s="1">
-        <v>9</v>
-      </c>
-      <c r="F56" s="1">
-        <v>2</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="51">
-      <c r="A57" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="B57" s="1">
         <v>2017</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="E57" s="1">
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="F57" s="1">
+        <v>2</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>138</v>
+        <v>68</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="51">
       <c r="A58" s="1" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="B58" s="1">
         <v>2017</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="E58" s="1">
-        <v>140</v>
-      </c>
-      <c r="F58" s="1">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="51">
       <c r="A59" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B59" s="1">
         <v>2017</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E59" s="1">
-        <v>10</v>
+        <v>140</v>
+      </c>
+      <c r="F59" s="1">
+        <v>6</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="68">
+        <v>139</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="51">
       <c r="A60" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B60" s="1">
         <v>2017</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E60" s="1">
-        <v>111</v>
-      </c>
-      <c r="F60" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="68">
       <c r="A61" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B61" s="1">
         <v>2017</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>219</v>
+        <v>74</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="E61" s="1">
-        <v>55</v>
+        <v>111</v>
+      </c>
+      <c r="F61" s="1">
+        <v>5</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="51">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="68">
       <c r="A62" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B62" s="1">
         <v>2017</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E62" s="1">
-        <v>36</v>
-      </c>
-      <c r="F62" s="1">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="51">
       <c r="A63" s="1" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="B63" s="1">
         <v>2017</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E63" s="1">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F63" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="34">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="51">
       <c r="A64" s="1" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="B64" s="1">
         <v>2017</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="1">
+        <v>60</v>
+      </c>
+      <c r="F64" s="1">
+        <v>3</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="34">
+      <c r="A65" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B65" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E65" s="1">
         <v>30</v>
-      </c>
-      <c r="F64" s="1">
-        <v>2</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="51">
-      <c r="A65" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B65" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E65" s="1">
-        <v>1</v>
       </c>
       <c r="F65" s="1">
         <v>2</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="34">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="51">
       <c r="A66" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B66" s="1">
         <v>2016</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>61</v>
@@ -2888,52 +2885,75 @@
         <v>2</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="34">
       <c r="A67" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B67" s="1">
         <v>2016</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1">
+        <v>2</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="34">
+      <c r="A68" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B68" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E68" s="1">
         <v>37</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F68" s="1">
         <v>6</v>
       </c>
-      <c r="G67" s="4" t="s">
+      <c r="G68" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="68">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:7" ht="68">
+      <c r="A69" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B69" s="1">
         <v>2015</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E69" s="1">
         <v>115</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F69" s="1">
         <v>5</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="G69" s="4" t="s">
         <v>93</v>
       </c>
     </row>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tbarret/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825095A8-355E-BF44-9CA4-6F726EDFBC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E14147-E5DD-D141-9A7C-722D4C3449BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3860" yWindow="500" windowWidth="24940" windowHeight="16300" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
   <sheets>
     <sheet name="Journals" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="302">
   <si>
     <t>authors</t>
   </si>
@@ -463,9 +463,6 @@
     <t>doi: 10.1016/j.dhjo.2017.03.003</t>
   </si>
   <si>
-    <t>In Press</t>
-  </si>
-  <si>
     <t>International Journal of Mental Health and Addiction</t>
   </si>
   <si>
@@ -844,12 +841,6 @@
     <t>Reuveni, N., Carlson, C., Schwartz, S., Barrett, T. S., &amp; Freeman, S.</t>
   </si>
   <si>
-    <t>Blais, R. K., Livingston, W. S., Barrett, T. S., &amp; Tannahill, H. S.</t>
-  </si>
-  <si>
-    <t>Individual and interpersonal outcomes associated with single and multiple exposures of civilian and military sexual violence.</t>
-  </si>
-  <si>
     <t>Journal of Interpersonal Violence</t>
   </si>
   <si>
@@ -919,9 +910,6 @@
     <t>Ergonomics</t>
   </si>
   <si>
-    <t>08862605221101197</t>
-  </si>
-  <si>
     <t>Brain and Behavior</t>
   </si>
   <si>
@@ -944,6 +932,18 @@
   </si>
   <si>
     <t>The application of time-frequency masking to improve intelligibility of dysarthria in background noise.</t>
+  </si>
+  <si>
+    <t>Blais RK, Livingston WS, Barrett TS, Tannahill HS</t>
+  </si>
+  <si>
+    <t>Sexual Violence in Military Service Members/Veterans Individual and Interpersonal Outcomes Associated with Single and Multiple Exposures to Civilian and Military Sexual Violence. </t>
+  </si>
+  <si>
+    <t>2585-2613</t>
+  </si>
+  <si>
+    <t>doi: 10.1177/08862605221101197</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1010,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1029,6 +1029,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1346,7 +1349,7 @@
   <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1394,13 +1397,13 @@
     </row>
     <row r="2" spans="1:9" ht="51">
       <c r="A2" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>141</v>
+        <v>296</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2023</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -1408,13 +1411,13 @@
     </row>
     <row r="3" spans="1:9" ht="34">
       <c r="A3" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>141</v>
+        <v>292</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2023</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -1422,129 +1425,138 @@
     </row>
     <row r="4" spans="1:9" ht="51">
       <c r="A4" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>141</v>
+        <v>291</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2023</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="68">
       <c r="A5" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>141</v>
+        <v>277</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2023</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="51">
       <c r="A6" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>141</v>
+        <v>271</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2023</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="34">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="68">
       <c r="A7" s="1" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="B7" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>299</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>267</v>
+      </c>
+      <c r="E7" s="1">
+        <v>38</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44989</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="34">
       <c r="A8" s="1" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B8" s="1">
         <v>2022</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="51">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="34">
       <c r="A9" s="1" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="B9" s="1">
         <v>2022</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="51">
       <c r="A10" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B10" s="1">
         <v>2022</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E10" s="1">
         <v>26</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="51">
       <c r="A11" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B11" s="1">
         <v>2022</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E11" s="1">
         <v>12</v>
@@ -1553,41 +1565,41 @@
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="34">
       <c r="A12" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B12" s="1">
         <v>2022</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="51">
       <c r="A13" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B13" s="1">
         <v>2022</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>85</v>
@@ -1596,161 +1608,161 @@
     </row>
     <row r="14" spans="1:9" ht="34">
       <c r="A14" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B14" s="1">
         <v>2022</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="51">
       <c r="A15" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B15" s="1">
         <v>2022</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="51">
       <c r="A16" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B16" s="1">
         <v>2022</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>34</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="68">
       <c r="A17" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B17" s="1">
         <v>2022</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>94</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="51">
       <c r="A18" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B18" s="1">
         <v>2022</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="H18" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="51">
       <c r="A19" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B19" s="1">
         <v>2022</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="H19" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="51">
       <c r="A20" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B20" s="1">
         <v>2022</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="68">
       <c r="A21" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B21" s="1">
         <v>2022</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="51">
       <c r="A22" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B22" s="1">
         <v>2022</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
@@ -1762,70 +1774,70 @@
         <v>2</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="68">
       <c r="A23" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B23" s="1">
         <v>2021</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="E23" s="1">
         <v>131</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="51">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B24" s="1">
         <v>2021</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="68">
       <c r="A25" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B25" s="1">
         <v>2021</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E25">
         <v>16</v>
@@ -1834,15 +1846,15 @@
         <v>10</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="51">
       <c r="A26" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B26" s="1">
         <v>2021</v>
@@ -1865,13 +1877,13 @@
     </row>
     <row r="27" spans="1:9" ht="68">
       <c r="A27" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B27" s="1">
         <v>2021</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>111</v>
@@ -1885,7 +1897,7 @@
     </row>
     <row r="28" spans="1:9" ht="51">
       <c r="A28" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B28" s="1">
         <v>2021</v>
@@ -1914,7 +1926,7 @@
     </row>
     <row r="29" spans="1:9" ht="51">
       <c r="A29" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B29" s="1">
         <v>2021</v>
@@ -1932,7 +1944,7 @@
         <v>10</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>110</v>
@@ -1940,13 +1952,13 @@
     </row>
     <row r="30" spans="1:9" ht="51">
       <c r="A30" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B30" s="1">
         <v>2021</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>11</v>
@@ -1958,10 +1970,10 @@
         <v>5</v>
       </c>
       <c r="G30" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>96</v>
@@ -1969,7 +1981,7 @@
     </row>
     <row r="31" spans="1:9" ht="51">
       <c r="A31" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B31" s="1">
         <v>2021</v>
@@ -1987,21 +1999,21 @@
         <v>5</v>
       </c>
       <c r="G31" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="68">
       <c r="A32" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B32" s="1">
         <v>2021</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>94</v>
@@ -2010,7 +2022,7 @@
         <v>60</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>118</v>
@@ -2021,13 +2033,13 @@
     </row>
     <row r="33" spans="1:9" ht="51">
       <c r="A33" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B33" s="1">
         <v>2021</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>11</v>
@@ -2039,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>119</v>
@@ -2047,13 +2059,13 @@
     </row>
     <row r="34" spans="1:9" ht="68">
       <c r="A34" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B34" s="1">
         <v>2021</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>13</v>
@@ -2065,7 +2077,7 @@
         <v>5</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>16</v>
@@ -2076,7 +2088,7 @@
     </row>
     <row r="35" spans="1:9" ht="51">
       <c r="A35" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B35" s="1">
         <v>2020</v>
@@ -2099,7 +2111,7 @@
     </row>
     <row r="36" spans="1:9" ht="51">
       <c r="A36" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B36" s="1">
         <v>2020</v>
@@ -2122,7 +2134,7 @@
     </row>
     <row r="37" spans="1:9" ht="51">
       <c r="A37" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B37" s="1">
         <v>2020</v>
@@ -2148,13 +2160,13 @@
     </row>
     <row r="38" spans="1:9" ht="51">
       <c r="A38" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B38" s="1">
         <v>2020</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>27</v>
@@ -2174,13 +2186,13 @@
     </row>
     <row r="39" spans="1:9" ht="51">
       <c r="A39" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B39" s="1">
         <v>2020</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>29</v>
@@ -2203,7 +2215,7 @@
     </row>
     <row r="40" spans="1:9" ht="51">
       <c r="A40" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B40" s="1">
         <v>2020</v>
@@ -2229,13 +2241,13 @@
     </row>
     <row r="41" spans="1:9" ht="51">
       <c r="A41" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B41" s="1">
         <v>2020</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>29</v>
@@ -2255,13 +2267,13 @@
     </row>
     <row r="42" spans="1:9" ht="51">
       <c r="A42" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B42" s="1">
         <v>2020</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>34</v>
@@ -2281,13 +2293,13 @@
     </row>
     <row r="43" spans="1:9" ht="68">
       <c r="A43" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B43" s="1">
         <v>2020</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>36</v>
@@ -2307,7 +2319,7 @@
     </row>
     <row r="44" spans="1:9" ht="51">
       <c r="A44" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B44" s="1">
         <v>2019</v>
@@ -2336,7 +2348,7 @@
     </row>
     <row r="45" spans="1:9" ht="51">
       <c r="A45" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B45" s="1">
         <v>2019</v>
@@ -2362,7 +2374,7 @@
     </row>
     <row r="46" spans="1:9" ht="51">
       <c r="A46" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B46" s="1">
         <v>2019</v>
@@ -2391,7 +2403,7 @@
     </row>
     <row r="47" spans="1:9" ht="51">
       <c r="A47" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B47" s="1">
         <v>2019</v>
@@ -2414,7 +2426,7 @@
     </row>
     <row r="48" spans="1:9" ht="51">
       <c r="A48" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B48" s="1">
         <v>2019</v>
@@ -2437,13 +2449,13 @@
     </row>
     <row r="49" spans="1:9" ht="51">
       <c r="A49" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B49" s="1">
         <v>2019</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>34</v>
@@ -2466,13 +2478,13 @@
     </row>
     <row r="50" spans="1:9" ht="51">
       <c r="A50" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B50" s="1">
         <v>2019</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>52</v>
@@ -2484,7 +2496,7 @@
         <v>5</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>135</v>
@@ -2492,7 +2504,7 @@
     </row>
     <row r="51" spans="1:9" ht="51">
       <c r="A51" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B51" s="1">
         <v>2019</v>
@@ -2521,7 +2533,7 @@
     </row>
     <row r="52" spans="1:9" ht="51">
       <c r="A52" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B52" s="1">
         <v>2019</v>
@@ -2544,7 +2556,7 @@
     </row>
     <row r="53" spans="1:9" ht="68">
       <c r="A53" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B53" s="1">
         <v>2019</v>
@@ -2570,13 +2582,13 @@
     </row>
     <row r="54" spans="1:9" ht="51">
       <c r="A54" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B54" s="1">
         <v>2018</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>61</v>
@@ -2596,7 +2608,7 @@
     </row>
     <row r="55" spans="1:9" ht="51">
       <c r="A55" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B55" s="1">
         <v>2018</v>
@@ -2619,7 +2631,7 @@
     </row>
     <row r="56" spans="1:9" ht="51">
       <c r="A56" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B56" s="1">
         <v>2018</v>
@@ -2642,13 +2654,13 @@
     </row>
     <row r="57" spans="1:9" ht="68">
       <c r="A57" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B57" s="1">
         <v>2017</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>67</v>
@@ -2668,13 +2680,13 @@
     </row>
     <row r="58" spans="1:9" ht="51">
       <c r="A58" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B58" s="1">
         <v>2017</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>11</v>
@@ -2691,13 +2703,13 @@
     </row>
     <row r="59" spans="1:9" ht="51">
       <c r="A59" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B59" s="1">
         <v>2017</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>70</v>
@@ -2720,13 +2732,13 @@
     </row>
     <row r="60" spans="1:9" ht="51">
       <c r="A60" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B60" s="1">
         <v>2017</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>72</v>
@@ -2743,7 +2755,7 @@
     </row>
     <row r="61" spans="1:9" ht="68">
       <c r="A61" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B61" s="1">
         <v>2017</v>
@@ -2769,13 +2781,13 @@
     </row>
     <row r="62" spans="1:9" ht="68">
       <c r="A62" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B62" s="1">
         <v>2017</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>78</v>
@@ -2792,7 +2804,7 @@
     </row>
     <row r="63" spans="1:9" ht="51">
       <c r="A63" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B63" s="1">
         <v>2017</v>
@@ -2818,7 +2830,7 @@
     </row>
     <row r="64" spans="1:9" ht="51">
       <c r="A64" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B64" s="1">
         <v>2017</v>
@@ -2844,13 +2856,13 @@
     </row>
     <row r="65" spans="1:7" ht="34">
       <c r="A65" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B65" s="1">
         <v>2017</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>87</v>
@@ -2867,13 +2879,13 @@
     </row>
     <row r="66" spans="1:7" ht="51">
       <c r="A66" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B66" s="1">
         <v>2016</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>61</v>
@@ -2890,13 +2902,13 @@
     </row>
     <row r="67" spans="1:7" ht="34">
       <c r="A67" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B67" s="1">
         <v>2016</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>61</v>
@@ -2913,13 +2925,13 @@
     </row>
     <row r="68" spans="1:7" ht="34">
       <c r="A68" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B68" s="1">
         <v>2016</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>91</v>
@@ -2936,16 +2948,16 @@
     </row>
     <row r="69" spans="1:7" ht="68">
       <c r="A69" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B69" s="1">
         <v>2015</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="E69" s="1">
         <v>115</v>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tbarret/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E14147-E5DD-D141-9A7C-722D4C3449BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D575E785-B7BF-3A44-860F-4C077CAEA750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
   <sheets>
     <sheet name="Journals" sheetId="1" r:id="rId1"/>
     <sheet name="Presentations" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$14</definedName>
+    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$15</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="307">
   <si>
     <t>authors</t>
   </si>
@@ -944,6 +944,21 @@
   </si>
   <si>
     <t>doi: 10.1177/08862605221101197</t>
+  </si>
+  <si>
+    <t>In Press</t>
+  </si>
+  <si>
+    <t>Parmenter, J. G., Galliher, R. V., Berke, R., &amp; Barrett, T. S.</t>
+  </si>
+  <si>
+    <t>Configuration of sexual and vocational identity processes among sexual minority college students.</t>
+  </si>
+  <si>
+    <t>Journal of LGBTQ Issues in Counseling</t>
+  </si>
+  <si>
+    <t>doi: 10.1080/26924951.2023.2200987</t>
   </si>
 </sst>
 </file>
@@ -1346,10 +1361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BAB23D-B27F-A34D-A522-4C115B575C05}">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1395,599 +1410,587 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="51">
+    <row r="2" spans="1:9" ht="68">
       <c r="A2" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="51">
+      <c r="A3" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2023</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="34">
-      <c r="A3" s="5" t="s">
-        <v>292</v>
       </c>
       <c r="B3" s="1">
         <v>2023</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="51">
-      <c r="A4" s="1" t="s">
-        <v>291</v>
+    <row r="4" spans="1:9" ht="34">
+      <c r="A4" s="5" t="s">
+        <v>292</v>
       </c>
       <c r="B4" s="1">
         <v>2023</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="68">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="51">
       <c r="A5" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="B5" s="1">
         <v>2023</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="51">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="68">
       <c r="A6" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B6" s="1">
         <v>2023</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="68">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="51">
       <c r="A7" s="1" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="B7" s="1">
         <v>2023</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="68">
+      <c r="A8" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E8" s="1">
         <v>38</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F8" s="8">
         <v>44989</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="34">
-      <c r="A8" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="34">
       <c r="A9" s="1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B9" s="1">
         <v>2022</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="51">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="34">
       <c r="A10" s="1" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="B10" s="1">
         <v>2022</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E10" s="1">
-        <v>26</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="51">
       <c r="A11" s="1" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="B11" s="1">
         <v>2022</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="E11" s="1">
-        <v>12</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="34">
-      <c r="A12" s="5" t="s">
-        <v>251</v>
+        <v>283</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="51">
+      <c r="A12" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="B12" s="1">
         <v>2022</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>265</v>
+      </c>
+      <c r="E12" s="1">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="51">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="34">
       <c r="A13" s="5" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="B13" s="1">
         <v>2022</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>228</v>
+        <v>269</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>229</v>
+        <v>11</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" ht="34">
-      <c r="A14" s="6" t="s">
-        <v>243</v>
+        <v>212</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="51">
+      <c r="A14" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="B14" s="1">
         <v>2022</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="51">
-      <c r="A15" s="1" t="s">
-        <v>268</v>
+        <v>229</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" ht="34">
+      <c r="A15" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="B15" s="1">
         <v>2022</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="51">
-      <c r="A16" s="5" t="s">
-        <v>241</v>
+      <c r="A16" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="B16" s="1">
         <v>2022</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>34</v>
+        <v>147</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>275</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="68">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="51">
       <c r="A17" s="5" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B17" s="1">
         <v>2022</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="51">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="68">
       <c r="A18" s="5" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="B18" s="1">
         <v>2022</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="51">
       <c r="A19" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B19" s="1">
         <v>2022</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="51">
-      <c r="A20" s="1" t="s">
-        <v>155</v>
+      <c r="A20" s="5" t="s">
+        <v>231</v>
       </c>
       <c r="B20" s="1">
         <v>2022</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>150</v>
+        <v>233</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="68">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="51">
       <c r="A21" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B21" s="1">
         <v>2022</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>148</v>
+        <v>227</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="51">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="68">
       <c r="A22" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B22" s="1">
         <v>2022</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="51">
+      <c r="A23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E23" s="1">
         <v>65</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F23" s="1">
         <v>2</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="68">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:9" ht="68">
+      <c r="A24" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E23" s="1">
-        <v>131</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="51">
-      <c r="A24" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="B24" s="1">
         <v>2021</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
+      </c>
+      <c r="E24" s="1">
+        <v>131</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="68">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="51">
       <c r="A25" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B25" s="1">
         <v>2021</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E25">
-        <v>16</v>
-      </c>
-      <c r="F25" s="1">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>152</v>
+        <v>262</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="51">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="68">
       <c r="A26" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B26" s="1">
         <v>2021</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>5</v>
+        <v>146</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="1">
-        <v>38</v>
+        <v>145</v>
+      </c>
+      <c r="E26">
+        <v>16</v>
+      </c>
+      <c r="F26" s="1">
+        <v>10</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="68">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="51">
       <c r="A27" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B27" s="1">
         <v>2021</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>201</v>
+        <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>111</v>
+        <v>6</v>
+      </c>
+      <c r="E27" s="1">
+        <v>38</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="51">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="68">
       <c r="A28" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B28" s="1">
         <v>2021</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>7</v>
+        <v>201</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="51">
       <c r="A29" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B29" s="1">
         <v>2021</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="1">
-        <v>77</v>
+        <v>8</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F29" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="51">
       <c r="A30" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B30" s="1">
         <v>2021</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>202</v>
+        <v>9</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" s="1">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F30" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>260</v>
+        <v>142</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="51">
       <c r="A31" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B31" s="1">
         <v>2021</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>11</v>
@@ -1999,916 +2002,922 @@
         <v>5</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="68">
+        <v>261</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="51">
       <c r="A32" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B32" s="1">
         <v>2021</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="E32" s="1">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="F32" s="1">
+        <v>5</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="51">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="68">
       <c r="A33" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B33" s="1">
         <v>2021</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="E33" s="1">
-        <v>64</v>
-      </c>
-      <c r="F33" s="1">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="68">
+        <v>118</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="51">
       <c r="A34" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B34" s="1">
         <v>2021</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="1">
+        <v>64</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="68">
+      <c r="A35" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E35" s="1">
         <v>23</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F35" s="1">
         <v>5</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="51">
-      <c r="A35" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B35" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="1">
-        <v>42</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="51">
       <c r="A36" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B36" s="1">
         <v>2020</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E36" s="1">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="51">
       <c r="A37" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B37" s="1">
         <v>2020</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E37" s="1">
-        <v>63</v>
-      </c>
-      <c r="F37" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="51">
       <c r="A38" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B38" s="1">
         <v>2020</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>206</v>
+        <v>25</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E38" s="1">
-        <v>40</v>
+        <v>63</v>
+      </c>
+      <c r="F38" s="1">
+        <v>6</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="51">
       <c r="A39" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B39" s="1">
         <v>2020</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E39" s="1">
-        <v>51</v>
-      </c>
-      <c r="F39" s="1">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="51">
       <c r="A40" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B40" s="1">
         <v>2020</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E40" s="1">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F40" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="51">
       <c r="A41" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B41" s="1">
         <v>2020</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>208</v>
+        <v>31</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E41" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F41" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="51">
       <c r="A42" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B42" s="1">
         <v>2020</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E42" s="1">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F42" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="68">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="51">
       <c r="A43" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B43" s="1">
         <v>2020</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E43" s="1">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="F43" s="1">
         <v>2</v>
       </c>
       <c r="G43" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="68">
+      <c r="A44" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="1">
+        <v>113</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="51">
-      <c r="A44" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B44" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E44" s="1">
-        <v>61</v>
-      </c>
-      <c r="F44" s="1">
-        <v>3</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="51">
       <c r="A45" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B45" s="1">
         <v>2019</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E45" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F45" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="51">
       <c r="A46" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B46" s="1">
         <v>2019</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="E46" s="1">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F46" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="51">
       <c r="A47" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B47" s="1">
         <v>2019</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E47" s="1">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="F47" s="1">
+        <v>10</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="51">
       <c r="A48" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B48" s="1">
         <v>2019</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E48" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="51">
       <c r="A49" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B49" s="1">
         <v>2019</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>211</v>
+        <v>47</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E49" s="1">
-        <v>20</v>
-      </c>
-      <c r="F49" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="51">
       <c r="A50" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B50" s="1">
         <v>2019</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>263</v>
+        <v>211</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E50" s="1">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F50" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>212</v>
+        <v>51</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="51">
       <c r="A51" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B51" s="1">
         <v>2019</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>53</v>
+        <v>263</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E51" s="1">
-        <v>145</v>
+        <v>33</v>
       </c>
       <c r="F51" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>54</v>
+        <v>212</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="51">
       <c r="A52" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B52" s="1">
         <v>2019</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E52" s="1">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="F52" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="68">
+        <v>54</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="51">
       <c r="A53" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B53" s="1">
         <v>2019</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="E53" s="1">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F53" s="1">
         <v>2</v>
       </c>
       <c r="G53" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="68">
+      <c r="A54" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B54" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="1">
+        <v>62</v>
+      </c>
+      <c r="F54" s="1">
+        <v>2</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="I54" s="1" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="51">
-      <c r="A54" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B54" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E54" s="1">
-        <v>3</v>
-      </c>
-      <c r="F54" s="1">
-        <v>1</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="51">
       <c r="A55" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B55" s="1">
         <v>2018</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E55" s="1">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="F55" s="1">
-        <v>3</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>136</v>
+        <v>1</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="51">
       <c r="A56" s="1" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="B56" s="1">
         <v>2018</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E56" s="1">
         <v>143</v>
       </c>
       <c r="F56" s="1">
+        <v>3</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="51">
+      <c r="A57" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E57" s="1">
+        <v>143</v>
+      </c>
+      <c r="F57" s="1">
         <v>5</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H57" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="68">
-      <c r="A57" s="1" t="s">
+    <row r="58" spans="1:9" ht="68">
+      <c r="A58" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="B57" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E57" s="1">
-        <v>9</v>
-      </c>
-      <c r="F57" s="1">
-        <v>2</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="51">
-      <c r="A58" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="B58" s="1">
         <v>2017</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="E58" s="1">
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="F58" s="1">
+        <v>2</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>138</v>
+        <v>68</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="51">
       <c r="A59" s="1" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="B59" s="1">
         <v>2017</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="E59" s="1">
-        <v>140</v>
-      </c>
-      <c r="F59" s="1">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="51">
       <c r="A60" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B60" s="1">
         <v>2017</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E60" s="1">
-        <v>10</v>
+        <v>140</v>
+      </c>
+      <c r="F60" s="1">
+        <v>6</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="68">
+        <v>139</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="51">
       <c r="A61" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B61" s="1">
         <v>2017</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E61" s="1">
-        <v>111</v>
-      </c>
-      <c r="F61" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="68">
       <c r="A62" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B62" s="1">
         <v>2017</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>218</v>
+        <v>74</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="E62" s="1">
-        <v>55</v>
+        <v>111</v>
+      </c>
+      <c r="F62" s="1">
+        <v>5</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="51">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="68">
       <c r="A63" s="1" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="B63" s="1">
         <v>2017</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E63" s="1">
-        <v>36</v>
-      </c>
-      <c r="F63" s="1">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="51">
       <c r="A64" s="1" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="B64" s="1">
         <v>2017</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E64" s="1">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F64" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="34">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="51">
       <c r="A65" s="1" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="B65" s="1">
         <v>2017</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="1">
+        <v>60</v>
+      </c>
+      <c r="F65" s="1">
+        <v>3</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="34">
+      <c r="A66" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B66" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E66" s="1">
         <v>30</v>
-      </c>
-      <c r="F65" s="1">
-        <v>2</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="51">
-      <c r="A66" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B66" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E66" s="1">
-        <v>1</v>
       </c>
       <c r="F66" s="1">
         <v>2</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="34">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="51">
       <c r="A67" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B67" s="1">
         <v>2016</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>61</v>
@@ -2920,52 +2929,75 @@
         <v>2</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="34">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="34">
       <c r="A68" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B68" s="1">
         <v>2016</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1">
+        <v>2</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="34">
+      <c r="A69" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B69" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E69" s="1">
         <v>37</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F69" s="1">
         <v>6</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="G69" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="68">
-      <c r="A69" s="1" t="s">
+    <row r="70" spans="1:8" ht="68">
+      <c r="A70" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B70" s="1">
         <v>2015</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E70" s="1">
         <v>115</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F70" s="1">
         <v>5</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="G70" s="4" t="s">
         <v>93</v>
       </c>
     </row>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tbarret/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D575E785-B7BF-3A44-860F-4C077CAEA750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2A7184-1F43-5943-80E4-36B3C99B5FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
+    <workbookView xWindow="6300" yWindow="460" windowWidth="22500" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
   <sheets>
     <sheet name="Journals" sheetId="1" r:id="rId1"/>
     <sheet name="Presentations" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$15</definedName>
+    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$18</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="313">
   <si>
     <t>authors</t>
   </si>
@@ -959,6 +959,24 @@
   </si>
   <si>
     <t>doi: 10.1080/26924951.2023.2200987</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La vergüenza [the shame]: Meassuring affiliate stigma associated with youth mental health problems among Latinx caregivers.</t>
+  </si>
+  <si>
+    <t>Vázquez, A. L., Domenech Rodríguez, M. M., Navarro Flores, C. M.,  Abreu, R. L., &amp; Barrett, T. S.</t>
+  </si>
+  <si>
+    <t>Journal of Latinx Psychology.</t>
+  </si>
+  <si>
+    <t>410-417</t>
+  </si>
+  <si>
+    <t>The influence of sensorineural hearing loss on the relationship between the perception of speech in noise and dysarthric speech</t>
+  </si>
+  <si>
+    <t>Yoho, S. E., Barrett, T. S., &amp; Borrie, S. A.</t>
   </si>
 </sst>
 </file>
@@ -1361,10 +1379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BAB23D-B27F-A34D-A522-4C115B575C05}">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1410,668 +1428,655 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="68">
+    <row r="2" spans="1:9" ht="51">
       <c r="A2" s="1" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>302</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>306</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="51">
       <c r="A3" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2023</v>
+        <v>308</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="34">
-      <c r="A4" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2023</v>
+        <v>309</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="68">
+      <c r="A4" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>305</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="51">
       <c r="A5" s="1" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B5" s="1">
         <v>2023</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="68">
-      <c r="A6" s="1" t="s">
-        <v>277</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="34">
+      <c r="A6" s="5" t="s">
+        <v>292</v>
       </c>
       <c r="B6" s="1">
         <v>2023</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="51">
       <c r="A7" s="1" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="B7" s="1">
         <v>2023</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="68">
       <c r="A8" s="1" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="B8" s="1">
         <v>2023</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E8" s="1">
+    </row>
+    <row r="9" spans="1:9" ht="51">
+      <c r="A9" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="68">
+      <c r="A10" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="1">
+        <v>62</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="68">
+      <c r="A11" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E11" s="1">
         <v>38</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F11" s="8">
         <v>44989</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="34">
-      <c r="A9" s="1" t="s">
+    <row r="12" spans="1:9" ht="34">
+      <c r="A12" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="34">
-      <c r="A10" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="51">
-      <c r="A11" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E11" s="1">
-        <v>26</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="51">
-      <c r="A12" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="B12" s="1">
         <v>2022</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E12" s="1">
-        <v>12</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="34">
-      <c r="A13" s="5" t="s">
-        <v>251</v>
+      <c r="A13" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="B13" s="1">
         <v>2022</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>237</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="51">
-      <c r="A14" s="5" t="s">
-        <v>230</v>
+      <c r="A14" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="B14" s="1">
         <v>2022</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>228</v>
+        <v>281</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>229</v>
+        <v>282</v>
+      </c>
+      <c r="E14" s="1">
+        <v>26</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" ht="34">
-      <c r="A15" s="6" t="s">
-        <v>243</v>
+        <v>283</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="51">
+      <c r="A15" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="B15" s="1">
         <v>2022</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="51">
-      <c r="A16" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
+      </c>
+      <c r="E15" s="1">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="34">
+      <c r="A16" s="5" t="s">
+        <v>251</v>
       </c>
       <c r="B16" s="1">
         <v>2022</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>274</v>
+        <v>212</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="51">
       <c r="A17" s="5" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B17" s="1">
         <v>2022</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="68">
-      <c r="A18" s="5" t="s">
-        <v>249</v>
+        <v>229</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" ht="34">
+      <c r="A18" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="B18" s="1">
         <v>2022</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="51">
-      <c r="A19" s="5" t="s">
-        <v>236</v>
+      <c r="A19" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="B19" s="1">
         <v>2022</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>235</v>
+        <v>147</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>275</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="51">
       <c r="A20" s="5" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="B20" s="1">
         <v>2022</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>233</v>
+        <v>34</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>247</v>
+        <v>254</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="51">
-      <c r="A21" s="1" t="s">
-        <v>155</v>
+      <c r="A21" s="5" t="s">
+        <v>236</v>
       </c>
       <c r="B21" s="1">
         <v>2022</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>150</v>
+        <v>235</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="68">
-      <c r="A22" s="1" t="s">
-        <v>157</v>
+        <v>248</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="51">
+      <c r="A22" s="5" t="s">
+        <v>231</v>
       </c>
       <c r="B22" s="1">
         <v>2022</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>148</v>
+        <v>232</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="51">
       <c r="A23" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B23" s="1">
         <v>2022</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>149</v>
+        <v>227</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="1">
-        <v>65</v>
-      </c>
-      <c r="F23" s="1">
-        <v>2</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>264</v>
+        <v>150</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>237</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="68">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B24" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E24" s="1">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>153</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="51">
       <c r="A25" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B25" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>200</v>
+        <v>149</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>141</v>
+        <v>11</v>
+      </c>
+      <c r="E25" s="1">
+        <v>65</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>225</v>
+        <v>238</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="68">
       <c r="A26" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B26" s="1">
         <v>2021</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E26">
-        <v>16</v>
-      </c>
-      <c r="F26" s="1">
-        <v>10</v>
+        <v>144</v>
+      </c>
+      <c r="E26" s="1">
+        <v>131</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>152</v>
+        <v>226</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="51">
       <c r="A27" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B27" s="1">
         <v>2021</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="1">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>117</v>
+        <v>262</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>116</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="68">
       <c r="A28" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B28" s="1">
         <v>2021</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>111</v>
+        <v>145</v>
+      </c>
+      <c r="E28">
+        <v>16</v>
+      </c>
+      <c r="F28" s="1">
+        <v>10</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="51">
       <c r="A29" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B29" s="1">
         <v>2021</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="E29" s="1">
+        <v>38</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="51">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="68">
       <c r="A30" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B30" s="1">
         <v>2021</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>9</v>
+        <v>201</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="1">
-        <v>77</v>
-      </c>
-      <c r="F30" s="1">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="51">
       <c r="A31" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B31" s="1">
         <v>2021</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>202</v>
+        <v>7</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="1">
-        <v>64</v>
+        <v>8</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F31" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>260</v>
+        <v>114</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>261</v>
+        <v>115</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="51">
       <c r="A32" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B32" s="1">
         <v>2021</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E32" s="1">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F32" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>258</v>
+        <v>142</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="68">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="51">
       <c r="A33" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B33" s="1">
         <v>2021</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="E33" s="1">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="F33" s="1">
+        <v>5</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>118</v>
+        <v>261</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="51">
       <c r="A34" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B34" s="1">
         <v>2021</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>11</v>
@@ -2080,206 +2085,203 @@
         <v>64</v>
       </c>
       <c r="F34" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>119</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="68">
       <c r="A35" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B35" s="1">
         <v>2021</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="E35" s="1">
-        <v>23</v>
-      </c>
-      <c r="F35" s="1">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="51">
       <c r="A36" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B36" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E36" s="1">
-        <v>42</v>
+        <v>64</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="51">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="68">
       <c r="A37" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B37" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>22</v>
+        <v>205</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="1">
         <v>23</v>
       </c>
-      <c r="E37" s="1">
-        <v>18</v>
+      <c r="F37" s="1">
+        <v>5</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>24</v>
+        <v>256</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>121</v>
+        <v>16</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="51">
       <c r="A38" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B38" s="1">
         <v>2020</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E38" s="1">
-        <v>63</v>
-      </c>
-      <c r="F38" s="1">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="51">
       <c r="A39" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B39" s="1">
         <v>2020</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>206</v>
+        <v>22</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E39" s="1">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="51">
       <c r="A40" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B40" s="1">
         <v>2020</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E40" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F40" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="51">
       <c r="A41" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B41" s="1">
         <v>2020</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>31</v>
+        <v>206</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E41" s="1">
-        <v>63</v>
-      </c>
-      <c r="F41" s="1">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="51">
       <c r="A42" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B42" s="1">
         <v>2020</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>29</v>
@@ -2291,423 +2293,429 @@
         <v>3</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="51">
       <c r="A43" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B43" s="1">
         <v>2020</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>209</v>
+        <v>31</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E43" s="1">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="F43" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="68">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="51">
       <c r="A44" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B44" s="1">
         <v>2020</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E44" s="1">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="F44" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="51">
       <c r="A45" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B45" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>38</v>
+        <v>209</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E45" s="1">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="F45" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="51">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="68">
       <c r="A46" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B46" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>41</v>
+        <v>210</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E46" s="1">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="F46" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="51">
       <c r="A47" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B47" s="1">
         <v>2019</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E47" s="1">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F47" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="51">
       <c r="A48" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B48" s="1">
         <v>2019</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E48" s="1">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="F48" s="1">
+        <v>12</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="51">
       <c r="A49" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B49" s="1">
         <v>2019</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E49" s="1">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="F49" s="1">
+        <v>10</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="51">
       <c r="A50" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B50" s="1">
         <v>2019</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>211</v>
+        <v>46</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E50" s="1">
-        <v>20</v>
-      </c>
-      <c r="F50" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="51">
       <c r="A51" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B51" s="1">
         <v>2019</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>263</v>
+        <v>47</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E51" s="1">
-        <v>33</v>
-      </c>
-      <c r="F51" s="1">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="51">
       <c r="A52" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B52" s="1">
         <v>2019</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>53</v>
+        <v>211</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E52" s="1">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="F52" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="51">
       <c r="A53" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B53" s="1">
         <v>2019</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>58</v>
+        <v>263</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E53" s="1">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="F53" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="68">
+        <v>212</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="51">
       <c r="A54" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B54" s="1">
         <v>2019</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E54" s="1">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="F54" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="51">
       <c r="A55" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B55" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E55" s="1">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="F55" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G55" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="68">
+      <c r="A56" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="1">
         <v>62</v>
       </c>
-      <c r="I55" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="51">
-      <c r="A56" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B56" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E56" s="1">
-        <v>143</v>
-      </c>
       <c r="F56" s="1">
-        <v>3</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>136</v>
+        <v>2</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="51">
       <c r="A57" s="1" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="B57" s="1">
         <v>2018</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>65</v>
+        <v>213</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E57" s="1">
+        <v>3</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="51">
+      <c r="A58" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B58" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="1">
         <v>143</v>
       </c>
-      <c r="F57" s="1">
-        <v>5</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="68">
-      <c r="A58" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B58" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E58" s="1">
-        <v>9</v>
-      </c>
       <c r="F58" s="1">
-        <v>2</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>106</v>
+        <v>3</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="51">
@@ -2715,289 +2723,338 @@
         <v>165</v>
       </c>
       <c r="B59" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>215</v>
+        <v>65</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="E59" s="1">
-        <v>60</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>69</v>
+        <v>143</v>
+      </c>
+      <c r="F59" s="1">
+        <v>5</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="51">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="68">
       <c r="A60" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B60" s="1">
         <v>2017</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E60" s="1">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="F60" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="51">
       <c r="A61" s="1" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="B61" s="1">
         <v>2017</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="E61" s="1">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="68">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="51">
       <c r="A62" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B62" s="1">
         <v>2017</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="E62" s="1">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="F62" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="68">
+        <v>139</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="51">
       <c r="A63" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B63" s="1">
         <v>2017</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E63" s="1">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="51">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="68">
       <c r="A64" s="1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="B64" s="1">
         <v>2017</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="E64" s="1">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="F64" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="51">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="68">
       <c r="A65" s="1" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="B65" s="1">
         <v>2017</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>84</v>
+        <v>218</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="E65" s="1">
-        <v>60</v>
-      </c>
-      <c r="F65" s="1">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="34">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="51">
       <c r="A66" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B66" s="1">
         <v>2017</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>219</v>
+        <v>80</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E66" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F66" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="51">
       <c r="A67" s="1" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="B67" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>220</v>
+        <v>84</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="E67" s="1">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F67" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="34">
       <c r="A68" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B68" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E68" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F68" s="1">
         <v>2</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="34">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="51">
       <c r="A69" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B69" s="1">
         <v>2016</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="F69" s="1">
+        <v>2</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="34">
+      <c r="A70" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B70" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1">
+        <v>2</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="34">
+      <c r="A71" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B71" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E71" s="1">
         <v>37</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F71" s="1">
         <v>6</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="G71" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="68">
-      <c r="A70" s="1" t="s">
+    <row r="72" spans="1:8" ht="68">
+      <c r="A72" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B72" s="1">
         <v>2015</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E72" s="1">
         <v>115</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F72" s="1">
         <v>5</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="G72" s="4" t="s">
         <v>93</v>
       </c>
     </row>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tbarret/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2A7184-1F43-5943-80E4-36B3C99B5FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD1EF66-612D-554A-87FF-F513A28778B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="460" windowWidth="22500" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
+    <workbookView xWindow="4260" yWindow="460" windowWidth="24540" windowHeight="16520" activeTab="1" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
   <sheets>
     <sheet name="Journals" sheetId="1" r:id="rId1"/>
-    <sheet name="Presentations" sheetId="2" r:id="rId2"/>
+    <sheet name="Grants" sheetId="3" r:id="rId2"/>
+    <sheet name="Presentations" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$18</definedName>
+    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$20</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="387">
   <si>
     <t>authors</t>
   </si>
@@ -367,9 +368,6 @@
     <t>\hyperlink{https://www.medrxiv.org/content/10.1101/2020.07.22.20158949v1}{medRxiv Pre-Print}</t>
   </si>
   <si>
-    <t>1-11</t>
-  </si>
-  <si>
     <t>doi: 10.1002/jclp.23162</t>
   </si>
   <si>
@@ -379,9 +377,6 @@
     <t>doi: 10.1080/09687637.2021.1936457</t>
   </si>
   <si>
-    <t> 68</t>
-  </si>
-  <si>
     <t>49-55</t>
   </si>
   <si>
@@ -826,9 +821,6 @@
     <t xml:space="preserve">doi: 10.1044/2021_JSLHR-20-00663 </t>
   </si>
   <si>
-    <t>1-15</t>
-  </si>
-  <si>
     <t>Chronic health conditions and adolescent friendships: Perspectives from social network analysis.</t>
   </si>
   <si>
@@ -865,12 +857,6 @@
     <t>doi: 10.1044/2022_AJSLP-22-00003</t>
   </si>
   <si>
-    <t>1-18</t>
-  </si>
-  <si>
-    <t>1-14</t>
-  </si>
-  <si>
     <t>Tannahill, H. S., Barrett, T. S., Zalta, A. K., Tehee, M., &amp; Blais, R. K.</t>
   </si>
   <si>
@@ -961,9 +947,6 @@
     <t>doi: 10.1080/26924951.2023.2200987</t>
   </si>
   <si>
-    <t xml:space="preserve"> La vergüenza [the shame]: Meassuring affiliate stigma associated with youth mental health problems among Latinx caregivers.</t>
-  </si>
-  <si>
     <t>Vázquez, A. L., Domenech Rodríguez, M. M., Navarro Flores, C. M.,  Abreu, R. L., &amp; Barrett, T. S.</t>
   </si>
   <si>
@@ -977,13 +960,256 @@
   </si>
   <si>
     <t>Yoho, S. E., Barrett, T. S., &amp; Borrie, S. A.</t>
+  </si>
+  <si>
+    <t>Perceptual learning of dysarthria in adolescence</t>
+  </si>
+  <si>
+    <t>Borrie, S. A., Hepworth, T. J., Wynn, C. J., Hustad, K. C.,  Barrett, T. S., &amp; Lansford, K. L.</t>
+  </si>
+  <si>
+    <t>Voss, M. W., Barrett, T. S., Campbell, A. &amp; Van Komen, A.</t>
+  </si>
+  <si>
+    <t>Parenting and the opioid epidemic: A systematic scoping review.</t>
+  </si>
+  <si>
+    <t>1280-1293</t>
+  </si>
+  <si>
+    <t>Journal of Child and Family Studies</t>
+  </si>
+  <si>
+    <t>30-47</t>
+  </si>
+  <si>
+    <t>e2895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doi: 10.1002/brb3.2895 </t>
+  </si>
+  <si>
+    <t>doi: 10.1044/2023_JSLHR-22-00263</t>
+  </si>
+  <si>
+    <t>doi: 10.1007/s10826-023-02576-2</t>
+  </si>
+  <si>
+    <t>1853-1866</t>
+  </si>
+  <si>
+    <t>doi: 10.1044/2023_JSLHR-22-00558</t>
+  </si>
+  <si>
+    <t>\img{osfdata.png}{https://osf.io/z6dw5}\img{osfmaterials.png}{https://osf.io/z6dw5}</t>
+  </si>
+  <si>
+    <t>La vergüenza [the shame]: Meassuring affiliate stigma associated with youth mental health problems among Latinx caregivers.</t>
+  </si>
+  <si>
+    <t>2187-2203</t>
+  </si>
+  <si>
+    <t>doi: 10.1044/2022_JSLHR-21-00293</t>
+  </si>
+  <si>
+    <t>doi: 10.1080/10640266.2022.2141710</t>
+  </si>
+  <si>
+    <t>388-404</t>
+  </si>
+  <si>
+    <t>576-586</t>
+  </si>
+  <si>
+    <t>\img{osfdata.png}{https://osf.io/vygeh/}\img{osfmaterials.png}{https://osf.io/vygeh/}</t>
+  </si>
+  <si>
+    <t>958–972</t>
+  </si>
+  <si>
+    <t>722-738</t>
+  </si>
+  <si>
+    <t>847–864</t>
+  </si>
+  <si>
+    <t>2181-2192</t>
+  </si>
+  <si>
+    <t>1501-1510</t>
+  </si>
+  <si>
+    <t>1208-1215</t>
+  </si>
+  <si>
+    <t>2004-2021</t>
+  </si>
+  <si>
+    <t>314-322</t>
+  </si>
+  <si>
+    <t>doi: 10.1016/j.jsr.2022.06.007</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>doi: 10.1038/s41398-022-01967-1</t>
+  </si>
+  <si>
+    <t>\img{osfmaterials.png}{https://osf.io/csgmf/}</t>
+  </si>
+  <si>
+    <t>doi: 10.1044/2022_JSLHR-22-00391</t>
+  </si>
+  <si>
+    <t>doi: 10.1080/00140139.2022.2141347</t>
+  </si>
+  <si>
+    <t>doi: 10.3758/s13414-018-1635-3</t>
+  </si>
+  <si>
+    <t>doi: 10.1044/2018_JSLHR-S-18-0210</t>
+  </si>
+  <si>
+    <t>doi: 10.26077/egtr-0805</t>
+  </si>
+  <si>
+    <t>doi: 10.1097/IYC.0000000000000090</t>
+  </si>
+  <si>
+    <t>doi: 10.15142/T3P88B</t>
+  </si>
+  <si>
+    <t>doi: 10.15142/T32G62</t>
+  </si>
+  <si>
+    <t>doi: 10.1097/AUD.0000000000000338</t>
+  </si>
+  <si>
+    <t>doi: 10.1016/j.jand.2014.10.015</t>
+  </si>
+  <si>
+    <t>funder</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>A causal framework of communicative participation in people with Parkinson's disease</t>
+  </si>
+  <si>
+    <t>Borrie, S. A. (PI), Barrett, T. S. (Co-I), Visar, B. (Co-I), &amp; Liss, J. (Co-I)</t>
+  </si>
+  <si>
+    <t>NIH/NIDCD</t>
+  </si>
+  <si>
+    <t>R01DC020713-01A1</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>Funded</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>NIH R01</t>
+  </si>
+  <si>
+    <t>Speaker and listener strategies to improve intelligibility in Parkinson's disease</t>
+  </si>
+  <si>
+    <t>Lansford, K. L. (PI), Borrie, S. A. (Co-I), &amp; Barrett, T. S. (Co-I)</t>
+  </si>
+  <si>
+    <t>Parkinson's Foundation</t>
+  </si>
+  <si>
+    <t>Necessary Education and eXperiential Training for Upcoming Para-professionals (NEXT-UP)</t>
+  </si>
+  <si>
+    <t>Voss, M. (PI) &amp; Barrett, T. S. (Co-I)</t>
+  </si>
+  <si>
+    <t>HRSA</t>
+  </si>
+  <si>
+    <t>1 T26HP39463-01-00</t>
+  </si>
+  <si>
+    <t>Video- and App-Based Naturalistic Language Instruction (VALI) for Spanish-Speaking Caregivers to Support Bilingual Language Development in Children With or At Risk for Language Delays</t>
+  </si>
+  <si>
+    <t>Larson, A. (PI), Snyder, P. (Mentor) Domenech Rodriguez, M. (Mentor), &amp; Barrett, T. S. (Consultant)</t>
+  </si>
+  <si>
+    <t>IES/NCSER</t>
+  </si>
+  <si>
+    <t>R324B200009</t>
+  </si>
+  <si>
+    <t>IES</t>
+  </si>
+  <si>
+    <t>Bridging Harm Reduction and Wellness for Tribal and Rural Areas of the Intermountain West</t>
+  </si>
+  <si>
+    <t>Sulzer, S. (PI), Prevedel, S., Chapoose, M., Madden, E., Barrett, T. S. (Co-I), Keady, T., Peatross, J., DasGupta, D., Fullenkamp, N., &amp; Zaman, K</t>
+  </si>
+  <si>
+    <t>H79TI083267</t>
+  </si>
+  <si>
+    <t>SAMHSA</t>
+  </si>
+  <si>
+    <t>Application of Ideal Binary Masking to Disordered Speech</t>
+  </si>
+  <si>
+    <t>Leopold, S. (PI), Borrie, S. A. (Co-I), &amp; Barrett, T. S. (Co-I)</t>
+  </si>
+  <si>
+    <t>1R21DC018641-01</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>NIH R21</t>
+  </si>
+  <si>
+    <t>Perceptual training for improved intelligibility of dysarthric speech</t>
+  </si>
+  <si>
+    <t>Borrie, S. A. (PI), Lansford, K. (PI), &amp; Barrett, T. S. (Co-I)</t>
+  </si>
+  <si>
+    <t>1R21DC018867-01</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1016,6 +1242,31 @@
       <color theme="1"/>
       <name val="AdvOT1ef757c0"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF211E1E"/>
+      <name val="AdvTTf0797824"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1040,10 +1291,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1065,8 +1317,19 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1379,10 +1642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BAB23D-B27F-A34D-A522-4C115B575C05}">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1428,15 +1691,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="51">
+    <row r="2" spans="1:9" ht="34">
       <c r="A2" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -1445,497 +1708,614 @@
     </row>
     <row r="3" spans="1:9" ht="51">
       <c r="A3" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="51">
+      <c r="A4" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="68">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="51">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="68">
       <c r="A5" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2023</v>
+        <v>298</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="34">
-      <c r="A6" s="5" t="s">
-        <v>292</v>
+        <v>300</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" ht="68">
+      <c r="A6" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="B6" s="1">
         <v>2023</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="51">
       <c r="A7" s="1" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="B7" s="1">
         <v>2023</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="68">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="51">
       <c r="A8" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="B8" s="1">
         <v>2023</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>267</v>
+        <v>11</v>
+      </c>
+      <c r="E8" s="1">
+        <v>66</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="51">
       <c r="A9" s="1" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="B9" s="1">
         <v>2023</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="68">
+        <v>312</v>
+      </c>
+      <c r="E9" s="1">
+        <v>32</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="51">
       <c r="A10" s="5" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="B10" s="1">
         <v>2023</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="1">
-        <v>62</v>
-      </c>
-      <c r="F10" s="1">
-        <v>5</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>310</v>
+        <v>11</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="68">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="51">
       <c r="A11" s="1" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="B11" s="1">
         <v>2023</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="E11" s="1">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="68">
+      <c r="A12" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="1">
+        <v>62</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="68">
+      <c r="A13" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E13" s="1">
         <v>38</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F13" s="8">
         <v>44989</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="34">
-      <c r="A12" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="G13" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="34">
-      <c r="A13" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>289</v>
+      <c r="H13" s="1" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="51">
       <c r="A14" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B14" s="1">
         <v>2022</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1">
+        <v>66</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="68">
+      <c r="A15" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="E14" s="1">
-        <v>26</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="51">
-      <c r="A15" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="B15" s="1">
         <v>2022</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E15" s="1">
-        <v>12</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
+        <v>284</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="34">
-      <c r="A16" s="5" t="s">
-        <v>251</v>
+        <v>85</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" ht="51">
+      <c r="A16" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="B16" s="1">
         <v>2022</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>277</v>
+      </c>
+      <c r="E16" s="1">
+        <v>26</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>212</v>
+        <v>278</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>237</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="51">
-      <c r="A17" s="5" t="s">
-        <v>230</v>
+      <c r="A17" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="B17" s="1">
         <v>2022</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>228</v>
+        <v>280</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>229</v>
+        <v>262</v>
+      </c>
+      <c r="E17" s="1">
+        <v>12</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" ht="34">
-      <c r="A18" s="6" t="s">
-        <v>243</v>
+        <v>337</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="51">
+      <c r="A18" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="B18" s="1">
         <v>2022</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="51">
-      <c r="A19" s="1" t="s">
-        <v>268</v>
+        <v>11</v>
+      </c>
+      <c r="E18" s="1">
+        <v>65</v>
+      </c>
+      <c r="F18" s="1">
+        <v>6</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="68">
+      <c r="A19" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="B19" s="1">
         <v>2022</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>270</v>
+        <v>226</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>147</v>
+        <v>227</v>
+      </c>
+      <c r="E19" s="1">
+        <v>31</v>
+      </c>
+      <c r="F19" s="1">
+        <v>4</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>275</v>
+        <v>325</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>274</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" ht="51">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>241</v>
       </c>
       <c r="B20" s="1">
         <v>2022</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>34</v>
+      <c r="E20" s="1">
+        <v>82</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>335</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>242</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="51">
-      <c r="A21" s="5" t="s">
-        <v>236</v>
+      <c r="A21" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="B21" s="1">
         <v>2022</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>235</v>
+        <v>145</v>
+      </c>
+      <c r="E21" s="1">
+        <v>31</v>
+      </c>
+      <c r="F21" s="1">
+        <v>5</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>334</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="51">
       <c r="A22" s="5" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B22" s="1">
         <v>2022</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>233</v>
+        <v>34</v>
+      </c>
+      <c r="E22" s="1">
+        <v>23</v>
+      </c>
+      <c r="F22" s="1">
+        <v>7</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="51">
-      <c r="A23" s="1" t="s">
-        <v>155</v>
+      <c r="A23" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="B23" s="1">
         <v>2022</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>150</v>
+        <v>233</v>
+      </c>
+      <c r="E23" s="1">
+        <v>37</v>
+      </c>
+      <c r="F23" s="1">
+        <v>6</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>332</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="68">
-      <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>246</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="51">
+      <c r="A24" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="B24" s="1">
         <v>2022</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>148</v>
+        <v>230</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>147</v>
+        <v>231</v>
+      </c>
+      <c r="E24" s="1">
+        <v>27</v>
+      </c>
+      <c r="F24" s="1">
+        <v>6</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>212</v>
+        <v>331</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="51">
       <c r="A25" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B25" s="1">
         <v>2022</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>149</v>
+        <v>225</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="E25" s="1">
-        <v>65</v>
-      </c>
-      <c r="F25" s="1">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>264</v>
+        <v>330</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="68">
       <c r="A26" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B26" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E26" s="1">
-        <v>131</v>
+        <v>31</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>226</v>
+        <v>329</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>153</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="51">
       <c r="A27" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B27" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>200</v>
+        <v>147</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>141</v>
+        <v>11</v>
+      </c>
+      <c r="E27" s="1">
+        <v>65</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>225</v>
+        <v>236</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="68">
       <c r="A28" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B28" s="1">
         <v>2021</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E28">
-        <v>16</v>
-      </c>
-      <c r="F28" s="1">
-        <v>10</v>
+        <v>142</v>
+      </c>
+      <c r="E28" s="1">
+        <v>131</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>152</v>
+        <v>224</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>151</v>
@@ -1943,192 +2323,199 @@
     </row>
     <row r="29" spans="1:9" ht="51">
       <c r="A29" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B29" s="1">
         <v>2021</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>5</v>
+        <v>198</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="E29" s="1">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>117</v>
+        <v>328</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>116</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="68">
       <c r="A30" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B30" s="1">
         <v>2021</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>201</v>
+        <v>144</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>111</v>
+        <v>143</v>
+      </c>
+      <c r="E30">
+        <v>16</v>
+      </c>
+      <c r="F30" s="1">
+        <v>10</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="51">
       <c r="A31" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B31" s="1">
         <v>2021</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="E31" s="1">
+        <v>38</v>
       </c>
       <c r="G31" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="51">
+      <c r="I31" s="12"/>
+    </row>
+    <row r="32" spans="1:9" ht="68">
       <c r="A32" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B32" s="1">
         <v>2021</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>9</v>
+        <v>199</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E32" s="1">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="F32" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>142</v>
+        <v>326</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="51">
       <c r="A33" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B33" s="1">
         <v>2021</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>202</v>
+        <v>7</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E33" s="1">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F33" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>260</v>
+        <v>112</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>261</v>
+        <v>113</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="51">
       <c r="A34" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B34" s="1">
         <v>2021</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E34" s="1">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F34" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>258</v>
+        <v>140</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="68">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="51">
       <c r="A35" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B35" s="1">
         <v>2021</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="E35" s="1">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="F35" s="1">
+        <v>5</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>118</v>
+        <v>259</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="51">
       <c r="A36" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B36" s="1">
         <v>2021</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>11</v>
@@ -2137,206 +2524,203 @@
         <v>64</v>
       </c>
       <c r="F36" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>119</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="68">
       <c r="A37" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B37" s="1">
         <v>2021</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="E37" s="1">
-        <v>23</v>
-      </c>
-      <c r="F37" s="1">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="51">
       <c r="A38" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B38" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E38" s="1">
-        <v>42</v>
+        <v>64</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="51">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="68">
       <c r="A39" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B39" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="1">
         <v>23</v>
       </c>
-      <c r="E39" s="1">
-        <v>18</v>
+      <c r="F39" s="1">
+        <v>5</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>24</v>
+        <v>254</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>121</v>
+        <v>16</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="51">
       <c r="A40" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B40" s="1">
         <v>2020</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E40" s="1">
-        <v>63</v>
-      </c>
-      <c r="F40" s="1">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="51">
       <c r="A41" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B41" s="1">
         <v>2020</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>206</v>
+        <v>22</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E41" s="1">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="51">
       <c r="A42" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B42" s="1">
         <v>2020</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E42" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F42" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="51">
       <c r="A43" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B43" s="1">
         <v>2020</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E43" s="1">
-        <v>63</v>
-      </c>
-      <c r="F43" s="1">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="51">
       <c r="A44" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B44" s="1">
         <v>2020</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>29</v>
@@ -2348,714 +2732,793 @@
         <v>3</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="51">
       <c r="A45" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B45" s="1">
         <v>2020</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>209</v>
+        <v>31</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E45" s="1">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="F45" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="68">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="51">
       <c r="A46" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B46" s="1">
         <v>2020</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E46" s="1">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="F46" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="51">
       <c r="A47" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B47" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E47" s="1">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="F47" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="51">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="68">
       <c r="A48" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B48" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E48" s="1">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="F48" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="51">
       <c r="A49" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B49" s="1">
         <v>2019</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E49" s="1">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F49" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="51">
       <c r="A50" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B50" s="1">
         <v>2019</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E50" s="1">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="F50" s="1">
+        <v>12</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="51">
       <c r="A51" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B51" s="1">
         <v>2019</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E51" s="1">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="F51" s="1">
+        <v>10</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="51">
       <c r="A52" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B52" s="1">
         <v>2019</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>211</v>
+        <v>46</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E52" s="1">
-        <v>20</v>
-      </c>
-      <c r="F52" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="51">
       <c r="A53" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B53" s="1">
         <v>2019</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>263</v>
+        <v>47</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E53" s="1">
-        <v>33</v>
-      </c>
-      <c r="F53" s="1">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="51">
       <c r="A54" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B54" s="1">
         <v>2019</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>53</v>
+        <v>209</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E54" s="1">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="F54" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="51">
       <c r="A55" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B55" s="1">
         <v>2019</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>58</v>
+        <v>260</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E55" s="1">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="F55" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="68">
+        <v>210</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="51">
       <c r="A56" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B56" s="1">
         <v>2019</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E56" s="1">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="F56" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="51">
       <c r="A57" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B57" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E57" s="1">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="F57" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G57" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="68">
+      <c r="A58" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B58" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="1">
         <v>62</v>
       </c>
-      <c r="I57" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="51">
-      <c r="A58" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B58" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E58" s="1">
-        <v>143</v>
-      </c>
       <c r="F58" s="1">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>136</v>
+        <v>343</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="51">
       <c r="A59" s="1" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="B59" s="1">
         <v>2018</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>65</v>
+        <v>211</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E59" s="1">
+        <v>3</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="51">
+      <c r="A60" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" s="1">
         <v>143</v>
       </c>
-      <c r="F59" s="1">
-        <v>5</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="68">
-      <c r="A60" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B60" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E60" s="1">
-        <v>9</v>
-      </c>
       <c r="F60" s="1">
-        <v>2</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>106</v>
+        <v>3</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="51">
       <c r="A61" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B61" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>215</v>
+        <v>65</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="E61" s="1">
-        <v>60</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>69</v>
+        <v>143</v>
+      </c>
+      <c r="F61" s="1">
+        <v>5</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="51">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="68">
       <c r="A62" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B62" s="1">
         <v>2017</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E62" s="1">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="F62" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="51">
       <c r="A63" s="1" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="B63" s="1">
         <v>2017</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="E63" s="1">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="68">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="51">
       <c r="A64" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B64" s="1">
         <v>2017</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>74</v>
+        <v>214</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="E64" s="1">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="F64" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="68">
+        <v>137</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="51">
       <c r="A65" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B65" s="1">
         <v>2017</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E65" s="1">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="51">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="68">
       <c r="A66" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B66" s="1">
         <v>2017</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="E66" s="1">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="F66" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="51">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="68">
       <c r="A67" s="1" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="B67" s="1">
         <v>2017</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>84</v>
+        <v>216</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="E67" s="1">
-        <v>60</v>
-      </c>
-      <c r="F67" s="1">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="34">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="51">
       <c r="A68" s="1" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B68" s="1">
         <v>2017</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>219</v>
+        <v>80</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E68" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F68" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="51">
       <c r="A69" s="1" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="B69" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>220</v>
+        <v>84</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="E69" s="1">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F69" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="34">
+        <v>85</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="51">
       <c r="A70" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B70" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E70" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F70" s="1">
         <v>2</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="34">
+        <v>88</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="51">
       <c r="A71" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B71" s="1">
         <v>2016</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1</v>
+      </c>
+      <c r="F71" s="1">
+        <v>2</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="51">
+      <c r="A72" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B72" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1">
+        <v>2</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="68">
+      <c r="A73" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B73" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" s="1">
+        <v>37</v>
+      </c>
+      <c r="F73" s="1">
+        <v>6</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="68">
+      <c r="A74" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B74" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E71" s="1">
-        <v>37</v>
-      </c>
-      <c r="F71" s="1">
-        <v>6</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="68">
-      <c r="A72" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B72" s="1">
-        <v>2015</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E72" s="1">
+      <c r="E74" s="1">
         <v>115</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F74" s="1">
         <v>5</v>
       </c>
-      <c r="G72" s="4" t="s">
+      <c r="G74" s="4" t="s">
         <v>93</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -3064,6 +3527,283 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3DB5C68-0218-0246-B22C-8D069C454BCB}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="30.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17">
+      <c r="A1" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="34">
+      <c r="A2" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E2" s="14">
+        <v>45108</v>
+      </c>
+      <c r="F2" s="14">
+        <v>46934</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J2" s="13">
+        <v>2329452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="34">
+      <c r="A3" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E3" s="14">
+        <v>45108</v>
+      </c>
+      <c r="F3" s="14">
+        <v>45657</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J3" s="13">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="51">
+      <c r="A4" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E4" s="14">
+        <v>44075</v>
+      </c>
+      <c r="F4" s="14">
+        <v>45534</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J4" s="13">
+        <v>2296000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="85">
+      <c r="A5" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E5" s="14">
+        <v>44013</v>
+      </c>
+      <c r="F5" s="14">
+        <v>45473</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J5" s="13">
+        <v>499927</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="68">
+      <c r="A6" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E6" s="14">
+        <v>44075</v>
+      </c>
+      <c r="F6" s="14">
+        <v>45169</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J6" s="13">
+        <v>1099997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="34">
+      <c r="A7" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E7" s="14">
+        <v>43922</v>
+      </c>
+      <c r="F7" s="14">
+        <v>45016</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="J7" s="13">
+        <v>430000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="34">
+      <c r="A8" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E8" s="14">
+        <v>44013</v>
+      </c>
+      <c r="F8" s="14">
+        <v>44742</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="J8" s="13">
+        <v>420000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C08510A-9525-3140-B9DE-25CE081DC0F0}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tbarret/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD1EF66-612D-554A-87FF-F513A28778B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0B2A54-DEB1-A040-AD41-827255718D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="460" windowWidth="24540" windowHeight="16520" activeTab="1" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
+    <workbookView xWindow="4260" yWindow="460" windowWidth="24540" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
   <sheets>
     <sheet name="Journals" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Presentations" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$20</definedName>
+    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$21</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="391">
   <si>
     <t>authors</t>
   </si>
@@ -1200,6 +1200,18 @@
   </si>
   <si>
     <t>end</t>
+  </si>
+  <si>
+    <t>Vázquez, A. L., Domenech Rodríguez, M. M., Cadenas, G. A., Barrett, T. S., &amp; Navarro Flores, C. M.</t>
+  </si>
+  <si>
+    <t>Barriers to accessing telepsychology services questionnaire: Structure and language-based performance in a sample of Latinx caregivers.</t>
+  </si>
+  <si>
+    <t>Psychological Services</t>
+  </si>
+  <si>
+    <t>doi: 10.1037/ser0000804</t>
   </si>
 </sst>
 </file>
@@ -1642,10 +1654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BAB23D-B27F-A34D-A522-4C115B575C05}">
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1691,30 +1703,33 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="34">
+    <row r="2" spans="1:9" ht="51">
       <c r="A2" s="1" t="s">
-        <v>308</v>
+        <v>387</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>297</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>307</v>
+        <v>388</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>389</v>
       </c>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="51">
+      <c r="H2" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="34">
       <c r="A3" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>297</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -1723,799 +1738,785 @@
     </row>
     <row r="4" spans="1:9" ht="51">
       <c r="A4" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>297</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>303</v>
+        <v>11</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="68">
+    <row r="5" spans="1:9" ht="51">
       <c r="A5" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>297</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="I5" s="11"/>
+        <v>303</v>
+      </c>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="68">
       <c r="A6" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" ht="68">
+      <c r="A7" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2023</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="51">
-      <c r="A7" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="B7" s="1">
         <v>2023</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="51">
       <c r="A8" s="1" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="B8" s="1">
         <v>2023</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1">
-        <v>66</v>
-      </c>
-      <c r="F8" s="1">
-        <v>5</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="51">
       <c r="A9" s="1" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="B9" s="1">
         <v>2023</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>312</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1">
-        <v>32</v>
+        <v>66</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="51">
-      <c r="A10" s="5" t="s">
-        <v>287</v>
+      <c r="A10" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="B10" s="1">
         <v>2023</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>312</v>
+      </c>
+      <c r="E10" s="1">
+        <v>32</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>311</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="51">
-      <c r="A11" s="1" t="s">
-        <v>286</v>
+      <c r="A11" s="5" t="s">
+        <v>287</v>
       </c>
       <c r="B11" s="1">
         <v>2023</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E11" s="1">
-        <v>13</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>314</v>
+        <v>11</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="68">
-      <c r="A12" s="5" t="s">
-        <v>247</v>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="51">
+      <c r="A12" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="B12" s="1">
         <v>2023</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>94</v>
+        <v>285</v>
       </c>
       <c r="E12" s="1">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="F12" s="1">
-        <v>5</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>304</v>
+        <v>2</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>314</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>251</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="68">
-      <c r="A13" s="1" t="s">
-        <v>293</v>
+      <c r="A13" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="B13" s="1">
         <v>2023</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="1">
+        <v>62</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="68">
+      <c r="A14" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E14" s="1">
         <v>38</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F14" s="8">
         <v>44989</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="51">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:9" ht="51">
+      <c r="A15" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="1">
-        <v>66</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="68">
-      <c r="A15" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="B15" s="1">
         <v>2022</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>85</v>
+        <v>11</v>
+      </c>
+      <c r="E15" s="1">
+        <v>66</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>313</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="1:9" ht="51">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="68">
       <c r="A16" s="1" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="B16" s="1">
         <v>2022</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E16" s="1">
-        <v>26</v>
+        <v>284</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>278</v>
+        <v>85</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>281</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="51">
       <c r="A17" s="1" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="B17" s="1">
         <v>2022</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E17" s="1">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>337</v>
+        <v>278</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>338</v>
+        <v>279</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>339</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="51">
-      <c r="A18" s="5" t="s">
-        <v>249</v>
+      <c r="A18" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="B18" s="1">
         <v>2022</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>11</v>
+        <v>262</v>
       </c>
       <c r="E18" s="1">
-        <v>65</v>
-      </c>
-      <c r="F18" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="68">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="51">
       <c r="A19" s="5" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="B19" s="1">
         <v>2022</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>227</v>
+        <v>11</v>
       </c>
       <c r="E19" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="F19" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" ht="51">
-      <c r="A20" s="6" t="s">
-        <v>241</v>
+        <v>323</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="68">
+      <c r="A20" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="B20" s="1">
         <v>2022</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="E20" s="1">
-        <v>82</v>
+        <v>31</v>
+      </c>
+      <c r="F20" s="1">
+        <v>4</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>336</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9" ht="51">
-      <c r="A21" s="1" t="s">
-        <v>265</v>
+      <c r="A21" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="B21" s="1">
         <v>2022</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>145</v>
+        <v>244</v>
       </c>
       <c r="E21" s="1">
-        <v>31</v>
-      </c>
-      <c r="F21" s="1">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>271</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="51">
-      <c r="A22" s="5" t="s">
-        <v>239</v>
+      <c r="A22" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="B22" s="1">
         <v>2022</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="E22" s="1">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F22" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="51">
       <c r="A23" s="5" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B23" s="1">
         <v>2022</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>233</v>
+        <v>34</v>
       </c>
       <c r="E23" s="1">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F23" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="51">
       <c r="A24" s="5" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B24" s="1">
         <v>2022</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E24" s="1">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F24" s="1">
         <v>6</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="51">
-      <c r="A25" s="1" t="s">
-        <v>153</v>
+      <c r="A25" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="B25" s="1">
         <v>2022</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>148</v>
+        <v>231</v>
       </c>
       <c r="E25" s="1">
-        <v>51</v>
+        <v>27</v>
+      </c>
+      <c r="F25" s="1">
+        <v>6</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="68">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="51">
       <c r="A26" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B26" s="1">
         <v>2022</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>146</v>
+        <v>225</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E26" s="1">
-        <v>31</v>
-      </c>
-      <c r="F26" s="1">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="51">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="68">
       <c r="A27" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B27" s="1">
         <v>2022</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="E27" s="1">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="F27" s="1">
         <v>2</v>
       </c>
       <c r="G27" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="51">
+      <c r="A28" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="1">
+        <v>65</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="68">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:9" ht="68">
+      <c r="A29" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="B28" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E28" s="1">
-        <v>131</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="51">
-      <c r="A29" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="B29" s="1">
         <v>2021</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E29" s="1">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>328</v>
+        <v>224</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="68">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="51">
       <c r="A30" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B30" s="1">
         <v>2021</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E30">
-        <v>16</v>
-      </c>
-      <c r="F30" s="1">
-        <v>10</v>
+        <v>139</v>
+      </c>
+      <c r="E30" s="1">
+        <v>21</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>150</v>
+        <v>328</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="51">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="68">
       <c r="A31" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B31" s="1">
         <v>2021</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="1">
-        <v>38</v>
+        <v>143</v>
+      </c>
+      <c r="E31">
+        <v>16</v>
+      </c>
+      <c r="F31" s="1">
+        <v>10</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I31" s="12"/>
-    </row>
-    <row r="32" spans="1:9" ht="68">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="51">
       <c r="A32" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B32" s="1">
         <v>2021</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>199</v>
+        <v>5</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="E32" s="1">
-        <v>29</v>
-      </c>
-      <c r="F32" s="1">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>326</v>
+        <v>115</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="51">
+        <v>114</v>
+      </c>
+      <c r="I32" s="12"/>
+    </row>
+    <row r="33" spans="1:9" ht="68">
       <c r="A33" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B33" s="1">
         <v>2021</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>7</v>
+        <v>199</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="E33" s="1">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F33" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>112</v>
+        <v>326</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>95</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="51">
       <c r="A34" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B34" s="1">
         <v>2021</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E34" s="1">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F34" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="51">
       <c r="A35" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B35" s="1">
         <v>2021</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>200</v>
+        <v>9</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E35" s="1">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F35" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>258</v>
+        <v>140</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="51">
       <c r="A36" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B36" s="1">
         <v>2021</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>11</v>
@@ -2527,931 +2528,934 @@
         <v>5</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="68">
+        <v>259</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="51">
       <c r="A37" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B37" s="1">
         <v>2021</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="E37" s="1">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="F37" s="1">
+        <v>5</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="51">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="68">
       <c r="A38" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B38" s="1">
         <v>2021</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="E38" s="1">
-        <v>64</v>
-      </c>
-      <c r="F38" s="1">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="68">
+        <v>116</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="51">
       <c r="A39" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B39" s="1">
         <v>2021</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="1">
+        <v>64</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="68">
+      <c r="A40" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E40" s="1">
         <v>23</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F40" s="1">
         <v>5</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G40" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="51">
-      <c r="A40" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B40" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="1">
-        <v>42</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="51">
       <c r="A41" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B41" s="1">
         <v>2020</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E41" s="1">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="51">
       <c r="A42" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B42" s="1">
         <v>2020</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E42" s="1">
-        <v>63</v>
-      </c>
-      <c r="F42" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="51">
       <c r="A43" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B43" s="1">
         <v>2020</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>204</v>
+        <v>25</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E43" s="1">
-        <v>40</v>
+        <v>63</v>
+      </c>
+      <c r="F43" s="1">
+        <v>6</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="51">
       <c r="A44" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B44" s="1">
         <v>2020</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E44" s="1">
-        <v>51</v>
-      </c>
-      <c r="F44" s="1">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="51">
       <c r="A45" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B45" s="1">
         <v>2020</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E45" s="1">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F45" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="51">
       <c r="A46" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B46" s="1">
         <v>2020</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>206</v>
+        <v>31</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E46" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F46" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="51">
       <c r="A47" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B47" s="1">
         <v>2020</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E47" s="1">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F47" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="68">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="51">
       <c r="A48" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B48" s="1">
         <v>2020</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E48" s="1">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="F48" s="1">
         <v>2</v>
       </c>
       <c r="G48" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="68">
+      <c r="A49" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="1">
+        <v>113</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="51">
-      <c r="A49" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B49" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E49" s="1">
-        <v>61</v>
-      </c>
-      <c r="F49" s="1">
-        <v>3</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="51">
       <c r="A50" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B50" s="1">
         <v>2019</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E50" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F50" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="51">
       <c r="A51" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B51" s="1">
         <v>2019</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="E51" s="1">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F51" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="51">
       <c r="A52" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B52" s="1">
         <v>2019</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E52" s="1">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="F52" s="1">
+        <v>10</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="51">
       <c r="A53" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B53" s="1">
         <v>2019</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E53" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="51">
       <c r="A54" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B54" s="1">
         <v>2019</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>209</v>
+        <v>47</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E54" s="1">
-        <v>20</v>
-      </c>
-      <c r="F54" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="51">
       <c r="A55" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B55" s="1">
         <v>2019</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E55" s="1">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F55" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>210</v>
+        <v>51</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="51">
       <c r="A56" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B56" s="1">
         <v>2019</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>53</v>
+        <v>260</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E56" s="1">
-        <v>145</v>
+        <v>33</v>
       </c>
       <c r="F56" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="51">
       <c r="A57" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B57" s="1">
         <v>2019</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E57" s="1">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="F57" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="68">
+        <v>55</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="51">
       <c r="A58" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B58" s="1">
         <v>2019</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="E58" s="1">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F58" s="1">
         <v>2</v>
       </c>
       <c r="G58" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="68">
+      <c r="A59" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B59" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="1">
+        <v>62</v>
+      </c>
+      <c r="F59" s="1">
+        <v>2</v>
+      </c>
+      <c r="G59" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="H59" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="I59" s="1" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="51">
-      <c r="A59" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B59" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E59" s="1">
-        <v>3</v>
-      </c>
-      <c r="F59" s="1">
-        <v>1</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="51">
       <c r="A60" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B60" s="1">
         <v>2018</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>63</v>
+        <v>211</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E60" s="1">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="F60" s="1">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>134</v>
+        <v>344</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="51">
       <c r="A61" s="1" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="B61" s="1">
         <v>2018</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E61" s="1">
         <v>143</v>
       </c>
       <c r="F61" s="1">
+        <v>3</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="51">
+      <c r="A62" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B62" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E62" s="1">
+        <v>143</v>
+      </c>
+      <c r="F62" s="1">
         <v>5</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="H62" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="68">
-      <c r="A62" s="1" t="s">
+    <row r="63" spans="1:9" ht="68">
+      <c r="A63" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B62" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E62" s="1">
-        <v>9</v>
-      </c>
-      <c r="F62" s="1">
-        <v>2</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="51">
-      <c r="A63" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="B63" s="1">
         <v>2017</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="E63" s="1">
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="F63" s="1">
+        <v>2</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>136</v>
+        <v>68</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="51">
       <c r="A64" s="1" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="B64" s="1">
         <v>2017</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="E64" s="1">
-        <v>140</v>
-      </c>
-      <c r="F64" s="1">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="51">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="51">
       <c r="A65" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B65" s="1">
         <v>2017</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E65" s="1">
-        <v>10</v>
+        <v>140</v>
+      </c>
+      <c r="F65" s="1">
+        <v>6</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="68">
+        <v>137</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="51">
       <c r="A66" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B66" s="1">
         <v>2017</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E66" s="1">
-        <v>111</v>
-      </c>
-      <c r="F66" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="68">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="68">
       <c r="A67" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B67" s="1">
         <v>2017</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="E67" s="1">
-        <v>55</v>
+        <v>111</v>
+      </c>
+      <c r="F67" s="1">
+        <v>5</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="51">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="68">
       <c r="A68" s="1" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B68" s="1">
         <v>2017</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E68" s="1">
-        <v>36</v>
-      </c>
-      <c r="F68" s="1">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="51">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="51">
       <c r="A69" s="1" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="B69" s="1">
         <v>2017</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E69" s="1">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F69" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="51">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="51">
       <c r="A70" s="1" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="B70" s="1">
         <v>2017</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="1">
+        <v>60</v>
+      </c>
+      <c r="F70" s="1">
+        <v>3</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="51">
+      <c r="A71" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B71" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E71" s="1">
         <v>30</v>
-      </c>
-      <c r="F70" s="1">
-        <v>2</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="51">
-      <c r="A71" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B71" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E71" s="1">
-        <v>1</v>
       </c>
       <c r="F71" s="1">
         <v>2</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="51">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="51">
       <c r="A72" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B72" s="1">
         <v>2016</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>61</v>
@@ -3463,61 +3467,87 @@
         <v>2</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="68">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="51">
       <c r="A73" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B73" s="1">
         <v>2016</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1">
+        <v>2</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="68">
+      <c r="A74" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B74" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E74" s="1">
         <v>37</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F74" s="1">
         <v>6</v>
       </c>
-      <c r="G73" s="4" t="s">
+      <c r="G74" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="H74" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="68">
-      <c r="A74" s="1" t="s">
+    <row r="75" spans="1:9" ht="68">
+      <c r="A75" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B75" s="1">
         <v>2015</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E75" s="1">
         <v>115</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F75" s="1">
         <v>5</v>
       </c>
-      <c r="G74" s="4" t="s">
+      <c r="G75" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="H75" s="1" t="s">
         <v>349</v>
       </c>
     </row>
@@ -3530,7 +3560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3DB5C68-0218-0246-B22C-8D069C454BCB}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tbarret/Dropbox/GitHub/blog_rstats/assets/CV/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tysonbarrett/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0B2A54-DEB1-A040-AD41-827255718D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0E23BE-157B-D042-BCFF-C86FD36E1D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="460" windowWidth="24540" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
+    <workbookView xWindow="4260" yWindow="740" windowWidth="24540" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
   <sheets>
     <sheet name="Journals" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="393">
   <si>
     <t>authors</t>
   </si>
@@ -1212,6 +1212,12 @@
   </si>
   <si>
     <t>doi: 10.1037/ser0000804</t>
+  </si>
+  <si>
+    <t>doi: 10.1044/2023_JSLHR-23-00115</t>
+  </si>
+  <si>
+    <t>1-12</t>
   </si>
 </sst>
 </file>
@@ -1329,8 +1335,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1339,6 +1343,8 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1657,7 +1663,7 @@
   <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1716,7 +1722,6 @@
       <c r="D2" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
         <v>390</v>
       </c>
@@ -1734,55 +1739,58 @@
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="51">
       <c r="A4" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>297</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" ht="51">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="68">
       <c r="A5" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>297</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="68">
+        <v>300</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" ht="51">
       <c r="A6" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>297</v>
+        <v>306</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2023</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>300</v>
+        <v>11</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>392</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="I6" s="11"/>
+        <v>391</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="68">
       <c r="A7" s="1" t="s">
@@ -1900,7 +1908,7 @@
       <c r="F12" s="1">
         <v>2</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="13" t="s">
         <v>314</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -1981,7 +1989,7 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="14" t="s">
         <v>313</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -2007,7 +2015,7 @@
       <c r="H16" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="I16" s="12"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" ht="51">
       <c r="A17" s="1" t="s">
@@ -2422,7 +2430,7 @@
       <c r="H32" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I32" s="12"/>
+      <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9" ht="68">
       <c r="A33" s="1" t="s">
@@ -3620,10 +3628,10 @@
       <c r="D2" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="12">
         <v>45108</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="12">
         <v>46934</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -3635,7 +3643,7 @@
       <c r="I2" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="11">
         <v>2329452</v>
       </c>
     </row>
@@ -3652,10 +3660,10 @@
       <c r="D3" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="12">
         <v>45108</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="12">
         <v>45657</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -3664,7 +3672,7 @@
       <c r="I3" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="11">
         <v>150000</v>
       </c>
     </row>
@@ -3681,10 +3689,10 @@
       <c r="D4" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="12">
         <v>44075</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="12">
         <v>45534</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -3696,7 +3704,7 @@
       <c r="I4" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="11">
         <v>2296000</v>
       </c>
     </row>
@@ -3713,10 +3721,10 @@
       <c r="D5" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="12">
         <v>44013</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="12">
         <v>45473</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -3728,7 +3736,7 @@
       <c r="I5" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="11">
         <v>499927</v>
       </c>
     </row>
@@ -3745,10 +3753,10 @@
       <c r="D6" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="12">
         <v>44075</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="12">
         <v>45169</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -3760,7 +3768,7 @@
       <c r="I6" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="11">
         <v>1099997</v>
       </c>
     </row>
@@ -3777,10 +3785,10 @@
       <c r="D7" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="12">
         <v>43922</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="12">
         <v>45016</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -3792,7 +3800,7 @@
       <c r="I7" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="11">
         <v>430000</v>
       </c>
     </row>
@@ -3809,10 +3817,10 @@
       <c r="D8" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="12">
         <v>44013</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="12">
         <v>44742</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -3824,7 +3832,7 @@
       <c r="I8" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="11">
         <v>420000</v>
       </c>
     </row>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tysonbarrett/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0E23BE-157B-D042-BCFF-C86FD36E1D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE7DA9C-B5A1-6A46-BAF5-05084132E07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="740" windowWidth="24540" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
+    <workbookView xWindow="4260" yWindow="740" windowWidth="24540" windowHeight="16520" activeTab="1" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
   <sheets>
     <sheet name="Journals" sheetId="1" r:id="rId1"/>
@@ -1662,7 +1662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BAB23D-B27F-A34D-A522-4C115B575C05}">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -3568,8 +3568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3DB5C68-0218-0246-B22C-8D069C454BCB}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3766,7 +3766,7 @@
         <v>375</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="J6" s="11">
         <v>1099997</v>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tysonbarrett/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE7DA9C-B5A1-6A46-BAF5-05084132E07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CB3F48-16DB-6744-B053-1F2667756D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="740" windowWidth="24540" windowHeight="16520" activeTab="1" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
+    <workbookView xWindow="4260" yWindow="740" windowWidth="24540" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
   <sheets>
     <sheet name="Journals" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Presentations" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$21</definedName>
+    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$22</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="396">
   <si>
     <t>authors</t>
   </si>
@@ -1218,6 +1218,15 @@
   </si>
   <si>
     <t>1-12</t>
+  </si>
+  <si>
+    <t>Pilot Testing an Asynchronous Online Harm Reduction and Pharmacotherapy Stigma Reduction Training for Substance Use Treatment Professionals</t>
+  </si>
+  <si>
+    <t>Sulzer, S. H., Prevedel, S., Barrett, T. S., Mekjian, M., Vincent, M.,  Frabis, F., Meier, C., Shiverdecker, C. W., Voss, M. W., Cook, P. J., &amp; Madden, E. F.</t>
+  </si>
+  <si>
+    <t>Journal of Drug Issues</t>
   </si>
 </sst>
 </file>
@@ -1660,10 +1669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BAB23D-B27F-A34D-A522-4C115B575C05}">
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1711,849 +1720,835 @@
     </row>
     <row r="2" spans="1:9" ht="51">
       <c r="A2" s="1" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>297</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="34">
+        <v>395</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="51">
       <c r="A3" s="1" t="s">
-        <v>308</v>
+        <v>387</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>297</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>307</v>
+        <v>388</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="51">
+        <v>389</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="34">
       <c r="A4" s="1" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>297</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="68">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="51">
       <c r="A5" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>297</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="68">
+      <c r="A6" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" ht="51">
-      <c r="A6" s="1" t="s">
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" ht="51">
+      <c r="A7" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2023</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="68">
-      <c r="A7" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="B7" s="1">
         <v>2023</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="51">
+        <v>11</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="68">
       <c r="A8" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B8" s="1">
         <v>2023</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="51">
       <c r="A9" s="1" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="B9" s="1">
         <v>2023</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1">
-        <v>66</v>
-      </c>
-      <c r="F9" s="1">
-        <v>5</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="51">
       <c r="A10" s="1" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="B10" s="1">
         <v>2023</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>312</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1">
-        <v>32</v>
+        <v>66</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="51">
-      <c r="A11" s="5" t="s">
-        <v>287</v>
+      <c r="A11" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="B11" s="1">
         <v>2023</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>312</v>
+      </c>
+      <c r="E11" s="1">
+        <v>32</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>311</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="51">
-      <c r="A12" s="1" t="s">
-        <v>286</v>
+      <c r="A12" s="5" t="s">
+        <v>287</v>
       </c>
       <c r="B12" s="1">
         <v>2023</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E12" s="1">
-        <v>13</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>314</v>
+        <v>11</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="68">
-      <c r="A13" s="5" t="s">
-        <v>247</v>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="51">
+      <c r="A13" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="B13" s="1">
         <v>2023</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>94</v>
+        <v>285</v>
       </c>
       <c r="E13" s="1">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="F13" s="1">
-        <v>5</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>304</v>
+        <v>2</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>314</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>251</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="68">
-      <c r="A14" s="1" t="s">
-        <v>293</v>
+      <c r="A14" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="B14" s="1">
         <v>2023</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="1">
+        <v>62</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="68">
+      <c r="A15" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E15" s="1">
         <v>38</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F15" s="8">
         <v>44989</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="51">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:9" ht="51">
+      <c r="A16" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="1">
-        <v>66</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="68">
-      <c r="A16" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="B16" s="1">
         <v>2022</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>85</v>
+        <v>11</v>
+      </c>
+      <c r="E16" s="1">
+        <v>66</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>313</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="1:9" ht="51">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="68">
       <c r="A17" s="1" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="B17" s="1">
         <v>2022</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E17" s="1">
-        <v>26</v>
+        <v>284</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>278</v>
+        <v>85</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>281</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" ht="51">
       <c r="A18" s="1" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="B18" s="1">
         <v>2022</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E18" s="1">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>337</v>
+        <v>278</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>338</v>
+        <v>279</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>339</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="51">
-      <c r="A19" s="5" t="s">
-        <v>249</v>
+      <c r="A19" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="B19" s="1">
         <v>2022</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>11</v>
+        <v>262</v>
       </c>
       <c r="E19" s="1">
-        <v>65</v>
-      </c>
-      <c r="F19" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="68">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="51">
       <c r="A20" s="5" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="B20" s="1">
         <v>2022</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>227</v>
+        <v>11</v>
       </c>
       <c r="E20" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="F20" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" ht="51">
-      <c r="A21" s="6" t="s">
-        <v>241</v>
+        <v>323</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="68">
+      <c r="A21" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="B21" s="1">
         <v>2022</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="E21" s="1">
-        <v>82</v>
+        <v>31</v>
+      </c>
+      <c r="F21" s="1">
+        <v>4</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>336</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9" ht="51">
-      <c r="A22" s="1" t="s">
-        <v>265</v>
+      <c r="A22" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="B22" s="1">
         <v>2022</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>145</v>
+        <v>244</v>
       </c>
       <c r="E22" s="1">
-        <v>31</v>
-      </c>
-      <c r="F22" s="1">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>271</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="51">
-      <c r="A23" s="5" t="s">
-        <v>239</v>
+      <c r="A23" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="B23" s="1">
         <v>2022</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="E23" s="1">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F23" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="51">
       <c r="A24" s="5" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B24" s="1">
         <v>2022</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>233</v>
+        <v>34</v>
       </c>
       <c r="E24" s="1">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F24" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="51">
       <c r="A25" s="5" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B25" s="1">
         <v>2022</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E25" s="1">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F25" s="1">
         <v>6</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="51">
-      <c r="A26" s="1" t="s">
-        <v>153</v>
+      <c r="A26" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="B26" s="1">
         <v>2022</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>148</v>
+        <v>231</v>
       </c>
       <c r="E26" s="1">
-        <v>51</v>
+        <v>27</v>
+      </c>
+      <c r="F26" s="1">
+        <v>6</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="68">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="51">
       <c r="A27" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B27" s="1">
         <v>2022</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>146</v>
+        <v>225</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E27" s="1">
-        <v>31</v>
-      </c>
-      <c r="F27" s="1">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="51">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="68">
       <c r="A28" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B28" s="1">
         <v>2022</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="E28" s="1">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="F28" s="1">
         <v>2</v>
       </c>
       <c r="G28" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="51">
+      <c r="A29" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="1">
+        <v>65</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="68">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:9" ht="68">
+      <c r="A30" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="B29" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E29" s="1">
-        <v>131</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="51">
-      <c r="A30" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="B30" s="1">
         <v>2021</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E30" s="1">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>328</v>
+        <v>224</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="68">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="51">
       <c r="A31" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B31" s="1">
         <v>2021</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E31">
-        <v>16</v>
-      </c>
-      <c r="F31" s="1">
-        <v>10</v>
+        <v>139</v>
+      </c>
+      <c r="E31" s="1">
+        <v>21</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>150</v>
+        <v>328</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="51">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="68">
       <c r="A32" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B32" s="1">
         <v>2021</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="1">
-        <v>38</v>
+        <v>143</v>
+      </c>
+      <c r="E32">
+        <v>16</v>
+      </c>
+      <c r="F32" s="1">
+        <v>10</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I32" s="10"/>
-    </row>
-    <row r="33" spans="1:9" ht="68">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="51">
       <c r="A33" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B33" s="1">
         <v>2021</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>199</v>
+        <v>5</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="E33" s="1">
-        <v>29</v>
-      </c>
-      <c r="F33" s="1">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>326</v>
+        <v>115</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="51">
+        <v>114</v>
+      </c>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="1:9" ht="68">
       <c r="A34" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B34" s="1">
         <v>2021</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>7</v>
+        <v>199</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="E34" s="1">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F34" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>112</v>
+        <v>326</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>95</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="51">
       <c r="A35" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B35" s="1">
         <v>2021</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E35" s="1">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F35" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="51">
       <c r="A36" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B36" s="1">
         <v>2021</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>200</v>
+        <v>9</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E36" s="1">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F36" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>258</v>
+        <v>140</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="51">
       <c r="A37" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B37" s="1">
         <v>2021</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
@@ -2565,931 +2560,934 @@
         <v>5</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="68">
+        <v>259</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="51">
       <c r="A38" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B38" s="1">
         <v>2021</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="E38" s="1">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="F38" s="1">
+        <v>5</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="51">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="68">
       <c r="A39" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B39" s="1">
         <v>2021</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="E39" s="1">
-        <v>64</v>
-      </c>
-      <c r="F39" s="1">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="68">
+        <v>116</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="51">
       <c r="A40" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B40" s="1">
         <v>2021</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="1">
+        <v>64</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="68">
+      <c r="A41" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E41" s="1">
         <v>23</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F41" s="1">
         <v>5</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G41" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="51">
-      <c r="A41" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B41" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="1">
-        <v>42</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="51">
       <c r="A42" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B42" s="1">
         <v>2020</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E42" s="1">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="51">
       <c r="A43" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B43" s="1">
         <v>2020</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E43" s="1">
-        <v>63</v>
-      </c>
-      <c r="F43" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="51">
       <c r="A44" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B44" s="1">
         <v>2020</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>204</v>
+        <v>25</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E44" s="1">
-        <v>40</v>
+        <v>63</v>
+      </c>
+      <c r="F44" s="1">
+        <v>6</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="51">
       <c r="A45" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B45" s="1">
         <v>2020</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E45" s="1">
-        <v>51</v>
-      </c>
-      <c r="F45" s="1">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="51">
       <c r="A46" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B46" s="1">
         <v>2020</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E46" s="1">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F46" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="51">
       <c r="A47" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B47" s="1">
         <v>2020</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>206</v>
+        <v>31</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E47" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F47" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="51">
       <c r="A48" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B48" s="1">
         <v>2020</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E48" s="1">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F48" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="68">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="51">
       <c r="A49" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B49" s="1">
         <v>2020</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E49" s="1">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="F49" s="1">
         <v>2</v>
       </c>
       <c r="G49" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="68">
+      <c r="A50" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="1">
+        <v>113</v>
+      </c>
+      <c r="F50" s="1">
+        <v>2</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="51">
-      <c r="A50" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B50" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E50" s="1">
-        <v>61</v>
-      </c>
-      <c r="F50" s="1">
-        <v>3</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="51">
       <c r="A51" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B51" s="1">
         <v>2019</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E51" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F51" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="51">
       <c r="A52" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B52" s="1">
         <v>2019</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="E52" s="1">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F52" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="51">
       <c r="A53" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B53" s="1">
         <v>2019</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E53" s="1">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="F53" s="1">
+        <v>10</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="51">
       <c r="A54" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B54" s="1">
         <v>2019</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E54" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="51">
       <c r="A55" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B55" s="1">
         <v>2019</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>209</v>
+        <v>47</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E55" s="1">
-        <v>20</v>
-      </c>
-      <c r="F55" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="51">
       <c r="A56" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B56" s="1">
         <v>2019</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E56" s="1">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F56" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>210</v>
+        <v>51</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="51">
       <c r="A57" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B57" s="1">
         <v>2019</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>53</v>
+        <v>260</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E57" s="1">
-        <v>145</v>
+        <v>33</v>
       </c>
       <c r="F57" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="51">
       <c r="A58" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B58" s="1">
         <v>2019</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E58" s="1">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="F58" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="68">
+        <v>55</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="51">
       <c r="A59" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B59" s="1">
         <v>2019</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="E59" s="1">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F59" s="1">
         <v>2</v>
       </c>
       <c r="G59" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="68">
+      <c r="A60" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="1">
+        <v>62</v>
+      </c>
+      <c r="F60" s="1">
+        <v>2</v>
+      </c>
+      <c r="G60" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="H60" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="I60" s="1" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="51">
-      <c r="A60" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B60" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E60" s="1">
-        <v>3</v>
-      </c>
-      <c r="F60" s="1">
-        <v>1</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="51">
       <c r="A61" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B61" s="1">
         <v>2018</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>63</v>
+        <v>211</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E61" s="1">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="F61" s="1">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>134</v>
+        <v>344</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="51">
       <c r="A62" s="1" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="B62" s="1">
         <v>2018</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E62" s="1">
         <v>143</v>
       </c>
       <c r="F62" s="1">
+        <v>3</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="51">
+      <c r="A63" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E63" s="1">
+        <v>143</v>
+      </c>
+      <c r="F63" s="1">
         <v>5</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="H63" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="68">
-      <c r="A63" s="1" t="s">
+    <row r="64" spans="1:9" ht="68">
+      <c r="A64" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B63" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E63" s="1">
-        <v>9</v>
-      </c>
-      <c r="F63" s="1">
-        <v>2</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="51">
-      <c r="A64" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="B64" s="1">
         <v>2017</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="E64" s="1">
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="F64" s="1">
+        <v>2</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>136</v>
+        <v>68</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="51">
       <c r="A65" s="1" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="B65" s="1">
         <v>2017</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="E65" s="1">
-        <v>140</v>
-      </c>
-      <c r="F65" s="1">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="51">
       <c r="A66" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B66" s="1">
         <v>2017</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E66" s="1">
-        <v>10</v>
+        <v>140</v>
+      </c>
+      <c r="F66" s="1">
+        <v>6</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="68">
+        <v>137</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="51">
       <c r="A67" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B67" s="1">
         <v>2017</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E67" s="1">
-        <v>111</v>
-      </c>
-      <c r="F67" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="68">
       <c r="A68" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B68" s="1">
         <v>2017</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="E68" s="1">
-        <v>55</v>
+        <v>111</v>
+      </c>
+      <c r="F68" s="1">
+        <v>5</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="51">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="68">
       <c r="A69" s="1" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B69" s="1">
         <v>2017</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E69" s="1">
-        <v>36</v>
-      </c>
-      <c r="F69" s="1">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="51">
       <c r="A70" s="1" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="B70" s="1">
         <v>2017</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E70" s="1">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F70" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="51">
       <c r="A71" s="1" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="B71" s="1">
         <v>2017</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>217</v>
+        <v>84</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="E71" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F71" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>345</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="51">
       <c r="A72" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B72" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E72" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F72" s="1">
         <v>2</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="51">
       <c r="A73" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B73" s="1">
         <v>2016</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>61</v>
@@ -3501,61 +3499,87 @@
         <v>2</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="68">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="51">
       <c r="A74" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B74" s="1">
         <v>2016</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="E74" s="1">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="F74" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="68">
       <c r="A75" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B75" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" s="1">
+        <v>37</v>
+      </c>
+      <c r="F75" s="1">
+        <v>6</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="68">
+      <c r="A76" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B76" s="1">
         <v>2015</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E76" s="1">
         <v>115</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F76" s="1">
         <v>5</v>
       </c>
-      <c r="G75" s="4" t="s">
+      <c r="G76" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="H76" s="1" t="s">
         <v>349</v>
       </c>
     </row>
@@ -3568,7 +3592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3DB5C68-0218-0246-B22C-8D069C454BCB}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tysonbarrett/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CB3F48-16DB-6744-B053-1F2667756D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1586C5F-B75D-CB40-B8AD-4E336D69A74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4260" yWindow="740" windowWidth="24540" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Presentations" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$22</definedName>
+    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$23</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="408">
   <si>
     <t>authors</t>
   </si>
@@ -860,9 +860,6 @@
     <t>Tannahill, H. S., Barrett, T. S., Zalta, A. K., Tehee, M., &amp; Blais, R. K.</t>
   </si>
   <si>
-    <t>A moderated mediation model of gender, posttraumatic cognitions, and posttraumatic stress disorder symptoms after military sexual assault revictimization.</t>
-  </si>
-  <si>
     <t>Lansford, K., Barrett, T. S., &amp; Borrie, S. A.</t>
   </si>
   <si>
@@ -950,9 +947,6 @@
     <t>Vázquez, A. L., Domenech Rodríguez, M. M., Navarro Flores, C. M.,  Abreu, R. L., &amp; Barrett, T. S.</t>
   </si>
   <si>
-    <t>Journal of Latinx Psychology.</t>
-  </si>
-  <si>
     <t>410-417</t>
   </si>
   <si>
@@ -1217,9 +1211,6 @@
     <t>doi: 10.1044/2023_JSLHR-23-00115</t>
   </si>
   <si>
-    <t>1-12</t>
-  </si>
-  <si>
     <t>Pilot Testing an Asynchronous Online Harm Reduction and Pharmacotherapy Stigma Reduction Training for Substance Use Treatment Professionals</t>
   </si>
   <si>
@@ -1227,6 +1218,51 @@
   </si>
   <si>
     <t>Journal of Drug Issues</t>
+  </si>
+  <si>
+    <t>Ophthalmology</t>
+  </si>
+  <si>
+    <t>Prevalence and Cost of Routine Preoperative Care for Low-Risk Cataract Surgery a Decade After Choosing Wisely</t>
+  </si>
+  <si>
+    <t>Rung, J. M., Aliu, O., Barrett, T. S., LeJeune, K., &amp; Farah, T. G.</t>
+  </si>
+  <si>
+    <t>306-323</t>
+  </si>
+  <si>
+    <t>Journal of Latinx Psychology</t>
+  </si>
+  <si>
+    <t>3791-3803</t>
+  </si>
+  <si>
+    <t>doi: 10.1044/2023_JSLHR-23-00231</t>
+  </si>
+  <si>
+    <t>4025-4036</t>
+  </si>
+  <si>
+    <t>Posttraumatic cognitions differ between men and women after military sexual assault revictimization in their contribution to PTSD symptoms.</t>
+  </si>
+  <si>
+    <t>7-8</t>
+  </si>
+  <si>
+    <t>6038-6061</t>
+  </si>
+  <si>
+    <t>doi: 10.1177/08862605221127211</t>
+  </si>
+  <si>
+    <t>1219-1228</t>
+  </si>
+  <si>
+    <t>doi: 10.35248/2165-7556-22.12.303</t>
+  </si>
+  <si>
+    <t>1-8</t>
   </si>
 </sst>
 </file>
@@ -1669,10 +1705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BAB23D-B27F-A34D-A522-4C115B575C05}">
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1720,81 +1756,90 @@
     </row>
     <row r="2" spans="1:9" ht="51">
       <c r="A2" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="51">
       <c r="A3" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="51">
+      <c r="A4" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="34">
-      <c r="A4" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="51">
       <c r="A5" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="68">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="51">
       <c r="A6" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>297</v>
+        <v>268</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2023</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>300</v>
+        <v>270</v>
+      </c>
+      <c r="E6" s="1">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>407</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="I6" s="9"/>
+        <v>406</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="51">
       <c r="A7" s="1" t="s">
@@ -1809,775 +1854,809 @@
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E7" s="1">
+        <v>66</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10</v>
+      </c>
       <c r="G7" s="4" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="68">
       <c r="A8" s="1" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="B8" s="1">
         <v>2023</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>264</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="E8" s="1">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="51">
       <c r="A9" s="1" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="B9" s="1">
         <v>2023</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>270</v>
+        <v>11</v>
+      </c>
+      <c r="E9" s="1">
+        <v>66</v>
+      </c>
+      <c r="F9" s="1">
+        <v>10</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="51">
       <c r="A10" s="1" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="B10" s="1">
         <v>2023</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>292</v>
+        <v>401</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>264</v>
       </c>
       <c r="E10" s="1">
-        <v>66</v>
-      </c>
-      <c r="F10" s="1">
-        <v>5</v>
+        <v>38</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>402</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>318</v>
+        <v>403</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>320</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="51">
       <c r="A11" s="1" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="B11" s="1">
         <v>2023</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>312</v>
+        <v>11</v>
       </c>
       <c r="E11" s="1">
-        <v>32</v>
+        <v>66</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>317</v>
       </c>
+      <c r="I11" s="1" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="51">
-      <c r="A12" s="5" t="s">
-        <v>287</v>
+      <c r="A12" s="1" t="s">
+        <v>307</v>
       </c>
       <c r="B12" s="1">
         <v>2023</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>310</v>
+      </c>
+      <c r="E12" s="1">
+        <v>32</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="51">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="5" t="s">
         <v>286</v>
       </c>
       <c r="B13" s="1">
         <v>2023</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="51">
+      <c r="A14" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="E13" s="1">
-        <v>13</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="68">
-      <c r="A14" s="5" t="s">
-        <v>247</v>
       </c>
       <c r="B14" s="1">
         <v>2023</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>94</v>
+        <v>284</v>
       </c>
       <c r="E14" s="1">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="F14" s="1">
-        <v>5</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>304</v>
+        <v>2</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>251</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="68">
-      <c r="A15" s="1" t="s">
-        <v>293</v>
+      <c r="A15" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="B15" s="1">
         <v>2023</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="1">
+        <v>62</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="68">
+      <c r="A16" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E16" s="1">
+        <v>38</v>
+      </c>
+      <c r="F16" s="8">
+        <v>44989</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E15" s="1">
-        <v>38</v>
-      </c>
-      <c r="F15" s="8">
-        <v>44989</v>
-      </c>
-      <c r="G15" s="4" t="s">
+      <c r="H16" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="51">
-      <c r="A16" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="1">
-        <v>66</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="68">
+    </row>
+    <row r="17" spans="1:9" ht="51">
       <c r="A17" s="1" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B17" s="1">
         <v>2022</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>85</v>
+        <v>11</v>
+      </c>
+      <c r="E17" s="1">
+        <v>66</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>311</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="1:9" ht="51">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="68">
       <c r="A18" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B18" s="1">
         <v>2022</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E18" s="1">
-        <v>26</v>
+        <v>66</v>
+      </c>
+      <c r="F18" s="1">
+        <v>9</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>278</v>
+        <v>405</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>281</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="51">
       <c r="A19" s="1" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="B19" s="1">
         <v>2022</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E19" s="1">
+        <v>26</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E19" s="1">
-        <v>12</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>339</v>
-      </c>
     </row>
     <row r="20" spans="1:9" ht="51">
-      <c r="A20" s="5" t="s">
-        <v>249</v>
+      <c r="A20" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="B20" s="1">
         <v>2022</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>11</v>
+        <v>262</v>
       </c>
       <c r="E20" s="1">
-        <v>65</v>
-      </c>
-      <c r="F20" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="68">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="51">
       <c r="A21" s="5" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="B21" s="1">
         <v>2022</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>227</v>
+        <v>11</v>
       </c>
       <c r="E21" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="F21" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" ht="51">
-      <c r="A22" s="6" t="s">
-        <v>241</v>
+        <v>321</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="68">
+      <c r="A22" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="B22" s="1">
         <v>2022</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="E22" s="1">
-        <v>82</v>
+        <v>31</v>
+      </c>
+      <c r="F22" s="1">
+        <v>4</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>336</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9" ht="51">
-      <c r="A23" s="1" t="s">
-        <v>265</v>
+      <c r="A23" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="B23" s="1">
         <v>2022</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>145</v>
+        <v>244</v>
       </c>
       <c r="E23" s="1">
-        <v>31</v>
-      </c>
-      <c r="F23" s="1">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="G23" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>271</v>
-      </c>
     </row>
     <row r="24" spans="1:9" ht="51">
-      <c r="A24" s="5" t="s">
-        <v>239</v>
+      <c r="A24" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="B24" s="1">
         <v>2022</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="E24" s="1">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F24" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="51">
       <c r="A25" s="5" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B25" s="1">
         <v>2022</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>233</v>
+        <v>34</v>
       </c>
       <c r="E25" s="1">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F25" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="51">
       <c r="A26" s="5" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B26" s="1">
         <v>2022</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E26" s="1">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F26" s="1">
         <v>6</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="51">
-      <c r="A27" s="1" t="s">
-        <v>153</v>
+      <c r="A27" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="B27" s="1">
         <v>2022</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>148</v>
+        <v>231</v>
       </c>
       <c r="E27" s="1">
-        <v>51</v>
+        <v>27</v>
+      </c>
+      <c r="F27" s="1">
+        <v>6</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="68">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="51">
       <c r="A28" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B28" s="1">
         <v>2022</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>146</v>
+        <v>225</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E28" s="1">
-        <v>31</v>
-      </c>
-      <c r="F28" s="1">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="51">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="68">
       <c r="A29" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B29" s="1">
         <v>2022</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="E29" s="1">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="F29" s="1">
         <v>2</v>
       </c>
       <c r="G29" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="51">
+      <c r="A30" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="1">
+        <v>65</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="68">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:9" ht="68">
+      <c r="A31" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="B30" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E30" s="1">
-        <v>131</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="51">
-      <c r="A31" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="B31" s="1">
         <v>2021</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E31" s="1">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>328</v>
+        <v>224</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="68">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="51">
       <c r="A32" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B32" s="1">
         <v>2021</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E32">
-        <v>16</v>
-      </c>
-      <c r="F32" s="1">
-        <v>10</v>
+        <v>139</v>
+      </c>
+      <c r="E32" s="1">
+        <v>21</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>150</v>
+        <v>326</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="51">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="68">
       <c r="A33" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B33" s="1">
         <v>2021</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="1">
-        <v>38</v>
+        <v>143</v>
+      </c>
+      <c r="E33">
+        <v>16</v>
+      </c>
+      <c r="F33" s="1">
+        <v>10</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I33" s="10"/>
-    </row>
-    <row r="34" spans="1:9" ht="68">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="51">
       <c r="A34" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B34" s="1">
         <v>2021</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>199</v>
+        <v>5</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="E34" s="1">
-        <v>29</v>
-      </c>
-      <c r="F34" s="1">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>326</v>
+        <v>115</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="51">
+        <v>114</v>
+      </c>
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="1:9" ht="68">
       <c r="A35" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B35" s="1">
         <v>2021</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>7</v>
+        <v>199</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="E35" s="1">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F35" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>112</v>
+        <v>324</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>95</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="51">
       <c r="A36" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B36" s="1">
         <v>2021</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E36" s="1">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F36" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="51">
       <c r="A37" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B37" s="1">
         <v>2021</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>200</v>
+        <v>9</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E37" s="1">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F37" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>258</v>
+        <v>140</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="51">
       <c r="A38" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B38" s="1">
         <v>2021</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>11</v>
@@ -2589,931 +2668,934 @@
         <v>5</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="68">
+        <v>259</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="51">
       <c r="A39" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B39" s="1">
         <v>2021</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="E39" s="1">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="F39" s="1">
+        <v>5</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="51">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="68">
       <c r="A40" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B40" s="1">
         <v>2021</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="E40" s="1">
-        <v>64</v>
-      </c>
-      <c r="F40" s="1">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="68">
+        <v>116</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="51">
       <c r="A41" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B41" s="1">
         <v>2021</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="1">
+        <v>64</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="68">
+      <c r="A42" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E42" s="1">
         <v>23</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F42" s="1">
         <v>5</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G42" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="51">
-      <c r="A42" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B42" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="1">
-        <v>42</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="51">
       <c r="A43" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B43" s="1">
         <v>2020</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E43" s="1">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="51">
       <c r="A44" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B44" s="1">
         <v>2020</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E44" s="1">
-        <v>63</v>
-      </c>
-      <c r="F44" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="51">
       <c r="A45" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B45" s="1">
         <v>2020</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>204</v>
+        <v>25</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E45" s="1">
-        <v>40</v>
+        <v>63</v>
+      </c>
+      <c r="F45" s="1">
+        <v>6</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="51">
       <c r="A46" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B46" s="1">
         <v>2020</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E46" s="1">
-        <v>51</v>
-      </c>
-      <c r="F46" s="1">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="51">
       <c r="A47" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B47" s="1">
         <v>2020</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E47" s="1">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F47" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="51">
       <c r="A48" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B48" s="1">
         <v>2020</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>206</v>
+        <v>31</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E48" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F48" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="51">
       <c r="A49" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B49" s="1">
         <v>2020</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E49" s="1">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F49" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="68">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="51">
       <c r="A50" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B50" s="1">
         <v>2020</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E50" s="1">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="F50" s="1">
         <v>2</v>
       </c>
       <c r="G50" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="68">
+      <c r="A51" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="1">
+        <v>113</v>
+      </c>
+      <c r="F51" s="1">
+        <v>2</v>
+      </c>
+      <c r="G51" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="51">
-      <c r="A51" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B51" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E51" s="1">
-        <v>61</v>
-      </c>
-      <c r="F51" s="1">
-        <v>3</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="51">
       <c r="A52" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B52" s="1">
         <v>2019</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E52" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F52" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="51">
       <c r="A53" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B53" s="1">
         <v>2019</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="E53" s="1">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F53" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="51">
       <c r="A54" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B54" s="1">
         <v>2019</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E54" s="1">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="F54" s="1">
+        <v>10</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="51">
       <c r="A55" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B55" s="1">
         <v>2019</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E55" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="51">
       <c r="A56" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B56" s="1">
         <v>2019</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>209</v>
+        <v>47</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E56" s="1">
-        <v>20</v>
-      </c>
-      <c r="F56" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="51">
       <c r="A57" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B57" s="1">
         <v>2019</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E57" s="1">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F57" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>210</v>
+        <v>51</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="51">
       <c r="A58" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B58" s="1">
         <v>2019</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>53</v>
+        <v>260</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E58" s="1">
-        <v>145</v>
+        <v>33</v>
       </c>
       <c r="F58" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="51">
       <c r="A59" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B59" s="1">
         <v>2019</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E59" s="1">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="F59" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="68">
+        <v>55</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="51">
       <c r="A60" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B60" s="1">
         <v>2019</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="E60" s="1">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F60" s="1">
         <v>2</v>
       </c>
       <c r="G60" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="68">
+      <c r="A61" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="1">
+        <v>62</v>
+      </c>
+      <c r="F61" s="1">
+        <v>2</v>
+      </c>
+      <c r="G61" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="I60" s="1" t="s">
+      <c r="H61" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="I61" s="1" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="51">
-      <c r="A61" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B61" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E61" s="1">
-        <v>3</v>
-      </c>
-      <c r="F61" s="1">
-        <v>1</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="51">
       <c r="A62" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B62" s="1">
         <v>2018</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>63</v>
+        <v>211</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E62" s="1">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="F62" s="1">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>134</v>
+        <v>342</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="51">
       <c r="A63" s="1" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="B63" s="1">
         <v>2018</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E63" s="1">
         <v>143</v>
       </c>
       <c r="F63" s="1">
+        <v>3</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="51">
+      <c r="A64" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E64" s="1">
+        <v>143</v>
+      </c>
+      <c r="F64" s="1">
         <v>5</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="H64" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="68">
-      <c r="A64" s="1" t="s">
+    <row r="65" spans="1:9" ht="68">
+      <c r="A65" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B64" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E64" s="1">
-        <v>9</v>
-      </c>
-      <c r="F64" s="1">
-        <v>2</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="51">
-      <c r="A65" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="B65" s="1">
         <v>2017</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="E65" s="1">
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="F65" s="1">
+        <v>2</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>136</v>
+        <v>68</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="51">
       <c r="A66" s="1" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="B66" s="1">
         <v>2017</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="E66" s="1">
-        <v>140</v>
-      </c>
-      <c r="F66" s="1">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="51">
       <c r="A67" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B67" s="1">
         <v>2017</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E67" s="1">
-        <v>10</v>
+        <v>140</v>
+      </c>
+      <c r="F67" s="1">
+        <v>6</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="68">
+        <v>137</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="51">
       <c r="A68" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B68" s="1">
         <v>2017</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E68" s="1">
-        <v>111</v>
-      </c>
-      <c r="F68" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="68">
       <c r="A69" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B69" s="1">
         <v>2017</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="E69" s="1">
-        <v>55</v>
+        <v>111</v>
+      </c>
+      <c r="F69" s="1">
+        <v>5</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="51">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="68">
       <c r="A70" s="1" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B70" s="1">
         <v>2017</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E70" s="1">
-        <v>36</v>
-      </c>
-      <c r="F70" s="1">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="51">
       <c r="A71" s="1" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="B71" s="1">
         <v>2017</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E71" s="1">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F71" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="51">
       <c r="A72" s="1" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="B72" s="1">
         <v>2017</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>217</v>
+        <v>84</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="E72" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F72" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>345</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="51">
       <c r="A73" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B73" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E73" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F73" s="1">
         <v>2</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="51">
       <c r="A74" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B74" s="1">
         <v>2016</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>61</v>
@@ -3525,62 +3607,88 @@
         <v>2</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="68">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="51">
       <c r="A75" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B75" s="1">
         <v>2016</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="E75" s="1">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="F75" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="68">
       <c r="A76" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B76" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" s="1">
+        <v>37</v>
+      </c>
+      <c r="F76" s="1">
+        <v>6</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="68">
+      <c r="A77" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B77" s="1">
         <v>2015</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E77" s="1">
         <v>115</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F77" s="1">
         <v>5</v>
       </c>
-      <c r="G76" s="4" t="s">
+      <c r="G77" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H76" s="1" t="s">
-        <v>349</v>
+      <c r="H77" s="1" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -3609,7 +3717,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17">
       <c r="A1" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3621,36 +3729,36 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="34">
       <c r="A2" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C2" s="1">
         <v>2023</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E2" s="12">
         <v>45108</v>
@@ -3659,13 +3767,13 @@
         <v>46934</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="J2" s="11">
         <v>2329452</v>
@@ -3673,16 +3781,16 @@
     </row>
     <row r="3" spans="1:10" ht="34">
       <c r="A3" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C3" s="1">
         <v>2023</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E3" s="12">
         <v>45108</v>
@@ -3691,10 +3799,10 @@
         <v>45657</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J3" s="11">
         <v>150000</v>
@@ -3702,16 +3810,16 @@
     </row>
     <row r="4" spans="1:10" ht="51">
       <c r="A4" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C4" s="1">
         <v>2020</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E4" s="12">
         <v>44075</v>
@@ -3720,13 +3828,13 @@
         <v>45534</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J4" s="11">
         <v>2296000</v>
@@ -3734,16 +3842,16 @@
     </row>
     <row r="5" spans="1:10" ht="85">
       <c r="A5" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C5" s="1">
         <v>2020</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E5" s="12">
         <v>44013</v>
@@ -3752,13 +3860,13 @@
         <v>45473</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J5" s="11">
         <v>499927</v>
@@ -3766,16 +3874,16 @@
     </row>
     <row r="6" spans="1:10" ht="68">
       <c r="A6" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C6" s="1">
         <v>2020</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E6" s="12">
         <v>44075</v>
@@ -3784,13 +3892,13 @@
         <v>45169</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J6" s="11">
         <v>1099997</v>
@@ -3798,16 +3906,16 @@
     </row>
     <row r="7" spans="1:10" ht="34">
       <c r="A7" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C7" s="1">
         <v>2020</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E7" s="12">
         <v>43922</v>
@@ -3816,13 +3924,13 @@
         <v>45016</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J7" s="11">
         <v>430000</v>
@@ -3830,16 +3938,16 @@
     </row>
     <row r="8" spans="1:10" ht="34">
       <c r="A8" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="C8" s="1">
         <v>2020</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E8" s="12">
         <v>44013</v>
@@ -3848,13 +3956,13 @@
         <v>44742</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J8" s="11">
         <v>420000</v>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tysonbarrett/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1586C5F-B75D-CB40-B8AD-4E336D69A74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9003723-F6AF-6F42-B394-BCCDFE1A6245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4260" yWindow="740" windowWidth="24540" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Presentations" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$23</definedName>
+    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$25</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="417">
   <si>
     <t>authors</t>
   </si>
@@ -950,15 +950,9 @@
     <t>410-417</t>
   </si>
   <si>
-    <t>The influence of sensorineural hearing loss on the relationship between the perception of speech in noise and dysarthric speech</t>
-  </si>
-  <si>
     <t>Yoho, S. E., Barrett, T. S., &amp; Borrie, S. A.</t>
   </si>
   <si>
-    <t>Perceptual learning of dysarthria in adolescence</t>
-  </si>
-  <si>
     <t>Borrie, S. A., Hepworth, T. J., Wynn, C. J., Hustad, K. C.,  Barrett, T. S., &amp; Lansford, K. L.</t>
   </si>
   <si>
@@ -1211,9 +1205,6 @@
     <t>doi: 10.1044/2023_JSLHR-23-00115</t>
   </si>
   <si>
-    <t>Pilot Testing an Asynchronous Online Harm Reduction and Pharmacotherapy Stigma Reduction Training for Substance Use Treatment Professionals</t>
-  </si>
-  <si>
     <t>Sulzer, S. H., Prevedel, S., Barrett, T. S., Mekjian, M., Vincent, M.,  Frabis, F., Meier, C., Shiverdecker, C. W., Voss, M. W., Cook, P. J., &amp; Madden, E. F.</t>
   </si>
   <si>
@@ -1223,9 +1214,6 @@
     <t>Ophthalmology</t>
   </si>
   <si>
-    <t>Prevalence and Cost of Routine Preoperative Care for Low-Risk Cataract Surgery a Decade After Choosing Wisely</t>
-  </si>
-  <si>
     <t>Rung, J. M., Aliu, O., Barrett, T. S., LeJeune, K., &amp; Farah, T. G.</t>
   </si>
   <si>
@@ -1263,6 +1251,45 @@
   </si>
   <si>
     <t>1-8</t>
+  </si>
+  <si>
+    <t>Aller, T. B., Kelley, H. H., Barrett, T. S., Covington, B., Levin, M. E., &amp; McClain, M. B.</t>
+  </si>
+  <si>
+    <t>Autism in Adulthood</t>
+  </si>
+  <si>
+    <t>\img{osfdata.png}{https://osf.io/8tc4}</t>
+  </si>
+  <si>
+    <t>doi: 10.1016/j.spinee.2023.06.092</t>
+  </si>
+  <si>
+    <t>Spine Journal</t>
+  </si>
+  <si>
+    <t>Kramer, D. E., Barrett, T. S., Drury, C., Lejeune, K., Cheng, B., Prostko, E., &amp; Massie, L.</t>
+  </si>
+  <si>
+    <t>doi: 10.1016/j.ophtha.2023.12.001</t>
+  </si>
+  <si>
+    <t>Pilot Testing an Asynchronous Online Harm Reduction and Pharmacotherapy Stigma Reduction Training for Substance Use Treatment Professionals.</t>
+  </si>
+  <si>
+    <t>An examination of psychological flexibility as a mediator between mental health concerns and satisfaction with life among autistic adults.</t>
+  </si>
+  <si>
+    <t>Prevalence and Cost of Routine Preoperative Care for Low-Risk Cataract Surgery a Decade After Choosing Wisely.</t>
+  </si>
+  <si>
+    <t>Perceptual learning of dysarthria in adolescence.</t>
+  </si>
+  <si>
+    <t>The cost and likelihood of requiring additional surgery within two years after index microdiscectomy.</t>
+  </si>
+  <si>
+    <t>The influence of sensorineural hearing loss on the relationship between the perception of speech in noise and dysarthric speech.</t>
   </si>
 </sst>
 </file>
@@ -1705,10 +1732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BAB23D-B27F-A34D-A522-4C115B575C05}">
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1756,143 +1783,135 @@
     </row>
     <row r="2" spans="1:9" ht="51">
       <c r="A2" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="51">
       <c r="A3" s="1" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>390</v>
+        <v>412</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="51">
+      <c r="I3" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="68">
       <c r="A4" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>388</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" ht="51">
       <c r="A5" s="1" t="s">
-        <v>301</v>
+        <v>383</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>319</v>
+        <v>384</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>397</v>
+        <v>385</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="51">
       <c r="A6" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2023</v>
+        <v>301</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>269</v>
+        <v>317</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E6" s="1">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="51">
       <c r="A7" s="1" t="s">
-        <v>306</v>
+        <v>409</v>
       </c>
       <c r="B7" s="1">
         <v>2023</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>305</v>
+        <v>415</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>408</v>
       </c>
       <c r="E7" s="1">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1">
-        <v>10</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>398</v>
+        <v>9</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="68">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="51">
       <c r="A8" s="1" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="B8" s="1">
         <v>2023</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="E8" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="I8" s="9"/>
+        <v>402</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="51">
       <c r="A9" s="1" t="s">
@@ -1902,7 +1921,7 @@
         <v>2023</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>303</v>
+        <v>414</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
@@ -1914,47 +1933,48 @@
         <v>10</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="51">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="68">
       <c r="A10" s="1" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="B10" s="1">
         <v>2023</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>401</v>
+        <v>298</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="E10" s="1">
-        <v>38</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>402</v>
+        <v>17</v>
+      </c>
+      <c r="F10" s="1">
+        <v>4</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>404</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" ht="51">
       <c r="A11" s="1" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="B11" s="1">
         <v>2023</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>291</v>
+        <v>416</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
@@ -1963,781 +1983,781 @@
         <v>66</v>
       </c>
       <c r="F11" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>316</v>
+        <v>396</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>318</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="51">
       <c r="A12" s="1" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="B12" s="1">
         <v>2023</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>308</v>
+        <v>397</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="E12" s="1">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>398</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>309</v>
+        <v>399</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>315</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="51">
-      <c r="A13" s="5" t="s">
-        <v>286</v>
+      <c r="A13" s="1" t="s">
+        <v>290</v>
       </c>
       <c r="B13" s="1">
         <v>2023</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E13" s="1">
+        <v>66</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>314</v>
+      </c>
       <c r="H13" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="51">
       <c r="A14" s="1" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="B14" s="1">
         <v>2023</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="E14" s="1">
-        <v>13</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>312</v>
+        <v>32</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="68">
+    <row r="15" spans="1:9" ht="51">
       <c r="A15" s="5" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="B15" s="1">
         <v>2023</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="1">
-        <v>62</v>
-      </c>
-      <c r="F15" s="1">
-        <v>5</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>302</v>
+        <v>11</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="68">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="51">
       <c r="A16" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B16" s="1">
         <v>2023</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="E16" s="1">
-        <v>38</v>
-      </c>
-      <c r="F16" s="8">
-        <v>44989</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>294</v>
+        <v>13</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>310</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="51">
-      <c r="A17" s="1" t="s">
-        <v>273</v>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="68">
+      <c r="A17" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="B17" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="E17" s="1">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>311</v>
+        <v>5</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>302</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>338</v>
+        <v>250</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="68">
       <c r="A18" s="1" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="B18" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="E18" s="1">
-        <v>66</v>
-      </c>
-      <c r="F18" s="1">
-        <v>9</v>
+        <v>38</v>
+      </c>
+      <c r="F18" s="8">
+        <v>44989</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>405</v>
+        <v>294</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="I18" s="10"/>
+        <v>295</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="51">
       <c r="A19" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B19" s="1">
         <v>2022</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="E19" s="1">
-        <v>26</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>277</v>
+        <v>66</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>309</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="51">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="68">
       <c r="A20" s="1" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="B20" s="1">
         <v>2022</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="E20" s="1">
-        <v>12</v>
+        <v>66</v>
+      </c>
+      <c r="F20" s="1">
+        <v>9</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>335</v>
+        <v>401</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="I20" s="1" t="s">
         <v>337</v>
       </c>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" ht="51">
-      <c r="A21" s="5" t="s">
-        <v>249</v>
+      <c r="A21" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="B21" s="1">
         <v>2022</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>11</v>
+        <v>276</v>
       </c>
       <c r="E21" s="1">
-        <v>65</v>
-      </c>
-      <c r="F21" s="1">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="68">
-      <c r="A22" s="5" t="s">
-        <v>228</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="51">
+      <c r="A22" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="B22" s="1">
         <v>2022</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="E22" s="1">
-        <v>31</v>
-      </c>
-      <c r="F22" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="I22" s="7"/>
+        <v>334</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="51">
-      <c r="A23" s="6" t="s">
-        <v>241</v>
+      <c r="A23" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="B23" s="1">
         <v>2022</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>244</v>
+        <v>11</v>
       </c>
       <c r="E23" s="1">
-        <v>82</v>
+        <v>65</v>
+      </c>
+      <c r="F23" s="1">
+        <v>6</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="51">
-      <c r="A24" s="1" t="s">
-        <v>265</v>
+        <v>319</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="68">
+      <c r="A24" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="B24" s="1">
         <v>2022</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="E24" s="1">
         <v>31</v>
       </c>
       <c r="F24" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>271</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="I24" s="7"/>
     </row>
     <row r="25" spans="1:9" ht="51">
-      <c r="A25" s="5" t="s">
-        <v>239</v>
+      <c r="A25" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="B25" s="1">
         <v>2022</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>34</v>
+        <v>244</v>
       </c>
       <c r="E25" s="1">
-        <v>23</v>
-      </c>
-      <c r="F25" s="1">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>331</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>240</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="51">
-      <c r="A26" s="5" t="s">
-        <v>234</v>
+      <c r="A26" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="B26" s="1">
         <v>2022</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>233</v>
+        <v>145</v>
       </c>
       <c r="E26" s="1">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F26" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>330</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="51">
       <c r="A27" s="5" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="B27" s="1">
         <v>2022</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>231</v>
+        <v>34</v>
       </c>
       <c r="E27" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F27" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>329</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>245</v>
+        <v>252</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="51">
-      <c r="A28" s="1" t="s">
-        <v>153</v>
+      <c r="A28" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="B28" s="1">
         <v>2022</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>148</v>
+        <v>233</v>
       </c>
       <c r="E28" s="1">
-        <v>51</v>
+        <v>37</v>
+      </c>
+      <c r="F28" s="1">
+        <v>6</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>328</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="68">
-      <c r="A29" s="1" t="s">
-        <v>155</v>
+        <v>246</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="51">
+      <c r="A29" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="B29" s="1">
         <v>2022</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>146</v>
+        <v>230</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>145</v>
+        <v>231</v>
       </c>
       <c r="E29" s="1">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F29" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>327</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="51">
       <c r="A30" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B30" s="1">
         <v>2022</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>147</v>
+        <v>225</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="E30" s="1">
-        <v>65</v>
-      </c>
-      <c r="F30" s="1">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>261</v>
+        <v>326</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>235</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="68">
       <c r="A31" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B31" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E31" s="1">
-        <v>131</v>
+        <v>31</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>224</v>
+        <v>325</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>151</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="51">
       <c r="A32" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B32" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="E32" s="1">
-        <v>21</v>
+        <v>65</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>326</v>
+        <v>261</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>223</v>
+        <v>236</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="68">
       <c r="A33" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B33" s="1">
         <v>2021</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E33">
-        <v>16</v>
-      </c>
-      <c r="F33" s="1">
-        <v>10</v>
+        <v>142</v>
+      </c>
+      <c r="E33" s="1">
+        <v>131</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>150</v>
+        <v>224</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="51">
       <c r="A34" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B34" s="1">
         <v>2021</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>5</v>
+        <v>198</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="E34" s="1">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>115</v>
+        <v>324</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I34" s="10"/>
+        <v>223</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="68">
       <c r="A35" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B35" s="1">
         <v>2021</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E35" s="1">
-        <v>29</v>
+        <v>143</v>
+      </c>
+      <c r="E35">
+        <v>16</v>
       </c>
       <c r="F35" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>324</v>
+        <v>150</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>325</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="51">
       <c r="A36" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B36" s="1">
         <v>2021</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E36" s="1">
-        <v>68</v>
-      </c>
-      <c r="F36" s="1">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="51">
+        <v>114</v>
+      </c>
+      <c r="I36" s="10"/>
+    </row>
+    <row r="37" spans="1:9" ht="68">
       <c r="A37" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B37" s="1">
         <v>2021</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>9</v>
+        <v>199</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E37" s="1">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="F37" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>140</v>
+        <v>322</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="51">
       <c r="A38" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B38" s="1">
         <v>2021</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E38" s="1">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F38" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>258</v>
+        <v>112</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>259</v>
+        <v>113</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="51">
       <c r="A39" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B39" s="1">
         <v>2021</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E39" s="1">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F39" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>256</v>
+        <v>140</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="68">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="51">
       <c r="A40" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B40" s="1">
         <v>2021</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="E40" s="1">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="F40" s="1">
+        <v>5</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>116</v>
+        <v>259</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="51">
       <c r="A41" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B41" s="1">
         <v>2021</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>11</v>
@@ -2746,206 +2766,203 @@
         <v>64</v>
       </c>
       <c r="F41" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>117</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="68">
       <c r="A42" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B42" s="1">
         <v>2021</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="E42" s="1">
-        <v>23</v>
-      </c>
-      <c r="F42" s="1">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="51">
       <c r="A43" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B43" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E43" s="1">
-        <v>42</v>
+        <v>64</v>
+      </c>
+      <c r="F43" s="1">
+        <v>2</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="51">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="68">
       <c r="A44" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B44" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="1">
         <v>23</v>
       </c>
-      <c r="E44" s="1">
-        <v>18</v>
+      <c r="F44" s="1">
+        <v>5</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>24</v>
+        <v>254</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>119</v>
+        <v>16</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="51">
       <c r="A45" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B45" s="1">
         <v>2020</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E45" s="1">
-        <v>63</v>
-      </c>
-      <c r="F45" s="1">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="51">
       <c r="A46" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B46" s="1">
         <v>2020</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>204</v>
+        <v>22</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E46" s="1">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="51">
       <c r="A47" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B47" s="1">
         <v>2020</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>205</v>
+        <v>25</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E47" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F47" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="51">
       <c r="A48" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B48" s="1">
         <v>2020</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E48" s="1">
-        <v>63</v>
-      </c>
-      <c r="F48" s="1">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="51">
       <c r="A49" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B49" s="1">
         <v>2020</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>29</v>
@@ -2957,432 +2974,438 @@
         <v>3</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="51">
       <c r="A50" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B50" s="1">
         <v>2020</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>207</v>
+        <v>31</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E50" s="1">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="F50" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="68">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="51">
       <c r="A51" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B51" s="1">
         <v>2020</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E51" s="1">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="F51" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="51">
       <c r="A52" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B52" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E52" s="1">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="F52" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="51">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="68">
       <c r="A53" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B53" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E53" s="1">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="F53" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="51">
       <c r="A54" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B54" s="1">
         <v>2019</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E54" s="1">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F54" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="51">
       <c r="A55" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B55" s="1">
         <v>2019</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E55" s="1">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="F55" s="1">
+        <v>12</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="51">
       <c r="A56" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B56" s="1">
         <v>2019</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E56" s="1">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="F56" s="1">
+        <v>10</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="51">
       <c r="A57" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B57" s="1">
         <v>2019</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>209</v>
+        <v>46</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E57" s="1">
-        <v>20</v>
-      </c>
-      <c r="F57" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="51">
       <c r="A58" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B58" s="1">
         <v>2019</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>260</v>
+        <v>47</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E58" s="1">
-        <v>33</v>
-      </c>
-      <c r="F58" s="1">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="51">
       <c r="A59" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B59" s="1">
         <v>2019</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>53</v>
+        <v>209</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E59" s="1">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="F59" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="51">
       <c r="A60" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B60" s="1">
         <v>2019</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>58</v>
+        <v>260</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E60" s="1">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="F60" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>57</v>
+        <v>210</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="68">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="51">
       <c r="A61" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B61" s="1">
         <v>2019</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E61" s="1">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="F61" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>341</v>
+        <v>55</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="51">
       <c r="A62" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B62" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>211</v>
+        <v>58</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E62" s="1">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="F62" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G62" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="68">
+      <c r="A63" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="1">
         <v>62</v>
       </c>
-      <c r="H62" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="51">
-      <c r="A63" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B63" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E63" s="1">
-        <v>143</v>
-      </c>
       <c r="F63" s="1">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>134</v>
+        <v>339</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="51">
       <c r="A64" s="1" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="B64" s="1">
         <v>2018</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>65</v>
+        <v>211</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E64" s="1">
+        <v>3</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="51">
+      <c r="A65" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B65" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E65" s="1">
         <v>143</v>
       </c>
-      <c r="F64" s="1">
-        <v>5</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="68">
-      <c r="A65" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B65" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E65" s="1">
-        <v>9</v>
-      </c>
       <c r="F65" s="1">
-        <v>2</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>106</v>
+        <v>3</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="51">
@@ -3390,305 +3413,354 @@
         <v>163</v>
       </c>
       <c r="B66" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>213</v>
+        <v>65</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="E66" s="1">
-        <v>60</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>69</v>
+        <v>143</v>
+      </c>
+      <c r="F66" s="1">
+        <v>5</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="51">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="68">
       <c r="A67" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B67" s="1">
         <v>2017</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E67" s="1">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="F67" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="51">
       <c r="A68" s="1" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="B68" s="1">
         <v>2017</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="E68" s="1">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="68">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="51">
       <c r="A69" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B69" s="1">
         <v>2017</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>74</v>
+        <v>214</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="E69" s="1">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="F69" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="68">
+        <v>137</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="51">
       <c r="A70" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B70" s="1">
         <v>2017</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E70" s="1">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="51">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="68">
       <c r="A71" s="1" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="B71" s="1">
         <v>2017</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="E71" s="1">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="F71" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="51">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="68">
       <c r="A72" s="1" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="B72" s="1">
         <v>2017</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>84</v>
+        <v>216</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="E72" s="1">
-        <v>60</v>
-      </c>
-      <c r="F72" s="1">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="51">
       <c r="A73" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B73" s="1">
         <v>2017</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E73" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F73" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>343</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="51">
       <c r="A74" s="1" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="B74" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>218</v>
+        <v>84</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="E74" s="1">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F74" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>344</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="51">
       <c r="A75" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B75" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E75" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F75" s="1">
         <v>2</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="68">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="51">
       <c r="A76" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B76" s="1">
         <v>2016</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1">
+        <v>2</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="51">
+      <c r="A77" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B77" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1">
+        <v>2</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="68">
+      <c r="A78" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B78" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E78" s="1">
         <v>37</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F78" s="1">
         <v>6</v>
       </c>
-      <c r="G76" s="4" t="s">
+      <c r="G78" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H76" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="68">
-      <c r="A77" s="1" t="s">
+      <c r="H78" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="68">
+      <c r="A79" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B79" s="1">
         <v>2015</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E79" s="1">
         <v>115</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F79" s="1">
         <v>5</v>
       </c>
-      <c r="G77" s="4" t="s">
+      <c r="G79" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H77" s="1" t="s">
-        <v>347</v>
+      <c r="H79" s="1" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -3717,7 +3789,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17">
       <c r="A1" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3729,36 +3801,36 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="34">
       <c r="A2" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C2" s="1">
         <v>2023</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E2" s="12">
         <v>45108</v>
@@ -3767,13 +3839,13 @@
         <v>46934</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="J2" s="11">
         <v>2329452</v>
@@ -3781,16 +3853,16 @@
     </row>
     <row r="3" spans="1:10" ht="34">
       <c r="A3" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C3" s="1">
         <v>2023</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E3" s="12">
         <v>45108</v>
@@ -3799,10 +3871,10 @@
         <v>45657</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J3" s="11">
         <v>150000</v>
@@ -3810,16 +3882,16 @@
     </row>
     <row r="4" spans="1:10" ht="51">
       <c r="A4" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C4" s="1">
         <v>2020</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E4" s="12">
         <v>44075</v>
@@ -3828,13 +3900,13 @@
         <v>45534</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J4" s="11">
         <v>2296000</v>
@@ -3842,16 +3914,16 @@
     </row>
     <row r="5" spans="1:10" ht="85">
       <c r="A5" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C5" s="1">
         <v>2020</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E5" s="12">
         <v>44013</v>
@@ -3860,13 +3932,13 @@
         <v>45473</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J5" s="11">
         <v>499927</v>
@@ -3874,16 +3946,16 @@
     </row>
     <row r="6" spans="1:10" ht="68">
       <c r="A6" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C6" s="1">
         <v>2020</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E6" s="12">
         <v>44075</v>
@@ -3892,13 +3964,13 @@
         <v>45169</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J6" s="11">
         <v>1099997</v>
@@ -3906,16 +3978,16 @@
     </row>
     <row r="7" spans="1:10" ht="34">
       <c r="A7" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C7" s="1">
         <v>2020</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E7" s="12">
         <v>43922</v>
@@ -3924,13 +3996,13 @@
         <v>45016</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J7" s="11">
         <v>430000</v>
@@ -3938,16 +4010,16 @@
     </row>
     <row r="8" spans="1:10" ht="34">
       <c r="A8" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="C8" s="1">
         <v>2020</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E8" s="12">
         <v>44013</v>
@@ -3956,13 +4028,13 @@
         <v>44742</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J8" s="11">
         <v>420000</v>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tysonbarrett/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9003723-F6AF-6F42-B394-BCCDFE1A6245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5BCDB4-740D-0247-BE25-A421B001968B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4260" yWindow="740" windowWidth="24540" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Presentations" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$25</definedName>
+    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$24</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="413">
   <si>
     <t>authors</t>
   </si>
@@ -1262,15 +1262,6 @@
     <t>\img{osfdata.png}{https://osf.io/8tc4}</t>
   </si>
   <si>
-    <t>doi: 10.1016/j.spinee.2023.06.092</t>
-  </si>
-  <si>
-    <t>Spine Journal</t>
-  </si>
-  <si>
-    <t>Kramer, D. E., Barrett, T. S., Drury, C., Lejeune, K., Cheng, B., Prostko, E., &amp; Massie, L.</t>
-  </si>
-  <si>
     <t>doi: 10.1016/j.ophtha.2023.12.001</t>
   </si>
   <si>
@@ -1284,9 +1275,6 @@
   </si>
   <si>
     <t>Perceptual learning of dysarthria in adolescence.</t>
-  </si>
-  <si>
-    <t>The cost and likelihood of requiring additional surgery within two years after index microdiscectomy.</t>
   </si>
   <si>
     <t>The influence of sensorineural hearing loss on the relationship between the perception of speech in noise and dysarthric speech.</t>
@@ -1732,10 +1720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BAB23D-B27F-A34D-A522-4C115B575C05}">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1789,14 +1777,14 @@
         <v>296</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>390</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="51">
@@ -1807,7 +1795,7 @@
         <v>296</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>405</v>
@@ -1825,7 +1813,7 @@
         <v>296</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>389</v>
@@ -1866,869 +1854,875 @@
     </row>
     <row r="7" spans="1:9" ht="51">
       <c r="A7" s="1" t="s">
-        <v>409</v>
+        <v>268</v>
       </c>
       <c r="B7" s="1">
         <v>2023</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>415</v>
+        <v>269</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>408</v>
+        <v>270</v>
       </c>
       <c r="E7" s="1">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F7" s="1">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>403</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="51">
       <c r="A8" s="1" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="B8" s="1">
         <v>2023</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>269</v>
+        <v>411</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="E8" s="1">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="F8" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="51">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="68">
       <c r="A9" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B9" s="1">
         <v>2023</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>414</v>
+        <v>298</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>299</v>
       </c>
       <c r="E9" s="1">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="F9" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="68">
+        <v>300</v>
+      </c>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" ht="51">
       <c r="A10" s="1" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B10" s="1">
         <v>2023</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>298</v>
+        <v>412</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>299</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="F10" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="I10" s="9"/>
+        <v>387</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="51">
       <c r="A11" s="1" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="B11" s="1">
         <v>2023</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>264</v>
       </c>
       <c r="E11" s="1">
-        <v>66</v>
-      </c>
-      <c r="F11" s="1">
-        <v>10</v>
+        <v>38</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>398</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="51">
       <c r="A12" s="1" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="B12" s="1">
         <v>2023</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>397</v>
+        <v>291</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1">
-        <v>38</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>398</v>
+        <v>66</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>399</v>
+        <v>314</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>400</v>
+        <v>315</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="51">
       <c r="A13" s="1" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="B13" s="1">
         <v>2023</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>11</v>
+        <v>308</v>
       </c>
       <c r="E13" s="1">
-        <v>66</v>
-      </c>
-      <c r="F13" s="1">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="51">
-      <c r="A14" s="1" t="s">
-        <v>305</v>
+      <c r="A14" s="5" t="s">
+        <v>286</v>
       </c>
       <c r="B14" s="1">
         <v>2023</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E14" s="1">
-        <v>32</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>307</v>
+        <v>11</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="51">
-      <c r="A15" s="5" t="s">
-        <v>286</v>
+      <c r="A15" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="B15" s="1">
         <v>2023</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>284</v>
+      </c>
+      <c r="E15" s="1">
+        <v>13</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>310</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="51">
-      <c r="A16" s="1" t="s">
-        <v>285</v>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="68">
+      <c r="A16" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="B16" s="1">
         <v>2023</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>284</v>
+        <v>94</v>
       </c>
       <c r="E16" s="1">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="F16" s="1">
-        <v>2</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>310</v>
+        <v>5</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>302</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>311</v>
+        <v>250</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="68">
-      <c r="A17" s="5" t="s">
-        <v>247</v>
+      <c r="A17" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="B17" s="1">
         <v>2023</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>248</v>
+        <v>293</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>94</v>
+        <v>264</v>
       </c>
       <c r="E17" s="1">
-        <v>62</v>
-      </c>
-      <c r="F17" s="1">
-        <v>5</v>
+        <v>38</v>
+      </c>
+      <c r="F17" s="8">
+        <v>44989</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="68">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="51">
       <c r="A18" s="1" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="B18" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
       <c r="E18" s="1">
-        <v>38</v>
-      </c>
-      <c r="F18" s="8">
-        <v>44989</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>294</v>
+        <v>66</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>309</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="51">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="68">
       <c r="A19" s="1" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="B19" s="1">
         <v>2022</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>11</v>
+        <v>283</v>
       </c>
       <c r="E19" s="1">
         <v>66</v>
       </c>
       <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>309</v>
+        <v>9</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>401</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="68">
+        <v>337</v>
+      </c>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" ht="51">
       <c r="A20" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B20" s="1">
         <v>2022</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E20" s="1">
-        <v>66</v>
-      </c>
-      <c r="F20" s="1">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>401</v>
+        <v>277</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I20" s="10"/>
+        <v>278</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="51">
       <c r="A21" s="1" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="B21" s="1">
         <v>2022</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="E21" s="1">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>277</v>
+        <v>333</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>278</v>
+        <v>334</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>280</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="51">
-      <c r="A22" s="1" t="s">
-        <v>263</v>
+      <c r="A22" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="B22" s="1">
         <v>2022</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>262</v>
+        <v>11</v>
       </c>
       <c r="E22" s="1">
-        <v>12</v>
+        <v>65</v>
+      </c>
+      <c r="F22" s="1">
+        <v>6</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="51">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="68">
       <c r="A23" s="5" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="B23" s="1">
         <v>2022</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>11</v>
+        <v>227</v>
       </c>
       <c r="E23" s="1">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="F23" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="68">
-      <c r="A24" s="5" t="s">
-        <v>228</v>
+        <v>320</v>
+      </c>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" ht="51">
+      <c r="A24" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="B24" s="1">
         <v>2022</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="E24" s="1">
-        <v>31</v>
-      </c>
-      <c r="F24" s="1">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I24" s="7"/>
+        <v>332</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="51">
-      <c r="A25" s="6" t="s">
-        <v>241</v>
+      <c r="A25" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="B25" s="1">
         <v>2022</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="E25" s="1">
-        <v>82</v>
+        <v>31</v>
+      </c>
+      <c r="F25" s="1">
+        <v>5</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>332</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="51">
-      <c r="A26" s="1" t="s">
-        <v>265</v>
+      <c r="A26" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="B26" s="1">
         <v>2022</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="E26" s="1">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F26" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>271</v>
+        <v>252</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="51">
       <c r="A27" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B27" s="1">
         <v>2022</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>34</v>
+        <v>233</v>
       </c>
       <c r="E27" s="1">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F27" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="51">
       <c r="A28" s="5" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B28" s="1">
         <v>2022</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E28" s="1">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F28" s="1">
         <v>6</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="51">
-      <c r="A29" s="5" t="s">
-        <v>229</v>
+      <c r="A29" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="B29" s="1">
         <v>2022</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>231</v>
+        <v>148</v>
       </c>
       <c r="E29" s="1">
-        <v>27</v>
-      </c>
-      <c r="F29" s="1">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="51">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="68">
       <c r="A30" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B30" s="1">
         <v>2022</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>225</v>
+        <v>146</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E30" s="1">
-        <v>51</v>
+        <v>31</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="68">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="51">
       <c r="A31" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B31" s="1">
         <v>2022</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="E31" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="F31" s="1">
         <v>2</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>325</v>
+        <v>261</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="51">
+        <v>236</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="68">
       <c r="A32" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B32" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="E32" s="1">
-        <v>65</v>
-      </c>
-      <c r="F32" s="1">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="68">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="51">
       <c r="A33" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B33" s="1">
         <v>2021</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E33" s="1">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>224</v>
+        <v>324</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="51">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="68">
       <c r="A34" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B34" s="1">
         <v>2021</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E34" s="1">
-        <v>21</v>
+        <v>143</v>
+      </c>
+      <c r="E34">
+        <v>16</v>
+      </c>
+      <c r="F34" s="1">
+        <v>10</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>324</v>
+        <v>150</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="68">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="51">
       <c r="A35" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B35" s="1">
         <v>2021</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>144</v>
+        <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E35">
-        <v>16</v>
-      </c>
-      <c r="F35" s="1">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="E35" s="1">
+        <v>38</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="51">
+        <v>114</v>
+      </c>
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="1:9" ht="68">
       <c r="A36" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B36" s="1">
         <v>2021</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" s="1">
+        <v>29</v>
+      </c>
+      <c r="F36" s="1">
         <v>5</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="1">
-        <v>38</v>
-      </c>
       <c r="G36" s="4" t="s">
-        <v>115</v>
+        <v>322</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I36" s="10"/>
-    </row>
-    <row r="37" spans="1:9" ht="68">
+        <v>111</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="51">
       <c r="A37" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B37" s="1">
         <v>2021</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>199</v>
+        <v>7</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="E37" s="1">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="F37" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>322</v>
+        <v>112</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>323</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="51">
       <c r="A38" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B38" s="1">
         <v>2021</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E38" s="1">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F38" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="51">
       <c r="A39" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B39" s="1">
         <v>2021</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>9</v>
+        <v>200</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" s="1">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F39" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>140</v>
+        <v>258</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>109</v>
+        <v>259</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="51">
       <c r="A40" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B40" s="1">
         <v>2021</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>11</v>
@@ -2740,934 +2734,931 @@
         <v>5</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="51">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="68">
       <c r="A41" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B41" s="1">
         <v>2021</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="E41" s="1">
-        <v>64</v>
-      </c>
-      <c r="F41" s="1">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="68">
+        <v>116</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="51">
       <c r="A42" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B42" s="1">
         <v>2021</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="E42" s="1">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="F42" s="1">
+        <v>2</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="51">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="68">
       <c r="A43" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B43" s="1">
         <v>2021</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E43" s="1">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="F43" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="68">
+        <v>16</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="51">
       <c r="A44" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B44" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>203</v>
+        <v>14</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E44" s="1">
-        <v>23</v>
-      </c>
-      <c r="F44" s="1">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="51">
       <c r="A45" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B45" s="1">
         <v>2020</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E45" s="1">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="51">
       <c r="A46" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B46" s="1">
         <v>2020</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E46" s="1">
-        <v>18</v>
+        <v>63</v>
+      </c>
+      <c r="F46" s="1">
+        <v>6</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="51">
       <c r="A47" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B47" s="1">
         <v>2020</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E47" s="1">
-        <v>63</v>
-      </c>
-      <c r="F47" s="1">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="51">
       <c r="A48" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B48" s="1">
         <v>2020</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E48" s="1">
-        <v>40</v>
+        <v>51</v>
+      </c>
+      <c r="F48" s="1">
+        <v>3</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="51">
       <c r="A49" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B49" s="1">
         <v>2020</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>205</v>
+        <v>31</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E49" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F49" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="51">
       <c r="A50" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B50" s="1">
         <v>2020</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>31</v>
+        <v>206</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E50" s="1">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F50" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="51">
       <c r="A51" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B51" s="1">
         <v>2020</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E51" s="1">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="F51" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="51">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="68">
       <c r="A52" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B52" s="1">
         <v>2020</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E52" s="1">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="F52" s="1">
         <v>2</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="68">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="51">
       <c r="A53" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B53" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>208</v>
+        <v>38</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E53" s="1">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="F53" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="51">
       <c r="A54" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B54" s="1">
         <v>2019</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E54" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F54" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="51">
       <c r="A55" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B55" s="1">
         <v>2019</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E55" s="1">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="F55" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="51">
       <c r="A56" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B56" s="1">
         <v>2019</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="E56" s="1">
-        <v>10</v>
-      </c>
-      <c r="F56" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="51">
       <c r="A57" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B57" s="1">
         <v>2019</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="E57" s="1">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="51">
       <c r="A58" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B58" s="1">
         <v>2019</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>47</v>
+        <v>209</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E58" s="1">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="F58" s="1">
+        <v>4</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="51">
       <c r="A59" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B59" s="1">
         <v>2019</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>209</v>
+        <v>260</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E59" s="1">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F59" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>51</v>
+        <v>210</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="51">
       <c r="A60" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B60" s="1">
         <v>2019</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>260</v>
+        <v>53</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E60" s="1">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="F60" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>210</v>
+        <v>54</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>133</v>
+        <v>55</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="51">
       <c r="A61" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B61" s="1">
         <v>2019</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E61" s="1">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="F61" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="51">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="68">
       <c r="A62" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B62" s="1">
         <v>2019</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="E62" s="1">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="F62" s="1">
         <v>2</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="68">
+        <v>339</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="51">
       <c r="A63" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B63" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="E63" s="1">
+        <v>3</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1</v>
+      </c>
+      <c r="G63" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F63" s="1">
-        <v>2</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="H63" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="51">
       <c r="A64" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B64" s="1">
         <v>2018</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>211</v>
+        <v>63</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E64" s="1">
+        <v>143</v>
+      </c>
+      <c r="F64" s="1">
         <v>3</v>
       </c>
-      <c r="F64" s="1">
-        <v>1</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="H64" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="51">
       <c r="A65" s="1" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="B65" s="1">
         <v>2018</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E65" s="1">
         <v>143</v>
       </c>
       <c r="F65" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="51">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="68">
       <c r="A66" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B66" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E66" s="1">
+        <v>9</v>
+      </c>
+      <c r="F66" s="1">
+        <v>2</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="51">
+      <c r="A67" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="B66" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E66" s="1">
-        <v>143</v>
-      </c>
-      <c r="F66" s="1">
-        <v>5</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="68">
-      <c r="A67" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="B67" s="1">
         <v>2017</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="E67" s="1">
-        <v>9</v>
-      </c>
-      <c r="F67" s="1">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>106</v>
+        <v>69</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="51">
       <c r="A68" s="1" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="B68" s="1">
         <v>2017</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="E68" s="1">
-        <v>60</v>
+        <v>140</v>
+      </c>
+      <c r="F68" s="1">
+        <v>6</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="51">
       <c r="A69" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B69" s="1">
         <v>2017</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E69" s="1">
-        <v>140</v>
-      </c>
-      <c r="F69" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="51">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="68">
       <c r="A70" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B70" s="1">
         <v>2017</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="E70" s="1">
-        <v>10</v>
+        <v>111</v>
+      </c>
+      <c r="F70" s="1">
+        <v>5</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="68">
       <c r="A71" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B71" s="1">
         <v>2017</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="E71" s="1">
-        <v>111</v>
-      </c>
-      <c r="F71" s="1">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="68">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="51">
       <c r="A72" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B72" s="1">
         <v>2017</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E72" s="1">
-        <v>55</v>
+        <v>36</v>
+      </c>
+      <c r="F72" s="1">
+        <v>6</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="51">
       <c r="A73" s="1" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="B73" s="1">
         <v>2017</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E73" s="1">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="F73" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="51">
       <c r="A74" s="1" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="B74" s="1">
         <v>2017</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>84</v>
+        <v>217</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="E74" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F74" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>86</v>
+        <v>341</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="51">
       <c r="A75" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B75" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="E75" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F75" s="1">
         <v>2</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="51">
       <c r="A76" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B76" s="1">
         <v>2016</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>61</v>
@@ -3679,87 +3670,61 @@
         <v>2</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="51">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="68">
       <c r="A77" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B77" s="1">
         <v>2016</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="E77" s="1">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="F77" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="68">
       <c r="A78" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B78" s="1">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>91</v>
+        <v>222</v>
       </c>
       <c r="E78" s="1">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="F78" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="68">
-      <c r="A79" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B79" s="1">
-        <v>2015</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E79" s="1">
-        <v>115</v>
-      </c>
-      <c r="F79" s="1">
-        <v>5</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H79" s="1" t="s">
         <v>345</v>
       </c>
     </row>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tysonbarrett/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5BCDB4-740D-0247-BE25-A421B001968B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A333C10B-6A25-244F-BFDD-5AC7AAB4C3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4260" yWindow="740" windowWidth="24540" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Presentations" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$24</definedName>
+    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$26</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="418">
   <si>
     <t>authors</t>
   </si>
@@ -1278,6 +1278,21 @@
   </si>
   <si>
     <t>The influence of sensorineural hearing loss on the relationship between the perception of speech in noise and dysarthric speech.</t>
+  </si>
+  <si>
+    <t>Lexical alignment is pervasive across contexts in Non-WEIRD adult-child interactions</t>
+  </si>
+  <si>
+    <t>Cognitive Science</t>
+  </si>
+  <si>
+    <t>Conversational Speech Behaviors are Context Dependent</t>
+  </si>
+  <si>
+    <t>Chieng, A. C. J., Wynn, C. J., Wong, T. P., Barrett, T. S., &amp; Borrie, S. A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wynn, C. J., Awan, Shaheen, Barrett, T. S., &amp; Borrie, S. A. </t>
   </si>
 </sst>
 </file>
@@ -1720,7 +1735,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BAB23D-B27F-A34D-A522-4C115B575C05}">
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -1769,177 +1784,154 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="51">
+    <row r="2" spans="1:9" ht="34">
       <c r="A2" s="1" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="51">
+    </row>
+    <row r="3" spans="1:9" ht="34">
       <c r="A3" s="1" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>405</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="68">
+    </row>
+    <row r="4" spans="1:9" ht="51">
       <c r="A4" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="I4" s="10"/>
+      <c r="H4" s="1" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="51">
       <c r="A5" s="1" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="51">
+        <v>405</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="68">
       <c r="A6" s="1" t="s">
-        <v>301</v>
+        <v>388</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>317</v>
+        <v>408</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>393</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="51">
       <c r="A7" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2023</v>
+        <v>383</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>269</v>
+        <v>384</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E7" s="1">
-        <v>12</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="51">
       <c r="A8" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2023</v>
+        <v>301</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>411</v>
+        <v>317</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1">
-        <v>66</v>
-      </c>
-      <c r="F8" s="1">
-        <v>10</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="68">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="51">
       <c r="A9" s="1" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="B9" s="1">
         <v>2023</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="E9" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="I9" s="9"/>
+        <v>402</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="51">
       <c r="A10" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B10" s="1">
         <v>2023</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -1951,47 +1943,48 @@
         <v>10</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="51">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="68">
       <c r="A11" s="1" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="B11" s="1">
         <v>2023</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>397</v>
+        <v>298</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="E11" s="1">
-        <v>38</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>398</v>
+        <v>17</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>400</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9" ht="51">
       <c r="A12" s="1" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="B12" s="1">
         <v>2023</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>291</v>
+        <v>412</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
@@ -2000,781 +1993,781 @@
         <v>66</v>
       </c>
       <c r="F12" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>314</v>
+        <v>396</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>316</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="51">
       <c r="A13" s="1" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="B13" s="1">
         <v>2023</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>306</v>
+        <v>397</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
       <c r="E13" s="1">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>398</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>307</v>
+        <v>399</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>313</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="51">
-      <c r="A14" s="5" t="s">
-        <v>286</v>
+      <c r="A14" s="1" t="s">
+        <v>290</v>
       </c>
       <c r="B14" s="1">
         <v>2023</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E14" s="1">
+        <v>66</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>314</v>
+      </c>
       <c r="H14" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="51">
       <c r="A15" s="1" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="B15" s="1">
         <v>2023</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="E15" s="1">
-        <v>13</v>
-      </c>
-      <c r="F15" s="1">
-        <v>2</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>310</v>
+        <v>32</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="68">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="51">
       <c r="A16" s="5" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="B16" s="1">
         <v>2023</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="1">
-        <v>62</v>
-      </c>
-      <c r="F16" s="1">
-        <v>5</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>302</v>
+        <v>11</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="68">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="51">
       <c r="A17" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B17" s="1">
         <v>2023</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="E17" s="1">
-        <v>38</v>
-      </c>
-      <c r="F17" s="8">
-        <v>44989</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>294</v>
+        <v>13</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>310</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="51">
-      <c r="A18" s="1" t="s">
-        <v>273</v>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="68">
+      <c r="A18" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="B18" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="E18" s="1">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>309</v>
+        <v>5</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>302</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>336</v>
+        <v>250</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="68">
       <c r="A19" s="1" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="B19" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="E19" s="1">
-        <v>66</v>
-      </c>
-      <c r="F19" s="1">
-        <v>9</v>
+        <v>38</v>
+      </c>
+      <c r="F19" s="8">
+        <v>44989</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>401</v>
+        <v>294</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I19" s="10"/>
+        <v>295</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="51">
       <c r="A20" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B20" s="1">
         <v>2022</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="E20" s="1">
-        <v>26</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>277</v>
+        <v>66</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>309</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="51">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="68">
       <c r="A21" s="1" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="B21" s="1">
         <v>2022</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="E21" s="1">
-        <v>12</v>
+        <v>66</v>
+      </c>
+      <c r="F21" s="1">
+        <v>9</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>333</v>
+        <v>401</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>335</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:9" ht="51">
-      <c r="A22" s="5" t="s">
-        <v>249</v>
+      <c r="A22" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="B22" s="1">
         <v>2022</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>11</v>
+        <v>276</v>
       </c>
       <c r="E22" s="1">
-        <v>65</v>
-      </c>
-      <c r="F22" s="1">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>318</v>
+        <v>277</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>319</v>
+        <v>278</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="68">
-      <c r="A23" s="5" t="s">
-        <v>228</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="51">
+      <c r="A23" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="B23" s="1">
         <v>2022</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="E23" s="1">
-        <v>31</v>
-      </c>
-      <c r="F23" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I23" s="7"/>
+        <v>334</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="51">
-      <c r="A24" s="6" t="s">
-        <v>241</v>
+      <c r="A24" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="B24" s="1">
         <v>2022</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>244</v>
+        <v>11</v>
       </c>
       <c r="E24" s="1">
-        <v>82</v>
+        <v>65</v>
+      </c>
+      <c r="F24" s="1">
+        <v>6</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="51">
-      <c r="A25" s="1" t="s">
-        <v>265</v>
+        <v>319</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="68">
+      <c r="A25" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="B25" s="1">
         <v>2022</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="E25" s="1">
         <v>31</v>
       </c>
       <c r="F25" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>271</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:9" ht="51">
-      <c r="A26" s="5" t="s">
-        <v>239</v>
+      <c r="A26" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="B26" s="1">
         <v>2022</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>34</v>
+        <v>244</v>
       </c>
       <c r="E26" s="1">
-        <v>23</v>
-      </c>
-      <c r="F26" s="1">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>240</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="51">
-      <c r="A27" s="5" t="s">
-        <v>234</v>
+      <c r="A27" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="B27" s="1">
         <v>2022</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>233</v>
+        <v>145</v>
       </c>
       <c r="E27" s="1">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F27" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="51">
       <c r="A28" s="5" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="B28" s="1">
         <v>2022</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>231</v>
+        <v>34</v>
       </c>
       <c r="E28" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F28" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>245</v>
+        <v>252</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="51">
-      <c r="A29" s="1" t="s">
-        <v>153</v>
+      <c r="A29" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="B29" s="1">
         <v>2022</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>148</v>
+        <v>233</v>
       </c>
       <c r="E29" s="1">
-        <v>51</v>
+        <v>37</v>
+      </c>
+      <c r="F29" s="1">
+        <v>6</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="68">
-      <c r="A30" s="1" t="s">
-        <v>155</v>
+        <v>246</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="51">
+      <c r="A30" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="B30" s="1">
         <v>2022</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>146</v>
+        <v>230</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>145</v>
+        <v>231</v>
       </c>
       <c r="E30" s="1">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F30" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="51">
       <c r="A31" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B31" s="1">
         <v>2022</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>147</v>
+        <v>225</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="E31" s="1">
-        <v>65</v>
-      </c>
-      <c r="F31" s="1">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>261</v>
+        <v>326</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>235</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="68">
       <c r="A32" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B32" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E32" s="1">
-        <v>131</v>
+        <v>31</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>224</v>
+        <v>325</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>151</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="51">
       <c r="A33" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B33" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="E33" s="1">
-        <v>21</v>
+        <v>65</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>324</v>
+        <v>261</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>223</v>
+        <v>236</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="68">
       <c r="A34" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B34" s="1">
         <v>2021</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E34">
-        <v>16</v>
-      </c>
-      <c r="F34" s="1">
-        <v>10</v>
+        <v>142</v>
+      </c>
+      <c r="E34" s="1">
+        <v>131</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>150</v>
+        <v>224</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="51">
       <c r="A35" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B35" s="1">
         <v>2021</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>5</v>
+        <v>198</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="E35" s="1">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>115</v>
+        <v>324</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I35" s="10"/>
+        <v>223</v>
+      </c>
     </row>
     <row r="36" spans="1:9" ht="68">
       <c r="A36" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B36" s="1">
         <v>2021</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E36" s="1">
-        <v>29</v>
+        <v>143</v>
+      </c>
+      <c r="E36">
+        <v>16</v>
       </c>
       <c r="F36" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>322</v>
+        <v>150</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>323</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="51">
       <c r="A37" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B37" s="1">
         <v>2021</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E37" s="1">
-        <v>68</v>
-      </c>
-      <c r="F37" s="1">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="51">
+        <v>114</v>
+      </c>
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" spans="1:9" ht="68">
       <c r="A38" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B38" s="1">
         <v>2021</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>9</v>
+        <v>199</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E38" s="1">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="F38" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>140</v>
+        <v>322</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="51">
       <c r="A39" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B39" s="1">
         <v>2021</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E39" s="1">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F39" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>258</v>
+        <v>112</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>259</v>
+        <v>113</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="51">
       <c r="A40" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B40" s="1">
         <v>2021</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E40" s="1">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F40" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>256</v>
+        <v>140</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="68">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="51">
       <c r="A41" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B41" s="1">
         <v>2021</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="E41" s="1">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="F41" s="1">
+        <v>5</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>116</v>
+        <v>259</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="51">
       <c r="A42" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B42" s="1">
         <v>2021</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>11</v>
@@ -2783,206 +2776,203 @@
         <v>64</v>
       </c>
       <c r="F42" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>117</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="68">
       <c r="A43" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B43" s="1">
         <v>2021</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="E43" s="1">
-        <v>23</v>
-      </c>
-      <c r="F43" s="1">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="51">
       <c r="A44" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B44" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E44" s="1">
-        <v>42</v>
+        <v>64</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="51">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="68">
       <c r="A45" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B45" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="1">
         <v>23</v>
       </c>
-      <c r="E45" s="1">
-        <v>18</v>
+      <c r="F45" s="1">
+        <v>5</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>24</v>
+        <v>254</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>119</v>
+        <v>16</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="51">
       <c r="A46" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B46" s="1">
         <v>2020</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E46" s="1">
-        <v>63</v>
-      </c>
-      <c r="F46" s="1">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="51">
       <c r="A47" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B47" s="1">
         <v>2020</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>204</v>
+        <v>22</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E47" s="1">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="51">
       <c r="A48" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B48" s="1">
         <v>2020</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>205</v>
+        <v>25</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E48" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F48" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="51">
       <c r="A49" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B49" s="1">
         <v>2020</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E49" s="1">
-        <v>63</v>
-      </c>
-      <c r="F49" s="1">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="51">
       <c r="A50" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B50" s="1">
         <v>2020</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>29</v>
@@ -2994,432 +2984,438 @@
         <v>3</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="51">
       <c r="A51" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B51" s="1">
         <v>2020</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>207</v>
+        <v>31</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E51" s="1">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="F51" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="68">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="51">
       <c r="A52" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B52" s="1">
         <v>2020</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E52" s="1">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="F52" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="51">
       <c r="A53" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B53" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E53" s="1">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="F53" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="51">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="68">
       <c r="A54" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B54" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E54" s="1">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="F54" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="51">
       <c r="A55" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B55" s="1">
         <v>2019</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E55" s="1">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F55" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="51">
       <c r="A56" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B56" s="1">
         <v>2019</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E56" s="1">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="F56" s="1">
+        <v>12</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="51">
       <c r="A57" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B57" s="1">
         <v>2019</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E57" s="1">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="F57" s="1">
+        <v>10</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="51">
       <c r="A58" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B58" s="1">
         <v>2019</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>209</v>
+        <v>46</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E58" s="1">
-        <v>20</v>
-      </c>
-      <c r="F58" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="51">
       <c r="A59" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B59" s="1">
         <v>2019</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>260</v>
+        <v>47</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E59" s="1">
-        <v>33</v>
-      </c>
-      <c r="F59" s="1">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="51">
       <c r="A60" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B60" s="1">
         <v>2019</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>53</v>
+        <v>209</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E60" s="1">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="F60" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="51">
       <c r="A61" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B61" s="1">
         <v>2019</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>58</v>
+        <v>260</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E61" s="1">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="F61" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>57</v>
+        <v>210</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="68">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="51">
       <c r="A62" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B62" s="1">
         <v>2019</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E62" s="1">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="F62" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>339</v>
+        <v>55</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="51">
       <c r="A63" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B63" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>211</v>
+        <v>58</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E63" s="1">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="F63" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="68">
+      <c r="A64" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="1">
         <v>62</v>
       </c>
-      <c r="H63" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="51">
-      <c r="A64" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B64" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E64" s="1">
-        <v>143</v>
-      </c>
       <c r="F64" s="1">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>134</v>
+        <v>339</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="51">
       <c r="A65" s="1" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="B65" s="1">
         <v>2018</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>65</v>
+        <v>211</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E65" s="1">
+        <v>3</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="51">
+      <c r="A66" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B66" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E66" s="1">
         <v>143</v>
       </c>
-      <c r="F65" s="1">
-        <v>5</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="68">
-      <c r="A66" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B66" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E66" s="1">
-        <v>9</v>
-      </c>
       <c r="F66" s="1">
-        <v>2</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>106</v>
+        <v>3</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="51">
@@ -3427,304 +3423,353 @@
         <v>163</v>
       </c>
       <c r="B67" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>213</v>
+        <v>65</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="E67" s="1">
-        <v>60</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>69</v>
+        <v>143</v>
+      </c>
+      <c r="F67" s="1">
+        <v>5</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="51">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="68">
       <c r="A68" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B68" s="1">
         <v>2017</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E68" s="1">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="F68" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="51">
       <c r="A69" s="1" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="B69" s="1">
         <v>2017</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="E69" s="1">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="68">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="51">
       <c r="A70" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B70" s="1">
         <v>2017</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>74</v>
+        <v>214</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="E70" s="1">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="F70" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="68">
+        <v>137</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="51">
       <c r="A71" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B71" s="1">
         <v>2017</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E71" s="1">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="51">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="68">
       <c r="A72" s="1" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="B72" s="1">
         <v>2017</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="E72" s="1">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="F72" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="51">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="68">
       <c r="A73" s="1" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="B73" s="1">
         <v>2017</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>84</v>
+        <v>216</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="E73" s="1">
-        <v>60</v>
-      </c>
-      <c r="F73" s="1">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="51">
       <c r="A74" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B74" s="1">
         <v>2017</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E74" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F74" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>341</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="51">
       <c r="A75" s="1" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="B75" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>218</v>
+        <v>84</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="E75" s="1">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F75" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>342</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="51">
       <c r="A76" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B76" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E76" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F76" s="1">
         <v>2</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="68">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="51">
       <c r="A77" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B77" s="1">
         <v>2016</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1">
+        <v>2</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="51">
+      <c r="A78" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B78" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1">
+        <v>2</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="68">
+      <c r="A79" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B79" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E79" s="1">
         <v>37</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F79" s="1">
         <v>6</v>
       </c>
-      <c r="G77" s="4" t="s">
+      <c r="G79" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="H79" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="68">
-      <c r="A78" s="1" t="s">
+    <row r="80" spans="1:9" ht="68">
+      <c r="A80" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B80" s="1">
         <v>2015</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E80" s="1">
         <v>115</v>
       </c>
-      <c r="F78" s="1">
+      <c r="F80" s="1">
         <v>5</v>
       </c>
-      <c r="G78" s="4" t="s">
+      <c r="G80" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H78" s="1" t="s">
+      <c r="H80" s="1" t="s">
         <v>345</v>
       </c>
     </row>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tysonbarrett/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A333C10B-6A25-244F-BFDD-5AC7AAB4C3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B937088A-7E47-7543-A0B2-EF310B348D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4260" yWindow="740" windowWidth="24540" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Presentations" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$26</definedName>
+    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$31</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="441">
   <si>
     <t>authors</t>
   </si>
@@ -992,9 +992,6 @@
     <t>\img{osfdata.png}{https://osf.io/z6dw5}\img{osfmaterials.png}{https://osf.io/z6dw5}</t>
   </si>
   <si>
-    <t>La vergüenza [the shame]: Meassuring affiliate stigma associated with youth mental health problems among Latinx caregivers.</t>
-  </si>
-  <si>
     <t>2187-2203</t>
   </si>
   <si>
@@ -1286,13 +1283,85 @@
     <t>Cognitive Science</t>
   </si>
   <si>
-    <t>Conversational Speech Behaviors are Context Dependent</t>
-  </si>
-  <si>
     <t>Chieng, A. C. J., Wynn, C. J., Wong, T. P., Barrett, T. S., &amp; Borrie, S. A.</t>
   </si>
   <si>
     <t xml:space="preserve">Wynn, C. J., Awan, Shaheen, Barrett, T. S., &amp; Borrie, S. A. </t>
+  </si>
+  <si>
+    <t>doi: 10.1111/cogs.13417</t>
+  </si>
+  <si>
+    <t>e13417</t>
+  </si>
+  <si>
+    <t>Popkov, A. &amp; Barrett, T. S.</t>
+  </si>
+  <si>
+    <t>Accountability in Research: Ethics, Integrity, and Policy</t>
+  </si>
+  <si>
+    <t>Conversational Speech Behaviors are Context Dependent.</t>
+  </si>
+  <si>
+    <t>AI vs Academia: Experimental Study on AI Text Detectors' Accuracy in Behavioral Health Academic Writing.</t>
+  </si>
+  <si>
+    <t>La vergüenza [the shame]: Measuring affiliate stigma associated with youth mental health problems among Latinx caregivers.</t>
+  </si>
+  <si>
+    <t>Clinical and Financial Significance of Insomnia within a Large Payor-Provider Health System.</t>
+  </si>
+  <si>
+    <t>SLEEP</t>
+  </si>
+  <si>
+    <t>Karlin, B. E., Anderson, R. J., Rung, J. M., Drury-Gworek, C., &amp; Barrett, T. S.</t>
+  </si>
+  <si>
+    <t>Vázquez, A. L.,  Culianos, D., Gudiño, O. G. Navarro Flores, C. M., Barrett, T. S., Domenech Rodríguez, M. M.</t>
+  </si>
+  <si>
+    <t>Voss, M. W., Hung, M., Li, W., Richards, L., Price, P., Terrill, A., &amp; Barrett, T. S.</t>
+  </si>
+  <si>
+    <t>Journal of Occupational and Environmental Medicine</t>
+  </si>
+  <si>
+    <t>Costs of forced retirement: Measuring the effect of lost work opportunity on health.</t>
+  </si>
+  <si>
+    <t>Dimensions of caregiver strain may partially mediate the relationship between youth symptomology and counseling utilization among Latinxs.</t>
+  </si>
+  <si>
+    <t>50–64</t>
+  </si>
+  <si>
+    <t>18-33</t>
+  </si>
+  <si>
+    <t>doi: 10.1037/lat0000235</t>
+  </si>
+  <si>
+    <t>doi: 10.1177/00220426231226223</t>
+  </si>
+  <si>
+    <t>doi: 10.1089/aut.2023.0143</t>
+  </si>
+  <si>
+    <t>Fears of Stigma Perceived from Unit Leaders for Seeking Psychological Services for Military Sexual Trauma Sequelae is Associated with Suicide Risk among Male Service Members and Veterans</t>
+  </si>
+  <si>
+    <t>Blais, R. K., Hoyt, T. V., Tannahill, H., &amp; Barrett, T. S.</t>
+  </si>
+  <si>
+    <t>Stigma and Health</t>
+  </si>
+  <si>
+    <t>doi: 10.1080/08989621.2024.2331757</t>
+  </si>
+  <si>
+    <t>doi: 10.1044/2024_JSLHR-23-00622</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1371,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1360,6 +1429,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1388,7 +1463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1420,6 +1495,9 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1439,9 +1517,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1479,7 +1557,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1585,7 +1663,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1727,7 +1805,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1735,10 +1813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BAB23D-B27F-A34D-A522-4C115B575C05}">
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1784,726 +1862,712 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="34">
+    <row r="2" spans="1:9" ht="68">
       <c r="A2" s="1" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="34">
       <c r="A3" s="1" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>424</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="51">
+    <row r="4" spans="1:9" ht="34">
       <c r="A4" s="1" t="s">
-        <v>391</v>
+        <v>427</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>390</v>
+        <v>428</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="51">
-      <c r="A5" s="1" t="s">
-        <v>404</v>
+    </row>
+    <row r="5" spans="1:9" ht="68">
+      <c r="A5" s="15" t="s">
+        <v>426</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>405</v>
+        <v>143</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>406</v>
-      </c>
     </row>
     <row r="6" spans="1:9" ht="68">
       <c r="A6" s="1" t="s">
-        <v>388</v>
+        <v>418</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>389</v>
+        <v>419</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="I6" s="10"/>
+      <c r="H6" s="1" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="51">
       <c r="A7" s="1" t="s">
-        <v>383</v>
+        <v>415</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>385</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>386</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="51">
       <c r="A8" s="1" t="s">
-        <v>301</v>
+        <v>390</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>317</v>
+        <v>409</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="51">
       <c r="A9" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2023</v>
+        <v>403</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>269</v>
+        <v>408</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E9" s="1">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1">
-        <v>3</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>403</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="51">
+        <v>435</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="68">
       <c r="A10" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2023</v>
+        <v>387</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="1">
-        <v>66</v>
-      </c>
-      <c r="F10" s="1">
-        <v>10</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>394</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="68">
+        <v>434</v>
+      </c>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" ht="51">
       <c r="A11" s="1" t="s">
-        <v>297</v>
+        <v>382</v>
       </c>
       <c r="B11" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>298</v>
+        <v>383</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>299</v>
+        <v>384</v>
       </c>
       <c r="E11" s="1">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F11" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>392</v>
+        <v>431</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="I11" s="9"/>
+        <v>385</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="51">
       <c r="A12" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B12" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>392</v>
       </c>
       <c r="E12" s="1">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="F12" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>396</v>
+        <v>432</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>387</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="51">
       <c r="A13" s="1" t="s">
-        <v>272</v>
+        <v>414</v>
       </c>
       <c r="B13" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>264</v>
+        <v>413</v>
       </c>
       <c r="E13" s="1">
-        <v>38</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>399</v>
+        <v>48</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>417</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="51">
       <c r="A14" s="1" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="B14" s="1">
         <v>2023</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="E14" s="1">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="F14" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>314</v>
+        <v>402</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>316</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="51">
       <c r="A15" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B15" s="1">
         <v>2023</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>306</v>
+        <v>410</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>308</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1">
-        <v>32</v>
+        <v>66</v>
+      </c>
+      <c r="F15" s="1">
+        <v>10</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>307</v>
+        <v>393</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="51">
-      <c r="A16" s="5" t="s">
-        <v>286</v>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="68">
+      <c r="A16" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="B16" s="1">
         <v>2023</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>299</v>
+      </c>
+      <c r="E16" s="1">
+        <v>17</v>
+      </c>
+      <c r="F16" s="1">
+        <v>4</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>391</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>312</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="51">
       <c r="A17" s="1" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="B17" s="1">
         <v>2023</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>288</v>
+        <v>411</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>284</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="F17" s="1">
-        <v>2</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>310</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>395</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="68">
-      <c r="A18" s="5" t="s">
-        <v>247</v>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="51">
+      <c r="A18" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="B18" s="1">
         <v>2023</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>248</v>
+        <v>396</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>94</v>
+        <v>264</v>
       </c>
       <c r="E18" s="1">
-        <v>62</v>
-      </c>
-      <c r="F18" s="1">
-        <v>5</v>
+        <v>38</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>397</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>302</v>
+        <v>398</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="68">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="51">
       <c r="A19" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B19" s="1">
         <v>2023</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
       <c r="E19" s="1">
-        <v>38</v>
-      </c>
-      <c r="F19" s="8">
-        <v>44989</v>
+        <v>66</v>
+      </c>
+      <c r="F19" s="1">
+        <v>5</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>295</v>
+        <v>315</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="51">
       <c r="A20" s="1" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="B20" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E20" s="1">
+        <v>32</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="51">
+      <c r="A21" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="1">
-        <v>66</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="68">
-      <c r="A21" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E21" s="1">
-        <v>66</v>
-      </c>
-      <c r="F21" s="1">
-        <v>9</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>401</v>
-      </c>
       <c r="H21" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I21" s="10"/>
+        <v>312</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="51">
       <c r="A22" s="1" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="B22" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E22" s="1">
-        <v>26</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>277</v>
+        <v>13</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>310</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="51">
-      <c r="A23" s="1" t="s">
-        <v>263</v>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="68">
+      <c r="A23" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="B23" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>262</v>
+        <v>94</v>
       </c>
       <c r="E23" s="1">
-        <v>12</v>
+        <v>62</v>
+      </c>
+      <c r="F23" s="1">
+        <v>5</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>334</v>
+        <v>250</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="51">
-      <c r="A24" s="5" t="s">
-        <v>249</v>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="68">
+      <c r="A24" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="B24" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>11</v>
+        <v>264</v>
       </c>
       <c r="E24" s="1">
-        <v>65</v>
-      </c>
-      <c r="F24" s="1">
-        <v>6</v>
+        <v>38</v>
+      </c>
+      <c r="F24" s="8">
+        <v>44989</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="68">
-      <c r="A25" s="5" t="s">
-        <v>228</v>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="51">
+      <c r="A25" s="1" t="s">
+        <v>273</v>
       </c>
       <c r="B25" s="1">
         <v>2022</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>226</v>
+        <v>289</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>227</v>
+        <v>11</v>
       </c>
       <c r="E25" s="1">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="F25" s="1">
-        <v>4</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>321</v>
+        <v>1</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>309</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" ht="51">
-      <c r="A26" s="6" t="s">
-        <v>241</v>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="68">
+      <c r="A26" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="B26" s="1">
         <v>2022</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>243</v>
+        <v>282</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="E26" s="1">
-        <v>82</v>
+        <v>66</v>
+      </c>
+      <c r="F26" s="1">
+        <v>9</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>331</v>
+        <v>400</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>332</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="I26" s="10"/>
     </row>
     <row r="27" spans="1:9" ht="51">
       <c r="A27" s="1" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="B27" s="1">
         <v>2022</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>145</v>
+        <v>276</v>
       </c>
       <c r="E27" s="1">
-        <v>31</v>
-      </c>
-      <c r="F27" s="1">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>330</v>
+        <v>277</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>271</v>
+        <v>278</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="51">
-      <c r="A28" s="5" t="s">
-        <v>239</v>
+      <c r="A28" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="B28" s="1">
         <v>2022</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>34</v>
+        <v>262</v>
       </c>
       <c r="E28" s="1">
-        <v>23</v>
-      </c>
-      <c r="F28" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>252</v>
+        <v>333</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>240</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="51">
       <c r="A29" s="5" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="B29" s="1">
         <v>2022</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="E29" s="1">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="F29" s="1">
         <v>6</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>246</v>
+        <v>318</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="51">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="68">
       <c r="A30" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B30" s="1">
         <v>2022</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E30" s="1">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F30" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>245</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="I30" s="7"/>
     </row>
     <row r="31" spans="1:9" ht="51">
-      <c r="A31" s="1" t="s">
-        <v>153</v>
+      <c r="A31" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="B31" s="1">
         <v>2022</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>148</v>
+        <v>244</v>
       </c>
       <c r="E31" s="1">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="68">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="51">
       <c r="A32" s="1" t="s">
-        <v>155</v>
+        <v>265</v>
       </c>
       <c r="B32" s="1">
         <v>2022</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>146</v>
+        <v>267</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>145</v>
@@ -2512,1265 +2576,1398 @@
         <v>31</v>
       </c>
       <c r="F32" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="51">
-      <c r="A33" s="1" t="s">
-        <v>154</v>
+      <c r="A33" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="B33" s="1">
         <v>2022</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="1">
+        <v>23</v>
+      </c>
+      <c r="F33" s="1">
+        <v>7</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="51">
+      <c r="A34" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E34" s="1">
+        <v>37</v>
+      </c>
+      <c r="F34" s="1">
+        <v>6</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="51">
+      <c r="A35" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E35" s="1">
+        <v>27</v>
+      </c>
+      <c r="F35" s="1">
+        <v>6</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="51">
+      <c r="A36" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E36" s="1">
+        <v>51</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="68">
+      <c r="A37" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" s="1">
+        <v>31</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="51">
+      <c r="A38" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E38" s="1">
         <v>65</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F38" s="1">
         <v>2</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G38" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="68">
-      <c r="A34" s="1" t="s">
+    <row r="39" spans="1:9" ht="68">
+      <c r="A39" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="B34" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E34" s="1">
-        <v>131</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="51">
-      <c r="A35" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B35" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E35" s="1">
-        <v>21</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="68">
-      <c r="A36" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B36" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E36">
-        <v>16</v>
-      </c>
-      <c r="F36" s="1">
-        <v>10</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="51">
-      <c r="A37" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B37" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="1">
-        <v>38</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I37" s="10"/>
-    </row>
-    <row r="38" spans="1:9" ht="68">
-      <c r="A38" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B38" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E38" s="1">
-        <v>29</v>
-      </c>
-      <c r="F38" s="1">
-        <v>5</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="51">
-      <c r="A39" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="B39" s="1">
         <v>2021</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="E39" s="1">
-        <v>68</v>
-      </c>
-      <c r="F39" s="1">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>112</v>
+        <v>224</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="51">
       <c r="A40" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B40" s="1">
         <v>2021</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="E40" s="1">
-        <v>77</v>
-      </c>
-      <c r="F40" s="1">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>140</v>
+        <v>323</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="51">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="68">
       <c r="A41" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B41" s="1">
         <v>2021</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="1">
-        <v>64</v>
+        <v>143</v>
+      </c>
+      <c r="E41">
+        <v>16</v>
       </c>
       <c r="F41" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>258</v>
+        <v>150</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="51">
       <c r="A42" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B42" s="1">
         <v>2021</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E42" s="1">
-        <v>64</v>
-      </c>
-      <c r="F42" s="1">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>256</v>
+        <v>115</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>257</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="I42" s="10"/>
     </row>
     <row r="43" spans="1:9" ht="68">
       <c r="A43" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B43" s="1">
         <v>2021</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="E43" s="1">
-        <v>60</v>
+        <v>29</v>
+      </c>
+      <c r="F43" s="1">
+        <v>5</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>255</v>
+        <v>321</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>97</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="51">
       <c r="A44" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B44" s="1">
         <v>2021</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>202</v>
+        <v>7</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E44" s="1">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F44" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>253</v>
+        <v>112</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="68">
+        <v>113</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="51">
       <c r="A45" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B45" s="1">
         <v>2021</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>203</v>
+        <v>9</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E45" s="1">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="F45" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>254</v>
+        <v>140</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="51">
       <c r="A46" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B46" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E46" s="1">
-        <v>42</v>
+        <v>64</v>
+      </c>
+      <c r="F46" s="1">
+        <v>5</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>20</v>
+        <v>258</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>118</v>
+        <v>259</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="51">
       <c r="A47" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B47" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E47" s="1">
-        <v>18</v>
+        <v>64</v>
+      </c>
+      <c r="F47" s="1">
+        <v>5</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>24</v>
+        <v>256</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="51">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="68">
       <c r="A48" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B48" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>25</v>
+        <v>201</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="E48" s="1">
-        <v>63</v>
-      </c>
-      <c r="F48" s="1">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>26</v>
+        <v>255</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="51">
       <c r="A49" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B49" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E49" s="1">
-        <v>40</v>
+        <v>64</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>28</v>
+        <v>253</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="51">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="68">
       <c r="A50" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B50" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E50" s="1">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F50" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>30</v>
+        <v>254</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="51">
       <c r="A51" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B51" s="1">
         <v>2020</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E51" s="1">
-        <v>63</v>
-      </c>
-      <c r="F51" s="1">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="51">
       <c r="A52" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B52" s="1">
         <v>2020</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>206</v>
+        <v>22</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E52" s="1">
-        <v>51</v>
-      </c>
-      <c r="F52" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="51">
       <c r="A53" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B53" s="1">
         <v>2020</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E53" s="1">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="F53" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="68">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="51">
       <c r="A54" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B54" s="1">
         <v>2020</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E54" s="1">
-        <v>113</v>
-      </c>
-      <c r="F54" s="1">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="51">
       <c r="A55" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B55" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>38</v>
+        <v>205</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E55" s="1">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F55" s="1">
         <v>3</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="51">
       <c r="A56" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B56" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E56" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F56" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="51">
       <c r="A57" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B57" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E57" s="1">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="F57" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="51">
       <c r="A58" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B58" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>46</v>
+        <v>207</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E58" s="1">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="F58" s="1">
+        <v>2</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="51">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="68">
       <c r="A59" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B59" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>47</v>
+        <v>208</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E59" s="1">
-        <v>22</v>
+        <v>113</v>
+      </c>
+      <c r="F59" s="1">
+        <v>2</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="51">
       <c r="A60" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B60" s="1">
         <v>2019</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>209</v>
+        <v>38</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E60" s="1">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="F60" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="51">
       <c r="A61" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B61" s="1">
         <v>2019</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>260</v>
+        <v>41</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="E61" s="1">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="F61" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>210</v>
+        <v>42</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="51">
       <c r="A62" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B62" s="1">
         <v>2019</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E62" s="1">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="F62" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="51">
       <c r="A63" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B63" s="1">
         <v>2019</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="E63" s="1">
-        <v>81</v>
-      </c>
-      <c r="F63" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="68">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="51">
       <c r="A64" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B64" s="1">
         <v>2019</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="E64" s="1">
-        <v>62</v>
-      </c>
-      <c r="F64" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="51">
       <c r="A65" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B65" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="E65" s="1">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F65" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>340</v>
+        <v>131</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="51">
       <c r="A66" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B66" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>63</v>
+        <v>260</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E66" s="1">
-        <v>143</v>
+        <v>33</v>
       </c>
       <c r="F66" s="1">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="51">
       <c r="A67" s="1" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="B67" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="E67" s="1">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F67" s="1">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="68">
+        <v>55</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="51">
       <c r="A68" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B68" s="1">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>212</v>
+        <v>58</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E68" s="1">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="F68" s="1">
         <v>2</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="51">
+        <v>57</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="68">
       <c r="A69" s="1" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="B69" s="1">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>213</v>
+        <v>59</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E69" s="1">
+        <v>62</v>
+      </c>
+      <c r="F69" s="1">
+        <v>2</v>
+      </c>
+      <c r="G69" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G69" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="H69" s="1" t="s">
-        <v>136</v>
+        <v>338</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="51">
       <c r="A70" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B70" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E70" s="1">
-        <v>140</v>
+        <v>3</v>
       </c>
       <c r="F70" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>137</v>
+        <v>339</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="51">
       <c r="A71" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B71" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>215</v>
+        <v>63</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E71" s="1">
-        <v>10</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>73</v>
+        <v>143</v>
+      </c>
+      <c r="F71" s="1">
+        <v>3</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="68">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="51">
       <c r="A72" s="1" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="B72" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="E72" s="1">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="F72" s="1">
         <v>5</v>
       </c>
-      <c r="G72" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="H72" s="1" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="68">
       <c r="A73" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B73" s="1">
         <v>2017</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E73" s="1">
-        <v>55</v>
+        <v>9</v>
+      </c>
+      <c r="F73" s="1">
+        <v>2</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="51">
       <c r="A74" s="1" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="B74" s="1">
         <v>2017</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E74" s="1">
-        <v>36</v>
-      </c>
-      <c r="F74" s="1">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="51">
       <c r="A75" s="1" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="B75" s="1">
         <v>2017</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>84</v>
+        <v>214</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="E75" s="1">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="F75" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>86</v>
+        <v>137</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="51">
       <c r="A76" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B76" s="1">
         <v>2017</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E76" s="1">
-        <v>30</v>
-      </c>
-      <c r="F76" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="51">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="68">
       <c r="A77" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B77" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>218</v>
+        <v>74</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="E77" s="1">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="F77" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="51">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="68">
       <c r="A78" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B78" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E78" s="1">
-        <v>1</v>
-      </c>
-      <c r="F78" s="1">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="68">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="51">
       <c r="A79" s="1" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B79" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E79" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F79" s="1">
         <v>6</v>
       </c>
       <c r="G79" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="51">
+      <c r="A80" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B80" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="1">
+        <v>60</v>
+      </c>
+      <c r="F80" s="1">
+        <v>3</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="51">
+      <c r="A81" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B81" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E81" s="1">
+        <v>30</v>
+      </c>
+      <c r="F81" s="1">
+        <v>2</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="51">
+      <c r="A82" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B82" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1</v>
+      </c>
+      <c r="F82" s="1">
+        <v>2</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="51">
+      <c r="A83" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B83" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E83" s="1">
+        <v>1</v>
+      </c>
+      <c r="F83" s="1">
+        <v>2</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="68">
+      <c r="A84" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B84" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E84" s="1">
+        <v>37</v>
+      </c>
+      <c r="F84" s="1">
+        <v>6</v>
+      </c>
+      <c r="G84" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="H84" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="68">
+      <c r="A85" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B85" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E85" s="1">
+        <v>115</v>
+      </c>
+      <c r="F85" s="1">
+        <v>5</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H85" s="1" t="s">
         <v>344</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="68">
-      <c r="A80" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B80" s="1">
-        <v>2015</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E80" s="1">
-        <v>115</v>
-      </c>
-      <c r="F80" s="1">
-        <v>5</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -3799,7 +3996,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17">
       <c r="A1" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3811,36 +4008,36 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>382</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="34">
       <c r="A2" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C2" s="1">
         <v>2023</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E2" s="12">
         <v>45108</v>
@@ -3849,13 +4046,13 @@
         <v>46934</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>352</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J2" s="11">
         <v>2329452</v>
@@ -3863,16 +4060,16 @@
     </row>
     <row r="3" spans="1:10" ht="34">
       <c r="A3" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C3" s="1">
         <v>2023</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E3" s="12">
         <v>45108</v>
@@ -3881,10 +4078,10 @@
         <v>45657</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J3" s="11">
         <v>150000</v>
@@ -3892,16 +4089,16 @@
     </row>
     <row r="4" spans="1:10" ht="51">
       <c r="A4" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C4" s="1">
         <v>2020</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E4" s="12">
         <v>44075</v>
@@ -3910,13 +4107,13 @@
         <v>45534</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J4" s="11">
         <v>2296000</v>
@@ -3924,16 +4121,16 @@
     </row>
     <row r="5" spans="1:10" ht="85">
       <c r="A5" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C5" s="1">
         <v>2020</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E5" s="12">
         <v>44013</v>
@@ -3942,13 +4139,13 @@
         <v>45473</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>367</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J5" s="11">
         <v>499927</v>
@@ -3956,16 +4153,16 @@
     </row>
     <row r="6" spans="1:10" ht="68">
       <c r="A6" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C6" s="1">
         <v>2020</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E6" s="12">
         <v>44075</v>
@@ -3974,13 +4171,13 @@
         <v>45169</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J6" s="11">
         <v>1099997</v>
@@ -3988,16 +4185,16 @@
     </row>
     <row r="7" spans="1:10" ht="34">
       <c r="A7" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C7" s="1">
         <v>2020</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E7" s="12">
         <v>43922</v>
@@ -4006,13 +4203,13 @@
         <v>45016</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>376</v>
       </c>
       <c r="J7" s="11">
         <v>430000</v>
@@ -4020,16 +4217,16 @@
     </row>
     <row r="8" spans="1:10" ht="34">
       <c r="A8" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C8" s="1">
         <v>2020</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E8" s="12">
         <v>44013</v>
@@ -4038,13 +4235,13 @@
         <v>44742</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J8" s="11">
         <v>420000</v>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tysonbarrett/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B937088A-7E47-7543-A0B2-EF310B348D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BC9237-8463-A442-A4E1-367ED619E15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4260" yWindow="740" windowWidth="24540" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Presentations" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$31</definedName>
+    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$32</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="444">
   <si>
     <t>authors</t>
   </si>
@@ -1349,9 +1349,6 @@
     <t>doi: 10.1089/aut.2023.0143</t>
   </si>
   <si>
-    <t>Fears of Stigma Perceived from Unit Leaders for Seeking Psychological Services for Military Sexual Trauma Sequelae is Associated with Suicide Risk among Male Service Members and Veterans</t>
-  </si>
-  <si>
     <t>Blais, R. K., Hoyt, T. V., Tannahill, H., &amp; Barrett, T. S.</t>
   </si>
   <si>
@@ -1362,6 +1359,18 @@
   </si>
   <si>
     <t>doi: 10.1044/2024_JSLHR-23-00622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joseph, E. A., Anees, M., Barrett, T. S., Aliu, O., Wagner, P. L., Barlett, D. L., &amp; Allen, C. J. </t>
+  </si>
+  <si>
+    <t>Advanced Care Planning Prior to Oncologic Surgery: An Assessment of Utilization and Implications.</t>
+  </si>
+  <si>
+    <t>Fears of Stigma Perceived from Unit Leaders for Seeking Psychological Services for Military Sexual Trauma Sequelae is Associated with Suicide Risk among Male Service Members and Veterans.</t>
+  </si>
+  <si>
+    <t>Annals of Surgical Oncology</t>
   </si>
 </sst>
 </file>
@@ -1813,10 +1822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BAB23D-B27F-A34D-A522-4C115B575C05}">
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1864,1107 +1873,1093 @@
     </row>
     <row r="2" spans="1:9" ht="68">
       <c r="A2" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="34">
       <c r="A3" s="1" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="34">
       <c r="A4" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="68">
-      <c r="A5" s="15" t="s">
-        <v>426</v>
+    <row r="5" spans="1:9" ht="34">
+      <c r="A5" s="1" t="s">
+        <v>427</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>143</v>
+        <v>428</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="68">
-      <c r="A6" s="1" t="s">
-        <v>418</v>
+      <c r="A6" s="15" t="s">
+        <v>426</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>419</v>
+        <v>143</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="51">
+    </row>
+    <row r="7" spans="1:9" ht="68">
       <c r="A7" s="1" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>419</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="51">
       <c r="A8" s="1" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>389</v>
+        <v>11</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>406</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="51">
       <c r="A9" s="1" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="68">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="51">
       <c r="A10" s="1" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="68">
+      <c r="A11" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" ht="51">
-      <c r="A11" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E11" s="1">
-        <v>21</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>385</v>
-      </c>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" ht="51">
       <c r="A12" s="1" t="s">
-        <v>301</v>
+        <v>382</v>
       </c>
       <c r="B12" s="1">
         <v>2024</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="E12" s="1">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>433</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="51">
       <c r="A13" s="1" t="s">
-        <v>414</v>
+        <v>301</v>
       </c>
       <c r="B13" s="1">
         <v>2024</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="E13" s="1">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F13" s="1">
-        <v>3</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>417</v>
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>432</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="51">
       <c r="A14" s="1" t="s">
-        <v>268</v>
+        <v>414</v>
       </c>
       <c r="B14" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>269</v>
+        <v>412</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>270</v>
+        <v>413</v>
       </c>
       <c r="E14" s="1">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F14" s="1">
         <v>3</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>402</v>
+      <c r="G14" s="1" t="s">
+        <v>417</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="51">
       <c r="A15" s="1" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="B15" s="1">
         <v>2023</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>410</v>
+        <v>269</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="E15" s="1">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="F15" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="68">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="51">
       <c r="A16" s="1" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="B16" s="1">
         <v>2023</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>298</v>
+        <v>410</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>299</v>
+        <v>11</v>
       </c>
       <c r="E16" s="1">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="F16" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="1:9" ht="51">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="68">
       <c r="A17" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B17" s="1">
         <v>2023</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>411</v>
+        <v>298</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>299</v>
       </c>
       <c r="E17" s="1">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="F17" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>386</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" ht="51">
       <c r="A18" s="1" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="B18" s="1">
         <v>2023</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
       <c r="E18" s="1">
-        <v>38</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>397</v>
+        <v>66</v>
+      </c>
+      <c r="F18" s="1">
+        <v>10</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="51">
       <c r="A19" s="1" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="B19" s="1">
         <v>2023</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>291</v>
+        <v>396</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>11</v>
+        <v>264</v>
       </c>
       <c r="E19" s="1">
-        <v>66</v>
-      </c>
-      <c r="F19" s="1">
-        <v>5</v>
+        <v>38</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>397</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>314</v>
+        <v>398</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>316</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="51">
       <c r="A20" s="1" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="B20" s="1">
         <v>2023</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>308</v>
+        <v>11</v>
       </c>
       <c r="E20" s="1">
-        <v>32</v>
+        <v>66</v>
+      </c>
+      <c r="F20" s="1">
+        <v>5</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="51">
-      <c r="A21" s="5" t="s">
-        <v>286</v>
+      <c r="A21" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="B21" s="1">
         <v>2023</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>11</v>
+        <v>308</v>
+      </c>
+      <c r="E21" s="1">
+        <v>32</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="51">
-      <c r="A22" s="1" t="s">
-        <v>285</v>
+      <c r="A22" s="5" t="s">
+        <v>286</v>
       </c>
       <c r="B22" s="1">
         <v>2023</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E22" s="1">
-        <v>13</v>
-      </c>
-      <c r="F22" s="1">
-        <v>2</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>310</v>
+        <v>11</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="68">
-      <c r="A23" s="5" t="s">
-        <v>247</v>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="51">
+      <c r="A23" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="B23" s="1">
         <v>2023</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>94</v>
+        <v>284</v>
       </c>
       <c r="E23" s="1">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="F23" s="1">
-        <v>5</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>302</v>
+        <v>2</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>310</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>251</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="68">
-      <c r="A24" s="1" t="s">
-        <v>292</v>
+      <c r="A24" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="B24" s="1">
         <v>2023</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="1">
+        <v>62</v>
+      </c>
+      <c r="F24" s="1">
+        <v>5</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="68">
+      <c r="A25" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E25" s="1">
         <v>38</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F25" s="8">
         <v>44989</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="51">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:9" ht="51">
+      <c r="A26" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="B25" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="1">
-        <v>66</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="68">
-      <c r="A26" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="B26" s="1">
         <v>2022</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
       <c r="E26" s="1">
         <v>66</v>
       </c>
       <c r="F26" s="1">
-        <v>9</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>400</v>
+        <v>1</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>309</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="I26" s="10"/>
-    </row>
-    <row r="27" spans="1:9" ht="51">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="68">
       <c r="A27" s="1" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="B27" s="1">
         <v>2022</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E27" s="1">
-        <v>26</v>
+        <v>66</v>
+      </c>
+      <c r="F27" s="1">
+        <v>9</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>277</v>
+        <v>400</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>280</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="I27" s="10"/>
     </row>
     <row r="28" spans="1:9" ht="51">
       <c r="A28" s="1" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="B28" s="1">
         <v>2022</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="E28" s="1">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>332</v>
+        <v>277</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>334</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="51">
-      <c r="A29" s="5" t="s">
-        <v>249</v>
+      <c r="A29" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="B29" s="1">
         <v>2022</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>11</v>
+        <v>262</v>
       </c>
       <c r="E29" s="1">
-        <v>65</v>
-      </c>
-      <c r="F29" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="68">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="51">
       <c r="A30" s="5" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="B30" s="1">
         <v>2022</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>227</v>
+        <v>11</v>
       </c>
       <c r="E30" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="F30" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" ht="51">
-      <c r="A31" s="6" t="s">
-        <v>241</v>
+        <v>318</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="68">
+      <c r="A31" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="B31" s="1">
         <v>2022</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="E31" s="1">
-        <v>82</v>
+        <v>31</v>
+      </c>
+      <c r="F31" s="1">
+        <v>4</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>331</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="I31" s="7"/>
     </row>
     <row r="32" spans="1:9" ht="51">
-      <c r="A32" s="1" t="s">
-        <v>265</v>
+      <c r="A32" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="B32" s="1">
         <v>2022</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>145</v>
+        <v>244</v>
       </c>
       <c r="E32" s="1">
-        <v>31</v>
-      </c>
-      <c r="F32" s="1">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>271</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="51">
-      <c r="A33" s="5" t="s">
-        <v>239</v>
+      <c r="A33" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="B33" s="1">
         <v>2022</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="E33" s="1">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F33" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="51">
       <c r="A34" s="5" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B34" s="1">
         <v>2022</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>233</v>
+        <v>34</v>
       </c>
       <c r="E34" s="1">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F34" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="51">
       <c r="A35" s="5" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B35" s="1">
         <v>2022</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E35" s="1">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F35" s="1">
         <v>6</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="51">
-      <c r="A36" s="1" t="s">
-        <v>153</v>
+      <c r="A36" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="B36" s="1">
         <v>2022</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>148</v>
+        <v>231</v>
       </c>
       <c r="E36" s="1">
-        <v>51</v>
+        <v>27</v>
+      </c>
+      <c r="F36" s="1">
+        <v>6</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="68">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="51">
       <c r="A37" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B37" s="1">
         <v>2022</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>146</v>
+        <v>225</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E37" s="1">
-        <v>31</v>
-      </c>
-      <c r="F37" s="1">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="51">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="68">
       <c r="A38" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B38" s="1">
         <v>2022</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="E38" s="1">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="F38" s="1">
         <v>2</v>
       </c>
       <c r="G38" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="51">
+      <c r="A39" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="1">
+        <v>65</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I39" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="68">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:9" ht="68">
+      <c r="A40" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="B39" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E39" s="1">
-        <v>131</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="51">
-      <c r="A40" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="B40" s="1">
         <v>2021</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E40" s="1">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>323</v>
+        <v>224</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="68">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="51">
       <c r="A41" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B41" s="1">
         <v>2021</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E41">
-        <v>16</v>
-      </c>
-      <c r="F41" s="1">
-        <v>10</v>
+        <v>139</v>
+      </c>
+      <c r="E41" s="1">
+        <v>21</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>150</v>
+        <v>323</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="51">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="68">
       <c r="A42" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B42" s="1">
         <v>2021</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="1">
-        <v>38</v>
+        <v>143</v>
+      </c>
+      <c r="E42">
+        <v>16</v>
+      </c>
+      <c r="F42" s="1">
+        <v>10</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I42" s="10"/>
-    </row>
-    <row r="43" spans="1:9" ht="68">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="51">
       <c r="A43" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B43" s="1">
         <v>2021</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>199</v>
+        <v>5</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="E43" s="1">
-        <v>29</v>
-      </c>
-      <c r="F43" s="1">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>321</v>
+        <v>115</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="51">
+        <v>114</v>
+      </c>
+      <c r="I43" s="10"/>
+    </row>
+    <row r="44" spans="1:9" ht="68">
       <c r="A44" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B44" s="1">
         <v>2021</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>7</v>
+        <v>199</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="E44" s="1">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F44" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>112</v>
+        <v>321</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>95</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="51">
       <c r="A45" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B45" s="1">
         <v>2021</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E45" s="1">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F45" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="51">
       <c r="A46" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B46" s="1">
         <v>2021</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>200</v>
+        <v>9</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E46" s="1">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F46" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>258</v>
+        <v>140</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="51">
       <c r="A47" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B47" s="1">
         <v>2021</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>11</v>
@@ -2976,931 +2971,934 @@
         <v>5</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="68">
+        <v>259</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="51">
       <c r="A48" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B48" s="1">
         <v>2021</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="E48" s="1">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="F48" s="1">
+        <v>5</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="51">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="68">
       <c r="A49" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B49" s="1">
         <v>2021</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="E49" s="1">
-        <v>64</v>
-      </c>
-      <c r="F49" s="1">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="68">
+        <v>116</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="51">
       <c r="A50" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B50" s="1">
         <v>2021</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="1">
+        <v>64</v>
+      </c>
+      <c r="F50" s="1">
+        <v>2</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="68">
+      <c r="A51" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E51" s="1">
         <v>23</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F51" s="1">
         <v>5</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G51" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I51" s="1" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="51">
-      <c r="A51" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B51" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="1">
-        <v>42</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="51">
       <c r="A52" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B52" s="1">
         <v>2020</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E52" s="1">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="51">
       <c r="A53" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B53" s="1">
         <v>2020</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E53" s="1">
-        <v>63</v>
-      </c>
-      <c r="F53" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="51">
       <c r="A54" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B54" s="1">
         <v>2020</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>204</v>
+        <v>25</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E54" s="1">
-        <v>40</v>
+        <v>63</v>
+      </c>
+      <c r="F54" s="1">
+        <v>6</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="51">
       <c r="A55" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B55" s="1">
         <v>2020</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E55" s="1">
-        <v>51</v>
-      </c>
-      <c r="F55" s="1">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="51">
       <c r="A56" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B56" s="1">
         <v>2020</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E56" s="1">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F56" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="51">
       <c r="A57" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B57" s="1">
         <v>2020</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>206</v>
+        <v>31</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E57" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F57" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="51">
       <c r="A58" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B58" s="1">
         <v>2020</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E58" s="1">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F58" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="68">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="51">
       <c r="A59" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B59" s="1">
         <v>2020</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E59" s="1">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="F59" s="1">
         <v>2</v>
       </c>
       <c r="G59" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="68">
+      <c r="A60" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" s="1">
+        <v>113</v>
+      </c>
+      <c r="F60" s="1">
+        <v>2</v>
+      </c>
+      <c r="G60" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="H60" s="1" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="51">
-      <c r="A60" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B60" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E60" s="1">
-        <v>61</v>
-      </c>
-      <c r="F60" s="1">
-        <v>3</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="51">
       <c r="A61" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B61" s="1">
         <v>2019</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E61" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F61" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="51">
       <c r="A62" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B62" s="1">
         <v>2019</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="E62" s="1">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F62" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="51">
       <c r="A63" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B63" s="1">
         <v>2019</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E63" s="1">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="F63" s="1">
+        <v>10</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="51">
       <c r="A64" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B64" s="1">
         <v>2019</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E64" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="51">
       <c r="A65" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B65" s="1">
         <v>2019</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>209</v>
+        <v>47</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E65" s="1">
-        <v>20</v>
-      </c>
-      <c r="F65" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="51">
       <c r="A66" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B66" s="1">
         <v>2019</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E66" s="1">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F66" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>210</v>
+        <v>51</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="51">
       <c r="A67" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B67" s="1">
         <v>2019</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>53</v>
+        <v>260</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E67" s="1">
-        <v>145</v>
+        <v>33</v>
       </c>
       <c r="F67" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="51">
       <c r="A68" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B68" s="1">
         <v>2019</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E68" s="1">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="F68" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="68">
+        <v>55</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="51">
       <c r="A69" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B69" s="1">
         <v>2019</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="E69" s="1">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F69" s="1">
         <v>2</v>
       </c>
       <c r="G69" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="68">
+      <c r="A70" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B70" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="1">
+        <v>62</v>
+      </c>
+      <c r="F70" s="1">
+        <v>2</v>
+      </c>
+      <c r="G70" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="H70" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="I69" s="1" t="s">
+      <c r="I70" s="1" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="51">
-      <c r="A70" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B70" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E70" s="1">
-        <v>3</v>
-      </c>
-      <c r="F70" s="1">
-        <v>1</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="51">
       <c r="A71" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B71" s="1">
         <v>2018</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>63</v>
+        <v>211</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E71" s="1">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="F71" s="1">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>134</v>
+        <v>339</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="51">
       <c r="A72" s="1" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="B72" s="1">
         <v>2018</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E72" s="1">
         <v>143</v>
       </c>
       <c r="F72" s="1">
+        <v>3</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="51">
+      <c r="A73" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B73" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E73" s="1">
+        <v>143</v>
+      </c>
+      <c r="F73" s="1">
         <v>5</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="H73" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="68">
-      <c r="A73" s="1" t="s">
+    <row r="74" spans="1:9" ht="68">
+      <c r="A74" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B73" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E73" s="1">
-        <v>9</v>
-      </c>
-      <c r="F73" s="1">
-        <v>2</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="51">
-      <c r="A74" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="B74" s="1">
         <v>2017</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="E74" s="1">
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="F74" s="1">
+        <v>2</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>136</v>
+        <v>68</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="51">
       <c r="A75" s="1" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="B75" s="1">
         <v>2017</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="E75" s="1">
-        <v>140</v>
-      </c>
-      <c r="F75" s="1">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="51">
       <c r="A76" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B76" s="1">
         <v>2017</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E76" s="1">
-        <v>10</v>
+        <v>140</v>
+      </c>
+      <c r="F76" s="1">
+        <v>6</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="68">
+        <v>137</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="51">
       <c r="A77" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B77" s="1">
         <v>2017</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E77" s="1">
-        <v>111</v>
-      </c>
-      <c r="F77" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="68">
       <c r="A78" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B78" s="1">
         <v>2017</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="E78" s="1">
-        <v>55</v>
+        <v>111</v>
+      </c>
+      <c r="F78" s="1">
+        <v>5</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="51">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="68">
       <c r="A79" s="1" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B79" s="1">
         <v>2017</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E79" s="1">
-        <v>36</v>
-      </c>
-      <c r="F79" s="1">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="51">
       <c r="A80" s="1" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="B80" s="1">
         <v>2017</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E80" s="1">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F80" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="51">
       <c r="A81" s="1" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="B81" s="1">
         <v>2017</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>217</v>
+        <v>84</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="E81" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F81" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>340</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="51">
       <c r="A82" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B82" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E82" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F82" s="1">
         <v>2</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="51">
       <c r="A83" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B83" s="1">
         <v>2016</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>61</v>
@@ -3912,61 +3910,87 @@
         <v>2</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="68">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="51">
       <c r="A84" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B84" s="1">
         <v>2016</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="E84" s="1">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="F84" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="68">
       <c r="A85" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B85" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E85" s="1">
+        <v>37</v>
+      </c>
+      <c r="F85" s="1">
+        <v>6</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="68">
+      <c r="A86" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B86" s="1">
         <v>2015</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E85" s="1">
+      <c r="E86" s="1">
         <v>115</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F86" s="1">
         <v>5</v>
       </c>
-      <c r="G85" s="4" t="s">
+      <c r="G86" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H85" s="1" t="s">
+      <c r="H86" s="1" t="s">
         <v>344</v>
       </c>
     </row>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tysonbarrett/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BC9237-8463-A442-A4E1-367ED619E15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F892CD-8F82-B74A-8F7F-43B5DE65D64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4260" yWindow="740" windowWidth="24540" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
@@ -1349,9 +1349,6 @@
     <t>doi: 10.1089/aut.2023.0143</t>
   </si>
   <si>
-    <t>Blais, R. K., Hoyt, T. V., Tannahill, H., &amp; Barrett, T. S.</t>
-  </si>
-  <si>
     <t>Stigma and Health</t>
   </si>
   <si>
@@ -1371,6 +1368,9 @@
   </si>
   <si>
     <t>Annals of Surgical Oncology</t>
+  </si>
+  <si>
+    <t>Blais, R. K., Barrett, T. S., Tannahill, H. S., &amp; Hoyt, T. </t>
   </si>
 </sst>
 </file>
@@ -1825,7 +1825,7 @@
   <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1873,31 +1873,31 @@
     </row>
     <row r="2" spans="1:9" ht="68">
       <c r="A2" s="1" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="34">
       <c r="A3" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="51">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="51">

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tysonbarrett/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F892CD-8F82-B74A-8F7F-43B5DE65D64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C638F1F-4FC3-6749-AD76-CBC180701121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="740" windowWidth="24540" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
+    <workbookView xWindow="4260" yWindow="740" windowWidth="24540" windowHeight="16520" activeTab="1" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
   <sheets>
     <sheet name="Journals" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="448">
   <si>
     <t>authors</t>
   </si>
@@ -1371,6 +1371,18 @@
   </si>
   <si>
     <t>Blais, R. K., Barrett, T. S., Tannahill, H. S., &amp; Hoyt, T. </t>
+  </si>
+  <si>
+    <t>NSF</t>
+  </si>
+  <si>
+    <t>Hocking, T. (PI) Barrett, T. S. (Consultant)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSE: Phase II: Expanding the data.table ecosystem for efficient big data manipulation in R </t>
+  </si>
+  <si>
+    <t>NSF POSE Phase II</t>
   </si>
 </sst>
 </file>
@@ -1824,7 +1836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BAB23D-B27F-A34D-A522-4C115B575C05}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -4001,10 +4013,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3DB5C68-0218-0246-B22C-8D069C454BCB}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4082,161 +4094,161 @@
         <v>2329452</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="34">
+    <row r="3" spans="1:10" ht="51">
       <c r="A3" s="1" t="s">
-        <v>358</v>
+        <v>447</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>357</v>
+        <v>445</v>
       </c>
       <c r="C3" s="1">
         <v>2023</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>356</v>
+        <v>446</v>
       </c>
       <c r="E3" s="12">
         <v>45108</v>
       </c>
       <c r="F3" s="12">
-        <v>45657</v>
+        <v>45838</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>358</v>
+        <v>444</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2303612</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>353</v>
       </c>
       <c r="J3" s="11">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="51">
+        <v>731000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="34">
       <c r="A4" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C4" s="1">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E4" s="12">
-        <v>44075</v>
+        <v>45108</v>
       </c>
       <c r="F4" s="12">
-        <v>45534</v>
+        <v>45657</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>353</v>
       </c>
       <c r="J4" s="11">
-        <v>2296000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="85">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="51">
       <c r="A5" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C5" s="1">
         <v>2020</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E5" s="12">
-        <v>44013</v>
+        <v>44075</v>
       </c>
       <c r="F5" s="12">
-        <v>45473</v>
+        <v>45534</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>353</v>
       </c>
       <c r="J5" s="11">
-        <v>499927</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="68">
+        <v>2296000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="85">
       <c r="A6" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C6" s="1">
         <v>2020</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E6" s="12">
-        <v>44075</v>
+        <v>44013</v>
       </c>
       <c r="F6" s="12">
-        <v>45169</v>
+        <v>45473</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="J6" s="11">
+        <v>499927</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="68">
+      <c r="A7" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="J6" s="11">
-        <v>1099997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="34">
-      <c r="A7" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="B7" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C7" s="1">
         <v>2020</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E7" s="12">
-        <v>43922</v>
+        <v>44075</v>
       </c>
       <c r="F7" s="12">
-        <v>45016</v>
+        <v>45169</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>375</v>
       </c>
       <c r="J7" s="11">
-        <v>430000</v>
+        <v>1099997</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34">
@@ -4244,30 +4256,62 @@
         <v>376</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C8" s="1">
         <v>2020</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="E8" s="12">
-        <v>44013</v>
+        <v>43922</v>
       </c>
       <c r="F8" s="12">
-        <v>44742</v>
+        <v>45016</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>350</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>375</v>
       </c>
       <c r="J8" s="11">
+        <v>430000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="34">
+      <c r="A9" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E9" s="12">
+        <v>44013</v>
+      </c>
+      <c r="F9" s="12">
+        <v>44742</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J9" s="11">
         <v>420000</v>
       </c>
     </row>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tysonbarrett/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C638F1F-4FC3-6749-AD76-CBC180701121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADE2DBD-3F41-9D40-B641-C2B684AD002F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="740" windowWidth="24540" windowHeight="16520" activeTab="1" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
+    <workbookView xWindow="4260" yWindow="740" windowWidth="24540" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
   <sheets>
     <sheet name="Journals" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Presentations" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$32</definedName>
+    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$33</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="449">
   <si>
     <t>authors</t>
   </si>
@@ -1313,9 +1313,6 @@
     <t>Clinical and Financial Significance of Insomnia within a Large Payor-Provider Health System.</t>
   </si>
   <si>
-    <t>SLEEP</t>
-  </si>
-  <si>
     <t>Karlin, B. E., Anderson, R. J., Rung, J. M., Drury-Gworek, C., &amp; Barrett, T. S.</t>
   </si>
   <si>
@@ -1383,6 +1380,12 @@
   </si>
   <si>
     <t>NSF POSE Phase II</t>
+  </si>
+  <si>
+    <t>SLEEP Advances</t>
+  </si>
+  <si>
+    <t>Impact of Real-World Implementation of Evidence-Based Insomnia Treatment within a Large Payor-Provider Health System: Initial Provider and Patient-Level Outcomes</t>
   </si>
 </sst>
 </file>
@@ -1834,10 +1837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BAB23D-B27F-A34D-A522-4C115B575C05}">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1885,22 +1888,22 @@
     </row>
     <row r="2" spans="1:9" ht="68">
       <c r="A2" s="1" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="34">
+    <row r="3" spans="1:9" ht="68">
       <c r="A3" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>296</v>
@@ -1909,1098 +1912,1084 @@
         <v>440</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="34">
       <c r="A4" s="1" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="34">
       <c r="A5" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="68">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:9" ht="34">
+      <c r="A6" s="1" t="s">
         <v>426</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>143</v>
+        <v>427</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="68">
-      <c r="A7" s="1" t="s">
-        <v>418</v>
+      <c r="A7" s="15" t="s">
+        <v>425</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>419</v>
+        <v>143</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="51">
+    </row>
+    <row r="8" spans="1:9" ht="68">
       <c r="A8" s="1" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>419</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="51">
       <c r="A9" s="1" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>389</v>
+        <v>11</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>406</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="51">
       <c r="A10" s="1" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="68">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="51">
       <c r="A11" s="1" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" ht="51">
+      <c r="I11" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="68">
       <c r="A12" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2024</v>
+        <v>387</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E12" s="1">
-        <v>21</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>431</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>385</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" ht="51">
       <c r="A13" s="1" t="s">
-        <v>301</v>
+        <v>382</v>
       </c>
       <c r="B13" s="1">
         <v>2024</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="E13" s="1">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>433</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="51">
       <c r="A14" s="1" t="s">
-        <v>414</v>
+        <v>301</v>
       </c>
       <c r="B14" s="1">
         <v>2024</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="E14" s="1">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F14" s="1">
-        <v>3</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>417</v>
+        <v>1</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>431</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="51">
       <c r="A15" s="1" t="s">
-        <v>268</v>
+        <v>414</v>
       </c>
       <c r="B15" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>269</v>
+        <v>412</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>270</v>
+        <v>413</v>
       </c>
       <c r="E15" s="1">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F15" s="1">
         <v>3</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>402</v>
+      <c r="G15" s="1" t="s">
+        <v>417</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="51">
       <c r="A16" s="1" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="B16" s="1">
         <v>2023</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>410</v>
+        <v>269</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="E16" s="1">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="F16" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="68">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="51">
       <c r="A17" s="1" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="B17" s="1">
         <v>2023</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>298</v>
+        <v>410</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>299</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="F17" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="1:9" ht="51">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="68">
       <c r="A18" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B18" s="1">
         <v>2023</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>411</v>
+        <v>298</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>11</v>
+        <v>299</v>
       </c>
       <c r="E18" s="1">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="F18" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>386</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9" ht="51">
       <c r="A19" s="1" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="B19" s="1">
         <v>2023</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
       <c r="E19" s="1">
-        <v>38</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>397</v>
+        <v>66</v>
+      </c>
+      <c r="F19" s="1">
+        <v>10</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="51">
       <c r="A20" s="1" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="B20" s="1">
         <v>2023</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>291</v>
+        <v>396</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>11</v>
+        <v>264</v>
       </c>
       <c r="E20" s="1">
-        <v>66</v>
-      </c>
-      <c r="F20" s="1">
-        <v>5</v>
+        <v>38</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>397</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>314</v>
+        <v>398</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>316</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="51">
       <c r="A21" s="1" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="B21" s="1">
         <v>2023</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>308</v>
+        <v>11</v>
       </c>
       <c r="E21" s="1">
-        <v>32</v>
+        <v>66</v>
+      </c>
+      <c r="F21" s="1">
+        <v>5</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="51">
-      <c r="A22" s="5" t="s">
-        <v>286</v>
+      <c r="A22" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="B22" s="1">
         <v>2023</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>11</v>
+        <v>308</v>
+      </c>
+      <c r="E22" s="1">
+        <v>32</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="51">
-      <c r="A23" s="1" t="s">
-        <v>285</v>
+      <c r="A23" s="5" t="s">
+        <v>286</v>
       </c>
       <c r="B23" s="1">
         <v>2023</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E23" s="1">
-        <v>13</v>
-      </c>
-      <c r="F23" s="1">
-        <v>2</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>310</v>
+        <v>11</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="68">
-      <c r="A24" s="5" t="s">
-        <v>247</v>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="51">
+      <c r="A24" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="B24" s="1">
         <v>2023</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>94</v>
+        <v>284</v>
       </c>
       <c r="E24" s="1">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="F24" s="1">
-        <v>5</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>302</v>
+        <v>2</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>310</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>251</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="68">
-      <c r="A25" s="1" t="s">
-        <v>292</v>
+      <c r="A25" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="B25" s="1">
         <v>2023</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="1">
+        <v>62</v>
+      </c>
+      <c r="F25" s="1">
+        <v>5</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="68">
+      <c r="A26" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E26" s="1">
         <v>38</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F26" s="8">
         <v>44989</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="51">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:9" ht="51">
+      <c r="A27" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="B26" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="1">
-        <v>66</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="68">
-      <c r="A27" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="B27" s="1">
         <v>2022</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
       <c r="E27" s="1">
         <v>66</v>
       </c>
       <c r="F27" s="1">
-        <v>9</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>400</v>
+        <v>1</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>309</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="1:9" ht="51">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="68">
       <c r="A28" s="1" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="B28" s="1">
         <v>2022</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E28" s="1">
-        <v>26</v>
+        <v>66</v>
+      </c>
+      <c r="F28" s="1">
+        <v>9</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>277</v>
+        <v>400</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>280</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="I28" s="10"/>
     </row>
     <row r="29" spans="1:9" ht="51">
       <c r="A29" s="1" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="B29" s="1">
         <v>2022</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="E29" s="1">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>332</v>
+        <v>277</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>334</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="51">
-      <c r="A30" s="5" t="s">
-        <v>249</v>
+      <c r="A30" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="B30" s="1">
         <v>2022</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>11</v>
+        <v>262</v>
       </c>
       <c r="E30" s="1">
-        <v>65</v>
-      </c>
-      <c r="F30" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="68">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="51">
       <c r="A31" s="5" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="B31" s="1">
         <v>2022</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>227</v>
+        <v>11</v>
       </c>
       <c r="E31" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="F31" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="1:9" ht="51">
-      <c r="A32" s="6" t="s">
-        <v>241</v>
+        <v>318</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="68">
+      <c r="A32" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="B32" s="1">
         <v>2022</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="E32" s="1">
-        <v>82</v>
+        <v>31</v>
+      </c>
+      <c r="F32" s="1">
+        <v>4</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>331</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="I32" s="7"/>
     </row>
     <row r="33" spans="1:9" ht="51">
-      <c r="A33" s="1" t="s">
-        <v>265</v>
+      <c r="A33" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="B33" s="1">
         <v>2022</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>145</v>
+        <v>244</v>
       </c>
       <c r="E33" s="1">
-        <v>31</v>
-      </c>
-      <c r="F33" s="1">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>271</v>
+        <v>331</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="51">
-      <c r="A34" s="5" t="s">
-        <v>239</v>
+      <c r="A34" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="B34" s="1">
         <v>2022</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="E34" s="1">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F34" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="51">
       <c r="A35" s="5" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B35" s="1">
         <v>2022</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>233</v>
+        <v>34</v>
       </c>
       <c r="E35" s="1">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F35" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="51">
       <c r="A36" s="5" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B36" s="1">
         <v>2022</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E36" s="1">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F36" s="1">
         <v>6</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="51">
-      <c r="A37" s="1" t="s">
-        <v>153</v>
+      <c r="A37" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="B37" s="1">
         <v>2022</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>148</v>
+        <v>231</v>
       </c>
       <c r="E37" s="1">
-        <v>51</v>
+        <v>27</v>
+      </c>
+      <c r="F37" s="1">
+        <v>6</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="68">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="51">
       <c r="A38" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B38" s="1">
         <v>2022</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>146</v>
+        <v>225</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E38" s="1">
-        <v>31</v>
-      </c>
-      <c r="F38" s="1">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="51">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="68">
       <c r="A39" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B39" s="1">
         <v>2022</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="E39" s="1">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="F39" s="1">
         <v>2</v>
       </c>
       <c r="G39" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="51">
+      <c r="A40" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="1">
+        <v>65</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="68">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:9" ht="68">
+      <c r="A41" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="B40" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E40" s="1">
-        <v>131</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="51">
-      <c r="A41" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="B41" s="1">
         <v>2021</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E41" s="1">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>323</v>
+        <v>224</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="68">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="51">
       <c r="A42" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B42" s="1">
         <v>2021</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E42">
-        <v>16</v>
-      </c>
-      <c r="F42" s="1">
-        <v>10</v>
+        <v>139</v>
+      </c>
+      <c r="E42" s="1">
+        <v>21</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>150</v>
+        <v>323</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="51">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="68">
       <c r="A43" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B43" s="1">
         <v>2021</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="1">
-        <v>38</v>
+        <v>143</v>
+      </c>
+      <c r="E43">
+        <v>16</v>
+      </c>
+      <c r="F43" s="1">
+        <v>10</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I43" s="10"/>
-    </row>
-    <row r="44" spans="1:9" ht="68">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="51">
       <c r="A44" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B44" s="1">
         <v>2021</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>199</v>
+        <v>5</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="E44" s="1">
-        <v>29</v>
-      </c>
-      <c r="F44" s="1">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>321</v>
+        <v>115</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="51">
+        <v>114</v>
+      </c>
+      <c r="I44" s="10"/>
+    </row>
+    <row r="45" spans="1:9" ht="68">
       <c r="A45" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B45" s="1">
         <v>2021</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>7</v>
+        <v>199</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="E45" s="1">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F45" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>112</v>
+        <v>321</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>95</v>
+        <v>322</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="51">
       <c r="A46" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B46" s="1">
         <v>2021</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E46" s="1">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F46" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="51">
       <c r="A47" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B47" s="1">
         <v>2021</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>200</v>
+        <v>9</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E47" s="1">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F47" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>258</v>
+        <v>140</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="51">
       <c r="A48" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B48" s="1">
         <v>2021</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -3012,931 +3001,934 @@
         <v>5</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="68">
+        <v>259</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="51">
       <c r="A49" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B49" s="1">
         <v>2021</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="E49" s="1">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="F49" s="1">
+        <v>5</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="51">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="68">
       <c r="A50" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B50" s="1">
         <v>2021</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="E50" s="1">
-        <v>64</v>
-      </c>
-      <c r="F50" s="1">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="68">
+        <v>116</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="51">
       <c r="A51" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B51" s="1">
         <v>2021</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="1">
+        <v>64</v>
+      </c>
+      <c r="F51" s="1">
+        <v>2</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="68">
+      <c r="A52" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E52" s="1">
         <v>23</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F52" s="1">
         <v>5</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="G52" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="I52" s="1" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="51">
-      <c r="A52" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B52" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" s="1">
-        <v>42</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="51">
       <c r="A53" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B53" s="1">
         <v>2020</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E53" s="1">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="51">
       <c r="A54" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B54" s="1">
         <v>2020</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E54" s="1">
-        <v>63</v>
-      </c>
-      <c r="F54" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="51">
       <c r="A55" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B55" s="1">
         <v>2020</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>204</v>
+        <v>25</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E55" s="1">
-        <v>40</v>
+        <v>63</v>
+      </c>
+      <c r="F55" s="1">
+        <v>6</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="51">
       <c r="A56" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B56" s="1">
         <v>2020</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E56" s="1">
-        <v>51</v>
-      </c>
-      <c r="F56" s="1">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="51">
       <c r="A57" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B57" s="1">
         <v>2020</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E57" s="1">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F57" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="51">
       <c r="A58" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B58" s="1">
         <v>2020</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>206</v>
+        <v>31</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E58" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F58" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="51">
       <c r="A59" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B59" s="1">
         <v>2020</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E59" s="1">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F59" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="68">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="51">
       <c r="A60" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B60" s="1">
         <v>2020</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E60" s="1">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="F60" s="1">
         <v>2</v>
       </c>
       <c r="G60" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="68">
+      <c r="A61" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" s="1">
+        <v>113</v>
+      </c>
+      <c r="F61" s="1">
+        <v>2</v>
+      </c>
+      <c r="G61" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="H61" s="1" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="51">
-      <c r="A61" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B61" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E61" s="1">
-        <v>61</v>
-      </c>
-      <c r="F61" s="1">
-        <v>3</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="51">
       <c r="A62" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B62" s="1">
         <v>2019</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E62" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F62" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="51">
       <c r="A63" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B63" s="1">
         <v>2019</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="E63" s="1">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F63" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="51">
       <c r="A64" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B64" s="1">
         <v>2019</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E64" s="1">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="F64" s="1">
+        <v>10</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="51">
       <c r="A65" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B65" s="1">
         <v>2019</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E65" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="51">
       <c r="A66" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B66" s="1">
         <v>2019</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>209</v>
+        <v>47</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E66" s="1">
-        <v>20</v>
-      </c>
-      <c r="F66" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="51">
       <c r="A67" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B67" s="1">
         <v>2019</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E67" s="1">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F67" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>210</v>
+        <v>51</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="51">
       <c r="A68" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B68" s="1">
         <v>2019</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>53</v>
+        <v>260</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E68" s="1">
-        <v>145</v>
+        <v>33</v>
       </c>
       <c r="F68" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="51">
       <c r="A69" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B69" s="1">
         <v>2019</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E69" s="1">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="F69" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="68">
+        <v>55</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="51">
       <c r="A70" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B70" s="1">
         <v>2019</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="E70" s="1">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F70" s="1">
         <v>2</v>
       </c>
       <c r="G70" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="68">
+      <c r="A71" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B71" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="1">
+        <v>62</v>
+      </c>
+      <c r="F71" s="1">
+        <v>2</v>
+      </c>
+      <c r="G71" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="H71" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="I70" s="1" t="s">
+      <c r="I71" s="1" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="51">
-      <c r="A71" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B71" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E71" s="1">
-        <v>3</v>
-      </c>
-      <c r="F71" s="1">
-        <v>1</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="51">
       <c r="A72" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B72" s="1">
         <v>2018</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>63</v>
+        <v>211</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E72" s="1">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="F72" s="1">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>134</v>
+        <v>339</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="51">
       <c r="A73" s="1" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="B73" s="1">
         <v>2018</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E73" s="1">
         <v>143</v>
       </c>
       <c r="F73" s="1">
+        <v>3</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="51">
+      <c r="A74" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B74" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E74" s="1">
+        <v>143</v>
+      </c>
+      <c r="F74" s="1">
         <v>5</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="H74" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="68">
-      <c r="A74" s="1" t="s">
+    <row r="75" spans="1:9" ht="68">
+      <c r="A75" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B74" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E74" s="1">
-        <v>9</v>
-      </c>
-      <c r="F74" s="1">
-        <v>2</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="51">
-      <c r="A75" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="B75" s="1">
         <v>2017</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="E75" s="1">
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="F75" s="1">
+        <v>2</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>136</v>
+        <v>68</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="51">
       <c r="A76" s="1" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="B76" s="1">
         <v>2017</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="E76" s="1">
-        <v>140</v>
-      </c>
-      <c r="F76" s="1">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="51">
       <c r="A77" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B77" s="1">
         <v>2017</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E77" s="1">
-        <v>10</v>
+        <v>140</v>
+      </c>
+      <c r="F77" s="1">
+        <v>6</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="68">
+        <v>137</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="51">
       <c r="A78" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B78" s="1">
         <v>2017</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E78" s="1">
-        <v>111</v>
-      </c>
-      <c r="F78" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="68">
       <c r="A79" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B79" s="1">
         <v>2017</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="E79" s="1">
-        <v>55</v>
+        <v>111</v>
+      </c>
+      <c r="F79" s="1">
+        <v>5</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="51">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="68">
       <c r="A80" s="1" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B80" s="1">
         <v>2017</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E80" s="1">
-        <v>36</v>
-      </c>
-      <c r="F80" s="1">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="51">
       <c r="A81" s="1" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="B81" s="1">
         <v>2017</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E81" s="1">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F81" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="51">
       <c r="A82" s="1" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="B82" s="1">
         <v>2017</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>217</v>
+        <v>84</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="E82" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F82" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>340</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="51">
       <c r="A83" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B83" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E83" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F83" s="1">
         <v>2</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="51">
       <c r="A84" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B84" s="1">
         <v>2016</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>61</v>
@@ -3948,61 +3940,87 @@
         <v>2</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="68">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="51">
       <c r="A85" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B85" s="1">
         <v>2016</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="E85" s="1">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="F85" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="68">
       <c r="A86" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B86" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E86" s="1">
+        <v>37</v>
+      </c>
+      <c r="F86" s="1">
+        <v>6</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="68">
+      <c r="A87" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B87" s="1">
         <v>2015</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E86" s="1">
+      <c r="E87" s="1">
         <v>115</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F87" s="1">
         <v>5</v>
       </c>
-      <c r="G86" s="4" t="s">
+      <c r="G87" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="H87" s="1" t="s">
         <v>344</v>
       </c>
     </row>
@@ -4015,7 +4033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3DB5C68-0218-0246-B22C-8D069C454BCB}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -4096,16 +4114,16 @@
     </row>
     <row r="3" spans="1:10" ht="51">
       <c r="A3" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C3" s="1">
         <v>2023</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E3" s="12">
         <v>45108</v>
@@ -4114,7 +4132,7 @@
         <v>45838</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H3" s="1">
         <v>2303612</v>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tysonbarrett/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADE2DBD-3F41-9D40-B641-C2B684AD002F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9341755F-97F3-264C-8839-F4148A036D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4260" yWindow="740" windowWidth="24540" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="456">
   <si>
     <t>authors</t>
   </si>
@@ -1386,6 +1386,27 @@
   </si>
   <si>
     <t>Impact of Real-World Implementation of Evidence-Based Insomnia Treatment within a Large Payor-Provider Health System: Initial Provider and Patient-Level Outcomes</t>
+  </si>
+  <si>
+    <t>doi: 10.1093/sleepadvances/zpae054</t>
+  </si>
+  <si>
+    <t>577-588</t>
+  </si>
+  <si>
+    <t>1360-1369</t>
+  </si>
+  <si>
+    <t>4861-4863</t>
+  </si>
+  <si>
+    <t>doi: 10.1245/s10434-024-15417-3</t>
+  </si>
+  <si>
+    <t>doi: 10.1371/journal.pone.0302575</t>
+  </si>
+  <si>
+    <t>e0302575</t>
   </si>
 </sst>
 </file>
@@ -1840,7 +1861,7 @@
   <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1900,6 +1921,9 @@
         <v>447</v>
       </c>
       <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="68">
       <c r="A3" s="1" t="s">
@@ -1916,159 +1940,200 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="34">
+    <row r="4" spans="1:9" ht="51">
       <c r="A4" s="1" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="34">
       <c r="A5" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="34">
+    <row r="6" spans="1:9" ht="68">
       <c r="A6" s="1" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="68">
-      <c r="A7" s="15" t="s">
-        <v>425</v>
+      <c r="H6" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="51">
+      <c r="A7" s="1" t="s">
+        <v>403</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>143</v>
+        <v>404</v>
       </c>
       <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="68">
       <c r="A8" s="1" t="s">
-        <v>418</v>
+        <v>387</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>419</v>
+        <v>388</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="51">
-      <c r="A9" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>296</v>
+        <v>433</v>
+      </c>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" ht="68">
+      <c r="A9" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2024</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="1"/>
+        <v>143</v>
+      </c>
+      <c r="E9" s="1">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>455</v>
+      </c>
       <c r="H9" s="1" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="51">
       <c r="A10" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>296</v>
+        <v>438</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2024</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="G10" s="1"/>
+        <v>441</v>
+      </c>
+      <c r="E10" s="1">
+        <v>31</v>
+      </c>
+      <c r="F10" s="1">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>452</v>
+      </c>
       <c r="H10" s="1" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="51">
       <c r="A11" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>296</v>
+        <v>415</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2024</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="G11" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="E11" s="1">
+        <v>67</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>451</v>
+      </c>
       <c r="H11" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="68">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="51">
       <c r="A12" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>296</v>
+        <v>390</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2024</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="G12" s="1"/>
+        <v>389</v>
+      </c>
+      <c r="E12" s="1">
+        <v>131</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>450</v>
+      </c>
       <c r="H12" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="I12" s="10"/>
+        <v>406</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="51">
       <c r="A13" s="1" t="s">

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tysonbarrett/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9341755F-97F3-264C-8839-F4148A036D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF94019D-460A-174D-BE53-78C93E12618A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="740" windowWidth="24540" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
+    <workbookView xWindow="2240" yWindow="740" windowWidth="24540" windowHeight="16520" activeTab="1" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
   <sheets>
     <sheet name="Journals" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Presentations" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$33</definedName>
+    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$37</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="468">
   <si>
     <t>authors</t>
   </si>
@@ -1385,9 +1385,6 @@
     <t>SLEEP Advances</t>
   </si>
   <si>
-    <t>Impact of Real-World Implementation of Evidence-Based Insomnia Treatment within a Large Payor-Provider Health System: Initial Provider and Patient-Level Outcomes</t>
-  </si>
-  <si>
     <t>doi: 10.1093/sleepadvances/zpae054</t>
   </si>
   <si>
@@ -1407,6 +1404,45 @@
   </si>
   <si>
     <t>e0302575</t>
+  </si>
+  <si>
+    <t>Borrie, S. A., Tetzloff, K., Barrett, T. S., &amp; Lansford, K. L.</t>
+  </si>
+  <si>
+    <t>Increasing motivation increases intelligibility benefits of perceptual training of dysarthria.</t>
+  </si>
+  <si>
+    <t>Impact of Real-World Implementation of Evidence-Based Insomnia Treatment within a Large Payor-Provider Health System: Initial Provider and Patient-Level Outcomes.</t>
+  </si>
+  <si>
+    <t>Journal of Affective Disorders</t>
+  </si>
+  <si>
+    <t>Popkov, A. A., Barrett, T. S., Shergil, A., Donohue, M., Anderson, R. J., &amp; Karlin, B. E.</t>
+  </si>
+  <si>
+    <t>Association Between Depression Symptom Severity and Total Cost of Care: Findings from a Large, 2-year, Claims-Based, Retrospective Population Health Study.</t>
+  </si>
+  <si>
+    <t>Stipancic, K. L., Barrett, T. S., Tjaden, K., &amp; Borrie, S. A.</t>
+  </si>
+  <si>
+    <t>Automated scoring of the Speech Intelligibility Test using Autoscore.</t>
+  </si>
+  <si>
+    <t>Lansford, K. L., Hirsch, M. E., Barrett, T. S., &amp; Borrie, S. A.</t>
+  </si>
+  <si>
+    <t>Cognitive predictors of perception and adaption to dysarthric speech in older adults.</t>
+  </si>
+  <si>
+    <t>\img{osfdata.png}{https://osf.io/bjhxd/}\img{osfmaterials.png}{https://osf.io/bjhxd/}</t>
+  </si>
+  <si>
+    <t>10-1097</t>
+  </si>
+  <si>
+    <t>zpae054</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1452,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1480,6 +1516,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1508,7 +1550,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1543,6 +1585,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1858,10 +1902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BAB23D-B27F-A34D-A522-4C115B575C05}">
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1907,452 +1951,418 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="68">
+    <row r="2" spans="1:9" ht="34">
       <c r="A2" s="1" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>447</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>246</v>
+      <c r="I2" s="1" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="68">
       <c r="A3" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="51">
+      <c r="H3" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="34">
       <c r="A4" s="1" t="s">
-        <v>424</v>
+        <v>461</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>423</v>
+        <v>462</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>447</v>
+        <v>145</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="34">
+    </row>
+    <row r="5" spans="1:9" ht="68">
       <c r="A5" s="1" t="s">
-        <v>426</v>
+        <v>459</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>427</v>
+        <v>458</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="68">
+    <row r="6" spans="1:9" ht="34">
       <c r="A6" s="1" t="s">
-        <v>418</v>
+        <v>455</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>421</v>
+        <v>456</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>419</v>
+        <v>145</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="51">
+    </row>
+    <row r="7" spans="1:9" ht="68">
       <c r="A7" s="1" t="s">
-        <v>403</v>
+        <v>442</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>408</v>
+        <v>440</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>404</v>
+        <v>435</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="68">
+    </row>
+    <row r="8" spans="1:9" ht="51">
       <c r="A8" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>296</v>
+        <v>424</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2024</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="G8" s="1"/>
+        <v>447</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>467</v>
+      </c>
       <c r="H8" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" ht="68">
-      <c r="A9" s="15" t="s">
-        <v>425</v>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="34">
+      <c r="A9" s="1" t="s">
+        <v>426</v>
       </c>
       <c r="B9" s="1">
         <v>2024</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" s="1">
-        <v>19</v>
-      </c>
-      <c r="F9" s="1">
-        <v>4</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="51">
+        <v>427</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="68">
       <c r="A10" s="1" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="B10" s="1">
         <v>2024</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="E10" s="1">
-        <v>31</v>
-      </c>
-      <c r="F10" s="1">
-        <v>8</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>452</v>
+        <v>419</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="51">
       <c r="A11" s="1" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="B11" s="1">
         <v>2024</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1">
-        <v>67</v>
-      </c>
-      <c r="F11" s="1">
-        <v>5</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>451</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="51">
+        <v>434</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="68">
       <c r="A12" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B12" s="1">
         <v>2024</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E12" s="1">
-        <v>131</v>
-      </c>
-      <c r="F12" s="1">
-        <v>5</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>450</v>
+        <v>388</v>
+      </c>
+      <c r="G12" s="1">
+        <v>220426231226223</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="51">
-      <c r="A13" s="1" t="s">
-        <v>382</v>
+        <v>433</v>
+      </c>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" ht="68">
+      <c r="A13" s="15" t="s">
+        <v>425</v>
       </c>
       <c r="B13" s="1">
         <v>2024</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>384</v>
+        <v>143</v>
       </c>
       <c r="E13" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>430</v>
+        <v>4</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>454</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>385</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="51">
       <c r="A14" s="1" t="s">
-        <v>301</v>
+        <v>438</v>
       </c>
       <c r="B14" s="1">
         <v>2024</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="E14" s="1">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>431</v>
+        <v>8</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>451</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="51">
       <c r="A15" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B15" s="1">
         <v>2024</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>413</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="F15" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="51">
       <c r="A16" s="1" t="s">
-        <v>268</v>
+        <v>390</v>
       </c>
       <c r="B16" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>269</v>
+        <v>409</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>270</v>
+        <v>389</v>
       </c>
       <c r="E16" s="1">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="F16" s="1">
-        <v>3</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>402</v>
+        <v>5</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>449</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="51">
       <c r="A17" s="1" t="s">
-        <v>304</v>
+        <v>382</v>
       </c>
       <c r="B17" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>384</v>
       </c>
       <c r="E17" s="1">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="F17" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>393</v>
+        <v>430</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="68">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="51">
       <c r="A18" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B18" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>298</v>
+        <v>422</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>299</v>
+        <v>392</v>
       </c>
       <c r="E18" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F18" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>391</v>
+        <v>431</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="I18" s="9"/>
+        <v>432</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="51">
       <c r="A19" s="1" t="s">
-        <v>303</v>
+        <v>414</v>
       </c>
       <c r="B19" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>11</v>
+        <v>413</v>
       </c>
       <c r="E19" s="1">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F19" s="1">
-        <v>10</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>395</v>
+        <v>3</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>417</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>386</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="51">
       <c r="A20" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B20" s="1">
         <v>2023</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E20" s="1">
-        <v>38</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>397</v>
+        <v>12</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="51">
       <c r="A21" s="1" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="B21" s="1">
         <v>2023</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>291</v>
+        <v>410</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>11</v>
@@ -2361,1731 +2371,1836 @@
         <v>66</v>
       </c>
       <c r="F21" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>314</v>
+        <v>393</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="51">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="68">
       <c r="A22" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B22" s="1">
         <v>2023</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="E22" s="1">
-        <v>32</v>
+        <v>17</v>
+      </c>
+      <c r="F22" s="1">
+        <v>4</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>307</v>
+        <v>391</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>313</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" ht="51">
-      <c r="A23" s="5" t="s">
-        <v>286</v>
+      <c r="A23" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="B23" s="1">
         <v>2023</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>287</v>
+        <v>411</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E23" s="1">
+        <v>66</v>
+      </c>
+      <c r="F23" s="1">
+        <v>10</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>395</v>
+      </c>
       <c r="H23" s="1" t="s">
-        <v>312</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="51">
       <c r="A24" s="1" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="B24" s="1">
         <v>2023</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>288</v>
+        <v>396</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="E24" s="1">
-        <v>13</v>
-      </c>
-      <c r="F24" s="1">
-        <v>2</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>310</v>
+        <v>38</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>398</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="68">
-      <c r="A25" s="5" t="s">
-        <v>247</v>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="51">
+      <c r="A25" s="1" t="s">
+        <v>290</v>
       </c>
       <c r="B25" s="1">
         <v>2023</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>248</v>
+        <v>291</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="E25" s="1">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F25" s="1">
         <v>5</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>250</v>
+        <v>315</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="68">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="51">
       <c r="A26" s="1" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="B26" s="1">
         <v>2023</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
       <c r="E26" s="1">
-        <v>38</v>
-      </c>
-      <c r="F26" s="8">
-        <v>44989</v>
+        <v>32</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="51">
-      <c r="A27" s="1" t="s">
-        <v>273</v>
+      <c r="A27" s="5" t="s">
+        <v>286</v>
       </c>
       <c r="B27" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="1">
-        <v>66</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>309</v>
-      </c>
       <c r="H27" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="68">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="51">
       <c r="A28" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B28" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E28" s="1">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="F28" s="1">
-        <v>9</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>400</v>
+        <v>2</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>310</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="I28" s="10"/>
-    </row>
-    <row r="29" spans="1:9" ht="51">
-      <c r="A29" s="1" t="s">
-        <v>274</v>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="68">
+      <c r="A29" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="B29" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>276</v>
+        <v>94</v>
       </c>
       <c r="E29" s="1">
-        <v>26</v>
+        <v>62</v>
+      </c>
+      <c r="F29" s="1">
+        <v>5</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="51">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="68">
       <c r="A30" s="1" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="B30" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E30" s="1">
-        <v>12</v>
+        <v>38</v>
+      </c>
+      <c r="F30" s="8">
+        <v>44989</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>332</v>
+        <v>294</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="51">
-      <c r="A31" s="5" t="s">
-        <v>249</v>
+      <c r="A31" s="1" t="s">
+        <v>273</v>
       </c>
       <c r="B31" s="1">
         <v>2022</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E31" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F31" s="1">
-        <v>6</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>317</v>
+        <v>1</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>309</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>235</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="68">
-      <c r="A32" s="5" t="s">
-        <v>228</v>
+      <c r="A32" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="B32" s="1">
         <v>2022</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>226</v>
+        <v>282</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>227</v>
+        <v>283</v>
       </c>
       <c r="E32" s="1">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="F32" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="I32" s="7"/>
+        <v>336</v>
+      </c>
+      <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9" ht="51">
-      <c r="A33" s="6" t="s">
-        <v>241</v>
+      <c r="A33" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="B33" s="1">
         <v>2022</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="E33" s="1">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>330</v>
+        <v>277</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>331</v>
+        <v>278</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="51">
       <c r="A34" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B34" s="1">
         <v>2022</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>145</v>
+        <v>262</v>
       </c>
       <c r="E34" s="1">
-        <v>31</v>
-      </c>
-      <c r="F34" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>271</v>
+        <v>333</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="51">
       <c r="A35" s="5" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="B35" s="1">
         <v>2022</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E35" s="1">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="F35" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>252</v>
+        <v>318</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="51">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="68">
       <c r="A36" s="5" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B36" s="1">
         <v>2022</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E36" s="1">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F36" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>237</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="I36" s="7"/>
     </row>
     <row r="37" spans="1:9" ht="51">
-      <c r="A37" s="5" t="s">
-        <v>229</v>
+      <c r="A37" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="B37" s="1">
         <v>2022</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="E37" s="1">
-        <v>27</v>
-      </c>
-      <c r="F37" s="1">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>245</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="51">
       <c r="A38" s="1" t="s">
-        <v>153</v>
+        <v>265</v>
       </c>
       <c r="B38" s="1">
         <v>2022</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>225</v>
+        <v>267</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E38" s="1">
-        <v>51</v>
+        <v>31</v>
+      </c>
+      <c r="F38" s="1">
+        <v>5</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="68">
-      <c r="A39" s="1" t="s">
-        <v>155</v>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="51">
+      <c r="A39" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="B39" s="1">
         <v>2022</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>146</v>
+        <v>242</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="E39" s="1">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F39" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>238</v>
+        <v>252</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="51">
-      <c r="A40" s="1" t="s">
-        <v>154</v>
+      <c r="A40" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="B40" s="1">
         <v>2022</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>147</v>
+        <v>232</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>11</v>
+        <v>233</v>
       </c>
       <c r="E40" s="1">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F40" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>261</v>
+        <v>327</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="68">
-      <c r="A41" s="1" t="s">
-        <v>156</v>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="51">
+      <c r="A41" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="B41" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>141</v>
+        <v>230</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>142</v>
+        <v>231</v>
       </c>
       <c r="E41" s="1">
-        <v>131</v>
+        <v>27</v>
+      </c>
+      <c r="F41" s="1">
+        <v>6</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>224</v>
+        <v>326</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>151</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="51">
       <c r="A42" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B42" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E42" s="1">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>223</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="68">
       <c r="A43" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B43" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E43">
-        <v>16</v>
+        <v>145</v>
+      </c>
+      <c r="E43" s="1">
+        <v>31</v>
       </c>
       <c r="F43" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>150</v>
+        <v>324</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>149</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="51">
       <c r="A44" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B44" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E44" s="1">
-        <v>38</v>
+        <v>65</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>115</v>
+        <v>261</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I44" s="10"/>
+        <v>236</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="45" spans="1:9" ht="68">
       <c r="A45" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B45" s="1">
         <v>2021</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="E45" s="1">
-        <v>29</v>
-      </c>
-      <c r="F45" s="1">
-        <v>5</v>
+        <v>131</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>321</v>
+        <v>224</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>322</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="51">
       <c r="A46" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B46" s="1">
         <v>2021</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>7</v>
+        <v>198</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="E46" s="1">
-        <v>68</v>
-      </c>
-      <c r="F46" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>112</v>
+        <v>323</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="51">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="68">
       <c r="A47" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B47" s="1">
         <v>2021</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="1">
-        <v>77</v>
+        <v>143</v>
+      </c>
+      <c r="E47">
+        <v>16</v>
       </c>
       <c r="F47" s="1">
         <v>10</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="51">
       <c r="A48" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B48" s="1">
         <v>2021</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E48" s="1">
-        <v>64</v>
-      </c>
-      <c r="F48" s="1">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>258</v>
+        <v>115</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="51">
+        <v>114</v>
+      </c>
+      <c r="I48" s="10"/>
+    </row>
+    <row r="49" spans="1:9" ht="68">
       <c r="A49" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B49" s="1">
         <v>2021</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="E49" s="1">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="F49" s="1">
         <v>5</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>256</v>
+        <v>321</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="68">
+        <v>111</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="51">
       <c r="A50" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B50" s="1">
         <v>2021</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>201</v>
+        <v>7</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="E50" s="1">
-        <v>60</v>
+        <v>68</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>255</v>
+        <v>112</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="51">
       <c r="A51" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B51" s="1">
         <v>2021</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>202</v>
+        <v>9</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E51" s="1">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F51" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>253</v>
+        <v>140</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="68">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="51">
       <c r="A52" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B52" s="1">
         <v>2021</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E52" s="1">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="F52" s="1">
         <v>5</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>16</v>
+        <v>259</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="51">
       <c r="A53" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B53" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E53" s="1">
-        <v>42</v>
+        <v>64</v>
+      </c>
+      <c r="F53" s="1">
+        <v>5</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="51">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="68">
       <c r="A54" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B54" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>22</v>
+        <v>201</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="E54" s="1">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>24</v>
+        <v>255</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="51">
       <c r="A55" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B55" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>25</v>
+        <v>202</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E55" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F55" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>26</v>
+        <v>253</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="51">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="68">
       <c r="A56" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B56" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E56" s="1">
-        <v>40</v>
+        <v>23</v>
+      </c>
+      <c r="F56" s="1">
+        <v>5</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>28</v>
+        <v>254</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="51">
       <c r="A57" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B57" s="1">
         <v>2020</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E57" s="1">
-        <v>51</v>
-      </c>
-      <c r="F57" s="1">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="51">
       <c r="A58" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B58" s="1">
         <v>2020</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E58" s="1">
-        <v>63</v>
-      </c>
-      <c r="F58" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="51">
       <c r="A59" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B59" s="1">
         <v>2020</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>206</v>
+        <v>25</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E59" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F59" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="51">
       <c r="A60" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B60" s="1">
         <v>2020</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E60" s="1">
-        <v>21</v>
-      </c>
-      <c r="F60" s="1">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="68">
+        <v>121</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="51">
       <c r="A61" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B61" s="1">
         <v>2020</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E61" s="1">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="F61" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="51">
       <c r="A62" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B62" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E62" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F62" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="51">
       <c r="A63" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B63" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E63" s="1">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F63" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="51">
       <c r="A64" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B64" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>43</v>
+        <v>207</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E64" s="1">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F64" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="51">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="68">
       <c r="A65" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B65" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E65" s="1">
-        <v>13</v>
+        <v>113</v>
+      </c>
+      <c r="F65" s="1">
+        <v>2</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="51">
       <c r="A66" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B66" s="1">
         <v>2019</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E66" s="1">
-        <v>22</v>
+        <v>61</v>
+      </c>
+      <c r="F66" s="1">
+        <v>3</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="51">
       <c r="A67" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B67" s="1">
         <v>2019</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>209</v>
+        <v>41</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E67" s="1">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="F67" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="51">
       <c r="A68" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B68" s="1">
         <v>2019</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>260</v>
+        <v>43</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E68" s="1">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F68" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>210</v>
+        <v>45</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="51">
       <c r="A69" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B69" s="1">
         <v>2019</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E69" s="1">
-        <v>145</v>
-      </c>
-      <c r="F69" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="51">
       <c r="A70" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B70" s="1">
         <v>2019</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E70" s="1">
-        <v>81</v>
-      </c>
-      <c r="F70" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="68">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="51">
       <c r="A71" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B71" s="1">
         <v>2019</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>59</v>
+        <v>209</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E71" s="1">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="F71" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>338</v>
+        <v>131</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="51">
       <c r="A72" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B72" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>211</v>
+        <v>260</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E72" s="1">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="F72" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>62</v>
+        <v>210</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="51">
       <c r="A73" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B73" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="E73" s="1">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F73" s="1">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>134</v>
+        <v>55</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="51">
       <c r="A74" s="1" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="B74" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E74" s="1">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="F74" s="1">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>135</v>
+        <v>337</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="68">
       <c r="A75" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B75" s="1">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>212</v>
+        <v>59</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="E75" s="1">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="F75" s="1">
         <v>2</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="51">
       <c r="A76" s="1" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="B76" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="E76" s="1">
-        <v>60</v>
+        <v>3</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>136</v>
+        <v>339</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="51">
       <c r="A77" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B77" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>214</v>
+        <v>63</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E77" s="1">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F77" s="1">
-        <v>6</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="51">
       <c r="A78" s="1" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="B78" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>215</v>
+        <v>65</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E78" s="1">
-        <v>10</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>73</v>
+        <v>143</v>
+      </c>
+      <c r="F78" s="1">
+        <v>5</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="68">
       <c r="A79" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B79" s="1">
         <v>2017</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>74</v>
+        <v>212</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="E79" s="1">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="F79" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="68">
+        <v>68</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="51">
       <c r="A80" s="1" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="B80" s="1">
         <v>2017</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="E80" s="1">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="51">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="51">
       <c r="A81" s="1" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B81" s="1">
         <v>2017</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>80</v>
+        <v>214</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E81" s="1">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="F81" s="1">
         <v>6</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="51">
+        <v>137</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="51">
       <c r="A82" s="1" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="B82" s="1">
         <v>2017</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>84</v>
+        <v>215</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="E82" s="1">
-        <v>60</v>
-      </c>
-      <c r="F82" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="51">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="68">
       <c r="A83" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B83" s="1">
         <v>2017</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E83" s="1">
+        <v>111</v>
+      </c>
+      <c r="F83" s="1">
+        <v>5</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="68">
+      <c r="A84" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B84" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E84" s="1">
+        <v>55</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="51">
+      <c r="A85" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B85" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E85" s="1">
+        <v>36</v>
+      </c>
+      <c r="F85" s="1">
+        <v>6</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="51">
+      <c r="A86" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B86" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="1">
+        <v>60</v>
+      </c>
+      <c r="F86" s="1">
+        <v>3</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="51">
+      <c r="A87" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B87" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E83" s="1">
+      <c r="E87" s="1">
         <v>30</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F87" s="1">
         <v>2</v>
       </c>
-      <c r="G83" s="4" t="s">
+      <c r="G87" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H83" s="1" t="s">
+      <c r="H87" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="51">
-      <c r="A84" s="1" t="s">
+    <row r="88" spans="1:9" ht="51">
+      <c r="A88" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B88" s="1">
         <v>2016</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E84" s="1">
+      <c r="E88" s="1">
         <v>1</v>
       </c>
-      <c r="F84" s="1">
+      <c r="F88" s="1">
         <v>2</v>
       </c>
-      <c r="G84" s="4" t="s">
+      <c r="G88" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H84" s="1" t="s">
+      <c r="H88" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="51">
-      <c r="A85" s="1" t="s">
+    <row r="89" spans="1:9" ht="51">
+      <c r="A89" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B89" s="1">
         <v>2016</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E85" s="1">
+      <c r="E89" s="1">
         <v>1</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F89" s="1">
         <v>2</v>
       </c>
-      <c r="G85" s="4" t="s">
+      <c r="G89" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H85" s="1" t="s">
+      <c r="H89" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="68">
-      <c r="A86" s="1" t="s">
+    <row r="90" spans="1:9" ht="68">
+      <c r="A90" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B90" s="1">
         <v>2016</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E86" s="1">
+      <c r="E90" s="1">
         <v>37</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F90" s="1">
         <v>6</v>
       </c>
-      <c r="G86" s="4" t="s">
+      <c r="G90" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="H90" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="68">
-      <c r="A87" s="1" t="s">
+    <row r="91" spans="1:9" ht="68">
+      <c r="A91" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B91" s="1">
         <v>2015</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E87" s="1">
+      <c r="E91" s="1">
         <v>115</v>
       </c>
-      <c r="F87" s="1">
+      <c r="F91" s="1">
         <v>5</v>
       </c>
-      <c r="G87" s="4" t="s">
+      <c r="G91" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H87" s="1" t="s">
+      <c r="H91" s="1" t="s">
         <v>344</v>
       </c>
     </row>
@@ -4098,8 +4213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3DB5C68-0218-0246-B22C-8D069C454BCB}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4264,7 +4379,7 @@
         <v>362</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="J5" s="11">
         <v>2296000</v>
@@ -4296,7 +4411,7 @@
         <v>366</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="J6" s="11">
         <v>499927</v>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tysonbarrett/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF94019D-460A-174D-BE53-78C93E12618A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96140D0C-C5F2-894C-B7E2-97509AFC806D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2240" yWindow="740" windowWidth="24540" windowHeight="16520" activeTab="1" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="471">
   <si>
     <t>authors</t>
   </si>
@@ -1443,6 +1443,15 @@
   </si>
   <si>
     <t>zpae054</t>
+  </si>
+  <si>
+    <t>Lansford, K. L. (MPI), Borrie, S. A. (MPI), &amp; Barrett, T. S. (Co-I)</t>
+  </si>
+  <si>
+    <t>Perceptual Training for Improved Intelligibility of People with Parkinson's Disease</t>
+  </si>
+  <si>
+    <t>R01DC020930</t>
   </si>
 </sst>
 </file>
@@ -1550,7 +1559,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1587,6 +1596,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4211,10 +4223,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3DB5C68-0218-0246-B22C-8D069C454BCB}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4265,220 +4277,220 @@
         <v>355</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>349</v>
+        <v>468</v>
       </c>
       <c r="C2" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E2" s="12">
-        <v>45108</v>
-      </c>
-      <c r="F2" s="12">
-        <v>46934</v>
+        <v>469</v>
+      </c>
+      <c r="E2" s="18">
+        <v>45536</v>
+      </c>
+      <c r="F2" s="18">
+        <v>47331</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>350</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>351</v>
+        <v>470</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>353</v>
       </c>
       <c r="J2" s="11">
-        <v>2329452</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="51">
+        <v>2666871</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="34">
       <c r="A3" s="1" t="s">
-        <v>446</v>
+        <v>355</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>444</v>
+        <v>349</v>
       </c>
       <c r="C3" s="1">
         <v>2023</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>445</v>
+        <v>348</v>
       </c>
       <c r="E3" s="12">
         <v>45108</v>
       </c>
       <c r="F3" s="12">
-        <v>45838</v>
+        <v>46934</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2303612</v>
+        <v>350</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>353</v>
       </c>
       <c r="J3" s="11">
-        <v>731000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="34">
+        <v>2329452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="51">
       <c r="A4" s="1" t="s">
-        <v>358</v>
+        <v>446</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>357</v>
+        <v>444</v>
       </c>
       <c r="C4" s="1">
         <v>2023</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>356</v>
+        <v>445</v>
       </c>
       <c r="E4" s="12">
         <v>45108</v>
       </c>
       <c r="F4" s="12">
-        <v>45657</v>
+        <v>45838</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>358</v>
+        <v>443</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2303612</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>353</v>
       </c>
       <c r="J4" s="11">
+        <v>731000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="34">
+      <c r="A5" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E5" s="12">
+        <v>45108</v>
+      </c>
+      <c r="F5" s="12">
+        <v>45657</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="J5" s="11">
         <v>150000</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="51">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:10" ht="51">
+      <c r="A6" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E5" s="12">
-        <v>44075</v>
-      </c>
-      <c r="F5" s="12">
-        <v>45534</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="J5" s="11">
-        <v>2296000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="85">
-      <c r="A6" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="C6" s="1">
         <v>2020</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E6" s="12">
-        <v>44013</v>
+        <v>44075</v>
       </c>
       <c r="F6" s="12">
-        <v>45473</v>
+        <v>45534</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>375</v>
       </c>
       <c r="J6" s="11">
-        <v>499927</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="68">
+        <v>2296000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="85">
       <c r="A7" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C7" s="1">
         <v>2020</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E7" s="12">
-        <v>44075</v>
+        <v>44013</v>
       </c>
       <c r="F7" s="12">
-        <v>45169</v>
+        <v>45473</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>375</v>
       </c>
       <c r="J7" s="11">
-        <v>1099997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="34">
+        <v>499927</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="68">
       <c r="A8" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C8" s="1">
         <v>2020</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E8" s="12">
-        <v>43922</v>
+        <v>44075</v>
       </c>
       <c r="F8" s="12">
-        <v>45016</v>
+        <v>45169</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>375</v>
       </c>
       <c r="J8" s="11">
-        <v>430000</v>
+        <v>1099997</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="34">
@@ -4486,30 +4498,62 @@
         <v>376</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C9" s="1">
         <v>2020</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="E9" s="12">
-        <v>44013</v>
+        <v>43922</v>
       </c>
       <c r="F9" s="12">
-        <v>44742</v>
+        <v>45016</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>350</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>375</v>
       </c>
       <c r="J9" s="11">
+        <v>430000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="34">
+      <c r="A10" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E10" s="12">
+        <v>44013</v>
+      </c>
+      <c r="F10" s="12">
+        <v>44742</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J10" s="11">
         <v>420000</v>
       </c>
     </row>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tysonbarrett/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96140D0C-C5F2-894C-B7E2-97509AFC806D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AB394A-B8E0-A842-95F7-D3E6A715F705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="740" windowWidth="24540" windowHeight="16520" activeTab="1" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
+    <workbookView xWindow="2240" yWindow="740" windowWidth="24540" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
   <sheets>
     <sheet name="Journals" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="476">
   <si>
     <t>authors</t>
   </si>
@@ -1452,6 +1452,21 @@
   </si>
   <si>
     <t>R01DC020930</t>
+  </si>
+  <si>
+    <t>41-47</t>
+  </si>
+  <si>
+    <t>doi: 10.1016/j.jad.2024.09.056</t>
+  </si>
+  <si>
+    <t>zpae053</t>
+  </si>
+  <si>
+    <t>doi: 10.1093/sleepadvances/zpae053</t>
+  </si>
+  <si>
+    <t>doi: 10.1037/sah0000543</t>
   </si>
 </sst>
 </file>
@@ -1916,8 +1931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BAB23D-B27F-A34D-A522-4C115B575C05}">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1981,33 +1996,30 @@
         <v>465</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="68">
+    <row r="3" spans="1:9" ht="34">
       <c r="A3" s="1" t="s">
-        <v>424</v>
+        <v>461</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>447</v>
+        <v>145</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>246</v>
-      </c>
     </row>
     <row r="4" spans="1:9" ht="34">
       <c r="A4" s="1" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>145</v>
@@ -2016,48 +2028,70 @@
     </row>
     <row r="5" spans="1:9" ht="68">
       <c r="A5" s="1" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="68">
+      <c r="A6" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="34">
-      <c r="A6" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G6" s="1"/>
+      <c r="E6" s="1">
+        <v>368</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="68">
       <c r="A7" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>296</v>
+        <v>424</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2024</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="G7" s="1"/>
+        <v>447</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="51">
       <c r="A8" s="1" t="s">
@@ -2071,6 +2105,12 @@
       </c>
       <c r="D8" s="1" t="s">
         <v>447</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>467</v>
@@ -4225,7 +4265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3DB5C68-0218-0246-B22C-8D069C454BCB}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tysonbarrett/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AB394A-B8E0-A842-95F7-D3E6A715F705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6EFEE5-A39E-4D4E-91D3-F96C2B5F88A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2240" yWindow="740" windowWidth="24540" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Presentations" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$37</definedName>
+    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$38</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="479">
   <si>
     <t>authors</t>
   </si>
@@ -1467,6 +1467,15 @@
   </si>
   <si>
     <t>doi: 10.1037/sah0000543</t>
+  </si>
+  <si>
+    <t>Risk Factors Associated with Revision Microdiscectomy or Subsequent Spinal Fusion within 2 Years of Index Lumbar Microdiscectomy</t>
+  </si>
+  <si>
+    <t>Kramer, D. E., Barrett, T. S., Drury-Gworek, C., LeJeune, K., Cheng, B. C., Vyas, P. Walsh, K., Prostko, E. R., Altman, D. T., &amp; Massie, L.</t>
+  </si>
+  <si>
+    <t>SPINE</t>
   </si>
 </sst>
 </file>
@@ -1929,10 +1938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BAB23D-B27F-A34D-A522-4C115B575C05}">
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1978,122 +1987,111 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="34">
+    <row r="2" spans="1:9" ht="51">
       <c r="A2" s="1" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>478</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>465</v>
-      </c>
     </row>
     <row r="3" spans="1:9" ht="34">
       <c r="A3" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="34">
       <c r="A4" s="1" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>145</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="68">
+    <row r="5" spans="1:9" ht="34">
       <c r="A5" s="1" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>435</v>
+        <v>145</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>475</v>
-      </c>
     </row>
     <row r="6" spans="1:9" ht="68">
       <c r="A6" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2025</v>
+        <v>442</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="E6" s="1">
-        <v>368</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>471</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="68">
       <c r="A7" s="1" t="s">
-        <v>424</v>
+        <v>459</v>
       </c>
       <c r="B7" s="1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="E7" s="1">
-        <v>5</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>473</v>
+        <v>368</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="51">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="68">
       <c r="A8" s="1" t="s">
         <v>424</v>
       </c>
@@ -2101,7 +2099,7 @@
         <v>2024</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>423</v>
+        <v>457</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>447</v>
@@ -2113,1144 +2111,1141 @@
         <v>1</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="34">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="51">
       <c r="A9" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B9" s="1">
         <v>2024</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="68">
+        <v>447</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="34">
       <c r="A10" s="1" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B10" s="1">
         <v>2024</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="51">
+        <v>427</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="68">
       <c r="A11" s="1" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="B11" s="1">
         <v>2024</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="G11" s="1"/>
+        <v>419</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>210</v>
+      </c>
       <c r="H11" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="68">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="51">
       <c r="A12" s="1" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="B12" s="1">
         <v>2024</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="G12" s="1">
-        <v>220426231226223</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="I12" s="10"/>
+        <v>434</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="68">
-      <c r="A13" s="15" t="s">
-        <v>425</v>
+      <c r="A13" s="1" t="s">
+        <v>387</v>
       </c>
       <c r="B13" s="1">
         <v>2024</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E13" s="1">
-        <v>19</v>
-      </c>
-      <c r="F13" s="1">
-        <v>4</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>454</v>
+        <v>388</v>
+      </c>
+      <c r="G13" s="1">
+        <v>220426231226223</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="51">
-      <c r="A14" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
+      </c>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" ht="68">
+      <c r="A14" s="15" t="s">
+        <v>425</v>
       </c>
       <c r="B14" s="1">
         <v>2024</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>441</v>
+        <v>143</v>
       </c>
       <c r="E14" s="1">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F14" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="51">
       <c r="A15" s="1" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="B15" s="1">
         <v>2024</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>441</v>
       </c>
       <c r="E15" s="1">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="F15" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="51">
       <c r="A16" s="1" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="B16" s="1">
         <v>2024</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>389</v>
+        <v>11</v>
       </c>
       <c r="E16" s="1">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="F16" s="1">
         <v>5</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>406</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="51">
       <c r="A17" s="1" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B17" s="1">
         <v>2024</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="E17" s="1">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>430</v>
+        <v>5</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>449</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="51">
       <c r="A18" s="1" t="s">
-        <v>301</v>
+        <v>382</v>
       </c>
       <c r="B18" s="1">
         <v>2024</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="E18" s="1">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>432</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="51">
       <c r="A19" s="1" t="s">
-        <v>414</v>
+        <v>301</v>
       </c>
       <c r="B19" s="1">
         <v>2024</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="E19" s="1">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F19" s="1">
-        <v>3</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>417</v>
+        <v>1</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>431</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="51">
       <c r="A20" s="1" t="s">
-        <v>268</v>
+        <v>414</v>
       </c>
       <c r="B20" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>269</v>
+        <v>412</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>270</v>
+        <v>413</v>
       </c>
       <c r="E20" s="1">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F20" s="1">
         <v>3</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>402</v>
+      <c r="G20" s="1" t="s">
+        <v>417</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="51">
       <c r="A21" s="1" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="B21" s="1">
         <v>2023</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>410</v>
+        <v>269</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="E21" s="1">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="F21" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="68">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="51">
       <c r="A22" s="1" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="B22" s="1">
         <v>2023</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>298</v>
+        <v>410</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>299</v>
+        <v>11</v>
       </c>
       <c r="E22" s="1">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="F22" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="1:9" ht="51">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="68">
       <c r="A23" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B23" s="1">
         <v>2023</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>411</v>
+        <v>298</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>11</v>
+        <v>299</v>
       </c>
       <c r="E23" s="1">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="F23" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>386</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" ht="51">
       <c r="A24" s="1" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="B24" s="1">
         <v>2023</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
       <c r="E24" s="1">
-        <v>38</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>397</v>
+        <v>66</v>
+      </c>
+      <c r="F24" s="1">
+        <v>10</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="51">
       <c r="A25" s="1" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="B25" s="1">
         <v>2023</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>291</v>
+        <v>396</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>11</v>
+        <v>264</v>
       </c>
       <c r="E25" s="1">
-        <v>66</v>
-      </c>
-      <c r="F25" s="1">
-        <v>5</v>
+        <v>38</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>397</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>314</v>
+        <v>398</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>316</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="51">
       <c r="A26" s="1" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="B26" s="1">
         <v>2023</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>308</v>
+        <v>11</v>
       </c>
       <c r="E26" s="1">
-        <v>32</v>
+        <v>66</v>
+      </c>
+      <c r="F26" s="1">
+        <v>5</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="51">
-      <c r="A27" s="5" t="s">
-        <v>286</v>
+      <c r="A27" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="B27" s="1">
         <v>2023</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>11</v>
+        <v>308</v>
+      </c>
+      <c r="E27" s="1">
+        <v>32</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="51">
-      <c r="A28" s="1" t="s">
-        <v>285</v>
+      <c r="A28" s="5" t="s">
+        <v>286</v>
       </c>
       <c r="B28" s="1">
         <v>2023</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E28" s="1">
-        <v>13</v>
-      </c>
-      <c r="F28" s="1">
-        <v>2</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>310</v>
+        <v>11</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="68">
-      <c r="A29" s="5" t="s">
-        <v>247</v>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="51">
+      <c r="A29" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="B29" s="1">
         <v>2023</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>94</v>
+        <v>284</v>
       </c>
       <c r="E29" s="1">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="F29" s="1">
-        <v>5</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>302</v>
+        <v>2</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>310</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>251</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="68">
-      <c r="A30" s="1" t="s">
-        <v>292</v>
+      <c r="A30" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="B30" s="1">
         <v>2023</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="1">
+        <v>62</v>
+      </c>
+      <c r="F30" s="1">
+        <v>5</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="68">
+      <c r="A31" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E31" s="1">
         <v>38</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F31" s="8">
         <v>44989</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="51">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:9" ht="51">
+      <c r="A32" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="B31" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="1">
-        <v>66</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="68">
-      <c r="A32" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="B32" s="1">
         <v>2022</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
       <c r="E32" s="1">
         <v>66</v>
       </c>
       <c r="F32" s="1">
-        <v>9</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>400</v>
+        <v>1</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>309</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="I32" s="10"/>
-    </row>
-    <row r="33" spans="1:9" ht="51">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="68">
       <c r="A33" s="1" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="B33" s="1">
         <v>2022</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E33" s="1">
-        <v>26</v>
+        <v>66</v>
+      </c>
+      <c r="F33" s="1">
+        <v>9</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>277</v>
+        <v>400</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>280</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="I33" s="10"/>
     </row>
     <row r="34" spans="1:9" ht="51">
       <c r="A34" s="1" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="B34" s="1">
         <v>2022</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="E34" s="1">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>332</v>
+        <v>277</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>334</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="51">
-      <c r="A35" s="5" t="s">
-        <v>249</v>
+      <c r="A35" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="B35" s="1">
         <v>2022</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>11</v>
+        <v>262</v>
       </c>
       <c r="E35" s="1">
-        <v>65</v>
-      </c>
-      <c r="F35" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="68">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="51">
       <c r="A36" s="5" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="B36" s="1">
         <v>2022</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>227</v>
+        <v>11</v>
       </c>
       <c r="E36" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="F36" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" spans="1:9" ht="51">
-      <c r="A37" s="6" t="s">
-        <v>241</v>
+        <v>318</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="68">
+      <c r="A37" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="B37" s="1">
         <v>2022</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="E37" s="1">
-        <v>82</v>
+        <v>31</v>
+      </c>
+      <c r="F37" s="1">
+        <v>4</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>331</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="I37" s="7"/>
     </row>
     <row r="38" spans="1:9" ht="51">
-      <c r="A38" s="1" t="s">
-        <v>265</v>
+      <c r="A38" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="B38" s="1">
         <v>2022</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>145</v>
+        <v>244</v>
       </c>
       <c r="E38" s="1">
-        <v>31</v>
-      </c>
-      <c r="F38" s="1">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>271</v>
+        <v>331</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="51">
-      <c r="A39" s="5" t="s">
-        <v>239</v>
+      <c r="A39" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="B39" s="1">
         <v>2022</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="E39" s="1">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F39" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="51">
       <c r="A40" s="5" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B40" s="1">
         <v>2022</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>233</v>
+        <v>34</v>
       </c>
       <c r="E40" s="1">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F40" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="51">
       <c r="A41" s="5" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B41" s="1">
         <v>2022</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E41" s="1">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F41" s="1">
         <v>6</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="51">
-      <c r="A42" s="1" t="s">
-        <v>153</v>
+      <c r="A42" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="B42" s="1">
         <v>2022</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>148</v>
+        <v>231</v>
       </c>
       <c r="E42" s="1">
-        <v>51</v>
+        <v>27</v>
+      </c>
+      <c r="F42" s="1">
+        <v>6</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="68">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="51">
       <c r="A43" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B43" s="1">
         <v>2022</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>146</v>
+        <v>225</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E43" s="1">
-        <v>31</v>
-      </c>
-      <c r="F43" s="1">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="51">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="68">
       <c r="A44" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B44" s="1">
         <v>2022</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="E44" s="1">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="F44" s="1">
         <v>2</v>
       </c>
       <c r="G44" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="51">
+      <c r="A45" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="1">
+        <v>65</v>
+      </c>
+      <c r="F45" s="1">
+        <v>2</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="68">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:9" ht="68">
+      <c r="A46" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="B45" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E45" s="1">
-        <v>131</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="51">
-      <c r="A46" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="B46" s="1">
         <v>2021</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E46" s="1">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>323</v>
+        <v>224</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="68">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="51">
       <c r="A47" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B47" s="1">
         <v>2021</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E47">
-        <v>16</v>
-      </c>
-      <c r="F47" s="1">
-        <v>10</v>
+        <v>139</v>
+      </c>
+      <c r="E47" s="1">
+        <v>21</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>150</v>
+        <v>323</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="51">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="68">
       <c r="A48" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B48" s="1">
         <v>2021</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="1">
-        <v>38</v>
+        <v>143</v>
+      </c>
+      <c r="E48">
+        <v>16</v>
+      </c>
+      <c r="F48" s="1">
+        <v>10</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I48" s="10"/>
-    </row>
-    <row r="49" spans="1:9" ht="68">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="51">
       <c r="A49" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B49" s="1">
         <v>2021</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>199</v>
+        <v>5</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="E49" s="1">
-        <v>29</v>
-      </c>
-      <c r="F49" s="1">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>321</v>
+        <v>115</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="51">
+        <v>114</v>
+      </c>
+      <c r="I49" s="10"/>
+    </row>
+    <row r="50" spans="1:9" ht="68">
       <c r="A50" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B50" s="1">
         <v>2021</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>7</v>
+        <v>199</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="E50" s="1">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F50" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>112</v>
+        <v>321</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>95</v>
+        <v>322</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="51">
       <c r="A51" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B51" s="1">
         <v>2021</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E51" s="1">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F51" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="51">
       <c r="A52" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B52" s="1">
         <v>2021</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>200</v>
+        <v>9</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E52" s="1">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F52" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>258</v>
+        <v>140</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="51">
       <c r="A53" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B53" s="1">
         <v>2021</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>11</v>
@@ -3262,931 +3257,934 @@
         <v>5</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="68">
+        <v>259</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="51">
       <c r="A54" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B54" s="1">
         <v>2021</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="E54" s="1">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="F54" s="1">
+        <v>5</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="51">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="68">
       <c r="A55" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B55" s="1">
         <v>2021</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="E55" s="1">
-        <v>64</v>
-      </c>
-      <c r="F55" s="1">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="68">
+        <v>116</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="51">
       <c r="A56" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B56" s="1">
         <v>2021</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="1">
+        <v>64</v>
+      </c>
+      <c r="F56" s="1">
+        <v>2</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="68">
+      <c r="A57" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B57" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E57" s="1">
         <v>23</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F57" s="1">
         <v>5</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="G57" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H57" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I57" s="1" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="51">
-      <c r="A57" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B57" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E57" s="1">
-        <v>42</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="51">
       <c r="A58" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B58" s="1">
         <v>2020</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E58" s="1">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="51">
       <c r="A59" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B59" s="1">
         <v>2020</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E59" s="1">
-        <v>63</v>
-      </c>
-      <c r="F59" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="51">
       <c r="A60" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B60" s="1">
         <v>2020</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>204</v>
+        <v>25</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E60" s="1">
-        <v>40</v>
+        <v>63</v>
+      </c>
+      <c r="F60" s="1">
+        <v>6</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="51">
       <c r="A61" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B61" s="1">
         <v>2020</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E61" s="1">
-        <v>51</v>
-      </c>
-      <c r="F61" s="1">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="51">
       <c r="A62" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B62" s="1">
         <v>2020</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E62" s="1">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F62" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="51">
       <c r="A63" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B63" s="1">
         <v>2020</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>206</v>
+        <v>31</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E63" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F63" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="51">
       <c r="A64" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B64" s="1">
         <v>2020</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E64" s="1">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F64" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="68">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="51">
       <c r="A65" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B65" s="1">
         <v>2020</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E65" s="1">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="F65" s="1">
         <v>2</v>
       </c>
       <c r="G65" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="68">
+      <c r="A66" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B66" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66" s="1">
+        <v>113</v>
+      </c>
+      <c r="F66" s="1">
+        <v>2</v>
+      </c>
+      <c r="G66" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="H66" s="1" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="51">
-      <c r="A66" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B66" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E66" s="1">
-        <v>61</v>
-      </c>
-      <c r="F66" s="1">
-        <v>3</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="51">
       <c r="A67" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B67" s="1">
         <v>2019</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E67" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F67" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="51">
       <c r="A68" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B68" s="1">
         <v>2019</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="E68" s="1">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F68" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="51">
       <c r="A69" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B69" s="1">
         <v>2019</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E69" s="1">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="F69" s="1">
+        <v>10</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="51">
       <c r="A70" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B70" s="1">
         <v>2019</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E70" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="51">
       <c r="A71" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B71" s="1">
         <v>2019</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>209</v>
+        <v>47</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E71" s="1">
-        <v>20</v>
-      </c>
-      <c r="F71" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="51">
       <c r="A72" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B72" s="1">
         <v>2019</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E72" s="1">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F72" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>210</v>
+        <v>51</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="51">
       <c r="A73" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B73" s="1">
         <v>2019</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>53</v>
+        <v>260</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E73" s="1">
-        <v>145</v>
+        <v>33</v>
       </c>
       <c r="F73" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="51">
       <c r="A74" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B74" s="1">
         <v>2019</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E74" s="1">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="F74" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="68">
+        <v>55</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="51">
       <c r="A75" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B75" s="1">
         <v>2019</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="E75" s="1">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F75" s="1">
         <v>2</v>
       </c>
       <c r="G75" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="68">
+      <c r="A76" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B76" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="1">
+        <v>62</v>
+      </c>
+      <c r="F76" s="1">
+        <v>2</v>
+      </c>
+      <c r="G76" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="H76" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="I76" s="1" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="51">
-      <c r="A76" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B76" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E76" s="1">
-        <v>3</v>
-      </c>
-      <c r="F76" s="1">
-        <v>1</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="51">
       <c r="A77" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B77" s="1">
         <v>2018</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>63</v>
+        <v>211</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E77" s="1">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="F77" s="1">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>134</v>
+        <v>339</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="51">
       <c r="A78" s="1" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="B78" s="1">
         <v>2018</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E78" s="1">
         <v>143</v>
       </c>
       <c r="F78" s="1">
+        <v>3</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="51">
+      <c r="A79" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B79" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E79" s="1">
+        <v>143</v>
+      </c>
+      <c r="F79" s="1">
         <v>5</v>
       </c>
-      <c r="H78" s="1" t="s">
+      <c r="H79" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="68">
-      <c r="A79" s="1" t="s">
+    <row r="80" spans="1:9" ht="68">
+      <c r="A80" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B79" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E79" s="1">
-        <v>9</v>
-      </c>
-      <c r="F79" s="1">
-        <v>2</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="51">
-      <c r="A80" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="B80" s="1">
         <v>2017</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="E80" s="1">
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="F80" s="1">
+        <v>2</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>136</v>
+        <v>68</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="51">
       <c r="A81" s="1" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="B81" s="1">
         <v>2017</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="E81" s="1">
-        <v>140</v>
-      </c>
-      <c r="F81" s="1">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="51">
       <c r="A82" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B82" s="1">
         <v>2017</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E82" s="1">
-        <v>10</v>
+        <v>140</v>
+      </c>
+      <c r="F82" s="1">
+        <v>6</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="68">
+        <v>137</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="51">
       <c r="A83" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B83" s="1">
         <v>2017</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E83" s="1">
-        <v>111</v>
-      </c>
-      <c r="F83" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="68">
       <c r="A84" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B84" s="1">
         <v>2017</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="E84" s="1">
-        <v>55</v>
+        <v>111</v>
+      </c>
+      <c r="F84" s="1">
+        <v>5</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="51">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="68">
       <c r="A85" s="1" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B85" s="1">
         <v>2017</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E85" s="1">
-        <v>36</v>
-      </c>
-      <c r="F85" s="1">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="51">
       <c r="A86" s="1" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="B86" s="1">
         <v>2017</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E86" s="1">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F86" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="51">
       <c r="A87" s="1" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="B87" s="1">
         <v>2017</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>217</v>
+        <v>84</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="E87" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F87" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>340</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="51">
       <c r="A88" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B88" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E88" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F88" s="1">
         <v>2</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="51">
       <c r="A89" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B89" s="1">
         <v>2016</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>61</v>
@@ -4198,61 +4196,87 @@
         <v>2</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="68">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="51">
       <c r="A90" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B90" s="1">
         <v>2016</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="E90" s="1">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="F90" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="68">
       <c r="A91" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B91" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E91" s="1">
+        <v>37</v>
+      </c>
+      <c r="F91" s="1">
+        <v>6</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="68">
+      <c r="A92" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B92" s="1">
         <v>2015</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E91" s="1">
+      <c r="E92" s="1">
         <v>115</v>
       </c>
-      <c r="F91" s="1">
+      <c r="F92" s="1">
         <v>5</v>
       </c>
-      <c r="G91" s="4" t="s">
+      <c r="G92" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H91" s="1" t="s">
+      <c r="H92" s="1" t="s">
         <v>344</v>
       </c>
     </row>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tysonbarrett/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6EFEE5-A39E-4D4E-91D3-F96C2B5F88A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D7C2DA-D304-C749-97E8-BF7EFA8BAEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2240" yWindow="740" windowWidth="24540" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Presentations" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$38</definedName>
+    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$39</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="481">
   <si>
     <t>authors</t>
   </si>
@@ -1476,6 +1476,12 @@
   </si>
   <si>
     <t>SPINE</t>
+  </si>
+  <si>
+    <t>Dosing patterns and dose effects of sacubitril/valsartan: a claims-based retrospective cohort study</t>
+  </si>
+  <si>
+    <t>Rung, J. M., Barrett, T. S., LeJeune, K., Richards, S., Raina, A., &amp; Sinoway, L.</t>
   </si>
 </sst>
 </file>
@@ -1938,10 +1944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BAB23D-B27F-A34D-A522-4C115B575C05}">
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2002,122 +2008,111 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="34">
+    <row r="3" spans="1:9" ht="51">
       <c r="A3" s="1" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>465</v>
-      </c>
     </row>
     <row r="4" spans="1:9" ht="34">
       <c r="A4" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="G4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="34">
       <c r="A5" s="1" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>145</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="68">
+    <row r="6" spans="1:9" ht="34">
       <c r="A6" s="1" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>435</v>
+        <v>145</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>475</v>
-      </c>
     </row>
     <row r="7" spans="1:9" ht="68">
       <c r="A7" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2025</v>
+        <v>442</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="E7" s="1">
-        <v>368</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>471</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="68">
       <c r="A8" s="1" t="s">
-        <v>424</v>
+        <v>459</v>
       </c>
       <c r="B8" s="1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="E8" s="1">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>473</v>
+        <v>368</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="51">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="68">
       <c r="A9" s="1" t="s">
         <v>424</v>
       </c>
@@ -2125,7 +2120,7 @@
         <v>2024</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>423</v>
+        <v>457</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>447</v>
@@ -2137,1144 +2132,1141 @@
         <v>1</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="34">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="51">
       <c r="A10" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B10" s="1">
         <v>2024</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="68">
+        <v>447</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="34">
       <c r="A11" s="1" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B11" s="1">
         <v>2024</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="51">
+        <v>427</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="68">
       <c r="A12" s="1" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="B12" s="1">
         <v>2024</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="G12" s="1"/>
+        <v>419</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>210</v>
+      </c>
       <c r="H12" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="68">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="51">
       <c r="A13" s="1" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="B13" s="1">
         <v>2024</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="G13" s="1">
-        <v>220426231226223</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="I13" s="10"/>
+        <v>434</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="68">
-      <c r="A14" s="15" t="s">
-        <v>425</v>
+      <c r="A14" s="1" t="s">
+        <v>387</v>
       </c>
       <c r="B14" s="1">
         <v>2024</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E14" s="1">
-        <v>19</v>
-      </c>
-      <c r="F14" s="1">
-        <v>4</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>454</v>
+        <v>388</v>
+      </c>
+      <c r="G14" s="1">
+        <v>220426231226223</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="51">
-      <c r="A15" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
+      </c>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" ht="68">
+      <c r="A15" s="15" t="s">
+        <v>425</v>
       </c>
       <c r="B15" s="1">
         <v>2024</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>441</v>
+        <v>143</v>
       </c>
       <c r="E15" s="1">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F15" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="51">
       <c r="A16" s="1" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="B16" s="1">
         <v>2024</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>441</v>
       </c>
       <c r="E16" s="1">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="F16" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="51">
       <c r="A17" s="1" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="B17" s="1">
         <v>2024</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>389</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="F17" s="1">
         <v>5</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>406</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="51">
       <c r="A18" s="1" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B18" s="1">
         <v>2024</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="E18" s="1">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>430</v>
+        <v>5</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>449</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="51">
       <c r="A19" s="1" t="s">
-        <v>301</v>
+        <v>382</v>
       </c>
       <c r="B19" s="1">
         <v>2024</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="E19" s="1">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>432</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="51">
       <c r="A20" s="1" t="s">
-        <v>414</v>
+        <v>301</v>
       </c>
       <c r="B20" s="1">
         <v>2024</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="E20" s="1">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F20" s="1">
-        <v>3</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>417</v>
+        <v>1</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>431</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="51">
       <c r="A21" s="1" t="s">
-        <v>268</v>
+        <v>414</v>
       </c>
       <c r="B21" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>269</v>
+        <v>412</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>270</v>
+        <v>413</v>
       </c>
       <c r="E21" s="1">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F21" s="1">
         <v>3</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>402</v>
+      <c r="G21" s="1" t="s">
+        <v>417</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="51">
       <c r="A22" s="1" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="B22" s="1">
         <v>2023</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>410</v>
+        <v>269</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="E22" s="1">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="F22" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="68">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="51">
       <c r="A23" s="1" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="B23" s="1">
         <v>2023</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>298</v>
+        <v>410</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>299</v>
+        <v>11</v>
       </c>
       <c r="E23" s="1">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="F23" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="1:9" ht="51">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="68">
       <c r="A24" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B24" s="1">
         <v>2023</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>411</v>
+        <v>298</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>11</v>
+        <v>299</v>
       </c>
       <c r="E24" s="1">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="F24" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>386</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="51">
       <c r="A25" s="1" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="B25" s="1">
         <v>2023</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
       <c r="E25" s="1">
-        <v>38</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>397</v>
+        <v>66</v>
+      </c>
+      <c r="F25" s="1">
+        <v>10</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="51">
       <c r="A26" s="1" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="B26" s="1">
         <v>2023</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>291</v>
+        <v>396</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>11</v>
+        <v>264</v>
       </c>
       <c r="E26" s="1">
-        <v>66</v>
-      </c>
-      <c r="F26" s="1">
-        <v>5</v>
+        <v>38</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>397</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>314</v>
+        <v>398</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>316</v>
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="51">
       <c r="A27" s="1" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="B27" s="1">
         <v>2023</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>308</v>
+        <v>11</v>
       </c>
       <c r="E27" s="1">
-        <v>32</v>
+        <v>66</v>
+      </c>
+      <c r="F27" s="1">
+        <v>5</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="51">
-      <c r="A28" s="5" t="s">
-        <v>286</v>
+      <c r="A28" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="B28" s="1">
         <v>2023</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>11</v>
+        <v>308</v>
+      </c>
+      <c r="E28" s="1">
+        <v>32</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="51">
-      <c r="A29" s="1" t="s">
-        <v>285</v>
+      <c r="A29" s="5" t="s">
+        <v>286</v>
       </c>
       <c r="B29" s="1">
         <v>2023</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E29" s="1">
-        <v>13</v>
-      </c>
-      <c r="F29" s="1">
-        <v>2</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>310</v>
+        <v>11</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="68">
-      <c r="A30" s="5" t="s">
-        <v>247</v>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="51">
+      <c r="A30" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="B30" s="1">
         <v>2023</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>94</v>
+        <v>284</v>
       </c>
       <c r="E30" s="1">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="F30" s="1">
-        <v>5</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>302</v>
+        <v>2</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>310</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>251</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="68">
-      <c r="A31" s="1" t="s">
-        <v>292</v>
+      <c r="A31" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="B31" s="1">
         <v>2023</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="1">
+        <v>62</v>
+      </c>
+      <c r="F31" s="1">
+        <v>5</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="68">
+      <c r="A32" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E32" s="1">
         <v>38</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F32" s="8">
         <v>44989</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="51">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:9" ht="51">
+      <c r="A33" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="B32" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="1">
-        <v>66</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="68">
-      <c r="A33" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="B33" s="1">
         <v>2022</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
       <c r="E33" s="1">
         <v>66</v>
       </c>
       <c r="F33" s="1">
-        <v>9</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>400</v>
+        <v>1</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>309</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="I33" s="10"/>
-    </row>
-    <row r="34" spans="1:9" ht="51">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="68">
       <c r="A34" s="1" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="B34" s="1">
         <v>2022</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E34" s="1">
-        <v>26</v>
+        <v>66</v>
+      </c>
+      <c r="F34" s="1">
+        <v>9</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>277</v>
+        <v>400</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>280</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:9" ht="51">
       <c r="A35" s="1" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="B35" s="1">
         <v>2022</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="E35" s="1">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>332</v>
+        <v>277</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>334</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="51">
-      <c r="A36" s="5" t="s">
-        <v>249</v>
+      <c r="A36" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="B36" s="1">
         <v>2022</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>11</v>
+        <v>262</v>
       </c>
       <c r="E36" s="1">
-        <v>65</v>
-      </c>
-      <c r="F36" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="68">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="51">
       <c r="A37" s="5" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="B37" s="1">
         <v>2022</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>227</v>
+        <v>11</v>
       </c>
       <c r="E37" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="F37" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="1:9" ht="51">
-      <c r="A38" s="6" t="s">
-        <v>241</v>
+        <v>318</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="68">
+      <c r="A38" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="B38" s="1">
         <v>2022</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="E38" s="1">
-        <v>82</v>
+        <v>31</v>
+      </c>
+      <c r="F38" s="1">
+        <v>4</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>331</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="I38" s="7"/>
     </row>
     <row r="39" spans="1:9" ht="51">
-      <c r="A39" s="1" t="s">
-        <v>265</v>
+      <c r="A39" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="B39" s="1">
         <v>2022</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>145</v>
+        <v>244</v>
       </c>
       <c r="E39" s="1">
-        <v>31</v>
-      </c>
-      <c r="F39" s="1">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>271</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="51">
-      <c r="A40" s="5" t="s">
-        <v>239</v>
+      <c r="A40" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="B40" s="1">
         <v>2022</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="E40" s="1">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F40" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="51">
       <c r="A41" s="5" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B41" s="1">
         <v>2022</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>233</v>
+        <v>34</v>
       </c>
       <c r="E41" s="1">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F41" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="51">
       <c r="A42" s="5" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B42" s="1">
         <v>2022</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E42" s="1">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F42" s="1">
         <v>6</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="51">
-      <c r="A43" s="1" t="s">
-        <v>153</v>
+      <c r="A43" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="B43" s="1">
         <v>2022</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>148</v>
+        <v>231</v>
       </c>
       <c r="E43" s="1">
-        <v>51</v>
+        <v>27</v>
+      </c>
+      <c r="F43" s="1">
+        <v>6</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="68">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="51">
       <c r="A44" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B44" s="1">
         <v>2022</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>146</v>
+        <v>225</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E44" s="1">
-        <v>31</v>
-      </c>
-      <c r="F44" s="1">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="51">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="68">
       <c r="A45" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B45" s="1">
         <v>2022</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="E45" s="1">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="F45" s="1">
         <v>2</v>
       </c>
       <c r="G45" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="51">
+      <c r="A46" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="1">
+        <v>65</v>
+      </c>
+      <c r="F46" s="1">
+        <v>2</v>
+      </c>
+      <c r="G46" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="68">
-      <c r="A46" s="1" t="s">
+    <row r="47" spans="1:9" ht="68">
+      <c r="A47" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="B46" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E46" s="1">
-        <v>131</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="51">
-      <c r="A47" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="B47" s="1">
         <v>2021</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E47" s="1">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>323</v>
+        <v>224</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="68">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="51">
       <c r="A48" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B48" s="1">
         <v>2021</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E48">
-        <v>16</v>
-      </c>
-      <c r="F48" s="1">
-        <v>10</v>
+        <v>139</v>
+      </c>
+      <c r="E48" s="1">
+        <v>21</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>150</v>
+        <v>323</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="51">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="68">
       <c r="A49" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B49" s="1">
         <v>2021</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" s="1">
-        <v>38</v>
+        <v>143</v>
+      </c>
+      <c r="E49">
+        <v>16</v>
+      </c>
+      <c r="F49" s="1">
+        <v>10</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I49" s="10"/>
-    </row>
-    <row r="50" spans="1:9" ht="68">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="51">
       <c r="A50" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B50" s="1">
         <v>2021</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>199</v>
+        <v>5</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="E50" s="1">
-        <v>29</v>
-      </c>
-      <c r="F50" s="1">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>321</v>
+        <v>115</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="51">
+        <v>114</v>
+      </c>
+      <c r="I50" s="10"/>
+    </row>
+    <row r="51" spans="1:9" ht="68">
       <c r="A51" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B51" s="1">
         <v>2021</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>7</v>
+        <v>199</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="E51" s="1">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F51" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>112</v>
+        <v>321</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>95</v>
+        <v>322</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="51">
       <c r="A52" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B52" s="1">
         <v>2021</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E52" s="1">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F52" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="51">
       <c r="A53" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B53" s="1">
         <v>2021</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>200</v>
+        <v>9</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E53" s="1">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F53" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>258</v>
+        <v>140</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="51">
       <c r="A54" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B54" s="1">
         <v>2021</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>11</v>
@@ -3286,931 +3278,934 @@
         <v>5</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="68">
+        <v>259</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="51">
       <c r="A55" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B55" s="1">
         <v>2021</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="E55" s="1">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="F55" s="1">
+        <v>5</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="51">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="68">
       <c r="A56" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B56" s="1">
         <v>2021</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="E56" s="1">
-        <v>64</v>
-      </c>
-      <c r="F56" s="1">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="68">
+        <v>116</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="51">
       <c r="A57" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B57" s="1">
         <v>2021</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="1">
+        <v>64</v>
+      </c>
+      <c r="F57" s="1">
+        <v>2</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="68">
+      <c r="A58" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B58" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E58" s="1">
         <v>23</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F58" s="1">
         <v>5</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="G58" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="H58" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="I58" s="1" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="51">
-      <c r="A58" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B58" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E58" s="1">
-        <v>42</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="51">
       <c r="A59" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B59" s="1">
         <v>2020</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E59" s="1">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="51">
       <c r="A60" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B60" s="1">
         <v>2020</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E60" s="1">
-        <v>63</v>
-      </c>
-      <c r="F60" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="51">
       <c r="A61" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B61" s="1">
         <v>2020</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>204</v>
+        <v>25</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E61" s="1">
-        <v>40</v>
+        <v>63</v>
+      </c>
+      <c r="F61" s="1">
+        <v>6</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="51">
       <c r="A62" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B62" s="1">
         <v>2020</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E62" s="1">
-        <v>51</v>
-      </c>
-      <c r="F62" s="1">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="51">
       <c r="A63" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B63" s="1">
         <v>2020</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E63" s="1">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F63" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="51">
       <c r="A64" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B64" s="1">
         <v>2020</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>206</v>
+        <v>31</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E64" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F64" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="51">
       <c r="A65" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B65" s="1">
         <v>2020</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E65" s="1">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F65" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="68">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="51">
       <c r="A66" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B66" s="1">
         <v>2020</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E66" s="1">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="F66" s="1">
         <v>2</v>
       </c>
       <c r="G66" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="68">
+      <c r="A67" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B67" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E67" s="1">
+        <v>113</v>
+      </c>
+      <c r="F67" s="1">
+        <v>2</v>
+      </c>
+      <c r="G67" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="H67" s="1" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="51">
-      <c r="A67" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B67" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E67" s="1">
-        <v>61</v>
-      </c>
-      <c r="F67" s="1">
-        <v>3</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="51">
       <c r="A68" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B68" s="1">
         <v>2019</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E68" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F68" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="51">
       <c r="A69" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B69" s="1">
         <v>2019</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="E69" s="1">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F69" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="51">
       <c r="A70" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B70" s="1">
         <v>2019</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E70" s="1">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="F70" s="1">
+        <v>10</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="51">
       <c r="A71" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B71" s="1">
         <v>2019</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E71" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="51">
       <c r="A72" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B72" s="1">
         <v>2019</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>209</v>
+        <v>47</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E72" s="1">
-        <v>20</v>
-      </c>
-      <c r="F72" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="51">
       <c r="A73" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B73" s="1">
         <v>2019</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E73" s="1">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F73" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>210</v>
+        <v>51</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="51">
       <c r="A74" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B74" s="1">
         <v>2019</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>53</v>
+        <v>260</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E74" s="1">
-        <v>145</v>
+        <v>33</v>
       </c>
       <c r="F74" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="51">
       <c r="A75" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B75" s="1">
         <v>2019</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E75" s="1">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="F75" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="68">
+        <v>55</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="51">
       <c r="A76" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B76" s="1">
         <v>2019</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="E76" s="1">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F76" s="1">
         <v>2</v>
       </c>
       <c r="G76" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="68">
+      <c r="A77" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B77" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="1">
+        <v>62</v>
+      </c>
+      <c r="F77" s="1">
+        <v>2</v>
+      </c>
+      <c r="G77" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="H77" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="I77" s="1" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="51">
-      <c r="A77" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B77" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E77" s="1">
-        <v>3</v>
-      </c>
-      <c r="F77" s="1">
-        <v>1</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="51">
       <c r="A78" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B78" s="1">
         <v>2018</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>63</v>
+        <v>211</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E78" s="1">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="F78" s="1">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>134</v>
+        <v>339</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="51">
       <c r="A79" s="1" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="B79" s="1">
         <v>2018</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E79" s="1">
         <v>143</v>
       </c>
       <c r="F79" s="1">
+        <v>3</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="51">
+      <c r="A80" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B80" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E80" s="1">
+        <v>143</v>
+      </c>
+      <c r="F80" s="1">
         <v>5</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="H80" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="68">
-      <c r="A80" s="1" t="s">
+    <row r="81" spans="1:9" ht="68">
+      <c r="A81" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B80" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E80" s="1">
-        <v>9</v>
-      </c>
-      <c r="F80" s="1">
-        <v>2</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="51">
-      <c r="A81" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="B81" s="1">
         <v>2017</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="E81" s="1">
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="F81" s="1">
+        <v>2</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>136</v>
+        <v>68</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="51">
       <c r="A82" s="1" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="B82" s="1">
         <v>2017</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="E82" s="1">
-        <v>140</v>
-      </c>
-      <c r="F82" s="1">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="51">
       <c r="A83" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B83" s="1">
         <v>2017</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E83" s="1">
-        <v>10</v>
+        <v>140</v>
+      </c>
+      <c r="F83" s="1">
+        <v>6</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="68">
+        <v>137</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="51">
       <c r="A84" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B84" s="1">
         <v>2017</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E84" s="1">
-        <v>111</v>
-      </c>
-      <c r="F84" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="68">
       <c r="A85" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B85" s="1">
         <v>2017</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="E85" s="1">
-        <v>55</v>
+        <v>111</v>
+      </c>
+      <c r="F85" s="1">
+        <v>5</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="51">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="68">
       <c r="A86" s="1" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B86" s="1">
         <v>2017</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E86" s="1">
-        <v>36</v>
-      </c>
-      <c r="F86" s="1">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="51">
       <c r="A87" s="1" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="B87" s="1">
         <v>2017</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E87" s="1">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F87" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="51">
       <c r="A88" s="1" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="B88" s="1">
         <v>2017</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>217</v>
+        <v>84</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="E88" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F88" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>340</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="51">
       <c r="A89" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B89" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E89" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F89" s="1">
         <v>2</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="51">
       <c r="A90" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B90" s="1">
         <v>2016</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>61</v>
@@ -4222,61 +4217,87 @@
         <v>2</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="68">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="51">
       <c r="A91" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B91" s="1">
         <v>2016</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="E91" s="1">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="F91" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="68">
       <c r="A92" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B92" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E92" s="1">
+        <v>37</v>
+      </c>
+      <c r="F92" s="1">
+        <v>6</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="68">
+      <c r="A93" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B93" s="1">
         <v>2015</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E92" s="1">
+      <c r="E93" s="1">
         <v>115</v>
       </c>
-      <c r="F92" s="1">
+      <c r="F93" s="1">
         <v>5</v>
       </c>
-      <c r="G92" s="4" t="s">
+      <c r="G93" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H92" s="1" t="s">
+      <c r="H93" s="1" t="s">
         <v>344</v>
       </c>
     </row>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tysonbarrett/Dropbox/GitHub/blog_rstats/assets/CV/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tysonbarrett/Library/CloudStorage/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D7C2DA-D304-C749-97E8-BF7EFA8BAEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DDCC2F-84CE-964D-B190-D587D0F78899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="740" windowWidth="24540" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="24360" windowHeight="16520" xr2:uid="{D694CAF4-E52C-7242-8187-CC366AD31369}"/>
   </bookViews>
   <sheets>
     <sheet name="Journals" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Presentations" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$39</definedName>
+    <definedName name="_Hlk70254864" localSheetId="0">Journals!$A$49</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="518">
   <si>
     <t>authors</t>
   </si>
@@ -1469,19 +1469,130 @@
     <t>doi: 10.1037/sah0000543</t>
   </si>
   <si>
-    <t>Risk Factors Associated with Revision Microdiscectomy or Subsequent Spinal Fusion within 2 Years of Index Lumbar Microdiscectomy</t>
-  </si>
-  <si>
     <t>Kramer, D. E., Barrett, T. S., Drury-Gworek, C., LeJeune, K., Cheng, B. C., Vyas, P. Walsh, K., Prostko, E. R., Altman, D. T., &amp; Massie, L.</t>
   </si>
   <si>
     <t>SPINE</t>
   </si>
   <si>
-    <t>Dosing patterns and dose effects of sacubitril/valsartan: a claims-based retrospective cohort study</t>
-  </si>
-  <si>
     <t>Rung, J. M., Barrett, T. S., LeJeune, K., Richards, S., Raina, A., &amp; Sinoway, L.</t>
+  </si>
+  <si>
+    <t>Journal of Palliative Medicine</t>
+  </si>
+  <si>
+    <t>Jaffe, E., Hobart, E., Aiello, A., Shergill, A., Harpster-Hagen, A., &amp; Barrett, T. S.</t>
+  </si>
+  <si>
+    <t>Tetzloff, K. A., Barrett, T. S., Liss, J. M., &amp; Borrie, S. A.</t>
+  </si>
+  <si>
+    <t>The use of conversational repairs in interactions involving people with Parkinson’s Disease: A large corpus comparison study.</t>
+  </si>
+  <si>
+    <t>Care Transformation in Palliative Care: Levaraging a Payor-Provider Partnership to Fast Track Growth of a Palliative Program.</t>
+  </si>
+  <si>
+    <t>Dosing patterns and dose effects of sacubitril/valsartan: a claims-based retrospective cohort study.</t>
+  </si>
+  <si>
+    <t>Risk Factors Associated with Revision Microdiscectomy or Subsequent Spinal Fusion within 2 Years of Index Lumbar Microdiscectomy.</t>
+  </si>
+  <si>
+    <t>doi: 10.1371/journal.pone.0320216</t>
+  </si>
+  <si>
+    <t>Apoyando a la juventud [supporting the youth]: Latinx caregivers’ assessment of youth mental health service need and utilization on the Caregiver Support Services Questionnaire.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vázquez, A. L., Gomez, D., Barrett, T. S., Venta, A. C., Caridad Alvarez, M., &amp; Domenech Rodríguez, M. M., </t>
+  </si>
+  <si>
+    <t>Yoho, S. E., Healy, E., Barrett, T. S., &amp; Borrie, S. A.</t>
+  </si>
+  <si>
+    <t>e0000345</t>
+  </si>
+  <si>
+    <t>doi: 10.1371/journal.pmen.0000345</t>
+  </si>
+  <si>
+    <t>85-96</t>
+  </si>
+  <si>
+    <t>doi: 10.1044/2024_AJSLP-24-00196</t>
+  </si>
+  <si>
+    <t>doi: 10.1044/2024_AJSLP-24-00276</t>
+  </si>
+  <si>
+    <t>Communication in Complex Situations:  The Combined Influence of Dysarthria and Sensorineural Hearing Loss on Speech Perception in Everyday Noisy Environments.</t>
+  </si>
+  <si>
+    <t>Khowaja, A., Adil, L., Dwyer, T., Barrett, T. S., &amp; Alkhaddo, J.</t>
+  </si>
+  <si>
+    <t>Continuous Glucose Monitoring (CGM) Use in Patients with Diabetes Mellitus Type 1: Analysis of adoption pattern, impact on health services utilization and cost of care in a large integrated health system.</t>
+  </si>
+  <si>
+    <t>Diabetes Epidemiology and Management</t>
+  </si>
+  <si>
+    <t>Tetzloff, K. A., Fletcher, A., Lansford, K., Barrett, T. S., &amp; Borrie, S. A.</t>
+  </si>
+  <si>
+    <t>Bilingual perception of dysarthric speech.</t>
+  </si>
+  <si>
+    <t>Barrett, T. S., Hafermann, J. O., Richards, S., Lejeune, K., &amp; Eid, G.</t>
+  </si>
+  <si>
+    <t>JAMA Surgery</t>
+  </si>
+  <si>
+    <t>Sharma, T. S. K., Barrett, T. S., Dwyer, T., Campbell, N., Heintzinger, J., Kraemer, E., Dore, A., &amp; Manzi, S.</t>
+  </si>
+  <si>
+    <t>Clinical Outcomes Of Patients Within The Rheumatoid Arthritis Care Pathway Cohort At a Tertiary Care Integrated Delivery Network: A Comparison To Usual Care.</t>
+  </si>
+  <si>
+    <t>Arthritis Care \&amp; Research</t>
+  </si>
+  <si>
+    <t>Enhancing Depression Identification and Stratification with a Claims-Based Analytical Framework</t>
+  </si>
+  <si>
+    <t>Popkov, A. A., Barrett, T. S., Hohl, J., Shergill, A., Deakin, S. L., &amp; Perry, M.</t>
+  </si>
+  <si>
+    <t>Journal of Behavioral Health Services \&amp; Research</t>
+  </si>
+  <si>
+    <t>doi: 10.1002/acr.25649</t>
+  </si>
+  <si>
+    <t>532–541</t>
+  </si>
+  <si>
+    <t>4S</t>
+  </si>
+  <si>
+    <t>2397-2408</t>
+  </si>
+  <si>
+    <t>doi: 10.1097/BRS.0000000000005302</t>
+  </si>
+  <si>
+    <t>Behavior Research Methods</t>
+  </si>
+  <si>
+    <t>Autoscribe: An automated tool for creating transcribed TextGrids from audio-recorded conversations</t>
+  </si>
+  <si>
+    <t>Obesity Treatment With Bariatric Surgery vs GLP-1 Receptor Agonists</t>
+  </si>
+  <si>
+    <t>Barrett, T. S.,* Wynn, C. J.,* Eijk, L., Tetzloff, K. A., &amp; Borrie, S. A.</t>
   </si>
 </sst>
 </file>
@@ -1589,7 +1700,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1628,6 +1739,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1944,10 +2058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BAB23D-B27F-A34D-A522-4C115B575C05}">
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1993,728 +2107,676 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="51">
+    <row r="2" spans="1:9" ht="68">
       <c r="A2" s="1" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>476</v>
+        <v>495</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>478</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="51">
-      <c r="A3" s="1" t="s">
-        <v>480</v>
+      <c r="A3" s="19" t="s">
+        <v>517</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>479</v>
+        <v>515</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>143</v>
+        <v>514</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="34">
+    <row r="4" spans="1:9" ht="51">
       <c r="A4" s="1" t="s">
-        <v>463</v>
+        <v>507</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>464</v>
+        <v>506</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>508</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>465</v>
-      </c>
     </row>
     <row r="5" spans="1:9" ht="34">
       <c r="A5" s="1" t="s">
-        <v>461</v>
+        <v>499</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>462</v>
+        <v>500</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="34">
+    <row r="6" spans="1:9" ht="85">
       <c r="A6" s="1" t="s">
-        <v>455</v>
+        <v>496</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>456</v>
+        <v>497</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>145</v>
+        <v>498</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="68">
       <c r="A7" s="1" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>440</v>
+        <v>485</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>435</v>
+        <v>477</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="51">
+      <c r="A8" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="51">
+      <c r="A9" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="34">
+      <c r="A10" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="51">
+      <c r="A11" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="51">
+      <c r="A12" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="1">
+        <v>34</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="68">
+      <c r="A13" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E13" s="1">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>475</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="68">
-      <c r="A8" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2025</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="E8" s="1">
-        <v>368</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="68">
-      <c r="A9" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="E9" s="1">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>473</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="51">
-      <c r="A10" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="E10" s="1">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>467</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="34">
-      <c r="A11" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="68">
-      <c r="A12" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="51">
-      <c r="A13" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="68">
       <c r="A14" s="1" t="s">
-        <v>387</v>
+        <v>503</v>
       </c>
       <c r="B14" s="1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>407</v>
+        <v>504</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="G14" s="1">
-        <v>220426231226223</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:9" ht="68">
-      <c r="A15" s="15" t="s">
-        <v>425</v>
+        <v>509</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="51">
+      <c r="A15" s="1" t="s">
+        <v>455</v>
       </c>
       <c r="B15" s="1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="1">
+        <v>34</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="68">
+      <c r="A16" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="1">
-        <v>19</v>
-      </c>
-      <c r="F15" s="1">
-        <v>4</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="51">
-      <c r="A16" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>441</v>
-      </c>
       <c r="E16" s="1">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F16" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>452</v>
+        <v>491</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="51">
       <c r="A17" s="1" t="s">
-        <v>415</v>
+        <v>478</v>
       </c>
       <c r="B17" s="1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>420</v>
+        <v>484</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="1">
-        <v>67</v>
-      </c>
-      <c r="F17" s="1">
-        <v>5</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>450</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="51">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="68">
       <c r="A18" s="1" t="s">
-        <v>390</v>
+        <v>459</v>
       </c>
       <c r="B18" s="1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>409</v>
+        <v>460</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>389</v>
+        <v>458</v>
       </c>
       <c r="E18" s="1">
-        <v>131</v>
-      </c>
-      <c r="F18" s="1">
-        <v>5</v>
+        <v>368</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>449</v>
+        <v>471</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="51">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="68">
       <c r="A19" s="1" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="B19" s="1">
         <v>2024</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>383</v>
+        <v>457</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>384</v>
+        <v>447</v>
       </c>
       <c r="E19" s="1">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>430</v>
+      <c r="G19" s="17" t="s">
+        <v>473</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>385</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="51">
       <c r="A20" s="1" t="s">
-        <v>301</v>
+        <v>424</v>
       </c>
       <c r="B20" s="1">
         <v>2024</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="E20" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>431</v>
+      <c r="G20" s="17" t="s">
+        <v>467</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="51">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="34">
       <c r="A21" s="1" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="B21" s="1">
         <v>2024</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="E21" s="1">
-        <v>48</v>
-      </c>
-      <c r="F21" s="1">
-        <v>3</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="51">
+        <v>427</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="68">
       <c r="A22" s="1" t="s">
-        <v>268</v>
+        <v>418</v>
       </c>
       <c r="B22" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>269</v>
+        <v>421</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E22" s="1">
-        <v>12</v>
-      </c>
-      <c r="F22" s="1">
-        <v>3</v>
+        <v>419</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>402</v>
+        <v>210</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>401</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="51">
       <c r="A23" s="1" t="s">
-        <v>304</v>
+        <v>403</v>
       </c>
       <c r="B23" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="1">
-        <v>66</v>
-      </c>
-      <c r="F23" s="1">
-        <v>10</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>393</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>394</v>
+        <v>434</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="68">
       <c r="A24" s="1" t="s">
-        <v>297</v>
+        <v>387</v>
       </c>
       <c r="B24" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>298</v>
+        <v>407</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E24" s="1">
-        <v>17</v>
-      </c>
-      <c r="F24" s="1">
+        <v>388</v>
+      </c>
+      <c r="G24" s="1">
+        <v>220426231226223</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="1:9" ht="68">
+      <c r="A25" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="1">
+        <v>19</v>
+      </c>
+      <c r="F25" s="1">
         <v>4</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="1:9" ht="51">
-      <c r="A25" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B25" s="1">
-        <v>2023</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="1">
-        <v>66</v>
-      </c>
-      <c r="F25" s="1">
-        <v>10</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>395</v>
+      <c r="G25" s="1" t="s">
+        <v>454</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>386</v>
+        <v>453</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="51">
       <c r="A26" s="1" t="s">
-        <v>272</v>
+        <v>438</v>
       </c>
       <c r="B26" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>264</v>
+        <v>441</v>
       </c>
       <c r="E26" s="1">
-        <v>38</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>398</v>
+        <v>31</v>
+      </c>
+      <c r="F26" s="1">
+        <v>8</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>451</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>399</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="51">
       <c r="A27" s="1" t="s">
-        <v>290</v>
+        <v>415</v>
       </c>
       <c r="B27" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>291</v>
+        <v>420</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F27" s="1">
         <v>5</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>314</v>
+      <c r="G27" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>316</v>
+        <v>437</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="51">
       <c r="A28" s="1" t="s">
-        <v>305</v>
+        <v>390</v>
       </c>
       <c r="B28" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>306</v>
+        <v>409</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>308</v>
+        <v>389</v>
       </c>
       <c r="E28" s="1">
-        <v>32</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>307</v>
+        <v>131</v>
+      </c>
+      <c r="F28" s="1">
+        <v>5</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>449</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>313</v>
+        <v>406</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="51">
-      <c r="A29" s="5" t="s">
-        <v>286</v>
+      <c r="A29" s="1" t="s">
+        <v>382</v>
       </c>
       <c r="B29" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>287</v>
+        <v>383</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>11</v>
+        <v>384</v>
+      </c>
+      <c r="E29" s="1">
+        <v>21</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>430</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>312</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="51">
       <c r="A30" s="1" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="B30" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>288</v>
+        <v>422</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>284</v>
+        <v>392</v>
       </c>
       <c r="E30" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F30" s="1">
-        <v>2</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>310</v>
+        <v>1</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>431</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="68">
-      <c r="A31" s="5" t="s">
-        <v>247</v>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="51">
+      <c r="A31" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="B31" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>248</v>
+        <v>412</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>94</v>
+        <v>413</v>
       </c>
       <c r="E31" s="1">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F31" s="1">
-        <v>5</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>302</v>
+        <v>3</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>417</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="68">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="51">
       <c r="A32" s="1" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="B32" s="1">
         <v>2023</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E32" s="1">
-        <v>38</v>
-      </c>
-      <c r="F32" s="8">
-        <v>44989</v>
+        <v>12</v>
+      </c>
+      <c r="F32" s="1">
+        <v>3</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>294</v>
+        <v>402</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>295</v>
+        <v>401</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="51">
       <c r="A33" s="1" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="B33" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>289</v>
+        <v>410</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>11</v>
@@ -2723,1581 +2785,1836 @@
         <v>66</v>
       </c>
       <c r="F33" s="1">
-        <v>1</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>309</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>393</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>335</v>
+        <v>394</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="68">
       <c r="A34" s="1" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="B34" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="E34" s="1">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="F34" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="I34" s="10"/>
+        <v>300</v>
+      </c>
+      <c r="I34" s="9"/>
     </row>
     <row r="35" spans="1:9" ht="51">
       <c r="A35" s="1" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="B35" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>275</v>
+        <v>411</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="E35" s="1">
-        <v>26</v>
+        <v>66</v>
+      </c>
+      <c r="F35" s="1">
+        <v>10</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>277</v>
+        <v>395</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>280</v>
+        <v>386</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="51">
       <c r="A36" s="1" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="B36" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>279</v>
+        <v>396</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E36" s="1">
-        <v>12</v>
+        <v>38</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>397</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>334</v>
+        <v>399</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="51">
-      <c r="A37" s="5" t="s">
-        <v>249</v>
+      <c r="A37" s="1" t="s">
+        <v>290</v>
       </c>
       <c r="B37" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F37" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="68">
-      <c r="A38" s="5" t="s">
-        <v>228</v>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="51">
+      <c r="A38" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="B38" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>226</v>
+        <v>306</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>227</v>
+        <v>308</v>
       </c>
       <c r="E38" s="1">
-        <v>31</v>
-      </c>
-      <c r="F38" s="1">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="I38" s="7"/>
+        <v>313</v>
+      </c>
     </row>
     <row r="39" spans="1:9" ht="51">
-      <c r="A39" s="6" t="s">
-        <v>241</v>
+      <c r="A39" s="5" t="s">
+        <v>286</v>
       </c>
       <c r="B39" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>243</v>
+        <v>287</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E39" s="1">
-        <v>82</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>330</v>
+        <v>11</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="51">
       <c r="A40" s="1" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="B40" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>145</v>
+        <v>284</v>
       </c>
       <c r="E40" s="1">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F40" s="1">
+        <v>2</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="68">
+      <c r="A41" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" s="1">
+        <v>62</v>
+      </c>
+      <c r="F41" s="1">
         <v>5</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="51">
-      <c r="A41" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B41" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="1">
-        <v>23</v>
-      </c>
-      <c r="F41" s="1">
-        <v>7</v>
-      </c>
       <c r="G41" s="4" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="51">
-      <c r="A42" s="5" t="s">
-        <v>234</v>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="68">
+      <c r="A42" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="B42" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>232</v>
+        <v>293</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="E42" s="1">
-        <v>37</v>
-      </c>
-      <c r="F42" s="1">
-        <v>6</v>
+        <v>38</v>
+      </c>
+      <c r="F42" s="8">
+        <v>44989</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>237</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="51">
-      <c r="A43" s="5" t="s">
-        <v>229</v>
+      <c r="A43" s="1" t="s">
+        <v>273</v>
       </c>
       <c r="B43" s="1">
         <v>2022</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>231</v>
+        <v>11</v>
       </c>
       <c r="E43" s="1">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="F43" s="1">
-        <v>6</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>326</v>
+        <v>1</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>309</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="51">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="68">
       <c r="A44" s="1" t="s">
-        <v>153</v>
+        <v>281</v>
       </c>
       <c r="B44" s="1">
         <v>2022</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>225</v>
+        <v>282</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>148</v>
+        <v>283</v>
       </c>
       <c r="E44" s="1">
-        <v>51</v>
+        <v>66</v>
+      </c>
+      <c r="F44" s="1">
+        <v>9</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>325</v>
+        <v>400</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="68">
+        <v>336</v>
+      </c>
+      <c r="I44" s="10"/>
+    </row>
+    <row r="45" spans="1:9" ht="51">
       <c r="A45" s="1" t="s">
-        <v>155</v>
+        <v>274</v>
       </c>
       <c r="B45" s="1">
         <v>2022</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>146</v>
+        <v>275</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>145</v>
+        <v>276</v>
       </c>
       <c r="E45" s="1">
-        <v>31</v>
-      </c>
-      <c r="F45" s="1">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>238</v>
+        <v>278</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="51">
       <c r="A46" s="1" t="s">
-        <v>154</v>
+        <v>263</v>
       </c>
       <c r="B46" s="1">
         <v>2022</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>147</v>
+        <v>279</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E46" s="1">
+        <v>12</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="51">
+      <c r="A47" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E47" s="1">
         <v>65</v>
       </c>
-      <c r="F46" s="1">
-        <v>2</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="I46" s="1" t="s">
+      <c r="F47" s="1">
+        <v>6</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="68">
-      <c r="A47" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B47" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E47" s="1">
-        <v>131</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="51">
-      <c r="A48" s="1" t="s">
-        <v>157</v>
+    <row r="48" spans="1:9" ht="68">
+      <c r="A48" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="B48" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>139</v>
+        <v>227</v>
       </c>
       <c r="E48" s="1">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="F48" s="1">
+        <v>4</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="68">
-      <c r="A49" s="1" t="s">
-        <v>158</v>
+        <v>319</v>
+      </c>
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="1:9" ht="51">
+      <c r="A49" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="B49" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>144</v>
+        <v>243</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E49">
-        <v>16</v>
-      </c>
-      <c r="F49" s="1">
-        <v>10</v>
+        <v>244</v>
+      </c>
+      <c r="E49" s="1">
+        <v>82</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>149</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="51">
       <c r="A50" s="1" t="s">
-        <v>159</v>
+        <v>265</v>
       </c>
       <c r="B50" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E50" s="1">
+        <v>31</v>
+      </c>
+      <c r="F50" s="1">
         <v>5</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="G50" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="51">
+      <c r="A51" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="1">
+        <v>23</v>
+      </c>
+      <c r="F51" s="1">
+        <v>7</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="51">
+      <c r="A52" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E52" s="1">
+        <v>37</v>
+      </c>
+      <c r="F52" s="1">
         <v>6</v>
       </c>
-      <c r="E50" s="1">
-        <v>38</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I50" s="10"/>
-    </row>
-    <row r="51" spans="1:9" ht="68">
-      <c r="A51" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B51" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E51" s="1">
-        <v>29</v>
-      </c>
-      <c r="F51" s="1">
-        <v>5</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="51">
-      <c r="A52" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B52" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="1">
-        <v>68</v>
-      </c>
-      <c r="F52" s="1">
-        <v>1</v>
-      </c>
       <c r="G52" s="4" t="s">
-        <v>112</v>
+        <v>327</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>113</v>
+        <v>246</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>95</v>
+        <v>237</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="51">
-      <c r="A53" s="1" t="s">
-        <v>162</v>
+      <c r="A53" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="B53" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>9</v>
+        <v>230</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>10</v>
+        <v>231</v>
       </c>
       <c r="E53" s="1">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="F53" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>140</v>
+        <v>326</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>109</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="51">
       <c r="A54" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B54" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E54" s="1">
+        <v>51</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="68">
+      <c r="A55" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E55" s="1">
+        <v>31</v>
+      </c>
+      <c r="F55" s="1">
+        <v>2</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="51">
+      <c r="A56" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="1">
-        <v>64</v>
-      </c>
-      <c r="F54" s="1">
-        <v>5</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="51">
-      <c r="A55" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B55" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="1">
-        <v>64</v>
-      </c>
-      <c r="F55" s="1">
-        <v>5</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="68">
-      <c r="A56" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B56" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="E56" s="1">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="F56" s="1">
+        <v>2</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="51">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="68">
       <c r="A57" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B57" s="1">
         <v>2021</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>202</v>
+        <v>141</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="E57" s="1">
-        <v>64</v>
-      </c>
-      <c r="F57" s="1">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="68">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="51">
       <c r="A58" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B58" s="1">
         <v>2021</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="E58" s="1">
-        <v>23</v>
-      </c>
-      <c r="F58" s="1">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="H58" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="68">
+      <c r="A59" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B59" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E59">
         <v>16</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="51">
-      <c r="A59" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B59" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59" s="1">
-        <v>42</v>
+      <c r="F59" s="1">
+        <v>10</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="51">
       <c r="A60" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B60" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E60" s="1">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="51">
+        <v>114</v>
+      </c>
+      <c r="I60" s="10"/>
+    </row>
+    <row r="61" spans="1:9" ht="68">
       <c r="A61" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B61" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="E61" s="1">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="F61" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>26</v>
+        <v>321</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="51">
       <c r="A62" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B62" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>204</v>
+        <v>7</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E62" s="1">
-        <v>40</v>
+        <v>68</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="51">
       <c r="A63" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B63" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>205</v>
+        <v>9</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E63" s="1">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="F63" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="51">
       <c r="A64" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B64" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>31</v>
+        <v>200</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E64" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F64" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>32</v>
+        <v>258</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>123</v>
+        <v>259</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="51">
       <c r="A65" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B65" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E65" s="1">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F65" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>33</v>
+        <v>256</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="51">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="68">
       <c r="A66" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B66" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="E66" s="1">
-        <v>21</v>
-      </c>
-      <c r="F66" s="1">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>35</v>
+        <v>255</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="68">
+        <v>116</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="51">
       <c r="A67" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B67" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E67" s="1">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="F67" s="1">
         <v>2</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>37</v>
+        <v>253</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="51">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="68">
       <c r="A68" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B68" s="1">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>38</v>
+        <v>203</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E68" s="1">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="F68" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>40</v>
+        <v>254</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="51">
       <c r="A69" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B69" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E69" s="1">
-        <v>62</v>
-      </c>
-      <c r="F69" s="1">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="51">
       <c r="A70" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B70" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="E70" s="1">
-        <v>10</v>
-      </c>
-      <c r="F70" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="51">
       <c r="A71" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B71" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E71" s="1">
-        <v>13</v>
+        <v>63</v>
+      </c>
+      <c r="F71" s="1">
+        <v>6</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="51">
       <c r="A72" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B72" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>47</v>
+        <v>204</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E72" s="1">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="51">
       <c r="A73" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B73" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E73" s="1">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="F73" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="51">
       <c r="A74" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B74" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>260</v>
+        <v>31</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="E74" s="1">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="F74" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>210</v>
+        <v>32</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="51">
       <c r="A75" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B75" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>53</v>
+        <v>206</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E75" s="1">
-        <v>145</v>
+        <v>51</v>
       </c>
       <c r="F75" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="51">
       <c r="A76" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B76" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>58</v>
+        <v>207</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E76" s="1">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="F76" s="1">
         <v>2</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>337</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="68">
       <c r="A77" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B77" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E77" s="1">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="F77" s="1">
         <v>2</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="51">
       <c r="A78" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B78" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>211</v>
+        <v>38</v>
       </c>
       <c r="D78" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E78" s="1">
         <v>61</v>
       </c>
-      <c r="E78" s="1">
+      <c r="F78" s="1">
         <v>3</v>
       </c>
-      <c r="F78" s="1">
-        <v>1</v>
-      </c>
       <c r="G78" s="4" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>339</v>
+        <v>127</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="51">
       <c r="A79" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B79" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="E79" s="1">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="F79" s="1">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="51">
       <c r="A80" s="1" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="B80" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E80" s="1">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="F80" s="1">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="68">
+        <v>129</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="51">
       <c r="A81" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B81" s="1">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>212</v>
+        <v>46</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="E81" s="1">
-        <v>9</v>
-      </c>
-      <c r="F81" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>106</v>
+        <v>49</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="51">
       <c r="A82" s="1" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="B82" s="1">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>213</v>
+        <v>47</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="E82" s="1">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="51">
       <c r="A83" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B83" s="1">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="E83" s="1">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="F83" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="51">
       <c r="A84" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B84" s="1">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="E84" s="1">
-        <v>10</v>
+        <v>33</v>
+      </c>
+      <c r="F84" s="1">
+        <v>5</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>73</v>
+        <v>210</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="68">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="51">
       <c r="A85" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B85" s="1">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E85" s="1">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="F85" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="68">
+        <v>55</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="51">
       <c r="A86" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B86" s="1">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>216</v>
+        <v>58</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="E86" s="1">
-        <v>55</v>
+        <v>81</v>
+      </c>
+      <c r="F86" s="1">
+        <v>2</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="51">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="68">
       <c r="A87" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B87" s="1">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E87" s="1">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="F87" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>83</v>
+        <v>338</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="51">
       <c r="A88" s="1" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="B88" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>84</v>
+        <v>211</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="E88" s="1">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="F88" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>86</v>
+        <v>339</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="51">
       <c r="A89" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B89" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>217</v>
+        <v>63</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="E89" s="1">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="F89" s="1">
-        <v>2</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>340</v>
+        <v>134</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="51">
       <c r="A90" s="1" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="B90" s="1">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>218</v>
+        <v>65</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E90" s="1">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="F90" s="1">
-        <v>2</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="51">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="68">
       <c r="A91" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B91" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E91" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F91" s="1">
         <v>2</v>
       </c>
       <c r="G91" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="51">
+      <c r="A92" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B92" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="1">
+        <v>60</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="51">
+      <c r="A93" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B93" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E93" s="1">
+        <v>140</v>
+      </c>
+      <c r="F93" s="1">
+        <v>6</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="51">
+      <c r="A94" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B94" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E94" s="1">
+        <v>10</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="68">
+      <c r="A95" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B95" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E95" s="1">
+        <v>111</v>
+      </c>
+      <c r="F95" s="1">
+        <v>5</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="68">
+      <c r="A96" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E96" s="1">
+        <v>55</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="51">
+      <c r="A97" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B97" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E97" s="1">
+        <v>36</v>
+      </c>
+      <c r="F97" s="1">
+        <v>6</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="51">
+      <c r="A98" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B98" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="1">
+        <v>60</v>
+      </c>
+      <c r="F98" s="1">
+        <v>3</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="51">
+      <c r="A99" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B99" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E99" s="1">
+        <v>30</v>
+      </c>
+      <c r="F99" s="1">
+        <v>2</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="51">
+      <c r="A100" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B100" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E100" s="1">
+        <v>1</v>
+      </c>
+      <c r="F100" s="1">
+        <v>2</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="51">
+      <c r="A101" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B101" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E101" s="1">
+        <v>1</v>
+      </c>
+      <c r="F101" s="1">
+        <v>2</v>
+      </c>
+      <c r="G101" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H91" s="1" t="s">
+      <c r="H101" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="68">
-      <c r="A92" s="1" t="s">
+    <row r="102" spans="1:8" ht="68">
+      <c r="A102" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B102" s="1">
         <v>2016</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E92" s="1">
+      <c r="E102" s="1">
         <v>37</v>
       </c>
-      <c r="F92" s="1">
+      <c r="F102" s="1">
         <v>6</v>
       </c>
-      <c r="G92" s="4" t="s">
+      <c r="G102" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H92" s="1" t="s">
+      <c r="H102" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="68">
-      <c r="A93" s="1" t="s">
+    <row r="103" spans="1:8" ht="68">
+      <c r="A103" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B103" s="1">
         <v>2015</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E93" s="1">
+      <c r="E103" s="1">
         <v>115</v>
       </c>
-      <c r="F93" s="1">
+      <c r="F103" s="1">
         <v>5</v>
       </c>
-      <c r="G93" s="4" t="s">
+      <c r="G103" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H93" s="1" t="s">
+      <c r="H103" s="1" t="s">
         <v>344</v>
       </c>
     </row>

--- a/assets/CV/pubs.xlsx
+++ b/assets/CV/pubs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tysonbarrett/Library/CloudStorage/Dropbox/GitHub/blog_rstats/assets/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DDCC2F-84CE-964D-B190-D587D0F78899}" xr6:coa